--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5032200</v>
+        <v>5240600</v>
       </c>
       <c r="E8" s="3">
-        <v>4182600</v>
+        <v>5040000</v>
       </c>
       <c r="F8" s="3">
-        <v>3677900</v>
+        <v>4189100</v>
       </c>
       <c r="G8" s="3">
-        <v>3811100</v>
+        <v>3683600</v>
       </c>
       <c r="H8" s="3">
-        <v>4071700</v>
+        <v>3817000</v>
       </c>
       <c r="I8" s="3">
-        <v>3637800</v>
+        <v>4078000</v>
       </c>
       <c r="J8" s="3">
+        <v>3643400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3209800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2857000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2652800</v>
+        <v>2812500</v>
       </c>
       <c r="E9" s="3">
-        <v>2021000</v>
+        <v>2656900</v>
       </c>
       <c r="F9" s="3">
-        <v>1636900</v>
+        <v>2024100</v>
       </c>
       <c r="G9" s="3">
-        <v>1815700</v>
+        <v>1639400</v>
       </c>
       <c r="H9" s="3">
-        <v>2099100</v>
+        <v>1818500</v>
       </c>
       <c r="I9" s="3">
-        <v>1896000</v>
+        <v>2102300</v>
       </c>
       <c r="J9" s="3">
+        <v>1899000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1717100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1420700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2379400</v>
+        <v>2428100</v>
       </c>
       <c r="E10" s="3">
-        <v>2161700</v>
+        <v>2383100</v>
       </c>
       <c r="F10" s="3">
-        <v>2041000</v>
+        <v>2165000</v>
       </c>
       <c r="G10" s="3">
-        <v>1995400</v>
+        <v>2044200</v>
       </c>
       <c r="H10" s="3">
-        <v>1972600</v>
+        <v>1998500</v>
       </c>
       <c r="I10" s="3">
-        <v>1741800</v>
+        <v>1975600</v>
       </c>
       <c r="J10" s="3">
+        <v>1744500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1492700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1436300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
         <v>6000</v>
       </c>
-      <c r="F12" s="3">
-        <v>6300</v>
-      </c>
       <c r="G12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H12" s="3">
         <v>6700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15500</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>4500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-85600</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>326800</v>
+        <v>355200</v>
       </c>
       <c r="E15" s="3">
-        <v>305900</v>
+        <v>327300</v>
       </c>
       <c r="F15" s="3">
-        <v>286300</v>
+        <v>306300</v>
       </c>
       <c r="G15" s="3">
-        <v>267300</v>
+        <v>286800</v>
       </c>
       <c r="H15" s="3">
-        <v>251300</v>
+        <v>267700</v>
       </c>
       <c r="I15" s="3">
-        <v>212400</v>
+        <v>251700</v>
       </c>
       <c r="J15" s="3">
+        <v>212700</v>
+      </c>
+      <c r="K15" s="3">
         <v>188700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>167000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3950000</v>
+        <v>4070400</v>
       </c>
       <c r="E17" s="3">
-        <v>3118700</v>
+        <v>3956100</v>
       </c>
       <c r="F17" s="3">
-        <v>2758300</v>
+        <v>3123500</v>
       </c>
       <c r="G17" s="3">
-        <v>2897800</v>
+        <v>2762500</v>
       </c>
       <c r="H17" s="3">
-        <v>3083500</v>
+        <v>2902300</v>
       </c>
       <c r="I17" s="3">
-        <v>2650700</v>
+        <v>3088300</v>
       </c>
       <c r="J17" s="3">
+        <v>2654800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2296100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2134100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1082200</v>
+        <v>1170200</v>
       </c>
       <c r="E18" s="3">
-        <v>1064000</v>
+        <v>1083900</v>
       </c>
       <c r="F18" s="3">
-        <v>919600</v>
+        <v>1065600</v>
       </c>
       <c r="G18" s="3">
-        <v>913200</v>
+        <v>921000</v>
       </c>
       <c r="H18" s="3">
-        <v>988200</v>
+        <v>914600</v>
       </c>
       <c r="I18" s="3">
-        <v>987100</v>
+        <v>989700</v>
       </c>
       <c r="J18" s="3">
+        <v>988700</v>
+      </c>
+      <c r="K18" s="3">
         <v>913700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>722900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>658500</v>
+        <v>330500</v>
       </c>
       <c r="E20" s="3">
-        <v>527000</v>
+        <v>659500</v>
       </c>
       <c r="F20" s="3">
-        <v>503900</v>
+        <v>527900</v>
       </c>
       <c r="G20" s="3">
-        <v>507900</v>
+        <v>504700</v>
       </c>
       <c r="H20" s="3">
-        <v>414000</v>
+        <v>508700</v>
       </c>
       <c r="I20" s="3">
-        <v>344100</v>
+        <v>414700</v>
       </c>
       <c r="J20" s="3">
+        <v>344600</v>
+      </c>
+      <c r="K20" s="3">
         <v>470700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400800</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2067600</v>
+        <v>1855800</v>
       </c>
       <c r="E21" s="3">
-        <v>1897000</v>
+        <v>2070600</v>
       </c>
       <c r="F21" s="3">
-        <v>1709900</v>
+        <v>1899700</v>
       </c>
       <c r="G21" s="3">
-        <v>1688500</v>
+        <v>1712400</v>
       </c>
       <c r="H21" s="3">
-        <v>1653600</v>
+        <v>1691000</v>
       </c>
       <c r="I21" s="3">
-        <v>1543700</v>
+        <v>1656000</v>
       </c>
       <c r="J21" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1573200</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>151500</v>
+        <v>158700</v>
       </c>
       <c r="E22" s="3">
-        <v>161900</v>
+        <v>151800</v>
       </c>
       <c r="F22" s="3">
-        <v>155500</v>
+        <v>162100</v>
       </c>
       <c r="G22" s="3">
-        <v>145400</v>
+        <v>155700</v>
       </c>
       <c r="H22" s="3">
-        <v>130500</v>
+        <v>145600</v>
       </c>
       <c r="I22" s="3">
-        <v>119200</v>
+        <v>130700</v>
       </c>
       <c r="J22" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K22" s="3">
         <v>111200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>95800</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1589200</v>
+        <v>1342000</v>
       </c>
       <c r="E23" s="3">
-        <v>1429100</v>
+        <v>1591700</v>
       </c>
       <c r="F23" s="3">
-        <v>1268000</v>
+        <v>1431400</v>
       </c>
       <c r="G23" s="3">
-        <v>1275800</v>
+        <v>1270000</v>
       </c>
       <c r="H23" s="3">
-        <v>1271700</v>
+        <v>1277800</v>
       </c>
       <c r="I23" s="3">
-        <v>1212000</v>
+        <v>1273700</v>
       </c>
       <c r="J23" s="3">
+        <v>1213900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1273200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1027900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>245700</v>
+        <v>295300</v>
       </c>
       <c r="E24" s="3">
-        <v>225400</v>
+        <v>246100</v>
       </c>
       <c r="F24" s="3">
-        <v>203000</v>
+        <v>225700</v>
       </c>
       <c r="G24" s="3">
-        <v>222400</v>
+        <v>203300</v>
       </c>
       <c r="H24" s="3">
-        <v>228100</v>
+        <v>222700</v>
       </c>
       <c r="I24" s="3">
-        <v>213200</v>
+        <v>228500</v>
       </c>
       <c r="J24" s="3">
+        <v>213500</v>
+      </c>
+      <c r="K24" s="3">
         <v>191200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>171200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1343500</v>
+        <v>1046700</v>
       </c>
       <c r="E26" s="3">
-        <v>1203800</v>
+        <v>1345600</v>
       </c>
       <c r="F26" s="3">
-        <v>1065100</v>
+        <v>1205700</v>
       </c>
       <c r="G26" s="3">
-        <v>1053400</v>
+        <v>1066700</v>
       </c>
       <c r="H26" s="3">
-        <v>1043600</v>
+        <v>1055000</v>
       </c>
       <c r="I26" s="3">
-        <v>998800</v>
+        <v>1045200</v>
       </c>
       <c r="J26" s="3">
+        <v>1000400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1082000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>856700</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1199400</v>
+        <v>898500</v>
       </c>
       <c r="E27" s="3">
-        <v>1059300</v>
+        <v>1201300</v>
       </c>
       <c r="F27" s="3">
-        <v>945400</v>
+        <v>1061000</v>
       </c>
       <c r="G27" s="3">
-        <v>940400</v>
+        <v>946900</v>
       </c>
       <c r="H27" s="3">
-        <v>915600</v>
+        <v>941900</v>
       </c>
       <c r="I27" s="3">
-        <v>882700</v>
+        <v>917000</v>
       </c>
       <c r="J27" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K27" s="3">
         <v>993200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>783400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-658500</v>
+        <v>-330500</v>
       </c>
       <c r="E32" s="3">
-        <v>-527000</v>
+        <v>-659500</v>
       </c>
       <c r="F32" s="3">
-        <v>-503900</v>
+        <v>-527900</v>
       </c>
       <c r="G32" s="3">
-        <v>-507900</v>
+        <v>-504700</v>
       </c>
       <c r="H32" s="3">
-        <v>-414000</v>
+        <v>-508700</v>
       </c>
       <c r="I32" s="3">
-        <v>-344100</v>
+        <v>-414700</v>
       </c>
       <c r="J32" s="3">
+        <v>-344600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-470700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400800</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1199400</v>
+        <v>898500</v>
       </c>
       <c r="E33" s="3">
-        <v>1059300</v>
+        <v>1201300</v>
       </c>
       <c r="F33" s="3">
-        <v>945400</v>
+        <v>1061000</v>
       </c>
       <c r="G33" s="3">
-        <v>940400</v>
+        <v>946900</v>
       </c>
       <c r="H33" s="3">
-        <v>915600</v>
+        <v>941900</v>
       </c>
       <c r="I33" s="3">
-        <v>882700</v>
+        <v>917000</v>
       </c>
       <c r="J33" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K33" s="3">
         <v>993200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>783400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1199400</v>
+        <v>898500</v>
       </c>
       <c r="E35" s="3">
-        <v>1059300</v>
+        <v>1201300</v>
       </c>
       <c r="F35" s="3">
-        <v>945400</v>
+        <v>1061000</v>
       </c>
       <c r="G35" s="3">
-        <v>940400</v>
+        <v>946900</v>
       </c>
       <c r="H35" s="3">
-        <v>915600</v>
+        <v>941900</v>
       </c>
       <c r="I35" s="3">
-        <v>882700</v>
+        <v>917000</v>
       </c>
       <c r="J35" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K35" s="3">
         <v>993200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>783400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1094800</v>
+        <v>1012700</v>
       </c>
       <c r="E41" s="3">
-        <v>1385600</v>
+        <v>1096800</v>
       </c>
       <c r="F41" s="3">
-        <v>1040100</v>
+        <v>1388100</v>
       </c>
       <c r="G41" s="3">
-        <v>1535900</v>
+        <v>1042000</v>
       </c>
       <c r="H41" s="3">
-        <v>1623500</v>
+        <v>1538700</v>
       </c>
       <c r="I41" s="3">
-        <v>1139700</v>
+        <v>1626400</v>
       </c>
       <c r="J41" s="3">
+        <v>1141700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2232600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1432100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>87600</v>
+        <v>45000</v>
       </c>
       <c r="E42" s="3">
-        <v>287500</v>
+        <v>87800</v>
       </c>
       <c r="F42" s="3">
-        <v>455400</v>
+        <v>288100</v>
       </c>
       <c r="G42" s="3">
-        <v>172400</v>
+        <v>456200</v>
       </c>
       <c r="H42" s="3">
-        <v>163400</v>
+        <v>172800</v>
       </c>
       <c r="I42" s="3">
-        <v>251200</v>
+        <v>163700</v>
       </c>
       <c r="J42" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K42" s="3">
         <v>78400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>949000</v>
+        <v>1010500</v>
       </c>
       <c r="E43" s="3">
-        <v>919200</v>
+        <v>950700</v>
       </c>
       <c r="F43" s="3">
-        <v>797100</v>
+        <v>920800</v>
       </c>
       <c r="G43" s="3">
-        <v>880200</v>
+        <v>798500</v>
       </c>
       <c r="H43" s="3">
-        <v>835600</v>
+        <v>881800</v>
       </c>
       <c r="I43" s="3">
-        <v>868400</v>
+        <v>837100</v>
       </c>
       <c r="J43" s="3">
+        <v>869900</v>
+      </c>
+      <c r="K43" s="3">
         <v>684400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>611600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>319500</v>
+        <v>305000</v>
       </c>
       <c r="E44" s="3">
-        <v>332100</v>
+        <v>320100</v>
       </c>
       <c r="F44" s="3">
-        <v>271800</v>
+        <v>332700</v>
       </c>
       <c r="G44" s="3">
-        <v>295100</v>
+        <v>272300</v>
       </c>
       <c r="H44" s="3">
-        <v>294100</v>
+        <v>295600</v>
       </c>
       <c r="I44" s="3">
-        <v>306900</v>
+        <v>294600</v>
       </c>
       <c r="J44" s="3">
+        <v>307500</v>
+      </c>
+      <c r="K44" s="3">
         <v>266100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>203700</v>
+        <v>224000</v>
       </c>
       <c r="E45" s="3">
-        <v>213700</v>
+        <v>204000</v>
       </c>
       <c r="F45" s="3">
-        <v>162200</v>
+        <v>214000</v>
       </c>
       <c r="G45" s="3">
-        <v>160000</v>
+        <v>162500</v>
       </c>
       <c r="H45" s="3">
-        <v>257000</v>
+        <v>160300</v>
       </c>
       <c r="I45" s="3">
-        <v>227100</v>
+        <v>257500</v>
       </c>
       <c r="J45" s="3">
+        <v>227500</v>
+      </c>
+      <c r="K45" s="3">
         <v>192800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>188800</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2654600</v>
+        <v>2597100</v>
       </c>
       <c r="E46" s="3">
-        <v>3138100</v>
+        <v>2659400</v>
       </c>
       <c r="F46" s="3">
-        <v>2726600</v>
+        <v>3143700</v>
       </c>
       <c r="G46" s="3">
-        <v>3043700</v>
+        <v>2731500</v>
       </c>
       <c r="H46" s="3">
-        <v>3173600</v>
+        <v>3049100</v>
       </c>
       <c r="I46" s="3">
-        <v>2793300</v>
+        <v>3179200</v>
       </c>
       <c r="J46" s="3">
+        <v>2798300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2761000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2542100</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5403200</v>
+        <v>6014300</v>
       </c>
       <c r="E47" s="3">
-        <v>5002500</v>
+        <v>5412800</v>
       </c>
       <c r="F47" s="3">
-        <v>4531400</v>
+        <v>5011400</v>
       </c>
       <c r="G47" s="3">
-        <v>4328500</v>
+        <v>4539500</v>
       </c>
       <c r="H47" s="3">
-        <v>3795800</v>
+        <v>4336200</v>
       </c>
       <c r="I47" s="3">
-        <v>3775200</v>
+        <v>3802600</v>
       </c>
       <c r="J47" s="3">
+        <v>3781900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3718200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3214600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7567300</v>
+        <v>8339600</v>
       </c>
       <c r="E48" s="3">
-        <v>7288400</v>
+        <v>7580800</v>
       </c>
       <c r="F48" s="3">
-        <v>6431600</v>
+        <v>7301400</v>
       </c>
       <c r="G48" s="3">
-        <v>6203600</v>
+        <v>6443100</v>
       </c>
       <c r="H48" s="3">
-        <v>6488200</v>
+        <v>6214700</v>
       </c>
       <c r="I48" s="3">
-        <v>5936800</v>
+        <v>6499800</v>
       </c>
       <c r="J48" s="3">
+        <v>5947400</v>
+      </c>
+      <c r="K48" s="3">
         <v>3952900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4347100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>731800</v>
+        <v>682700</v>
       </c>
       <c r="E49" s="3">
-        <v>757700</v>
+        <v>733100</v>
       </c>
       <c r="F49" s="3">
-        <v>717700</v>
+        <v>759100</v>
       </c>
       <c r="G49" s="3">
-        <v>749500</v>
+        <v>719000</v>
       </c>
       <c r="H49" s="3">
-        <v>754500</v>
+        <v>750800</v>
       </c>
       <c r="I49" s="3">
-        <v>676600</v>
+        <v>755900</v>
       </c>
       <c r="J49" s="3">
+        <v>677800</v>
+      </c>
+      <c r="K49" s="3">
         <v>495200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>437600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>732600</v>
+        <v>489800</v>
       </c>
       <c r="E52" s="3">
-        <v>692700</v>
+        <v>733900</v>
       </c>
       <c r="F52" s="3">
-        <v>628100</v>
+        <v>694000</v>
       </c>
       <c r="G52" s="3">
-        <v>558100</v>
+        <v>629200</v>
       </c>
       <c r="H52" s="3">
-        <v>522900</v>
+        <v>559100</v>
       </c>
       <c r="I52" s="3">
-        <v>520800</v>
+        <v>523900</v>
       </c>
       <c r="J52" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K52" s="3">
         <v>475700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>298100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17089500</v>
+        <v>18123500</v>
       </c>
       <c r="E54" s="3">
-        <v>16879500</v>
+        <v>17120100</v>
       </c>
       <c r="F54" s="3">
-        <v>15035400</v>
+        <v>16909600</v>
       </c>
       <c r="G54" s="3">
-        <v>14883400</v>
+        <v>15062200</v>
       </c>
       <c r="H54" s="3">
-        <v>14735000</v>
+        <v>14910000</v>
       </c>
       <c r="I54" s="3">
-        <v>13702600</v>
+        <v>14761300</v>
       </c>
       <c r="J54" s="3">
+        <v>13727100</v>
+      </c>
+      <c r="K54" s="3">
         <v>12742100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10839500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>531600</v>
+        <v>509600</v>
       </c>
       <c r="E57" s="3">
-        <v>530000</v>
+        <v>532500</v>
       </c>
       <c r="F57" s="3">
-        <v>433500</v>
+        <v>530900</v>
       </c>
       <c r="G57" s="3">
-        <v>405100</v>
+        <v>434300</v>
       </c>
       <c r="H57" s="3">
-        <v>495300</v>
+        <v>405800</v>
       </c>
       <c r="I57" s="3">
-        <v>414600</v>
+        <v>496200</v>
       </c>
       <c r="J57" s="3">
+        <v>415300</v>
+      </c>
+      <c r="K57" s="3">
         <v>352600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1021900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1341000</v>
+        <v>1206600</v>
       </c>
       <c r="E58" s="3">
-        <v>2029300</v>
+        <v>1343400</v>
       </c>
       <c r="F58" s="3">
-        <v>766500</v>
+        <v>2033000</v>
       </c>
       <c r="G58" s="3">
-        <v>1250800</v>
+        <v>767900</v>
       </c>
       <c r="H58" s="3">
-        <v>907900</v>
+        <v>1253100</v>
       </c>
       <c r="I58" s="3">
-        <v>801400</v>
+        <v>909600</v>
       </c>
       <c r="J58" s="3">
+        <v>802800</v>
+      </c>
+      <c r="K58" s="3">
         <v>836000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>537700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1495400</v>
+        <v>1659900</v>
       </c>
       <c r="E59" s="3">
-        <v>1555300</v>
+        <v>1498100</v>
       </c>
       <c r="F59" s="3">
-        <v>1317500</v>
+        <v>1558000</v>
       </c>
       <c r="G59" s="3">
-        <v>1329500</v>
+        <v>1319800</v>
       </c>
       <c r="H59" s="3">
-        <v>1261400</v>
+        <v>1331900</v>
       </c>
       <c r="I59" s="3">
-        <v>1264800</v>
+        <v>1263600</v>
       </c>
       <c r="J59" s="3">
+        <v>1267000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1033500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3368000</v>
+        <v>3376100</v>
       </c>
       <c r="E60" s="3">
-        <v>4114600</v>
+        <v>3374000</v>
       </c>
       <c r="F60" s="3">
-        <v>2517500</v>
+        <v>4121900</v>
       </c>
       <c r="G60" s="3">
-        <v>2985400</v>
+        <v>2522000</v>
       </c>
       <c r="H60" s="3">
-        <v>2664600</v>
+        <v>2990800</v>
       </c>
       <c r="I60" s="3">
-        <v>2480700</v>
+        <v>2669400</v>
       </c>
       <c r="J60" s="3">
+        <v>2485200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2222000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1707500</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3555800</v>
+        <v>3702300</v>
       </c>
       <c r="E61" s="3">
-        <v>2725400</v>
+        <v>3562200</v>
       </c>
       <c r="F61" s="3">
-        <v>3515500</v>
+        <v>2730300</v>
       </c>
       <c r="G61" s="3">
-        <v>3009000</v>
+        <v>3521700</v>
       </c>
       <c r="H61" s="3">
-        <v>3153300</v>
+        <v>3014300</v>
       </c>
       <c r="I61" s="3">
-        <v>3145500</v>
+        <v>3159000</v>
       </c>
       <c r="J61" s="3">
+        <v>3151100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3254500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2755200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1125600</v>
+        <v>1317300</v>
       </c>
       <c r="E62" s="3">
-        <v>992500</v>
+        <v>1127600</v>
       </c>
       <c r="F62" s="3">
-        <v>901800</v>
+        <v>994200</v>
       </c>
       <c r="G62" s="3">
-        <v>889500</v>
+        <v>903400</v>
       </c>
       <c r="H62" s="3">
-        <v>903200</v>
+        <v>891100</v>
       </c>
       <c r="I62" s="3">
-        <v>816500</v>
+        <v>904900</v>
       </c>
       <c r="J62" s="3">
+        <v>817900</v>
+      </c>
+      <c r="K62" s="3">
         <v>781100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>474500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9053000</v>
+        <v>9531500</v>
       </c>
       <c r="E66" s="3">
-        <v>8792400</v>
+        <v>9069100</v>
       </c>
       <c r="F66" s="3">
-        <v>7786300</v>
+        <v>8808100</v>
       </c>
       <c r="G66" s="3">
-        <v>7774800</v>
+        <v>7800200</v>
       </c>
       <c r="H66" s="3">
-        <v>7653800</v>
+        <v>7788700</v>
       </c>
       <c r="I66" s="3">
-        <v>7280200</v>
+        <v>7667500</v>
       </c>
       <c r="J66" s="3">
+        <v>7293200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6920600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5542100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7396400</v>
+        <v>7601700</v>
       </c>
       <c r="E72" s="3">
-        <v>6847400</v>
+        <v>7409700</v>
       </c>
       <c r="F72" s="3">
-        <v>6368400</v>
+        <v>6859600</v>
       </c>
       <c r="G72" s="3">
-        <v>5971300</v>
+        <v>6379800</v>
       </c>
       <c r="H72" s="3">
-        <v>5579000</v>
+        <v>5982000</v>
       </c>
       <c r="I72" s="3">
-        <v>5154000</v>
+        <v>5588900</v>
       </c>
       <c r="J72" s="3">
+        <v>5163200</v>
+      </c>
+      <c r="K72" s="3">
         <v>4650700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4154200</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8036600</v>
+        <v>8591900</v>
       </c>
       <c r="E76" s="3">
-        <v>8087100</v>
+        <v>8050900</v>
       </c>
       <c r="F76" s="3">
-        <v>7249100</v>
+        <v>8101500</v>
       </c>
       <c r="G76" s="3">
-        <v>7108600</v>
+        <v>7262000</v>
       </c>
       <c r="H76" s="3">
-        <v>7081100</v>
+        <v>7121300</v>
       </c>
       <c r="I76" s="3">
-        <v>6422400</v>
+        <v>7093800</v>
       </c>
       <c r="J76" s="3">
+        <v>6433900</v>
+      </c>
+      <c r="K76" s="3">
         <v>5821500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5297400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1199400</v>
+        <v>898500</v>
       </c>
       <c r="E81" s="3">
-        <v>1059300</v>
+        <v>1201300</v>
       </c>
       <c r="F81" s="3">
-        <v>945400</v>
+        <v>1061000</v>
       </c>
       <c r="G81" s="3">
-        <v>940400</v>
+        <v>946900</v>
       </c>
       <c r="H81" s="3">
-        <v>915600</v>
+        <v>941900</v>
       </c>
       <c r="I81" s="3">
-        <v>882700</v>
+        <v>917000</v>
       </c>
       <c r="J81" s="3">
+        <v>884100</v>
+      </c>
+      <c r="K81" s="3">
         <v>993200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>783400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>326800</v>
+        <v>355200</v>
       </c>
       <c r="E83" s="3">
-        <v>305900</v>
+        <v>327300</v>
       </c>
       <c r="F83" s="3">
-        <v>286300</v>
+        <v>306300</v>
       </c>
       <c r="G83" s="3">
-        <v>267300</v>
+        <v>286800</v>
       </c>
       <c r="H83" s="3">
-        <v>251300</v>
+        <v>267700</v>
       </c>
       <c r="I83" s="3">
-        <v>212400</v>
+        <v>251700</v>
       </c>
       <c r="J83" s="3">
+        <v>212700</v>
+      </c>
+      <c r="K83" s="3">
         <v>188700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1215600</v>
+        <v>1278600</v>
       </c>
       <c r="E89" s="3">
-        <v>1097900</v>
+        <v>1217500</v>
       </c>
       <c r="F89" s="3">
-        <v>1090700</v>
+        <v>1099600</v>
       </c>
       <c r="G89" s="3">
-        <v>1065900</v>
+        <v>1092400</v>
       </c>
       <c r="H89" s="3">
-        <v>1053500</v>
+        <v>1067600</v>
       </c>
       <c r="I89" s="3">
-        <v>900500</v>
+        <v>1055100</v>
       </c>
       <c r="J89" s="3">
+        <v>901900</v>
+      </c>
+      <c r="K89" s="3">
         <v>858500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>631500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-845800</v>
+        <v>-870900</v>
       </c>
       <c r="E91" s="3">
-        <v>-773300</v>
+        <v>-847100</v>
       </c>
       <c r="F91" s="3">
-        <v>-780000</v>
+        <v>-774500</v>
       </c>
       <c r="G91" s="3">
-        <v>-776500</v>
+        <v>-781300</v>
       </c>
       <c r="H91" s="3">
-        <v>-805000</v>
+        <v>-777700</v>
       </c>
       <c r="I91" s="3">
-        <v>-655000</v>
+        <v>-806200</v>
       </c>
       <c r="J91" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-749100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-583300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-486400</v>
+        <v>-683800</v>
       </c>
       <c r="E94" s="3">
-        <v>-215200</v>
+        <v>-487100</v>
       </c>
       <c r="F94" s="3">
-        <v>-833100</v>
+        <v>-215500</v>
       </c>
       <c r="G94" s="3">
-        <v>-610300</v>
+        <v>-834400</v>
       </c>
       <c r="H94" s="3">
-        <v>-364900</v>
+        <v>-611300</v>
       </c>
       <c r="I94" s="3">
-        <v>-738400</v>
+        <v>-365500</v>
       </c>
       <c r="J94" s="3">
+        <v>-739600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-811700</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-652100</v>
+        <v>-718500</v>
       </c>
       <c r="E96" s="3">
-        <v>-592800</v>
+        <v>-653200</v>
       </c>
       <c r="F96" s="3">
-        <v>-539000</v>
+        <v>-593800</v>
       </c>
       <c r="G96" s="3">
-        <v>-490100</v>
+        <v>-539800</v>
       </c>
       <c r="H96" s="3">
-        <v>-445700</v>
+        <v>-490900</v>
       </c>
       <c r="I96" s="3">
-        <v>-405200</v>
+        <v>-446400</v>
       </c>
       <c r="J96" s="3">
+        <v>-405800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-546400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-331200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1003100</v>
+        <v>-672500</v>
       </c>
       <c r="E100" s="3">
-        <v>-558900</v>
+        <v>-1004600</v>
       </c>
       <c r="F100" s="3">
-        <v>-730600</v>
+        <v>-559800</v>
       </c>
       <c r="G100" s="3">
-        <v>-512200</v>
+        <v>-731800</v>
       </c>
       <c r="H100" s="3">
-        <v>-186000</v>
+        <v>-513000</v>
       </c>
       <c r="I100" s="3">
-        <v>-602200</v>
+        <v>-186300</v>
       </c>
       <c r="J100" s="3">
+        <v>-603100</v>
+      </c>
+      <c r="K100" s="3">
         <v>74600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-16900</v>
+        <v>-6400</v>
       </c>
       <c r="E101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F101" s="3">
         <v>21700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-30900</v>
-      </c>
       <c r="H101" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-18800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-290800</v>
+        <v>-84100</v>
       </c>
       <c r="E102" s="3">
-        <v>345500</v>
+        <v>-291200</v>
       </c>
       <c r="F102" s="3">
-        <v>-495800</v>
+        <v>346000</v>
       </c>
       <c r="G102" s="3">
-        <v>-87500</v>
+        <v>-496600</v>
       </c>
       <c r="H102" s="3">
-        <v>483800</v>
+        <v>-87700</v>
       </c>
       <c r="I102" s="3">
-        <v>-429800</v>
+        <v>484600</v>
       </c>
       <c r="J102" s="3">
+        <v>-430500</v>
+      </c>
+      <c r="K102" s="3">
         <v>121600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>196900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5240600</v>
+        <v>5242200</v>
       </c>
       <c r="E8" s="3">
-        <v>5040000</v>
+        <v>5041600</v>
       </c>
       <c r="F8" s="3">
-        <v>4189100</v>
+        <v>4190400</v>
       </c>
       <c r="G8" s="3">
-        <v>3683600</v>
+        <v>3684700</v>
       </c>
       <c r="H8" s="3">
-        <v>3817000</v>
+        <v>3818200</v>
       </c>
       <c r="I8" s="3">
-        <v>4078000</v>
+        <v>4079200</v>
       </c>
       <c r="J8" s="3">
-        <v>3643400</v>
+        <v>3644600</v>
       </c>
       <c r="K8" s="3">
         <v>3209800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2812500</v>
+        <v>2813300</v>
       </c>
       <c r="E9" s="3">
-        <v>2656900</v>
+        <v>2657700</v>
       </c>
       <c r="F9" s="3">
-        <v>2024100</v>
+        <v>2024700</v>
       </c>
       <c r="G9" s="3">
-        <v>1639400</v>
+        <v>1639900</v>
       </c>
       <c r="H9" s="3">
-        <v>1818500</v>
+        <v>1819100</v>
       </c>
       <c r="I9" s="3">
-        <v>2102300</v>
+        <v>2103000</v>
       </c>
       <c r="J9" s="3">
-        <v>1899000</v>
+        <v>1899600</v>
       </c>
       <c r="K9" s="3">
         <v>1717100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2428100</v>
+        <v>2428900</v>
       </c>
       <c r="E10" s="3">
-        <v>2383100</v>
+        <v>2383800</v>
       </c>
       <c r="F10" s="3">
-        <v>2165000</v>
+        <v>2165700</v>
       </c>
       <c r="G10" s="3">
-        <v>2044200</v>
+        <v>2044800</v>
       </c>
       <c r="H10" s="3">
-        <v>1998500</v>
+        <v>1999100</v>
       </c>
       <c r="I10" s="3">
-        <v>1975600</v>
+        <v>1976300</v>
       </c>
       <c r="J10" s="3">
-        <v>1744500</v>
+        <v>1745000</v>
       </c>
       <c r="K10" s="3">
         <v>1492700</v>
@@ -837,7 +837,7 @@
         <v>3700</v>
       </c>
       <c r="F12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="G12" s="3">
         <v>6400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>355200</v>
+        <v>355300</v>
       </c>
       <c r="E15" s="3">
-        <v>327300</v>
+        <v>327400</v>
       </c>
       <c r="F15" s="3">
-        <v>306300</v>
+        <v>306400</v>
       </c>
       <c r="G15" s="3">
         <v>286800</v>
       </c>
       <c r="H15" s="3">
-        <v>267700</v>
+        <v>267800</v>
       </c>
       <c r="I15" s="3">
-        <v>251700</v>
+        <v>251800</v>
       </c>
       <c r="J15" s="3">
-        <v>212700</v>
+        <v>212800</v>
       </c>
       <c r="K15" s="3">
         <v>188700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4070400</v>
+        <v>4071600</v>
       </c>
       <c r="E17" s="3">
-        <v>3956100</v>
+        <v>3957300</v>
       </c>
       <c r="F17" s="3">
-        <v>3123500</v>
+        <v>3124500</v>
       </c>
       <c r="G17" s="3">
-        <v>2762500</v>
+        <v>2763400</v>
       </c>
       <c r="H17" s="3">
-        <v>2902300</v>
+        <v>2903200</v>
       </c>
       <c r="I17" s="3">
-        <v>3088300</v>
+        <v>3089200</v>
       </c>
       <c r="J17" s="3">
-        <v>2654800</v>
+        <v>2655600</v>
       </c>
       <c r="K17" s="3">
         <v>2296100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1170200</v>
+        <v>1170600</v>
       </c>
       <c r="E18" s="3">
-        <v>1083900</v>
+        <v>1084300</v>
       </c>
       <c r="F18" s="3">
-        <v>1065600</v>
+        <v>1066000</v>
       </c>
       <c r="G18" s="3">
-        <v>921000</v>
+        <v>921300</v>
       </c>
       <c r="H18" s="3">
-        <v>914600</v>
+        <v>914900</v>
       </c>
       <c r="I18" s="3">
-        <v>989700</v>
+        <v>990000</v>
       </c>
       <c r="J18" s="3">
-        <v>988700</v>
+        <v>989000</v>
       </c>
       <c r="K18" s="3">
         <v>913700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>330500</v>
+        <v>330600</v>
       </c>
       <c r="E20" s="3">
-        <v>659500</v>
+        <v>659700</v>
       </c>
       <c r="F20" s="3">
-        <v>527900</v>
+        <v>528000</v>
       </c>
       <c r="G20" s="3">
-        <v>504700</v>
+        <v>504900</v>
       </c>
       <c r="H20" s="3">
-        <v>508700</v>
+        <v>508900</v>
       </c>
       <c r="I20" s="3">
-        <v>414700</v>
+        <v>414800</v>
       </c>
       <c r="J20" s="3">
-        <v>344600</v>
+        <v>344800</v>
       </c>
       <c r="K20" s="3">
         <v>470700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1855800</v>
+        <v>1856500</v>
       </c>
       <c r="E21" s="3">
-        <v>2070600</v>
+        <v>2071400</v>
       </c>
       <c r="F21" s="3">
-        <v>1899700</v>
+        <v>1900400</v>
       </c>
       <c r="G21" s="3">
-        <v>1712400</v>
+        <v>1713000</v>
       </c>
       <c r="H21" s="3">
-        <v>1691000</v>
+        <v>1691600</v>
       </c>
       <c r="I21" s="3">
-        <v>1656000</v>
+        <v>1656600</v>
       </c>
       <c r="J21" s="3">
-        <v>1546000</v>
+        <v>1546500</v>
       </c>
       <c r="K21" s="3">
         <v>1573200</v>
@@ -1122,16 +1122,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158700</v>
+        <v>158800</v>
       </c>
       <c r="E22" s="3">
         <v>151800</v>
       </c>
       <c r="F22" s="3">
-        <v>162100</v>
+        <v>162200</v>
       </c>
       <c r="G22" s="3">
-        <v>155700</v>
+        <v>155800</v>
       </c>
       <c r="H22" s="3">
         <v>145600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1342000</v>
+        <v>1342400</v>
       </c>
       <c r="E23" s="3">
-        <v>1591700</v>
+        <v>1592200</v>
       </c>
       <c r="F23" s="3">
-        <v>1431400</v>
+        <v>1431800</v>
       </c>
       <c r="G23" s="3">
-        <v>1270000</v>
+        <v>1270400</v>
       </c>
       <c r="H23" s="3">
-        <v>1277800</v>
+        <v>1278200</v>
       </c>
       <c r="I23" s="3">
-        <v>1273700</v>
+        <v>1274100</v>
       </c>
       <c r="J23" s="3">
-        <v>1213900</v>
+        <v>1214300</v>
       </c>
       <c r="K23" s="3">
         <v>1273200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>295300</v>
+        <v>295400</v>
       </c>
       <c r="E24" s="3">
         <v>246100</v>
       </c>
       <c r="F24" s="3">
-        <v>225700</v>
+        <v>225800</v>
       </c>
       <c r="G24" s="3">
         <v>203300</v>
       </c>
       <c r="H24" s="3">
-        <v>222700</v>
+        <v>222800</v>
       </c>
       <c r="I24" s="3">
-        <v>228500</v>
+        <v>228600</v>
       </c>
       <c r="J24" s="3">
-        <v>213500</v>
+        <v>213600</v>
       </c>
       <c r="K24" s="3">
         <v>191200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1046700</v>
+        <v>1047000</v>
       </c>
       <c r="E26" s="3">
-        <v>1345600</v>
+        <v>1346000</v>
       </c>
       <c r="F26" s="3">
-        <v>1205700</v>
+        <v>1206000</v>
       </c>
       <c r="G26" s="3">
-        <v>1066700</v>
+        <v>1067100</v>
       </c>
       <c r="H26" s="3">
-        <v>1055000</v>
+        <v>1055400</v>
       </c>
       <c r="I26" s="3">
-        <v>1045200</v>
+        <v>1045600</v>
       </c>
       <c r="J26" s="3">
-        <v>1000400</v>
+        <v>1000700</v>
       </c>
       <c r="K26" s="3">
         <v>1082000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>898500</v>
+        <v>898800</v>
       </c>
       <c r="E27" s="3">
-        <v>1201300</v>
+        <v>1201600</v>
       </c>
       <c r="F27" s="3">
-        <v>1061000</v>
+        <v>1061300</v>
       </c>
       <c r="G27" s="3">
-        <v>946900</v>
+        <v>947200</v>
       </c>
       <c r="H27" s="3">
-        <v>941900</v>
+        <v>942200</v>
       </c>
       <c r="I27" s="3">
-        <v>917000</v>
+        <v>917300</v>
       </c>
       <c r="J27" s="3">
-        <v>884100</v>
+        <v>884300</v>
       </c>
       <c r="K27" s="3">
         <v>993200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-330500</v>
+        <v>-330600</v>
       </c>
       <c r="E32" s="3">
-        <v>-659500</v>
+        <v>-659700</v>
       </c>
       <c r="F32" s="3">
-        <v>-527900</v>
+        <v>-528000</v>
       </c>
       <c r="G32" s="3">
-        <v>-504700</v>
+        <v>-504900</v>
       </c>
       <c r="H32" s="3">
-        <v>-508700</v>
+        <v>-508900</v>
       </c>
       <c r="I32" s="3">
-        <v>-414700</v>
+        <v>-414800</v>
       </c>
       <c r="J32" s="3">
-        <v>-344600</v>
+        <v>-344800</v>
       </c>
       <c r="K32" s="3">
         <v>-470700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>898500</v>
+        <v>898800</v>
       </c>
       <c r="E33" s="3">
-        <v>1201300</v>
+        <v>1201600</v>
       </c>
       <c r="F33" s="3">
-        <v>1061000</v>
+        <v>1061300</v>
       </c>
       <c r="G33" s="3">
-        <v>946900</v>
+        <v>947200</v>
       </c>
       <c r="H33" s="3">
-        <v>941900</v>
+        <v>942200</v>
       </c>
       <c r="I33" s="3">
-        <v>917000</v>
+        <v>917300</v>
       </c>
       <c r="J33" s="3">
-        <v>884100</v>
+        <v>884300</v>
       </c>
       <c r="K33" s="3">
         <v>993200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>898500</v>
+        <v>898800</v>
       </c>
       <c r="E35" s="3">
-        <v>1201300</v>
+        <v>1201600</v>
       </c>
       <c r="F35" s="3">
-        <v>1061000</v>
+        <v>1061300</v>
       </c>
       <c r="G35" s="3">
-        <v>946900</v>
+        <v>947200</v>
       </c>
       <c r="H35" s="3">
-        <v>941900</v>
+        <v>942200</v>
       </c>
       <c r="I35" s="3">
-        <v>917000</v>
+        <v>917300</v>
       </c>
       <c r="J35" s="3">
-        <v>884100</v>
+        <v>884300</v>
       </c>
       <c r="K35" s="3">
         <v>993200</v>
@@ -1655,22 +1655,22 @@
         <v>1012700</v>
       </c>
       <c r="E41" s="3">
-        <v>1096800</v>
+        <v>1096900</v>
       </c>
       <c r="F41" s="3">
-        <v>1388100</v>
+        <v>1388200</v>
       </c>
       <c r="G41" s="3">
-        <v>1042000</v>
+        <v>1042100</v>
       </c>
       <c r="H41" s="3">
-        <v>1538700</v>
+        <v>1538800</v>
       </c>
       <c r="I41" s="3">
-        <v>1626400</v>
+        <v>1626500</v>
       </c>
       <c r="J41" s="3">
-        <v>1141700</v>
+        <v>1141800</v>
       </c>
       <c r="K41" s="3">
         <v>2232600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010500</v>
+        <v>1010600</v>
       </c>
       <c r="E43" s="3">
-        <v>950700</v>
+        <v>950800</v>
       </c>
       <c r="F43" s="3">
-        <v>920800</v>
+        <v>920900</v>
       </c>
       <c r="G43" s="3">
-        <v>798500</v>
+        <v>798600</v>
       </c>
       <c r="H43" s="3">
         <v>881800</v>
       </c>
       <c r="I43" s="3">
-        <v>837100</v>
+        <v>837200</v>
       </c>
       <c r="J43" s="3">
-        <v>869900</v>
+        <v>870000</v>
       </c>
       <c r="K43" s="3">
         <v>684400</v>
@@ -1787,10 +1787,10 @@
         <v>224000</v>
       </c>
       <c r="E45" s="3">
-        <v>204000</v>
+        <v>204100</v>
       </c>
       <c r="F45" s="3">
-        <v>214000</v>
+        <v>214100</v>
       </c>
       <c r="G45" s="3">
         <v>162500</v>
@@ -1802,7 +1802,7 @@
         <v>257500</v>
       </c>
       <c r="J45" s="3">
-        <v>227500</v>
+        <v>227600</v>
       </c>
       <c r="K45" s="3">
         <v>192800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2597100</v>
+        <v>2597300</v>
       </c>
       <c r="E46" s="3">
-        <v>2659400</v>
+        <v>2659600</v>
       </c>
       <c r="F46" s="3">
-        <v>3143700</v>
+        <v>3143900</v>
       </c>
       <c r="G46" s="3">
-        <v>2731500</v>
+        <v>2731700</v>
       </c>
       <c r="H46" s="3">
-        <v>3049100</v>
+        <v>3049400</v>
       </c>
       <c r="I46" s="3">
-        <v>3179200</v>
+        <v>3179500</v>
       </c>
       <c r="J46" s="3">
-        <v>2798300</v>
+        <v>2798500</v>
       </c>
       <c r="K46" s="3">
         <v>2761000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6014300</v>
+        <v>6014800</v>
       </c>
       <c r="E47" s="3">
-        <v>5412800</v>
+        <v>5413300</v>
       </c>
       <c r="F47" s="3">
-        <v>5011400</v>
+        <v>5011800</v>
       </c>
       <c r="G47" s="3">
-        <v>4539500</v>
+        <v>4539900</v>
       </c>
       <c r="H47" s="3">
-        <v>4336200</v>
+        <v>4336500</v>
       </c>
       <c r="I47" s="3">
-        <v>3802600</v>
+        <v>3802800</v>
       </c>
       <c r="J47" s="3">
-        <v>3781900</v>
+        <v>3782200</v>
       </c>
       <c r="K47" s="3">
         <v>3718200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8339600</v>
+        <v>8340200</v>
       </c>
       <c r="E48" s="3">
-        <v>7580800</v>
+        <v>7581400</v>
       </c>
       <c r="F48" s="3">
-        <v>7301400</v>
+        <v>7302000</v>
       </c>
       <c r="G48" s="3">
-        <v>6443100</v>
+        <v>6443600</v>
       </c>
       <c r="H48" s="3">
-        <v>6214700</v>
+        <v>6215200</v>
       </c>
       <c r="I48" s="3">
-        <v>6499800</v>
+        <v>6500300</v>
       </c>
       <c r="J48" s="3">
-        <v>5947400</v>
+        <v>5947900</v>
       </c>
       <c r="K48" s="3">
         <v>3952900</v>
@@ -1919,16 +1919,16 @@
         <v>682700</v>
       </c>
       <c r="E49" s="3">
-        <v>733100</v>
+        <v>733200</v>
       </c>
       <c r="F49" s="3">
-        <v>759100</v>
+        <v>759200</v>
       </c>
       <c r="G49" s="3">
         <v>719000</v>
       </c>
       <c r="H49" s="3">
-        <v>750800</v>
+        <v>750900</v>
       </c>
       <c r="I49" s="3">
         <v>755900</v>
@@ -2018,16 +2018,16 @@
         <v>489800</v>
       </c>
       <c r="E52" s="3">
-        <v>733900</v>
+        <v>734000</v>
       </c>
       <c r="F52" s="3">
         <v>694000</v>
       </c>
       <c r="G52" s="3">
-        <v>629200</v>
+        <v>629300</v>
       </c>
       <c r="H52" s="3">
-        <v>559100</v>
+        <v>559200</v>
       </c>
       <c r="I52" s="3">
         <v>523900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18123500</v>
+        <v>18124900</v>
       </c>
       <c r="E54" s="3">
-        <v>17120100</v>
+        <v>17121400</v>
       </c>
       <c r="F54" s="3">
-        <v>16909600</v>
+        <v>16910900</v>
       </c>
       <c r="G54" s="3">
-        <v>15062200</v>
+        <v>15063400</v>
       </c>
       <c r="H54" s="3">
-        <v>14910000</v>
+        <v>14911100</v>
       </c>
       <c r="I54" s="3">
-        <v>14761300</v>
+        <v>14762400</v>
       </c>
       <c r="J54" s="3">
-        <v>13727100</v>
+        <v>13728200</v>
       </c>
       <c r="K54" s="3">
         <v>12742100</v>
@@ -2147,22 +2147,22 @@
         <v>509600</v>
       </c>
       <c r="E57" s="3">
-        <v>532500</v>
+        <v>532600</v>
       </c>
       <c r="F57" s="3">
-        <v>530900</v>
+        <v>531000</v>
       </c>
       <c r="G57" s="3">
         <v>434300</v>
       </c>
       <c r="H57" s="3">
-        <v>405800</v>
+        <v>405900</v>
       </c>
       <c r="I57" s="3">
         <v>496200</v>
       </c>
       <c r="J57" s="3">
-        <v>415300</v>
+        <v>415400</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1206600</v>
+        <v>1219700</v>
       </c>
       <c r="E58" s="3">
-        <v>1343400</v>
+        <v>1362600</v>
       </c>
       <c r="F58" s="3">
-        <v>2033000</v>
+        <v>2055700</v>
       </c>
       <c r="G58" s="3">
-        <v>767900</v>
+        <v>792000</v>
       </c>
       <c r="H58" s="3">
-        <v>1253100</v>
+        <v>1276600</v>
       </c>
       <c r="I58" s="3">
-        <v>909600</v>
+        <v>937200</v>
       </c>
       <c r="J58" s="3">
-        <v>802800</v>
+        <v>838200</v>
       </c>
       <c r="K58" s="3">
         <v>836000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1659900</v>
+        <v>1647100</v>
       </c>
       <c r="E59" s="3">
-        <v>1498100</v>
+        <v>1479100</v>
       </c>
       <c r="F59" s="3">
-        <v>1558000</v>
+        <v>1535500</v>
       </c>
       <c r="G59" s="3">
-        <v>1319800</v>
+        <v>1295900</v>
       </c>
       <c r="H59" s="3">
-        <v>1331900</v>
+        <v>1308600</v>
       </c>
       <c r="I59" s="3">
-        <v>1263600</v>
+        <v>1236100</v>
       </c>
       <c r="J59" s="3">
-        <v>1267000</v>
+        <v>1231700</v>
       </c>
       <c r="K59" s="3">
         <v>1033500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3376100</v>
+        <v>3376400</v>
       </c>
       <c r="E60" s="3">
-        <v>3374000</v>
+        <v>3374300</v>
       </c>
       <c r="F60" s="3">
-        <v>4121900</v>
+        <v>4122300</v>
       </c>
       <c r="G60" s="3">
-        <v>2522000</v>
+        <v>2522200</v>
       </c>
       <c r="H60" s="3">
-        <v>2990800</v>
+        <v>2991000</v>
       </c>
       <c r="I60" s="3">
-        <v>2669400</v>
+        <v>2669600</v>
       </c>
       <c r="J60" s="3">
-        <v>2485200</v>
+        <v>2485400</v>
       </c>
       <c r="K60" s="3">
         <v>2222000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3702300</v>
+        <v>3702600</v>
       </c>
       <c r="E61" s="3">
-        <v>3562200</v>
+        <v>3562400</v>
       </c>
       <c r="F61" s="3">
-        <v>2730300</v>
+        <v>2730500</v>
       </c>
       <c r="G61" s="3">
-        <v>3521700</v>
+        <v>3522000</v>
       </c>
       <c r="H61" s="3">
-        <v>3014300</v>
+        <v>3017400</v>
       </c>
       <c r="I61" s="3">
-        <v>3159000</v>
+        <v>3162100</v>
       </c>
       <c r="J61" s="3">
-        <v>3151100</v>
+        <v>3151300</v>
       </c>
       <c r="K61" s="3">
         <v>3254500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1317300</v>
+        <v>1317400</v>
       </c>
       <c r="E62" s="3">
-        <v>1127600</v>
+        <v>1127700</v>
       </c>
       <c r="F62" s="3">
-        <v>994200</v>
+        <v>994300</v>
       </c>
       <c r="G62" s="3">
         <v>903400</v>
       </c>
       <c r="H62" s="3">
-        <v>891100</v>
+        <v>888300</v>
       </c>
       <c r="I62" s="3">
-        <v>904900</v>
+        <v>902000</v>
       </c>
       <c r="J62" s="3">
-        <v>817900</v>
+        <v>818000</v>
       </c>
       <c r="K62" s="3">
         <v>781100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9531500</v>
+        <v>9532300</v>
       </c>
       <c r="E66" s="3">
-        <v>9069100</v>
+        <v>9069800</v>
       </c>
       <c r="F66" s="3">
-        <v>8808100</v>
+        <v>8808700</v>
       </c>
       <c r="G66" s="3">
-        <v>7800200</v>
+        <v>7800800</v>
       </c>
       <c r="H66" s="3">
-        <v>7788700</v>
+        <v>7789300</v>
       </c>
       <c r="I66" s="3">
-        <v>7667500</v>
+        <v>7668100</v>
       </c>
       <c r="J66" s="3">
-        <v>7293200</v>
+        <v>7293800</v>
       </c>
       <c r="K66" s="3">
         <v>6920600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7601700</v>
+        <v>7602300</v>
       </c>
       <c r="E72" s="3">
-        <v>7409700</v>
+        <v>7410200</v>
       </c>
       <c r="F72" s="3">
-        <v>6859600</v>
+        <v>6860100</v>
       </c>
       <c r="G72" s="3">
-        <v>6379800</v>
+        <v>6380300</v>
       </c>
       <c r="H72" s="3">
-        <v>5982000</v>
+        <v>5982500</v>
       </c>
       <c r="I72" s="3">
-        <v>5588900</v>
+        <v>5589400</v>
       </c>
       <c r="J72" s="3">
-        <v>5163200</v>
+        <v>5163600</v>
       </c>
       <c r="K72" s="3">
         <v>4650700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8591900</v>
+        <v>8592600</v>
       </c>
       <c r="E76" s="3">
-        <v>8050900</v>
+        <v>8051600</v>
       </c>
       <c r="F76" s="3">
-        <v>8101500</v>
+        <v>8102200</v>
       </c>
       <c r="G76" s="3">
-        <v>7262000</v>
+        <v>7262600</v>
       </c>
       <c r="H76" s="3">
-        <v>7121300</v>
+        <v>7121800</v>
       </c>
       <c r="I76" s="3">
-        <v>7093800</v>
+        <v>7094300</v>
       </c>
       <c r="J76" s="3">
-        <v>6433900</v>
+        <v>6434400</v>
       </c>
       <c r="K76" s="3">
         <v>5821500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>898500</v>
+        <v>898800</v>
       </c>
       <c r="E81" s="3">
-        <v>1201300</v>
+        <v>1201600</v>
       </c>
       <c r="F81" s="3">
-        <v>1061000</v>
+        <v>1061300</v>
       </c>
       <c r="G81" s="3">
-        <v>946900</v>
+        <v>947200</v>
       </c>
       <c r="H81" s="3">
-        <v>941900</v>
+        <v>942200</v>
       </c>
       <c r="I81" s="3">
-        <v>917000</v>
+        <v>917300</v>
       </c>
       <c r="J81" s="3">
-        <v>884100</v>
+        <v>884300</v>
       </c>
       <c r="K81" s="3">
         <v>993200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>355200</v>
+        <v>355300</v>
       </c>
       <c r="E83" s="3">
-        <v>327300</v>
+        <v>327400</v>
       </c>
       <c r="F83" s="3">
-        <v>306300</v>
+        <v>306400</v>
       </c>
       <c r="G83" s="3">
         <v>286800</v>
       </c>
       <c r="H83" s="3">
-        <v>267700</v>
+        <v>267800</v>
       </c>
       <c r="I83" s="3">
-        <v>251700</v>
+        <v>251800</v>
       </c>
       <c r="J83" s="3">
-        <v>212700</v>
+        <v>212800</v>
       </c>
       <c r="K83" s="3">
         <v>188700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1278600</v>
+        <v>1279000</v>
       </c>
       <c r="E89" s="3">
-        <v>1217500</v>
+        <v>1217900</v>
       </c>
       <c r="F89" s="3">
-        <v>1099600</v>
+        <v>1099900</v>
       </c>
       <c r="G89" s="3">
-        <v>1092400</v>
+        <v>1092800</v>
       </c>
       <c r="H89" s="3">
-        <v>1067600</v>
+        <v>1067900</v>
       </c>
       <c r="I89" s="3">
-        <v>1055100</v>
+        <v>1055400</v>
       </c>
       <c r="J89" s="3">
-        <v>901900</v>
+        <v>902200</v>
       </c>
       <c r="K89" s="3">
         <v>858500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-870900</v>
+        <v>-871100</v>
       </c>
       <c r="E91" s="3">
-        <v>-847100</v>
+        <v>-847300</v>
       </c>
       <c r="F91" s="3">
-        <v>-774500</v>
+        <v>-774800</v>
       </c>
       <c r="G91" s="3">
-        <v>-781300</v>
+        <v>-781500</v>
       </c>
       <c r="H91" s="3">
-        <v>-777700</v>
+        <v>-778000</v>
       </c>
       <c r="I91" s="3">
-        <v>-806200</v>
+        <v>-806500</v>
       </c>
       <c r="J91" s="3">
-        <v>-656000</v>
+        <v>-656200</v>
       </c>
       <c r="K91" s="3">
         <v>-749100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-683800</v>
+        <v>-684000</v>
       </c>
       <c r="E94" s="3">
-        <v>-487100</v>
+        <v>-487300</v>
       </c>
       <c r="F94" s="3">
-        <v>-215500</v>
+        <v>-215600</v>
       </c>
       <c r="G94" s="3">
-        <v>-834400</v>
+        <v>-834600</v>
       </c>
       <c r="H94" s="3">
-        <v>-611300</v>
+        <v>-611500</v>
       </c>
       <c r="I94" s="3">
-        <v>-365500</v>
+        <v>-365600</v>
       </c>
       <c r="J94" s="3">
-        <v>-739600</v>
+        <v>-739800</v>
       </c>
       <c r="K94" s="3">
         <v>-811700</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-718500</v>
+        <v>-718700</v>
       </c>
       <c r="E96" s="3">
-        <v>-653200</v>
+        <v>-653400</v>
       </c>
       <c r="F96" s="3">
-        <v>-593800</v>
+        <v>-594000</v>
       </c>
       <c r="G96" s="3">
-        <v>-539800</v>
+        <v>-540000</v>
       </c>
       <c r="H96" s="3">
-        <v>-490900</v>
+        <v>-491000</v>
       </c>
       <c r="I96" s="3">
-        <v>-446400</v>
+        <v>-446500</v>
       </c>
       <c r="J96" s="3">
-        <v>-405800</v>
+        <v>-405900</v>
       </c>
       <c r="K96" s="3">
         <v>-546400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-672500</v>
+        <v>-672700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1004600</v>
+        <v>-1005000</v>
       </c>
       <c r="F100" s="3">
-        <v>-559800</v>
+        <v>-559900</v>
       </c>
       <c r="G100" s="3">
-        <v>-731800</v>
+        <v>-732000</v>
       </c>
       <c r="H100" s="3">
-        <v>-513000</v>
+        <v>-513100</v>
       </c>
       <c r="I100" s="3">
         <v>-186300</v>
       </c>
       <c r="J100" s="3">
-        <v>-603100</v>
+        <v>-603300</v>
       </c>
       <c r="K100" s="3">
         <v>74600</v>
@@ -3499,22 +3499,22 @@
         <v>-84100</v>
       </c>
       <c r="E102" s="3">
-        <v>-291200</v>
+        <v>-291300</v>
       </c>
       <c r="F102" s="3">
-        <v>346000</v>
+        <v>346100</v>
       </c>
       <c r="G102" s="3">
-        <v>-496600</v>
+        <v>-496700</v>
       </c>
       <c r="H102" s="3">
         <v>-87700</v>
       </c>
       <c r="I102" s="3">
-        <v>484600</v>
+        <v>484700</v>
       </c>
       <c r="J102" s="3">
-        <v>-430500</v>
+        <v>-430600</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5242200</v>
+        <v>5241800</v>
       </c>
       <c r="E8" s="3">
-        <v>5041600</v>
+        <v>5041200</v>
       </c>
       <c r="F8" s="3">
-        <v>4190400</v>
+        <v>4190100</v>
       </c>
       <c r="G8" s="3">
-        <v>3684700</v>
+        <v>3684400</v>
       </c>
       <c r="H8" s="3">
-        <v>3818200</v>
+        <v>3817900</v>
       </c>
       <c r="I8" s="3">
-        <v>4079200</v>
+        <v>4078900</v>
       </c>
       <c r="J8" s="3">
-        <v>3644600</v>
+        <v>3644300</v>
       </c>
       <c r="K8" s="3">
         <v>3209800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2813300</v>
+        <v>2813100</v>
       </c>
       <c r="E9" s="3">
-        <v>2657700</v>
+        <v>2657500</v>
       </c>
       <c r="F9" s="3">
-        <v>2024700</v>
+        <v>2024600</v>
       </c>
       <c r="G9" s="3">
-        <v>1639900</v>
+        <v>1639800</v>
       </c>
       <c r="H9" s="3">
-        <v>1819100</v>
+        <v>1818900</v>
       </c>
       <c r="I9" s="3">
-        <v>2103000</v>
+        <v>2102800</v>
       </c>
       <c r="J9" s="3">
-        <v>1899600</v>
+        <v>1899400</v>
       </c>
       <c r="K9" s="3">
         <v>1717100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2428900</v>
+        <v>2428700</v>
       </c>
       <c r="E10" s="3">
-        <v>2383800</v>
+        <v>2383700</v>
       </c>
       <c r="F10" s="3">
-        <v>2165700</v>
+        <v>2165500</v>
       </c>
       <c r="G10" s="3">
-        <v>2044800</v>
+        <v>2044600</v>
       </c>
       <c r="H10" s="3">
-        <v>1999100</v>
+        <v>1999000</v>
       </c>
       <c r="I10" s="3">
-        <v>1976300</v>
+        <v>1976100</v>
       </c>
       <c r="J10" s="3">
-        <v>1745000</v>
+        <v>1744900</v>
       </c>
       <c r="K10" s="3">
         <v>1492700</v>
@@ -933,7 +933,7 @@
         <v>355300</v>
       </c>
       <c r="E15" s="3">
-        <v>327400</v>
+        <v>327300</v>
       </c>
       <c r="F15" s="3">
         <v>306400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4071600</v>
+        <v>4071300</v>
       </c>
       <c r="E17" s="3">
-        <v>3957300</v>
+        <v>3957000</v>
       </c>
       <c r="F17" s="3">
-        <v>3124500</v>
+        <v>3124200</v>
       </c>
       <c r="G17" s="3">
-        <v>2763400</v>
+        <v>2763200</v>
       </c>
       <c r="H17" s="3">
-        <v>2903200</v>
+        <v>2903000</v>
       </c>
       <c r="I17" s="3">
-        <v>3089200</v>
+        <v>3089000</v>
       </c>
       <c r="J17" s="3">
-        <v>2655600</v>
+        <v>2655400</v>
       </c>
       <c r="K17" s="3">
         <v>2296100</v>
@@ -1008,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1170600</v>
+        <v>1170500</v>
       </c>
       <c r="E18" s="3">
-        <v>1084300</v>
+        <v>1084200</v>
       </c>
       <c r="F18" s="3">
-        <v>1066000</v>
+        <v>1065900</v>
       </c>
       <c r="G18" s="3">
         <v>921300</v>
@@ -1026,7 +1026,7 @@
         <v>990000</v>
       </c>
       <c r="J18" s="3">
-        <v>989000</v>
+        <v>988900</v>
       </c>
       <c r="K18" s="3">
         <v>913700</v>
@@ -1056,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>330600</v>
+        <v>330500</v>
       </c>
       <c r="E20" s="3">
         <v>659700</v>
@@ -1065,16 +1065,16 @@
         <v>528000</v>
       </c>
       <c r="G20" s="3">
-        <v>504900</v>
+        <v>504800</v>
       </c>
       <c r="H20" s="3">
-        <v>508900</v>
+        <v>508800</v>
       </c>
       <c r="I20" s="3">
-        <v>414800</v>
+        <v>414700</v>
       </c>
       <c r="J20" s="3">
-        <v>344800</v>
+        <v>344700</v>
       </c>
       <c r="K20" s="3">
         <v>470700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1856500</v>
+        <v>1856300</v>
       </c>
       <c r="E21" s="3">
-        <v>2071400</v>
+        <v>2071200</v>
       </c>
       <c r="F21" s="3">
-        <v>1900400</v>
+        <v>1900300</v>
       </c>
       <c r="G21" s="3">
-        <v>1713000</v>
+        <v>1712900</v>
       </c>
       <c r="H21" s="3">
-        <v>1691600</v>
+        <v>1691400</v>
       </c>
       <c r="I21" s="3">
-        <v>1656600</v>
+        <v>1656500</v>
       </c>
       <c r="J21" s="3">
-        <v>1546500</v>
+        <v>1546400</v>
       </c>
       <c r="K21" s="3">
         <v>1573200</v>
@@ -1122,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158800</v>
+        <v>158700</v>
       </c>
       <c r="E22" s="3">
         <v>151800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1342400</v>
+        <v>1342300</v>
       </c>
       <c r="E23" s="3">
-        <v>1592200</v>
+        <v>1592000</v>
       </c>
       <c r="F23" s="3">
-        <v>1431800</v>
+        <v>1431700</v>
       </c>
       <c r="G23" s="3">
-        <v>1270400</v>
+        <v>1270300</v>
       </c>
       <c r="H23" s="3">
-        <v>1278200</v>
+        <v>1278100</v>
       </c>
       <c r="I23" s="3">
-        <v>1274100</v>
+        <v>1274000</v>
       </c>
       <c r="J23" s="3">
-        <v>1214300</v>
+        <v>1214200</v>
       </c>
       <c r="K23" s="3">
         <v>1273200</v>
@@ -1203,7 +1203,7 @@
         <v>222800</v>
       </c>
       <c r="I24" s="3">
-        <v>228600</v>
+        <v>228500</v>
       </c>
       <c r="J24" s="3">
         <v>213600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1047000</v>
+        <v>1046900</v>
       </c>
       <c r="E26" s="3">
-        <v>1346000</v>
+        <v>1345900</v>
       </c>
       <c r="F26" s="3">
-        <v>1206000</v>
+        <v>1205900</v>
       </c>
       <c r="G26" s="3">
-        <v>1067100</v>
+        <v>1067000</v>
       </c>
       <c r="H26" s="3">
-        <v>1055400</v>
+        <v>1055300</v>
       </c>
       <c r="I26" s="3">
-        <v>1045600</v>
+        <v>1045500</v>
       </c>
       <c r="J26" s="3">
-        <v>1000700</v>
+        <v>1000600</v>
       </c>
       <c r="K26" s="3">
         <v>1082000</v>
@@ -1287,22 +1287,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>898800</v>
+        <v>898700</v>
       </c>
       <c r="E27" s="3">
-        <v>1201600</v>
+        <v>1201500</v>
       </c>
       <c r="F27" s="3">
-        <v>1061300</v>
+        <v>1061200</v>
       </c>
       <c r="G27" s="3">
-        <v>947200</v>
+        <v>947100</v>
       </c>
       <c r="H27" s="3">
-        <v>942200</v>
+        <v>942100</v>
       </c>
       <c r="I27" s="3">
-        <v>917300</v>
+        <v>917200</v>
       </c>
       <c r="J27" s="3">
         <v>884300</v>
@@ -1452,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-330600</v>
+        <v>-330500</v>
       </c>
       <c r="E32" s="3">
         <v>-659700</v>
@@ -1461,16 +1461,16 @@
         <v>-528000</v>
       </c>
       <c r="G32" s="3">
-        <v>-504900</v>
+        <v>-504800</v>
       </c>
       <c r="H32" s="3">
-        <v>-508900</v>
+        <v>-508800</v>
       </c>
       <c r="I32" s="3">
-        <v>-414800</v>
+        <v>-414700</v>
       </c>
       <c r="J32" s="3">
-        <v>-344800</v>
+        <v>-344700</v>
       </c>
       <c r="K32" s="3">
         <v>-470700</v>
@@ -1485,22 +1485,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>898800</v>
+        <v>898700</v>
       </c>
       <c r="E33" s="3">
-        <v>1201600</v>
+        <v>1201500</v>
       </c>
       <c r="F33" s="3">
-        <v>1061300</v>
+        <v>1061200</v>
       </c>
       <c r="G33" s="3">
-        <v>947200</v>
+        <v>947100</v>
       </c>
       <c r="H33" s="3">
-        <v>942200</v>
+        <v>942100</v>
       </c>
       <c r="I33" s="3">
-        <v>917300</v>
+        <v>917200</v>
       </c>
       <c r="J33" s="3">
         <v>884300</v>
@@ -1551,22 +1551,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>898800</v>
+        <v>898700</v>
       </c>
       <c r="E35" s="3">
-        <v>1201600</v>
+        <v>1201500</v>
       </c>
       <c r="F35" s="3">
-        <v>1061300</v>
+        <v>1061200</v>
       </c>
       <c r="G35" s="3">
-        <v>947200</v>
+        <v>947100</v>
       </c>
       <c r="H35" s="3">
-        <v>942200</v>
+        <v>942100</v>
       </c>
       <c r="I35" s="3">
-        <v>917300</v>
+        <v>917200</v>
       </c>
       <c r="J35" s="3">
         <v>884300</v>
@@ -1655,22 +1655,22 @@
         <v>1012700</v>
       </c>
       <c r="E41" s="3">
-        <v>1096900</v>
+        <v>1096800</v>
       </c>
       <c r="F41" s="3">
-        <v>1388200</v>
+        <v>1388100</v>
       </c>
       <c r="G41" s="3">
-        <v>1042100</v>
+        <v>1042000</v>
       </c>
       <c r="H41" s="3">
-        <v>1538800</v>
+        <v>1538700</v>
       </c>
       <c r="I41" s="3">
-        <v>1626500</v>
+        <v>1626400</v>
       </c>
       <c r="J41" s="3">
-        <v>1141800</v>
+        <v>1141700</v>
       </c>
       <c r="K41" s="3">
         <v>2232600</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010600</v>
+        <v>1010500</v>
       </c>
       <c r="E43" s="3">
-        <v>950800</v>
+        <v>950700</v>
       </c>
       <c r="F43" s="3">
-        <v>920900</v>
+        <v>920800</v>
       </c>
       <c r="G43" s="3">
-        <v>798600</v>
+        <v>798500</v>
       </c>
       <c r="H43" s="3">
         <v>881800</v>
       </c>
       <c r="I43" s="3">
-        <v>837200</v>
+        <v>837100</v>
       </c>
       <c r="J43" s="3">
-        <v>870000</v>
+        <v>869900</v>
       </c>
       <c r="K43" s="3">
         <v>684400</v>
@@ -1787,10 +1787,10 @@
         <v>224000</v>
       </c>
       <c r="E45" s="3">
-        <v>204100</v>
+        <v>204000</v>
       </c>
       <c r="F45" s="3">
-        <v>214100</v>
+        <v>214000</v>
       </c>
       <c r="G45" s="3">
         <v>162500</v>
@@ -1802,7 +1802,7 @@
         <v>257500</v>
       </c>
       <c r="J45" s="3">
-        <v>227600</v>
+        <v>227500</v>
       </c>
       <c r="K45" s="3">
         <v>192800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2597300</v>
+        <v>2597100</v>
       </c>
       <c r="E46" s="3">
-        <v>2659600</v>
+        <v>2659400</v>
       </c>
       <c r="F46" s="3">
-        <v>3143900</v>
+        <v>3143700</v>
       </c>
       <c r="G46" s="3">
-        <v>2731700</v>
+        <v>2731500</v>
       </c>
       <c r="H46" s="3">
-        <v>3049400</v>
+        <v>3049100</v>
       </c>
       <c r="I46" s="3">
-        <v>3179500</v>
+        <v>3179200</v>
       </c>
       <c r="J46" s="3">
-        <v>2798500</v>
+        <v>2798300</v>
       </c>
       <c r="K46" s="3">
         <v>2761000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6014800</v>
+        <v>6014300</v>
       </c>
       <c r="E47" s="3">
-        <v>5413300</v>
+        <v>5412800</v>
       </c>
       <c r="F47" s="3">
-        <v>5011800</v>
+        <v>5011400</v>
       </c>
       <c r="G47" s="3">
-        <v>4539900</v>
+        <v>4539500</v>
       </c>
       <c r="H47" s="3">
-        <v>4336500</v>
+        <v>4336200</v>
       </c>
       <c r="I47" s="3">
-        <v>3802800</v>
+        <v>3802600</v>
       </c>
       <c r="J47" s="3">
-        <v>3782200</v>
+        <v>3781900</v>
       </c>
       <c r="K47" s="3">
         <v>3718200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8340200</v>
+        <v>8339600</v>
       </c>
       <c r="E48" s="3">
-        <v>7581400</v>
+        <v>7580800</v>
       </c>
       <c r="F48" s="3">
-        <v>7302000</v>
+        <v>7301400</v>
       </c>
       <c r="G48" s="3">
-        <v>6443600</v>
+        <v>6443100</v>
       </c>
       <c r="H48" s="3">
-        <v>6215200</v>
+        <v>6214700</v>
       </c>
       <c r="I48" s="3">
-        <v>6500300</v>
+        <v>6499800</v>
       </c>
       <c r="J48" s="3">
-        <v>5947900</v>
+        <v>5947400</v>
       </c>
       <c r="K48" s="3">
         <v>3952900</v>
@@ -1919,16 +1919,16 @@
         <v>682700</v>
       </c>
       <c r="E49" s="3">
-        <v>733200</v>
+        <v>733100</v>
       </c>
       <c r="F49" s="3">
-        <v>759200</v>
+        <v>759100</v>
       </c>
       <c r="G49" s="3">
         <v>719000</v>
       </c>
       <c r="H49" s="3">
-        <v>750900</v>
+        <v>750800</v>
       </c>
       <c r="I49" s="3">
         <v>755900</v>
@@ -2018,16 +2018,16 @@
         <v>489800</v>
       </c>
       <c r="E52" s="3">
-        <v>734000</v>
+        <v>733900</v>
       </c>
       <c r="F52" s="3">
         <v>694000</v>
       </c>
       <c r="G52" s="3">
-        <v>629300</v>
+        <v>629200</v>
       </c>
       <c r="H52" s="3">
-        <v>559200</v>
+        <v>559100</v>
       </c>
       <c r="I52" s="3">
         <v>523900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18124900</v>
+        <v>18123500</v>
       </c>
       <c r="E54" s="3">
-        <v>17121400</v>
+        <v>17120100</v>
       </c>
       <c r="F54" s="3">
-        <v>16910900</v>
+        <v>16909600</v>
       </c>
       <c r="G54" s="3">
-        <v>15063400</v>
+        <v>15062200</v>
       </c>
       <c r="H54" s="3">
-        <v>14911100</v>
+        <v>14910000</v>
       </c>
       <c r="I54" s="3">
-        <v>14762400</v>
+        <v>14761300</v>
       </c>
       <c r="J54" s="3">
-        <v>13728200</v>
+        <v>13727100</v>
       </c>
       <c r="K54" s="3">
         <v>12742100</v>
@@ -2147,22 +2147,22 @@
         <v>509600</v>
       </c>
       <c r="E57" s="3">
-        <v>532600</v>
+        <v>532500</v>
       </c>
       <c r="F57" s="3">
-        <v>531000</v>
+        <v>530900</v>
       </c>
       <c r="G57" s="3">
         <v>434300</v>
       </c>
       <c r="H57" s="3">
-        <v>405900</v>
+        <v>405800</v>
       </c>
       <c r="I57" s="3">
         <v>496200</v>
       </c>
       <c r="J57" s="3">
-        <v>415400</v>
+        <v>415300</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2177,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1219700</v>
+        <v>1219600</v>
       </c>
       <c r="E58" s="3">
-        <v>1362600</v>
+        <v>1362500</v>
       </c>
       <c r="F58" s="3">
-        <v>2055700</v>
+        <v>2055600</v>
       </c>
       <c r="G58" s="3">
-        <v>792000</v>
+        <v>791900</v>
       </c>
       <c r="H58" s="3">
-        <v>1276600</v>
+        <v>1276500</v>
       </c>
       <c r="I58" s="3">
-        <v>937200</v>
+        <v>937100</v>
       </c>
       <c r="J58" s="3">
         <v>838200</v>
@@ -2210,19 +2210,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1647100</v>
+        <v>1647000</v>
       </c>
       <c r="E59" s="3">
-        <v>1479100</v>
+        <v>1479000</v>
       </c>
       <c r="F59" s="3">
-        <v>1535500</v>
+        <v>1535400</v>
       </c>
       <c r="G59" s="3">
-        <v>1295900</v>
+        <v>1295800</v>
       </c>
       <c r="H59" s="3">
-        <v>1308600</v>
+        <v>1308500</v>
       </c>
       <c r="I59" s="3">
         <v>1236100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3376400</v>
+        <v>3376100</v>
       </c>
       <c r="E60" s="3">
-        <v>3374300</v>
+        <v>3374000</v>
       </c>
       <c r="F60" s="3">
-        <v>4122300</v>
+        <v>4121900</v>
       </c>
       <c r="G60" s="3">
-        <v>2522200</v>
+        <v>2522000</v>
       </c>
       <c r="H60" s="3">
-        <v>2991000</v>
+        <v>2990800</v>
       </c>
       <c r="I60" s="3">
-        <v>2669600</v>
+        <v>2669400</v>
       </c>
       <c r="J60" s="3">
-        <v>2485400</v>
+        <v>2485200</v>
       </c>
       <c r="K60" s="3">
         <v>2222000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3702600</v>
+        <v>3702300</v>
       </c>
       <c r="E61" s="3">
-        <v>3562400</v>
+        <v>3562200</v>
       </c>
       <c r="F61" s="3">
-        <v>2730500</v>
+        <v>2730300</v>
       </c>
       <c r="G61" s="3">
-        <v>3522000</v>
+        <v>3521700</v>
       </c>
       <c r="H61" s="3">
-        <v>3017400</v>
+        <v>3017200</v>
       </c>
       <c r="I61" s="3">
-        <v>3162100</v>
+        <v>3161800</v>
       </c>
       <c r="J61" s="3">
-        <v>3151300</v>
+        <v>3151100</v>
       </c>
       <c r="K61" s="3">
         <v>3254500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1317400</v>
+        <v>1317300</v>
       </c>
       <c r="E62" s="3">
-        <v>1127700</v>
+        <v>1127600</v>
       </c>
       <c r="F62" s="3">
-        <v>994300</v>
+        <v>994200</v>
       </c>
       <c r="G62" s="3">
         <v>903400</v>
       </c>
       <c r="H62" s="3">
-        <v>888300</v>
+        <v>888200</v>
       </c>
       <c r="I62" s="3">
         <v>902000</v>
       </c>
       <c r="J62" s="3">
-        <v>818000</v>
+        <v>817900</v>
       </c>
       <c r="K62" s="3">
         <v>781100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9532300</v>
+        <v>9531500</v>
       </c>
       <c r="E66" s="3">
-        <v>9069800</v>
+        <v>9069100</v>
       </c>
       <c r="F66" s="3">
-        <v>8808700</v>
+        <v>8808100</v>
       </c>
       <c r="G66" s="3">
-        <v>7800800</v>
+        <v>7800200</v>
       </c>
       <c r="H66" s="3">
-        <v>7789300</v>
+        <v>7788700</v>
       </c>
       <c r="I66" s="3">
-        <v>7668100</v>
+        <v>7667500</v>
       </c>
       <c r="J66" s="3">
-        <v>7293800</v>
+        <v>7293200</v>
       </c>
       <c r="K66" s="3">
         <v>6920600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7602300</v>
+        <v>7601700</v>
       </c>
       <c r="E72" s="3">
-        <v>7410200</v>
+        <v>7409700</v>
       </c>
       <c r="F72" s="3">
-        <v>6860100</v>
+        <v>6859600</v>
       </c>
       <c r="G72" s="3">
-        <v>6380300</v>
+        <v>6379800</v>
       </c>
       <c r="H72" s="3">
-        <v>5982500</v>
+        <v>5982000</v>
       </c>
       <c r="I72" s="3">
-        <v>5589400</v>
+        <v>5588900</v>
       </c>
       <c r="J72" s="3">
-        <v>5163600</v>
+        <v>5163200</v>
       </c>
       <c r="K72" s="3">
         <v>4650700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8592600</v>
+        <v>8591900</v>
       </c>
       <c r="E76" s="3">
-        <v>8051600</v>
+        <v>8050900</v>
       </c>
       <c r="F76" s="3">
-        <v>8102200</v>
+        <v>8101500</v>
       </c>
       <c r="G76" s="3">
-        <v>7262600</v>
+        <v>7262000</v>
       </c>
       <c r="H76" s="3">
-        <v>7121800</v>
+        <v>7121300</v>
       </c>
       <c r="I76" s="3">
-        <v>7094300</v>
+        <v>7093800</v>
       </c>
       <c r="J76" s="3">
-        <v>6434400</v>
+        <v>6433900</v>
       </c>
       <c r="K76" s="3">
         <v>5821500</v>
@@ -2857,22 +2857,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>898800</v>
+        <v>898700</v>
       </c>
       <c r="E81" s="3">
-        <v>1201600</v>
+        <v>1201500</v>
       </c>
       <c r="F81" s="3">
-        <v>1061300</v>
+        <v>1061200</v>
       </c>
       <c r="G81" s="3">
-        <v>947200</v>
+        <v>947100</v>
       </c>
       <c r="H81" s="3">
-        <v>942200</v>
+        <v>942100</v>
       </c>
       <c r="I81" s="3">
-        <v>917300</v>
+        <v>917200</v>
       </c>
       <c r="J81" s="3">
         <v>884300</v>
@@ -2908,7 +2908,7 @@
         <v>355300</v>
       </c>
       <c r="E83" s="3">
-        <v>327400</v>
+        <v>327300</v>
       </c>
       <c r="F83" s="3">
         <v>306400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1279000</v>
+        <v>1278900</v>
       </c>
       <c r="E89" s="3">
-        <v>1217900</v>
+        <v>1217800</v>
       </c>
       <c r="F89" s="3">
-        <v>1099900</v>
+        <v>1099800</v>
       </c>
       <c r="G89" s="3">
-        <v>1092800</v>
+        <v>1092700</v>
       </c>
       <c r="H89" s="3">
-        <v>1067900</v>
+        <v>1067800</v>
       </c>
       <c r="I89" s="3">
         <v>1055400</v>
       </c>
       <c r="J89" s="3">
-        <v>902200</v>
+        <v>902100</v>
       </c>
       <c r="K89" s="3">
         <v>858500</v>
@@ -3157,16 +3157,16 @@
         <v>-847300</v>
       </c>
       <c r="F91" s="3">
-        <v>-774800</v>
+        <v>-774700</v>
       </c>
       <c r="G91" s="3">
-        <v>-781500</v>
+        <v>-781400</v>
       </c>
       <c r="H91" s="3">
-        <v>-778000</v>
+        <v>-777900</v>
       </c>
       <c r="I91" s="3">
-        <v>-806500</v>
+        <v>-806400</v>
       </c>
       <c r="J91" s="3">
         <v>-656200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-684000</v>
+        <v>-683900</v>
       </c>
       <c r="E94" s="3">
         <v>-487300</v>
       </c>
       <c r="F94" s="3">
-        <v>-215600</v>
+        <v>-215500</v>
       </c>
       <c r="G94" s="3">
         <v>-834600</v>
       </c>
       <c r="H94" s="3">
-        <v>-611500</v>
+        <v>-611400</v>
       </c>
       <c r="I94" s="3">
         <v>-365600</v>
       </c>
       <c r="J94" s="3">
-        <v>-739800</v>
+        <v>-739700</v>
       </c>
       <c r="K94" s="3">
         <v>-811700</v>
@@ -3298,16 +3298,16 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-718700</v>
+        <v>-718600</v>
       </c>
       <c r="E96" s="3">
-        <v>-653400</v>
+        <v>-653300</v>
       </c>
       <c r="F96" s="3">
-        <v>-594000</v>
+        <v>-593900</v>
       </c>
       <c r="G96" s="3">
-        <v>-540000</v>
+        <v>-539900</v>
       </c>
       <c r="H96" s="3">
         <v>-491000</v>
@@ -3433,13 +3433,13 @@
         <v>-672700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1005000</v>
+        <v>-1004900</v>
       </c>
       <c r="F100" s="3">
         <v>-559900</v>
       </c>
       <c r="G100" s="3">
-        <v>-732000</v>
+        <v>-731900</v>
       </c>
       <c r="H100" s="3">
         <v>-513100</v>
@@ -3448,7 +3448,7 @@
         <v>-186300</v>
       </c>
       <c r="J100" s="3">
-        <v>-603300</v>
+        <v>-603200</v>
       </c>
       <c r="K100" s="3">
         <v>74600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5241800</v>
+        <v>5230100</v>
       </c>
       <c r="E8" s="3">
-        <v>5041200</v>
+        <v>5029900</v>
       </c>
       <c r="F8" s="3">
-        <v>4190100</v>
+        <v>4180700</v>
       </c>
       <c r="G8" s="3">
-        <v>3684400</v>
+        <v>3676200</v>
       </c>
       <c r="H8" s="3">
-        <v>3817900</v>
+        <v>3809300</v>
       </c>
       <c r="I8" s="3">
-        <v>4078900</v>
+        <v>4069800</v>
       </c>
       <c r="J8" s="3">
-        <v>3644300</v>
+        <v>3636100</v>
       </c>
       <c r="K8" s="3">
         <v>3209800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2813100</v>
+        <v>2806800</v>
       </c>
       <c r="E9" s="3">
-        <v>2657500</v>
+        <v>2651600</v>
       </c>
       <c r="F9" s="3">
-        <v>2024600</v>
+        <v>2020000</v>
       </c>
       <c r="G9" s="3">
-        <v>1639800</v>
+        <v>1636100</v>
       </c>
       <c r="H9" s="3">
-        <v>1818900</v>
+        <v>1814800</v>
       </c>
       <c r="I9" s="3">
-        <v>2102800</v>
+        <v>2098100</v>
       </c>
       <c r="J9" s="3">
-        <v>1899400</v>
+        <v>1895100</v>
       </c>
       <c r="K9" s="3">
         <v>1717100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2428700</v>
+        <v>2423300</v>
       </c>
       <c r="E10" s="3">
-        <v>2383700</v>
+        <v>2378300</v>
       </c>
       <c r="F10" s="3">
-        <v>2165500</v>
+        <v>2160700</v>
       </c>
       <c r="G10" s="3">
-        <v>2044600</v>
+        <v>2040000</v>
       </c>
       <c r="H10" s="3">
-        <v>1999000</v>
+        <v>1994500</v>
       </c>
       <c r="I10" s="3">
-        <v>1976100</v>
+        <v>1971700</v>
       </c>
       <c r="J10" s="3">
-        <v>1744900</v>
+        <v>1741000</v>
       </c>
       <c r="K10" s="3">
         <v>1492700</v>
@@ -834,13 +834,13 @@
         <v>1400</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="G12" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3">
         <v>6700</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-35800</v>
+        <v>-35700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>355300</v>
+        <v>354500</v>
       </c>
       <c r="E15" s="3">
-        <v>327300</v>
+        <v>326600</v>
       </c>
       <c r="F15" s="3">
-        <v>306400</v>
+        <v>305700</v>
       </c>
       <c r="G15" s="3">
-        <v>286800</v>
+        <v>286200</v>
       </c>
       <c r="H15" s="3">
-        <v>267800</v>
+        <v>267200</v>
       </c>
       <c r="I15" s="3">
-        <v>251800</v>
+        <v>251200</v>
       </c>
       <c r="J15" s="3">
-        <v>212800</v>
+        <v>212300</v>
       </c>
       <c r="K15" s="3">
         <v>188700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4071300</v>
+        <v>4062200</v>
       </c>
       <c r="E17" s="3">
-        <v>3957000</v>
+        <v>3948100</v>
       </c>
       <c r="F17" s="3">
-        <v>3124200</v>
+        <v>3117200</v>
       </c>
       <c r="G17" s="3">
-        <v>2763200</v>
+        <v>2757000</v>
       </c>
       <c r="H17" s="3">
-        <v>2903000</v>
+        <v>2896500</v>
       </c>
       <c r="I17" s="3">
-        <v>3089000</v>
+        <v>3082000</v>
       </c>
       <c r="J17" s="3">
-        <v>2655400</v>
+        <v>2649400</v>
       </c>
       <c r="K17" s="3">
         <v>2296100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1170500</v>
+        <v>1167900</v>
       </c>
       <c r="E18" s="3">
-        <v>1084200</v>
+        <v>1081700</v>
       </c>
       <c r="F18" s="3">
-        <v>1065900</v>
+        <v>1063500</v>
       </c>
       <c r="G18" s="3">
-        <v>921300</v>
+        <v>919200</v>
       </c>
       <c r="H18" s="3">
-        <v>914900</v>
+        <v>912800</v>
       </c>
       <c r="I18" s="3">
-        <v>990000</v>
+        <v>987700</v>
       </c>
       <c r="J18" s="3">
-        <v>988900</v>
+        <v>986700</v>
       </c>
       <c r="K18" s="3">
         <v>913700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>330500</v>
+        <v>329800</v>
       </c>
       <c r="E20" s="3">
-        <v>659700</v>
+        <v>658200</v>
       </c>
       <c r="F20" s="3">
-        <v>528000</v>
+        <v>526800</v>
       </c>
       <c r="G20" s="3">
-        <v>504800</v>
+        <v>503700</v>
       </c>
       <c r="H20" s="3">
-        <v>508800</v>
+        <v>507700</v>
       </c>
       <c r="I20" s="3">
-        <v>414700</v>
+        <v>413800</v>
       </c>
       <c r="J20" s="3">
-        <v>344700</v>
+        <v>344000</v>
       </c>
       <c r="K20" s="3">
         <v>470700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1856300</v>
+        <v>1852100</v>
       </c>
       <c r="E21" s="3">
-        <v>2071200</v>
+        <v>2066500</v>
       </c>
       <c r="F21" s="3">
-        <v>1900300</v>
+        <v>1896000</v>
       </c>
       <c r="G21" s="3">
-        <v>1712900</v>
+        <v>1709000</v>
       </c>
       <c r="H21" s="3">
-        <v>1691400</v>
+        <v>1687600</v>
       </c>
       <c r="I21" s="3">
-        <v>1656500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1546400</v>
+        <v>1652800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1573200</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158700</v>
+        <v>158400</v>
       </c>
       <c r="E22" s="3">
-        <v>151800</v>
+        <v>151500</v>
       </c>
       <c r="F22" s="3">
-        <v>162200</v>
+        <v>161800</v>
       </c>
       <c r="G22" s="3">
-        <v>155800</v>
+        <v>155400</v>
       </c>
       <c r="H22" s="3">
-        <v>145600</v>
+        <v>145300</v>
       </c>
       <c r="I22" s="3">
-        <v>130700</v>
+        <v>130400</v>
       </c>
       <c r="J22" s="3">
-        <v>119400</v>
+        <v>119200</v>
       </c>
       <c r="K22" s="3">
         <v>111200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1342300</v>
+        <v>1339300</v>
       </c>
       <c r="E23" s="3">
-        <v>1592000</v>
+        <v>1588500</v>
       </c>
       <c r="F23" s="3">
-        <v>1431700</v>
+        <v>1428500</v>
       </c>
       <c r="G23" s="3">
-        <v>1270300</v>
+        <v>1267400</v>
       </c>
       <c r="H23" s="3">
-        <v>1278100</v>
+        <v>1275200</v>
       </c>
       <c r="I23" s="3">
-        <v>1274000</v>
+        <v>1271200</v>
       </c>
       <c r="J23" s="3">
-        <v>1214200</v>
+        <v>1211500</v>
       </c>
       <c r="K23" s="3">
         <v>1273200</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>295400</v>
+        <v>294700</v>
       </c>
       <c r="E24" s="3">
-        <v>246100</v>
+        <v>245600</v>
       </c>
       <c r="F24" s="3">
-        <v>225800</v>
+        <v>225300</v>
       </c>
       <c r="G24" s="3">
-        <v>203300</v>
+        <v>202900</v>
       </c>
       <c r="H24" s="3">
-        <v>222800</v>
+        <v>222300</v>
       </c>
       <c r="I24" s="3">
-        <v>228500</v>
+        <v>228000</v>
       </c>
       <c r="J24" s="3">
-        <v>213600</v>
+        <v>213100</v>
       </c>
       <c r="K24" s="3">
         <v>191200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1046900</v>
+        <v>1044600</v>
       </c>
       <c r="E26" s="3">
-        <v>1345900</v>
+        <v>1342900</v>
       </c>
       <c r="F26" s="3">
-        <v>1205900</v>
+        <v>1203200</v>
       </c>
       <c r="G26" s="3">
-        <v>1067000</v>
+        <v>1064600</v>
       </c>
       <c r="H26" s="3">
-        <v>1055300</v>
+        <v>1052900</v>
       </c>
       <c r="I26" s="3">
-        <v>1045500</v>
+        <v>1043100</v>
       </c>
       <c r="J26" s="3">
-        <v>1000600</v>
+        <v>998400</v>
       </c>
       <c r="K26" s="3">
         <v>1082000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>898700</v>
+        <v>896700</v>
       </c>
       <c r="E27" s="3">
-        <v>1201500</v>
+        <v>1198800</v>
       </c>
       <c r="F27" s="3">
-        <v>1061200</v>
+        <v>1058800</v>
       </c>
       <c r="G27" s="3">
-        <v>947100</v>
+        <v>945000</v>
       </c>
       <c r="H27" s="3">
-        <v>942100</v>
+        <v>940000</v>
       </c>
       <c r="I27" s="3">
-        <v>917200</v>
+        <v>915200</v>
       </c>
       <c r="J27" s="3">
-        <v>884300</v>
+        <v>882300</v>
       </c>
       <c r="K27" s="3">
         <v>993200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-330500</v>
+        <v>-329800</v>
       </c>
       <c r="E32" s="3">
-        <v>-659700</v>
+        <v>-658200</v>
       </c>
       <c r="F32" s="3">
-        <v>-528000</v>
+        <v>-526800</v>
       </c>
       <c r="G32" s="3">
-        <v>-504800</v>
+        <v>-503700</v>
       </c>
       <c r="H32" s="3">
-        <v>-508800</v>
+        <v>-507700</v>
       </c>
       <c r="I32" s="3">
-        <v>-414700</v>
+        <v>-413800</v>
       </c>
       <c r="J32" s="3">
-        <v>-344700</v>
+        <v>-344000</v>
       </c>
       <c r="K32" s="3">
         <v>-470700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>898700</v>
+        <v>896700</v>
       </c>
       <c r="E33" s="3">
-        <v>1201500</v>
+        <v>1198800</v>
       </c>
       <c r="F33" s="3">
-        <v>1061200</v>
+        <v>1058800</v>
       </c>
       <c r="G33" s="3">
-        <v>947100</v>
+        <v>945000</v>
       </c>
       <c r="H33" s="3">
-        <v>942100</v>
+        <v>940000</v>
       </c>
       <c r="I33" s="3">
-        <v>917200</v>
+        <v>915200</v>
       </c>
       <c r="J33" s="3">
-        <v>884300</v>
+        <v>882300</v>
       </c>
       <c r="K33" s="3">
         <v>993200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>898700</v>
+        <v>896700</v>
       </c>
       <c r="E35" s="3">
-        <v>1201500</v>
+        <v>1198800</v>
       </c>
       <c r="F35" s="3">
-        <v>1061200</v>
+        <v>1058800</v>
       </c>
       <c r="G35" s="3">
-        <v>947100</v>
+        <v>945000</v>
       </c>
       <c r="H35" s="3">
-        <v>942100</v>
+        <v>940000</v>
       </c>
       <c r="I35" s="3">
-        <v>917200</v>
+        <v>915200</v>
       </c>
       <c r="J35" s="3">
-        <v>884300</v>
+        <v>882300</v>
       </c>
       <c r="K35" s="3">
         <v>993200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1012700</v>
+        <v>1010400</v>
       </c>
       <c r="E41" s="3">
-        <v>1096800</v>
+        <v>1094300</v>
       </c>
       <c r="F41" s="3">
-        <v>1388100</v>
+        <v>1385000</v>
       </c>
       <c r="G41" s="3">
-        <v>1042000</v>
+        <v>1039600</v>
       </c>
       <c r="H41" s="3">
-        <v>1538700</v>
+        <v>1535200</v>
       </c>
       <c r="I41" s="3">
-        <v>1626400</v>
+        <v>1622700</v>
       </c>
       <c r="J41" s="3">
-        <v>1141700</v>
+        <v>1139100</v>
       </c>
       <c r="K41" s="3">
         <v>2232600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45000</v>
+        <v>44900</v>
       </c>
       <c r="E42" s="3">
-        <v>87800</v>
+        <v>87600</v>
       </c>
       <c r="F42" s="3">
-        <v>288100</v>
+        <v>287400</v>
       </c>
       <c r="G42" s="3">
-        <v>456200</v>
+        <v>455200</v>
       </c>
       <c r="H42" s="3">
-        <v>172800</v>
+        <v>172400</v>
       </c>
       <c r="I42" s="3">
-        <v>163700</v>
+        <v>163300</v>
       </c>
       <c r="J42" s="3">
-        <v>251700</v>
+        <v>251100</v>
       </c>
       <c r="K42" s="3">
         <v>78400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1010500</v>
+        <v>1008300</v>
       </c>
       <c r="E43" s="3">
-        <v>950700</v>
+        <v>948600</v>
       </c>
       <c r="F43" s="3">
-        <v>920800</v>
+        <v>918800</v>
       </c>
       <c r="G43" s="3">
-        <v>798500</v>
+        <v>796700</v>
       </c>
       <c r="H43" s="3">
-        <v>881800</v>
+        <v>879800</v>
       </c>
       <c r="I43" s="3">
-        <v>837100</v>
+        <v>835300</v>
       </c>
       <c r="J43" s="3">
-        <v>869900</v>
+        <v>867900</v>
       </c>
       <c r="K43" s="3">
         <v>684400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>305000</v>
+        <v>304300</v>
       </c>
       <c r="E44" s="3">
-        <v>320100</v>
+        <v>319300</v>
       </c>
       <c r="F44" s="3">
-        <v>332700</v>
+        <v>331900</v>
       </c>
       <c r="G44" s="3">
-        <v>272300</v>
+        <v>271700</v>
       </c>
       <c r="H44" s="3">
-        <v>295600</v>
+        <v>295000</v>
       </c>
       <c r="I44" s="3">
-        <v>294600</v>
+        <v>293900</v>
       </c>
       <c r="J44" s="3">
-        <v>307500</v>
+        <v>306800</v>
       </c>
       <c r="K44" s="3">
         <v>266100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>224000</v>
+        <v>223500</v>
       </c>
       <c r="E45" s="3">
-        <v>204000</v>
+        <v>203600</v>
       </c>
       <c r="F45" s="3">
-        <v>214000</v>
+        <v>213600</v>
       </c>
       <c r="G45" s="3">
-        <v>162500</v>
+        <v>162100</v>
       </c>
       <c r="H45" s="3">
-        <v>160300</v>
+        <v>159900</v>
       </c>
       <c r="I45" s="3">
-        <v>257500</v>
+        <v>256900</v>
       </c>
       <c r="J45" s="3">
-        <v>227500</v>
+        <v>227000</v>
       </c>
       <c r="K45" s="3">
         <v>192800</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2597100</v>
+        <v>2591300</v>
       </c>
       <c r="E46" s="3">
-        <v>2659400</v>
+        <v>2653400</v>
       </c>
       <c r="F46" s="3">
-        <v>3143700</v>
+        <v>3136600</v>
       </c>
       <c r="G46" s="3">
-        <v>2731500</v>
+        <v>2725300</v>
       </c>
       <c r="H46" s="3">
-        <v>3049100</v>
+        <v>3042300</v>
       </c>
       <c r="I46" s="3">
-        <v>3179200</v>
+        <v>3172100</v>
       </c>
       <c r="J46" s="3">
-        <v>2798300</v>
+        <v>2792000</v>
       </c>
       <c r="K46" s="3">
         <v>2761000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6014300</v>
+        <v>6000800</v>
       </c>
       <c r="E47" s="3">
-        <v>5412800</v>
+        <v>5400700</v>
       </c>
       <c r="F47" s="3">
-        <v>5011400</v>
+        <v>5000200</v>
       </c>
       <c r="G47" s="3">
-        <v>4539500</v>
+        <v>4529300</v>
       </c>
       <c r="H47" s="3">
-        <v>4336200</v>
+        <v>4326400</v>
       </c>
       <c r="I47" s="3">
-        <v>3802600</v>
+        <v>3794000</v>
       </c>
       <c r="J47" s="3">
-        <v>3781900</v>
+        <v>3773400</v>
       </c>
       <c r="K47" s="3">
         <v>3718200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8339600</v>
+        <v>8320800</v>
       </c>
       <c r="E48" s="3">
-        <v>7580800</v>
+        <v>7563800</v>
       </c>
       <c r="F48" s="3">
-        <v>7301400</v>
+        <v>7285000</v>
       </c>
       <c r="G48" s="3">
-        <v>6443100</v>
+        <v>6428600</v>
       </c>
       <c r="H48" s="3">
-        <v>6214700</v>
+        <v>6200700</v>
       </c>
       <c r="I48" s="3">
-        <v>6499800</v>
+        <v>6485200</v>
       </c>
       <c r="J48" s="3">
-        <v>5947400</v>
+        <v>5934100</v>
       </c>
       <c r="K48" s="3">
         <v>3952900</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>682700</v>
+        <v>681100</v>
       </c>
       <c r="E49" s="3">
-        <v>733100</v>
+        <v>731500</v>
       </c>
       <c r="F49" s="3">
-        <v>759100</v>
+        <v>757400</v>
       </c>
       <c r="G49" s="3">
-        <v>719000</v>
+        <v>717300</v>
       </c>
       <c r="H49" s="3">
-        <v>750800</v>
+        <v>749100</v>
       </c>
       <c r="I49" s="3">
-        <v>755900</v>
+        <v>754200</v>
       </c>
       <c r="J49" s="3">
-        <v>677800</v>
+        <v>676300</v>
       </c>
       <c r="K49" s="3">
         <v>495200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>489800</v>
+        <v>488700</v>
       </c>
       <c r="E52" s="3">
-        <v>733900</v>
+        <v>732300</v>
       </c>
       <c r="F52" s="3">
-        <v>694000</v>
+        <v>692400</v>
       </c>
       <c r="G52" s="3">
-        <v>629200</v>
+        <v>627800</v>
       </c>
       <c r="H52" s="3">
-        <v>559100</v>
+        <v>557900</v>
       </c>
       <c r="I52" s="3">
-        <v>523900</v>
+        <v>522700</v>
       </c>
       <c r="J52" s="3">
-        <v>521700</v>
+        <v>520500</v>
       </c>
       <c r="K52" s="3">
         <v>475700</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18123500</v>
+        <v>18082700</v>
       </c>
       <c r="E54" s="3">
-        <v>17120100</v>
+        <v>17081600</v>
       </c>
       <c r="F54" s="3">
-        <v>16909600</v>
+        <v>16871600</v>
       </c>
       <c r="G54" s="3">
-        <v>15062200</v>
+        <v>15028400</v>
       </c>
       <c r="H54" s="3">
-        <v>14910000</v>
+        <v>14876500</v>
       </c>
       <c r="I54" s="3">
-        <v>14761300</v>
+        <v>14728100</v>
       </c>
       <c r="J54" s="3">
-        <v>13727100</v>
+        <v>13696300</v>
       </c>
       <c r="K54" s="3">
         <v>12742100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>509600</v>
+        <v>508400</v>
       </c>
       <c r="E57" s="3">
-        <v>532500</v>
+        <v>531300</v>
       </c>
       <c r="F57" s="3">
-        <v>530900</v>
+        <v>529700</v>
       </c>
       <c r="G57" s="3">
-        <v>434300</v>
+        <v>433300</v>
       </c>
       <c r="H57" s="3">
-        <v>405800</v>
+        <v>404900</v>
       </c>
       <c r="I57" s="3">
-        <v>496200</v>
+        <v>495100</v>
       </c>
       <c r="J57" s="3">
-        <v>415300</v>
+        <v>414400</v>
       </c>
       <c r="K57" s="3">
         <v>352600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1219600</v>
+        <v>1216800</v>
       </c>
       <c r="E58" s="3">
-        <v>1362500</v>
+        <v>1359400</v>
       </c>
       <c r="F58" s="3">
-        <v>2055600</v>
+        <v>2051000</v>
       </c>
       <c r="G58" s="3">
-        <v>791900</v>
+        <v>790200</v>
       </c>
       <c r="H58" s="3">
-        <v>1276500</v>
+        <v>1273600</v>
       </c>
       <c r="I58" s="3">
-        <v>937100</v>
+        <v>935000</v>
       </c>
       <c r="J58" s="3">
-        <v>838200</v>
+        <v>836300</v>
       </c>
       <c r="K58" s="3">
         <v>836000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1647000</v>
+        <v>1643300</v>
       </c>
       <c r="E59" s="3">
-        <v>1479000</v>
+        <v>1475600</v>
       </c>
       <c r="F59" s="3">
-        <v>1535400</v>
+        <v>1532000</v>
       </c>
       <c r="G59" s="3">
-        <v>1295800</v>
+        <v>1292900</v>
       </c>
       <c r="H59" s="3">
-        <v>1308500</v>
+        <v>1305500</v>
       </c>
       <c r="I59" s="3">
-        <v>1236100</v>
+        <v>1233300</v>
       </c>
       <c r="J59" s="3">
-        <v>1231700</v>
+        <v>1228900</v>
       </c>
       <c r="K59" s="3">
         <v>1033500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3376100</v>
+        <v>3368500</v>
       </c>
       <c r="E60" s="3">
-        <v>3374000</v>
+        <v>3366400</v>
       </c>
       <c r="F60" s="3">
-        <v>4121900</v>
+        <v>4112700</v>
       </c>
       <c r="G60" s="3">
-        <v>2522000</v>
+        <v>2516300</v>
       </c>
       <c r="H60" s="3">
-        <v>2990800</v>
+        <v>2984000</v>
       </c>
       <c r="I60" s="3">
-        <v>2669400</v>
+        <v>2663400</v>
       </c>
       <c r="J60" s="3">
-        <v>2485200</v>
+        <v>2479600</v>
       </c>
       <c r="K60" s="3">
         <v>2222000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3702300</v>
+        <v>3727100</v>
       </c>
       <c r="E61" s="3">
-        <v>3562200</v>
+        <v>3554100</v>
       </c>
       <c r="F61" s="3">
-        <v>2730300</v>
+        <v>2724200</v>
       </c>
       <c r="G61" s="3">
-        <v>3521700</v>
+        <v>3513800</v>
       </c>
       <c r="H61" s="3">
-        <v>3017200</v>
+        <v>3010400</v>
       </c>
       <c r="I61" s="3">
-        <v>3161800</v>
+        <v>3154700</v>
       </c>
       <c r="J61" s="3">
-        <v>3151100</v>
+        <v>3144000</v>
       </c>
       <c r="K61" s="3">
         <v>3254500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1317300</v>
+        <v>1281300</v>
       </c>
       <c r="E62" s="3">
-        <v>1127600</v>
+        <v>1125000</v>
       </c>
       <c r="F62" s="3">
-        <v>994200</v>
+        <v>992000</v>
       </c>
       <c r="G62" s="3">
-        <v>903400</v>
+        <v>901300</v>
       </c>
       <c r="H62" s="3">
-        <v>888200</v>
+        <v>886200</v>
       </c>
       <c r="I62" s="3">
-        <v>902000</v>
+        <v>900000</v>
       </c>
       <c r="J62" s="3">
-        <v>817900</v>
+        <v>816100</v>
       </c>
       <c r="K62" s="3">
         <v>781100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9531500</v>
+        <v>9510100</v>
       </c>
       <c r="E66" s="3">
-        <v>9069100</v>
+        <v>9048700</v>
       </c>
       <c r="F66" s="3">
-        <v>8808100</v>
+        <v>8788300</v>
       </c>
       <c r="G66" s="3">
-        <v>7800200</v>
+        <v>7782700</v>
       </c>
       <c r="H66" s="3">
-        <v>7788700</v>
+        <v>7771200</v>
       </c>
       <c r="I66" s="3">
-        <v>7667500</v>
+        <v>7650300</v>
       </c>
       <c r="J66" s="3">
-        <v>7293200</v>
+        <v>7276800</v>
       </c>
       <c r="K66" s="3">
         <v>6920600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7601700</v>
+        <v>7584600</v>
       </c>
       <c r="E72" s="3">
-        <v>7409700</v>
+        <v>7393000</v>
       </c>
       <c r="F72" s="3">
-        <v>6859600</v>
+        <v>6844200</v>
       </c>
       <c r="G72" s="3">
-        <v>6379800</v>
+        <v>6365400</v>
       </c>
       <c r="H72" s="3">
-        <v>5982000</v>
+        <v>5968500</v>
       </c>
       <c r="I72" s="3">
-        <v>5588900</v>
+        <v>5576400</v>
       </c>
       <c r="J72" s="3">
-        <v>5163200</v>
+        <v>5151600</v>
       </c>
       <c r="K72" s="3">
         <v>4650700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8591900</v>
+        <v>8572600</v>
       </c>
       <c r="E76" s="3">
-        <v>8050900</v>
+        <v>8032800</v>
       </c>
       <c r="F76" s="3">
-        <v>8101500</v>
+        <v>8083300</v>
       </c>
       <c r="G76" s="3">
-        <v>7262000</v>
+        <v>7245700</v>
       </c>
       <c r="H76" s="3">
-        <v>7121300</v>
+        <v>7105300</v>
       </c>
       <c r="I76" s="3">
-        <v>7093800</v>
+        <v>7077800</v>
       </c>
       <c r="J76" s="3">
-        <v>6433900</v>
+        <v>6419500</v>
       </c>
       <c r="K76" s="3">
         <v>5821500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>898700</v>
+        <v>896700</v>
       </c>
       <c r="E81" s="3">
-        <v>1201500</v>
+        <v>1198800</v>
       </c>
       <c r="F81" s="3">
-        <v>1061200</v>
+        <v>1058800</v>
       </c>
       <c r="G81" s="3">
-        <v>947100</v>
+        <v>945000</v>
       </c>
       <c r="H81" s="3">
-        <v>942100</v>
+        <v>940000</v>
       </c>
       <c r="I81" s="3">
-        <v>917200</v>
+        <v>915200</v>
       </c>
       <c r="J81" s="3">
-        <v>884300</v>
+        <v>882300</v>
       </c>
       <c r="K81" s="3">
         <v>993200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>355300</v>
+        <v>354500</v>
       </c>
       <c r="E83" s="3">
-        <v>327300</v>
+        <v>326600</v>
       </c>
       <c r="F83" s="3">
-        <v>306400</v>
+        <v>305700</v>
       </c>
       <c r="G83" s="3">
-        <v>286800</v>
+        <v>286200</v>
       </c>
       <c r="H83" s="3">
-        <v>267800</v>
+        <v>267200</v>
       </c>
       <c r="I83" s="3">
-        <v>251800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>212800</v>
+        <v>251200</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>188700</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1278900</v>
+        <v>1276000</v>
       </c>
       <c r="E89" s="3">
-        <v>1217800</v>
+        <v>1215100</v>
       </c>
       <c r="F89" s="3">
-        <v>1099800</v>
+        <v>1097300</v>
       </c>
       <c r="G89" s="3">
-        <v>1092700</v>
+        <v>1090200</v>
       </c>
       <c r="H89" s="3">
-        <v>1067800</v>
+        <v>1065400</v>
       </c>
       <c r="I89" s="3">
-        <v>1055400</v>
+        <v>1053000</v>
       </c>
       <c r="J89" s="3">
-        <v>902100</v>
+        <v>900100</v>
       </c>
       <c r="K89" s="3">
         <v>858500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-871100</v>
+        <v>-869100</v>
       </c>
       <c r="E91" s="3">
-        <v>-847300</v>
+        <v>-845400</v>
       </c>
       <c r="F91" s="3">
-        <v>-774700</v>
+        <v>-773000</v>
       </c>
       <c r="G91" s="3">
-        <v>-781400</v>
+        <v>-779700</v>
       </c>
       <c r="H91" s="3">
-        <v>-777900</v>
+        <v>-776200</v>
       </c>
       <c r="I91" s="3">
-        <v>-806400</v>
+        <v>-804600</v>
       </c>
       <c r="J91" s="3">
-        <v>-656200</v>
+        <v>-654700</v>
       </c>
       <c r="K91" s="3">
         <v>-749100</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-683900</v>
+        <v>-682400</v>
       </c>
       <c r="E94" s="3">
-        <v>-487300</v>
+        <v>-486200</v>
       </c>
       <c r="F94" s="3">
-        <v>-215500</v>
+        <v>-215100</v>
       </c>
       <c r="G94" s="3">
-        <v>-834600</v>
+        <v>-832700</v>
       </c>
       <c r="H94" s="3">
-        <v>-611400</v>
+        <v>-610100</v>
       </c>
       <c r="I94" s="3">
-        <v>-365600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-739700</v>
+        <v>-364700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-811700</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-718600</v>
+        <v>-717000</v>
       </c>
       <c r="E96" s="3">
-        <v>-653300</v>
+        <v>-651800</v>
       </c>
       <c r="F96" s="3">
-        <v>-593900</v>
+        <v>-592600</v>
       </c>
       <c r="G96" s="3">
-        <v>-539900</v>
+        <v>-538700</v>
       </c>
       <c r="H96" s="3">
-        <v>-491000</v>
+        <v>-489900</v>
       </c>
       <c r="I96" s="3">
-        <v>-446500</v>
+        <v>-445500</v>
       </c>
       <c r="J96" s="3">
-        <v>-405900</v>
+        <v>-405000</v>
       </c>
       <c r="K96" s="3">
         <v>-546400</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-672700</v>
+        <v>-671200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1004900</v>
+        <v>-1002600</v>
       </c>
       <c r="F100" s="3">
-        <v>-559900</v>
+        <v>-558600</v>
       </c>
       <c r="G100" s="3">
-        <v>-731900</v>
+        <v>-730300</v>
       </c>
       <c r="H100" s="3">
-        <v>-513100</v>
+        <v>-511900</v>
       </c>
       <c r="I100" s="3">
-        <v>-186300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-603200</v>
+        <v>-185900</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>74600</v>
@@ -3466,7 +3466,7 @@
         <v>-6400</v>
       </c>
       <c r="E101" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="F101" s="3">
         <v>21700</v>
@@ -3475,13 +3475,13 @@
         <v>-22900</v>
       </c>
       <c r="H101" s="3">
-        <v>-31000</v>
+        <v>-30900</v>
       </c>
       <c r="I101" s="3">
         <v>-18800</v>
       </c>
-      <c r="J101" s="3">
-        <v>10200</v>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-84100</v>
+        <v>-83900</v>
       </c>
       <c r="E102" s="3">
-        <v>-291300</v>
+        <v>-290600</v>
       </c>
       <c r="F102" s="3">
-        <v>346100</v>
+        <v>345300</v>
       </c>
       <c r="G102" s="3">
-        <v>-496700</v>
+        <v>-495600</v>
       </c>
       <c r="H102" s="3">
-        <v>-87700</v>
+        <v>-87500</v>
       </c>
       <c r="I102" s="3">
-        <v>484700</v>
+        <v>483600</v>
       </c>
       <c r="J102" s="3">
-        <v>-430600</v>
+        <v>-429600</v>
       </c>
       <c r="K102" s="3">
         <v>121600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5230100</v>
+        <v>5272600</v>
       </c>
       <c r="E8" s="3">
-        <v>5029900</v>
+        <v>5234100</v>
       </c>
       <c r="F8" s="3">
-        <v>4180700</v>
+        <v>5033800</v>
       </c>
       <c r="G8" s="3">
-        <v>3676200</v>
+        <v>4183900</v>
       </c>
       <c r="H8" s="3">
-        <v>3809300</v>
+        <v>3679000</v>
       </c>
       <c r="I8" s="3">
-        <v>4069800</v>
+        <v>3812200</v>
       </c>
       <c r="J8" s="3">
+        <v>4072900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3636100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3209800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2857000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2806800</v>
+        <v>2832500</v>
       </c>
       <c r="E9" s="3">
-        <v>2651600</v>
+        <v>2809000</v>
       </c>
       <c r="F9" s="3">
-        <v>2020000</v>
+        <v>2653600</v>
       </c>
       <c r="G9" s="3">
-        <v>1636100</v>
+        <v>2021600</v>
       </c>
       <c r="H9" s="3">
-        <v>1814800</v>
+        <v>1637400</v>
       </c>
       <c r="I9" s="3">
-        <v>2098100</v>
+        <v>1816200</v>
       </c>
       <c r="J9" s="3">
+        <v>2099700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1895100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1717100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1420700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2423300</v>
+        <v>2440100</v>
       </c>
       <c r="E10" s="3">
-        <v>2378300</v>
+        <v>2425100</v>
       </c>
       <c r="F10" s="3">
-        <v>2160700</v>
+        <v>2380100</v>
       </c>
       <c r="G10" s="3">
-        <v>2040000</v>
+        <v>2162400</v>
       </c>
       <c r="H10" s="3">
-        <v>1994500</v>
+        <v>2041600</v>
       </c>
       <c r="I10" s="3">
-        <v>1971700</v>
+        <v>1996000</v>
       </c>
       <c r="J10" s="3">
+        <v>1973200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1741000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1492700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1436300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
         <v>1400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6000</v>
       </c>
-      <c r="G12" s="3">
-        <v>6300</v>
-      </c>
       <c r="H12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I12" s="3">
         <v>6700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15500</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-35700</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-4000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>4500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-85600</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>354500</v>
+        <v>378800</v>
       </c>
       <c r="E15" s="3">
-        <v>326600</v>
+        <v>354700</v>
       </c>
       <c r="F15" s="3">
-        <v>305700</v>
+        <v>326900</v>
       </c>
       <c r="G15" s="3">
-        <v>286200</v>
+        <v>305900</v>
       </c>
       <c r="H15" s="3">
-        <v>267200</v>
+        <v>286400</v>
       </c>
       <c r="I15" s="3">
-        <v>251200</v>
+        <v>267400</v>
       </c>
       <c r="J15" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K15" s="3">
         <v>212300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>188700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>167000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4062200</v>
+        <v>4252500</v>
       </c>
       <c r="E17" s="3">
-        <v>3948100</v>
+        <v>4065300</v>
       </c>
       <c r="F17" s="3">
-        <v>3117200</v>
+        <v>3951200</v>
       </c>
       <c r="G17" s="3">
-        <v>2757000</v>
+        <v>3119600</v>
       </c>
       <c r="H17" s="3">
-        <v>2896500</v>
+        <v>2759100</v>
       </c>
       <c r="I17" s="3">
-        <v>3082000</v>
+        <v>2898700</v>
       </c>
       <c r="J17" s="3">
+        <v>3084400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2649400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2296100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2134100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1167900</v>
+        <v>1020100</v>
       </c>
       <c r="E18" s="3">
-        <v>1081700</v>
+        <v>1168800</v>
       </c>
       <c r="F18" s="3">
-        <v>1063500</v>
+        <v>1082600</v>
       </c>
       <c r="G18" s="3">
-        <v>919200</v>
+        <v>1064300</v>
       </c>
       <c r="H18" s="3">
-        <v>912800</v>
+        <v>919900</v>
       </c>
       <c r="I18" s="3">
-        <v>987700</v>
+        <v>913500</v>
       </c>
       <c r="J18" s="3">
+        <v>988500</v>
+      </c>
+      <c r="K18" s="3">
         <v>986700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>913700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>722900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>329800</v>
+        <v>293200</v>
       </c>
       <c r="E20" s="3">
-        <v>658200</v>
+        <v>330000</v>
       </c>
       <c r="F20" s="3">
-        <v>526800</v>
+        <v>658700</v>
       </c>
       <c r="G20" s="3">
-        <v>503700</v>
+        <v>527200</v>
       </c>
       <c r="H20" s="3">
-        <v>507700</v>
+        <v>504100</v>
       </c>
       <c r="I20" s="3">
-        <v>413800</v>
+        <v>508100</v>
       </c>
       <c r="J20" s="3">
+        <v>414100</v>
+      </c>
+      <c r="K20" s="3">
         <v>344000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>470700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400800</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1852100</v>
+        <v>1692000</v>
       </c>
       <c r="E21" s="3">
-        <v>2066500</v>
+        <v>1853500</v>
       </c>
       <c r="F21" s="3">
-        <v>1896000</v>
+        <v>2068000</v>
       </c>
       <c r="G21" s="3">
-        <v>1709000</v>
+        <v>1897400</v>
       </c>
       <c r="H21" s="3">
-        <v>1687600</v>
+        <v>1710300</v>
       </c>
       <c r="I21" s="3">
-        <v>1652800</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1688900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1654000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1573200</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158400</v>
+        <v>163400</v>
       </c>
       <c r="E22" s="3">
-        <v>151500</v>
+        <v>158500</v>
       </c>
       <c r="F22" s="3">
-        <v>161800</v>
+        <v>151600</v>
       </c>
       <c r="G22" s="3">
-        <v>155400</v>
+        <v>161900</v>
       </c>
       <c r="H22" s="3">
-        <v>145300</v>
+        <v>155500</v>
       </c>
       <c r="I22" s="3">
-        <v>130400</v>
+        <v>145400</v>
       </c>
       <c r="J22" s="3">
+        <v>130500</v>
+      </c>
+      <c r="K22" s="3">
         <v>119200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>111200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>95800</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1339300</v>
+        <v>1149900</v>
       </c>
       <c r="E23" s="3">
-        <v>1588500</v>
+        <v>1340300</v>
       </c>
       <c r="F23" s="3">
-        <v>1428500</v>
+        <v>1589700</v>
       </c>
       <c r="G23" s="3">
-        <v>1267400</v>
+        <v>1429600</v>
       </c>
       <c r="H23" s="3">
-        <v>1275200</v>
+        <v>1268400</v>
       </c>
       <c r="I23" s="3">
-        <v>1271200</v>
+        <v>1276200</v>
       </c>
       <c r="J23" s="3">
+        <v>1272100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1211500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1273200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1027900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>294700</v>
+        <v>220700</v>
       </c>
       <c r="E24" s="3">
-        <v>245600</v>
+        <v>295000</v>
       </c>
       <c r="F24" s="3">
-        <v>225300</v>
+        <v>245800</v>
       </c>
       <c r="G24" s="3">
-        <v>202900</v>
+        <v>225400</v>
       </c>
       <c r="H24" s="3">
-        <v>222300</v>
+        <v>203000</v>
       </c>
       <c r="I24" s="3">
-        <v>228000</v>
+        <v>222500</v>
       </c>
       <c r="J24" s="3">
+        <v>228200</v>
+      </c>
+      <c r="K24" s="3">
         <v>213100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>191200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>171200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1044600</v>
+        <v>929200</v>
       </c>
       <c r="E26" s="3">
-        <v>1342900</v>
+        <v>1045400</v>
       </c>
       <c r="F26" s="3">
-        <v>1203200</v>
+        <v>1343900</v>
       </c>
       <c r="G26" s="3">
-        <v>1064600</v>
+        <v>1204200</v>
       </c>
       <c r="H26" s="3">
-        <v>1052900</v>
+        <v>1065400</v>
       </c>
       <c r="I26" s="3">
-        <v>1043100</v>
+        <v>1053700</v>
       </c>
       <c r="J26" s="3">
+        <v>1043900</v>
+      </c>
+      <c r="K26" s="3">
         <v>998400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1082000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>856700</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>896700</v>
+        <v>773900</v>
       </c>
       <c r="E27" s="3">
-        <v>1198800</v>
+        <v>897400</v>
       </c>
       <c r="F27" s="3">
-        <v>1058800</v>
+        <v>1199800</v>
       </c>
       <c r="G27" s="3">
-        <v>945000</v>
+        <v>1059700</v>
       </c>
       <c r="H27" s="3">
-        <v>940000</v>
+        <v>945700</v>
       </c>
       <c r="I27" s="3">
-        <v>915200</v>
+        <v>940700</v>
       </c>
       <c r="J27" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K27" s="3">
         <v>882300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>993200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>783400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-329800</v>
+        <v>-293200</v>
       </c>
       <c r="E32" s="3">
-        <v>-658200</v>
+        <v>-330000</v>
       </c>
       <c r="F32" s="3">
-        <v>-526800</v>
+        <v>-658700</v>
       </c>
       <c r="G32" s="3">
-        <v>-503700</v>
+        <v>-527200</v>
       </c>
       <c r="H32" s="3">
-        <v>-507700</v>
+        <v>-504100</v>
       </c>
       <c r="I32" s="3">
-        <v>-413800</v>
+        <v>-508100</v>
       </c>
       <c r="J32" s="3">
+        <v>-414100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-344000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-470700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400800</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>896700</v>
+        <v>773900</v>
       </c>
       <c r="E33" s="3">
-        <v>1198800</v>
+        <v>897400</v>
       </c>
       <c r="F33" s="3">
-        <v>1058800</v>
+        <v>1199800</v>
       </c>
       <c r="G33" s="3">
-        <v>945000</v>
+        <v>1059700</v>
       </c>
       <c r="H33" s="3">
-        <v>940000</v>
+        <v>945700</v>
       </c>
       <c r="I33" s="3">
-        <v>915200</v>
+        <v>940700</v>
       </c>
       <c r="J33" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K33" s="3">
         <v>882300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>993200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>783400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>896700</v>
+        <v>773900</v>
       </c>
       <c r="E35" s="3">
-        <v>1198800</v>
+        <v>897400</v>
       </c>
       <c r="F35" s="3">
-        <v>1058800</v>
+        <v>1199800</v>
       </c>
       <c r="G35" s="3">
-        <v>945000</v>
+        <v>1059700</v>
       </c>
       <c r="H35" s="3">
-        <v>940000</v>
+        <v>945700</v>
       </c>
       <c r="I35" s="3">
-        <v>915200</v>
+        <v>940700</v>
       </c>
       <c r="J35" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K35" s="3">
         <v>882300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>993200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>783400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1010400</v>
+        <v>960400</v>
       </c>
       <c r="E41" s="3">
-        <v>1094300</v>
+        <v>1011200</v>
       </c>
       <c r="F41" s="3">
-        <v>1385000</v>
+        <v>1095200</v>
       </c>
       <c r="G41" s="3">
-        <v>1039600</v>
+        <v>1386000</v>
       </c>
       <c r="H41" s="3">
-        <v>1535200</v>
+        <v>1040400</v>
       </c>
       <c r="I41" s="3">
-        <v>1622700</v>
+        <v>1536400</v>
       </c>
       <c r="J41" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1139100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2232600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1432100</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E42" s="3">
         <v>44900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>87600</v>
       </c>
-      <c r="F42" s="3">
-        <v>287400</v>
-      </c>
       <c r="G42" s="3">
-        <v>455200</v>
+        <v>287600</v>
       </c>
       <c r="H42" s="3">
-        <v>172400</v>
+        <v>455500</v>
       </c>
       <c r="I42" s="3">
-        <v>163300</v>
+        <v>172500</v>
       </c>
       <c r="J42" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K42" s="3">
         <v>251100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>78400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102800</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1008300</v>
+        <v>961700</v>
       </c>
       <c r="E43" s="3">
-        <v>948600</v>
+        <v>1009000</v>
       </c>
       <c r="F43" s="3">
-        <v>918800</v>
+        <v>949300</v>
       </c>
       <c r="G43" s="3">
-        <v>796700</v>
+        <v>919500</v>
       </c>
       <c r="H43" s="3">
-        <v>879800</v>
+        <v>797300</v>
       </c>
       <c r="I43" s="3">
-        <v>835300</v>
+        <v>880500</v>
       </c>
       <c r="J43" s="3">
+        <v>835900</v>
+      </c>
+      <c r="K43" s="3">
         <v>867900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>684400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>611600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>304300</v>
+        <v>344100</v>
       </c>
       <c r="E44" s="3">
-        <v>319300</v>
+        <v>304500</v>
       </c>
       <c r="F44" s="3">
-        <v>331900</v>
+        <v>319600</v>
       </c>
       <c r="G44" s="3">
-        <v>271700</v>
+        <v>332200</v>
       </c>
       <c r="H44" s="3">
-        <v>295000</v>
+        <v>271900</v>
       </c>
       <c r="I44" s="3">
-        <v>293900</v>
+        <v>295200</v>
       </c>
       <c r="J44" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K44" s="3">
         <v>306800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>266100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>206700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>223500</v>
+        <v>278100</v>
       </c>
       <c r="E45" s="3">
-        <v>203600</v>
+        <v>223600</v>
       </c>
       <c r="F45" s="3">
-        <v>213600</v>
+        <v>203700</v>
       </c>
       <c r="G45" s="3">
-        <v>162100</v>
+        <v>213700</v>
       </c>
       <c r="H45" s="3">
-        <v>159900</v>
+        <v>162200</v>
       </c>
       <c r="I45" s="3">
-        <v>256900</v>
+        <v>160000</v>
       </c>
       <c r="J45" s="3">
+        <v>257100</v>
+      </c>
+      <c r="K45" s="3">
         <v>227000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>192800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>188800</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2591300</v>
+        <v>2596800</v>
       </c>
       <c r="E46" s="3">
-        <v>2653400</v>
+        <v>2593300</v>
       </c>
       <c r="F46" s="3">
-        <v>3136600</v>
+        <v>2655500</v>
       </c>
       <c r="G46" s="3">
-        <v>2725300</v>
+        <v>3139000</v>
       </c>
       <c r="H46" s="3">
-        <v>3042300</v>
+        <v>2727400</v>
       </c>
       <c r="I46" s="3">
-        <v>3172100</v>
+        <v>3044600</v>
       </c>
       <c r="J46" s="3">
+        <v>3174600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2792000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2761000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2542100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000800</v>
+        <v>6201400</v>
       </c>
       <c r="E47" s="3">
-        <v>5400700</v>
+        <v>6005500</v>
       </c>
       <c r="F47" s="3">
-        <v>5000200</v>
+        <v>5404900</v>
       </c>
       <c r="G47" s="3">
-        <v>4529300</v>
+        <v>5004100</v>
       </c>
       <c r="H47" s="3">
-        <v>4326400</v>
+        <v>4532800</v>
       </c>
       <c r="I47" s="3">
-        <v>3794000</v>
+        <v>4329800</v>
       </c>
       <c r="J47" s="3">
+        <v>3797000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3773400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3718200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3214600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8320800</v>
+        <v>9245200</v>
       </c>
       <c r="E48" s="3">
-        <v>7563800</v>
+        <v>8327300</v>
       </c>
       <c r="F48" s="3">
-        <v>7285000</v>
+        <v>7569600</v>
       </c>
       <c r="G48" s="3">
-        <v>6428600</v>
+        <v>7290700</v>
       </c>
       <c r="H48" s="3">
-        <v>6200700</v>
+        <v>6433600</v>
       </c>
       <c r="I48" s="3">
-        <v>6485200</v>
+        <v>6205600</v>
       </c>
       <c r="J48" s="3">
+        <v>6490200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5934100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3952900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4347100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>681100</v>
+        <v>703800</v>
       </c>
       <c r="E49" s="3">
-        <v>731500</v>
+        <v>681700</v>
       </c>
       <c r="F49" s="3">
-        <v>757400</v>
+        <v>732000</v>
       </c>
       <c r="G49" s="3">
-        <v>717300</v>
+        <v>758000</v>
       </c>
       <c r="H49" s="3">
-        <v>749100</v>
+        <v>717900</v>
       </c>
       <c r="I49" s="3">
-        <v>754200</v>
+        <v>749700</v>
       </c>
       <c r="J49" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K49" s="3">
         <v>676300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>495200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>437600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>488700</v>
+        <v>613400</v>
       </c>
       <c r="E52" s="3">
-        <v>732300</v>
+        <v>489100</v>
       </c>
       <c r="F52" s="3">
-        <v>692400</v>
+        <v>732800</v>
       </c>
       <c r="G52" s="3">
-        <v>627800</v>
+        <v>692900</v>
       </c>
       <c r="H52" s="3">
-        <v>557900</v>
+        <v>628300</v>
       </c>
       <c r="I52" s="3">
-        <v>522700</v>
+        <v>558300</v>
       </c>
       <c r="J52" s="3">
+        <v>523100</v>
+      </c>
+      <c r="K52" s="3">
         <v>520500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>475700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>298100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18082700</v>
+        <v>19360600</v>
       </c>
       <c r="E54" s="3">
-        <v>17081600</v>
+        <v>18096800</v>
       </c>
       <c r="F54" s="3">
-        <v>16871600</v>
+        <v>17094900</v>
       </c>
       <c r="G54" s="3">
-        <v>15028400</v>
+        <v>16884700</v>
       </c>
       <c r="H54" s="3">
-        <v>14876500</v>
+        <v>15040100</v>
       </c>
       <c r="I54" s="3">
-        <v>14728100</v>
+        <v>14888000</v>
       </c>
       <c r="J54" s="3">
+        <v>14739600</v>
+      </c>
+      <c r="K54" s="3">
         <v>13696300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12742100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10839500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>508400</v>
+        <v>524700</v>
       </c>
       <c r="E57" s="3">
-        <v>531300</v>
+        <v>508800</v>
       </c>
       <c r="F57" s="3">
-        <v>529700</v>
+        <v>531800</v>
       </c>
       <c r="G57" s="3">
-        <v>433300</v>
+        <v>530100</v>
       </c>
       <c r="H57" s="3">
-        <v>404900</v>
+        <v>433600</v>
       </c>
       <c r="I57" s="3">
-        <v>495100</v>
+        <v>405200</v>
       </c>
       <c r="J57" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K57" s="3">
         <v>414400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>352600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1021900</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1216800</v>
+        <v>1425600</v>
       </c>
       <c r="E58" s="3">
-        <v>1359400</v>
+        <v>1217800</v>
       </c>
       <c r="F58" s="3">
-        <v>2051000</v>
+        <v>1360500</v>
       </c>
       <c r="G58" s="3">
-        <v>790200</v>
+        <v>2052600</v>
       </c>
       <c r="H58" s="3">
-        <v>1273600</v>
+        <v>790800</v>
       </c>
       <c r="I58" s="3">
-        <v>935000</v>
+        <v>1274600</v>
       </c>
       <c r="J58" s="3">
+        <v>935800</v>
+      </c>
+      <c r="K58" s="3">
         <v>836300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>836000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>537700</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1643300</v>
+        <v>1889700</v>
       </c>
       <c r="E59" s="3">
-        <v>1475600</v>
+        <v>1644600</v>
       </c>
       <c r="F59" s="3">
-        <v>1532000</v>
+        <v>1476800</v>
       </c>
       <c r="G59" s="3">
-        <v>1292900</v>
+        <v>1533200</v>
       </c>
       <c r="H59" s="3">
-        <v>1305500</v>
+        <v>1293900</v>
       </c>
       <c r="I59" s="3">
-        <v>1233300</v>
+        <v>1306500</v>
       </c>
       <c r="J59" s="3">
+        <v>1234200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1228900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1033500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3368500</v>
+        <v>3839900</v>
       </c>
       <c r="E60" s="3">
-        <v>3366400</v>
+        <v>3371200</v>
       </c>
       <c r="F60" s="3">
-        <v>4112700</v>
+        <v>3369000</v>
       </c>
       <c r="G60" s="3">
-        <v>2516300</v>
+        <v>4115900</v>
       </c>
       <c r="H60" s="3">
-        <v>2984000</v>
+        <v>2518300</v>
       </c>
       <c r="I60" s="3">
-        <v>2663400</v>
+        <v>2986400</v>
       </c>
       <c r="J60" s="3">
+        <v>2665400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2479600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2222000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1707500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3727100</v>
+        <v>4055900</v>
       </c>
       <c r="E61" s="3">
-        <v>3554100</v>
+        <v>3730000</v>
       </c>
       <c r="F61" s="3">
-        <v>2724200</v>
+        <v>3556900</v>
       </c>
       <c r="G61" s="3">
-        <v>3513800</v>
+        <v>2726300</v>
       </c>
       <c r="H61" s="3">
-        <v>3010400</v>
+        <v>3516600</v>
       </c>
       <c r="I61" s="3">
-        <v>3154700</v>
+        <v>3012700</v>
       </c>
       <c r="J61" s="3">
+        <v>3157200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3144000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3254500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2755200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1281300</v>
+        <v>1267500</v>
       </c>
       <c r="E62" s="3">
-        <v>1125000</v>
+        <v>1282300</v>
       </c>
       <c r="F62" s="3">
-        <v>992000</v>
+        <v>1125900</v>
       </c>
       <c r="G62" s="3">
-        <v>901300</v>
+        <v>992800</v>
       </c>
       <c r="H62" s="3">
-        <v>886200</v>
+        <v>902000</v>
       </c>
       <c r="I62" s="3">
-        <v>900000</v>
+        <v>886900</v>
       </c>
       <c r="J62" s="3">
+        <v>900700</v>
+      </c>
+      <c r="K62" s="3">
         <v>816100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>781100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>474500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9510100</v>
+        <v>10453000</v>
       </c>
       <c r="E66" s="3">
-        <v>9048700</v>
+        <v>9517500</v>
       </c>
       <c r="F66" s="3">
-        <v>8788300</v>
+        <v>9055800</v>
       </c>
       <c r="G66" s="3">
-        <v>7782700</v>
+        <v>8795100</v>
       </c>
       <c r="H66" s="3">
-        <v>7771200</v>
+        <v>7788700</v>
       </c>
       <c r="I66" s="3">
-        <v>7650300</v>
+        <v>7777200</v>
       </c>
       <c r="J66" s="3">
+        <v>7656200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7276800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6920600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5542100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7584600</v>
+        <v>7600500</v>
       </c>
       <c r="E72" s="3">
-        <v>7393000</v>
+        <v>7590500</v>
       </c>
       <c r="F72" s="3">
-        <v>6844200</v>
+        <v>7398700</v>
       </c>
       <c r="G72" s="3">
-        <v>6365400</v>
+        <v>6849500</v>
       </c>
       <c r="H72" s="3">
-        <v>5968500</v>
+        <v>6370400</v>
       </c>
       <c r="I72" s="3">
-        <v>5576400</v>
+        <v>5973200</v>
       </c>
       <c r="J72" s="3">
+        <v>5580700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5151600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4650700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4154200</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8572600</v>
+        <v>8907600</v>
       </c>
       <c r="E76" s="3">
-        <v>8032800</v>
+        <v>8579300</v>
       </c>
       <c r="F76" s="3">
-        <v>8083300</v>
+        <v>8039100</v>
       </c>
       <c r="G76" s="3">
-        <v>7245700</v>
+        <v>8089600</v>
       </c>
       <c r="H76" s="3">
-        <v>7105300</v>
+        <v>7251300</v>
       </c>
       <c r="I76" s="3">
-        <v>7077800</v>
+        <v>7110800</v>
       </c>
       <c r="J76" s="3">
+        <v>7083300</v>
+      </c>
+      <c r="K76" s="3">
         <v>6419500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5821500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5297400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>896700</v>
+        <v>773900</v>
       </c>
       <c r="E81" s="3">
-        <v>1198800</v>
+        <v>897400</v>
       </c>
       <c r="F81" s="3">
-        <v>1058800</v>
+        <v>1199800</v>
       </c>
       <c r="G81" s="3">
-        <v>945000</v>
+        <v>1059700</v>
       </c>
       <c r="H81" s="3">
-        <v>940000</v>
+        <v>945700</v>
       </c>
       <c r="I81" s="3">
-        <v>915200</v>
+        <v>940700</v>
       </c>
       <c r="J81" s="3">
+        <v>915900</v>
+      </c>
+      <c r="K81" s="3">
         <v>882300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>993200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>783400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>354500</v>
+        <v>378800</v>
       </c>
       <c r="E83" s="3">
-        <v>326600</v>
+        <v>354700</v>
       </c>
       <c r="F83" s="3">
-        <v>305700</v>
+        <v>326900</v>
       </c>
       <c r="G83" s="3">
-        <v>286200</v>
+        <v>305900</v>
       </c>
       <c r="H83" s="3">
-        <v>267200</v>
+        <v>286400</v>
       </c>
       <c r="I83" s="3">
-        <v>251200</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>267400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>251400</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>188700</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1276000</v>
+        <v>1276700</v>
       </c>
       <c r="E89" s="3">
-        <v>1215100</v>
+        <v>1277000</v>
       </c>
       <c r="F89" s="3">
-        <v>1097300</v>
+        <v>1216000</v>
       </c>
       <c r="G89" s="3">
-        <v>1090200</v>
+        <v>1098200</v>
       </c>
       <c r="H89" s="3">
-        <v>1065400</v>
+        <v>1091100</v>
       </c>
       <c r="I89" s="3">
-        <v>1053000</v>
+        <v>1066300</v>
       </c>
       <c r="J89" s="3">
+        <v>1053800</v>
+      </c>
+      <c r="K89" s="3">
         <v>900100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>858500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>631500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-939800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-908600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-869100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-845400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-773000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-779700</v>
+        <v>-791100</v>
       </c>
       <c r="H91" s="3">
-        <v>-776200</v>
+        <v>-806000</v>
       </c>
       <c r="I91" s="3">
-        <v>-804600</v>
+        <v>-818800</v>
       </c>
       <c r="J91" s="3">
+        <v>-820000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-654700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-749100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-583300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-682400</v>
+        <v>-771600</v>
       </c>
       <c r="E94" s="3">
-        <v>-486200</v>
+        <v>-682900</v>
       </c>
       <c r="F94" s="3">
-        <v>-215100</v>
+        <v>-486500</v>
       </c>
       <c r="G94" s="3">
-        <v>-832700</v>
+        <v>-215200</v>
       </c>
       <c r="H94" s="3">
-        <v>-610100</v>
+        <v>-833300</v>
       </c>
       <c r="I94" s="3">
-        <v>-364700</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-610500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-365000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-811700</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-717000</v>
+        <v>-776300</v>
       </c>
       <c r="E96" s="3">
-        <v>-651800</v>
+        <v>-717600</v>
       </c>
       <c r="F96" s="3">
-        <v>-592600</v>
+        <v>-652300</v>
       </c>
       <c r="G96" s="3">
-        <v>-538700</v>
+        <v>-593000</v>
       </c>
       <c r="H96" s="3">
-        <v>-489900</v>
+        <v>-539200</v>
       </c>
       <c r="I96" s="3">
-        <v>-445500</v>
+        <v>-490200</v>
       </c>
       <c r="J96" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-405000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-546400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-331200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-671200</v>
+        <v>-582400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1002600</v>
+        <v>-671700</v>
       </c>
       <c r="F100" s="3">
-        <v>-558600</v>
+        <v>-1003400</v>
       </c>
       <c r="G100" s="3">
-        <v>-730300</v>
+        <v>-559100</v>
       </c>
       <c r="H100" s="3">
-        <v>-511900</v>
+        <v>-730900</v>
       </c>
       <c r="I100" s="3">
-        <v>-185900</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-512300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-186100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>74600</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6400</v>
       </c>
-      <c r="E101" s="3">
-        <v>-16900</v>
-      </c>
       <c r="F101" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="G101" s="3">
         <v>21700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-22900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-30900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18800</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-83900</v>
+        <v>-50700</v>
       </c>
       <c r="E102" s="3">
-        <v>-290600</v>
+        <v>-84000</v>
       </c>
       <c r="F102" s="3">
-        <v>345300</v>
+        <v>-290900</v>
       </c>
       <c r="G102" s="3">
-        <v>-495600</v>
+        <v>345600</v>
       </c>
       <c r="H102" s="3">
-        <v>-87500</v>
+        <v>-496000</v>
       </c>
       <c r="I102" s="3">
-        <v>483600</v>
+        <v>-87600</v>
       </c>
       <c r="J102" s="3">
+        <v>483900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-429600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>121600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>196900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5272600</v>
+        <v>5253800</v>
       </c>
       <c r="E8" s="3">
-        <v>5234100</v>
+        <v>5215400</v>
       </c>
       <c r="F8" s="3">
-        <v>5033800</v>
+        <v>5015800</v>
       </c>
       <c r="G8" s="3">
-        <v>4183900</v>
+        <v>4169000</v>
       </c>
       <c r="H8" s="3">
-        <v>3679000</v>
+        <v>3665900</v>
       </c>
       <c r="I8" s="3">
-        <v>3812200</v>
+        <v>3798600</v>
       </c>
       <c r="J8" s="3">
-        <v>4072900</v>
+        <v>4058400</v>
       </c>
       <c r="K8" s="3">
         <v>3636100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2832500</v>
+        <v>2822400</v>
       </c>
       <c r="E9" s="3">
-        <v>2809000</v>
+        <v>2799000</v>
       </c>
       <c r="F9" s="3">
-        <v>2653600</v>
+        <v>2644200</v>
       </c>
       <c r="G9" s="3">
-        <v>2021600</v>
+        <v>2014400</v>
       </c>
       <c r="H9" s="3">
-        <v>1637400</v>
+        <v>1631500</v>
       </c>
       <c r="I9" s="3">
-        <v>1816200</v>
+        <v>1809700</v>
       </c>
       <c r="J9" s="3">
-        <v>2099700</v>
+        <v>2092200</v>
       </c>
       <c r="K9" s="3">
         <v>1895100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2440100</v>
+        <v>2431400</v>
       </c>
       <c r="E10" s="3">
-        <v>2425100</v>
+        <v>2416500</v>
       </c>
       <c r="F10" s="3">
-        <v>2380100</v>
+        <v>2371600</v>
       </c>
       <c r="G10" s="3">
-        <v>2162400</v>
+        <v>2154600</v>
       </c>
       <c r="H10" s="3">
-        <v>2041600</v>
+        <v>2034300</v>
       </c>
       <c r="I10" s="3">
-        <v>1996000</v>
+        <v>1988900</v>
       </c>
       <c r="J10" s="3">
-        <v>1973200</v>
+        <v>1966200</v>
       </c>
       <c r="K10" s="3">
         <v>1741000</v>
@@ -856,10 +856,10 @@
         <v>6000</v>
       </c>
       <c r="H12" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="I12" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="J12" s="3">
         <v>5300</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-35700</v>
+        <v>-35600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>378800</v>
+        <v>377500</v>
       </c>
       <c r="E15" s="3">
-        <v>354700</v>
+        <v>353500</v>
       </c>
       <c r="F15" s="3">
-        <v>326900</v>
+        <v>325700</v>
       </c>
       <c r="G15" s="3">
-        <v>305900</v>
+        <v>304900</v>
       </c>
       <c r="H15" s="3">
-        <v>286400</v>
+        <v>285400</v>
       </c>
       <c r="I15" s="3">
-        <v>267400</v>
+        <v>266400</v>
       </c>
       <c r="J15" s="3">
-        <v>251400</v>
+        <v>250500</v>
       </c>
       <c r="K15" s="3">
         <v>212300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4252500</v>
+        <v>4237400</v>
       </c>
       <c r="E17" s="3">
-        <v>4065300</v>
+        <v>4050800</v>
       </c>
       <c r="F17" s="3">
-        <v>3951200</v>
+        <v>3937100</v>
       </c>
       <c r="G17" s="3">
-        <v>3119600</v>
+        <v>3108500</v>
       </c>
       <c r="H17" s="3">
-        <v>2759100</v>
+        <v>2749300</v>
       </c>
       <c r="I17" s="3">
-        <v>2898700</v>
+        <v>2888400</v>
       </c>
       <c r="J17" s="3">
-        <v>3084400</v>
+        <v>3073400</v>
       </c>
       <c r="K17" s="3">
         <v>2649400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1020100</v>
+        <v>1016400</v>
       </c>
       <c r="E18" s="3">
-        <v>1168800</v>
+        <v>1164600</v>
       </c>
       <c r="F18" s="3">
-        <v>1082600</v>
+        <v>1078700</v>
       </c>
       <c r="G18" s="3">
-        <v>1064300</v>
+        <v>1060500</v>
       </c>
       <c r="H18" s="3">
-        <v>919900</v>
+        <v>916600</v>
       </c>
       <c r="I18" s="3">
-        <v>913500</v>
+        <v>910200</v>
       </c>
       <c r="J18" s="3">
-        <v>988500</v>
+        <v>985000</v>
       </c>
       <c r="K18" s="3">
         <v>986700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>293200</v>
+        <v>292200</v>
       </c>
       <c r="E20" s="3">
-        <v>330000</v>
+        <v>328900</v>
       </c>
       <c r="F20" s="3">
-        <v>658700</v>
+        <v>656300</v>
       </c>
       <c r="G20" s="3">
-        <v>527200</v>
+        <v>525300</v>
       </c>
       <c r="H20" s="3">
-        <v>504100</v>
+        <v>502300</v>
       </c>
       <c r="I20" s="3">
-        <v>508100</v>
+        <v>506300</v>
       </c>
       <c r="J20" s="3">
-        <v>414100</v>
+        <v>412700</v>
       </c>
       <c r="K20" s="3">
         <v>344000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1692000</v>
+        <v>1686200</v>
       </c>
       <c r="E21" s="3">
-        <v>1853500</v>
+        <v>1847000</v>
       </c>
       <c r="F21" s="3">
-        <v>2068000</v>
+        <v>2060800</v>
       </c>
       <c r="G21" s="3">
-        <v>1897400</v>
+        <v>1890800</v>
       </c>
       <c r="H21" s="3">
-        <v>1710300</v>
+        <v>1704300</v>
       </c>
       <c r="I21" s="3">
-        <v>1688900</v>
+        <v>1683000</v>
       </c>
       <c r="J21" s="3">
-        <v>1654000</v>
+        <v>1648200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163400</v>
+        <v>162900</v>
       </c>
       <c r="E22" s="3">
-        <v>158500</v>
+        <v>157900</v>
       </c>
       <c r="F22" s="3">
-        <v>151600</v>
+        <v>151000</v>
       </c>
       <c r="G22" s="3">
-        <v>161900</v>
+        <v>161300</v>
       </c>
       <c r="H22" s="3">
-        <v>155500</v>
+        <v>155000</v>
       </c>
       <c r="I22" s="3">
-        <v>145400</v>
+        <v>144900</v>
       </c>
       <c r="J22" s="3">
-        <v>130500</v>
+        <v>130000</v>
       </c>
       <c r="K22" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1149900</v>
+        <v>1145800</v>
       </c>
       <c r="E23" s="3">
-        <v>1340300</v>
+        <v>1335500</v>
       </c>
       <c r="F23" s="3">
-        <v>1589700</v>
+        <v>1584000</v>
       </c>
       <c r="G23" s="3">
-        <v>1429600</v>
+        <v>1424500</v>
       </c>
       <c r="H23" s="3">
-        <v>1268400</v>
+        <v>1263900</v>
       </c>
       <c r="I23" s="3">
-        <v>1276200</v>
+        <v>1271600</v>
       </c>
       <c r="J23" s="3">
-        <v>1272100</v>
+        <v>1267600</v>
       </c>
       <c r="K23" s="3">
         <v>1211500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>220700</v>
+        <v>219900</v>
       </c>
       <c r="E24" s="3">
-        <v>295000</v>
+        <v>293900</v>
       </c>
       <c r="F24" s="3">
-        <v>245800</v>
+        <v>244900</v>
       </c>
       <c r="G24" s="3">
-        <v>225400</v>
+        <v>224600</v>
       </c>
       <c r="H24" s="3">
-        <v>203000</v>
+        <v>202300</v>
       </c>
       <c r="I24" s="3">
-        <v>222500</v>
+        <v>221700</v>
       </c>
       <c r="J24" s="3">
-        <v>228200</v>
+        <v>227400</v>
       </c>
       <c r="K24" s="3">
         <v>213100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>929200</v>
+        <v>925900</v>
       </c>
       <c r="E26" s="3">
-        <v>1045400</v>
+        <v>1041600</v>
       </c>
       <c r="F26" s="3">
-        <v>1343900</v>
+        <v>1339100</v>
       </c>
       <c r="G26" s="3">
-        <v>1204200</v>
+        <v>1199900</v>
       </c>
       <c r="H26" s="3">
-        <v>1065400</v>
+        <v>1061600</v>
       </c>
       <c r="I26" s="3">
-        <v>1053700</v>
+        <v>1050000</v>
       </c>
       <c r="J26" s="3">
-        <v>1043900</v>
+        <v>1040200</v>
       </c>
       <c r="K26" s="3">
         <v>998400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>773900</v>
+        <v>771200</v>
       </c>
       <c r="E27" s="3">
-        <v>897400</v>
+        <v>894200</v>
       </c>
       <c r="F27" s="3">
-        <v>1199800</v>
+        <v>1195500</v>
       </c>
       <c r="G27" s="3">
-        <v>1059700</v>
+        <v>1055900</v>
       </c>
       <c r="H27" s="3">
-        <v>945700</v>
+        <v>942300</v>
       </c>
       <c r="I27" s="3">
-        <v>940700</v>
+        <v>937400</v>
       </c>
       <c r="J27" s="3">
-        <v>915900</v>
+        <v>912600</v>
       </c>
       <c r="K27" s="3">
         <v>882300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-293200</v>
+        <v>-292200</v>
       </c>
       <c r="E32" s="3">
-        <v>-330000</v>
+        <v>-328900</v>
       </c>
       <c r="F32" s="3">
-        <v>-658700</v>
+        <v>-656300</v>
       </c>
       <c r="G32" s="3">
-        <v>-527200</v>
+        <v>-525300</v>
       </c>
       <c r="H32" s="3">
-        <v>-504100</v>
+        <v>-502300</v>
       </c>
       <c r="I32" s="3">
-        <v>-508100</v>
+        <v>-506300</v>
       </c>
       <c r="J32" s="3">
-        <v>-414100</v>
+        <v>-412700</v>
       </c>
       <c r="K32" s="3">
         <v>-344000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>773900</v>
+        <v>771200</v>
       </c>
       <c r="E33" s="3">
-        <v>897400</v>
+        <v>894200</v>
       </c>
       <c r="F33" s="3">
-        <v>1199800</v>
+        <v>1195500</v>
       </c>
       <c r="G33" s="3">
-        <v>1059700</v>
+        <v>1055900</v>
       </c>
       <c r="H33" s="3">
-        <v>945700</v>
+        <v>942300</v>
       </c>
       <c r="I33" s="3">
-        <v>940700</v>
+        <v>937400</v>
       </c>
       <c r="J33" s="3">
-        <v>915900</v>
+        <v>912600</v>
       </c>
       <c r="K33" s="3">
         <v>882300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>773900</v>
+        <v>771200</v>
       </c>
       <c r="E35" s="3">
-        <v>897400</v>
+        <v>894200</v>
       </c>
       <c r="F35" s="3">
-        <v>1199800</v>
+        <v>1195500</v>
       </c>
       <c r="G35" s="3">
-        <v>1059700</v>
+        <v>1055900</v>
       </c>
       <c r="H35" s="3">
-        <v>945700</v>
+        <v>942300</v>
       </c>
       <c r="I35" s="3">
-        <v>940700</v>
+        <v>937400</v>
       </c>
       <c r="J35" s="3">
-        <v>915900</v>
+        <v>912600</v>
       </c>
       <c r="K35" s="3">
         <v>882300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>960400</v>
+        <v>957000</v>
       </c>
       <c r="E41" s="3">
-        <v>1011200</v>
+        <v>1007600</v>
       </c>
       <c r="F41" s="3">
-        <v>1095200</v>
+        <v>1091200</v>
       </c>
       <c r="G41" s="3">
-        <v>1386000</v>
+        <v>1381100</v>
       </c>
       <c r="H41" s="3">
-        <v>1040400</v>
+        <v>1036700</v>
       </c>
       <c r="I41" s="3">
-        <v>1536400</v>
+        <v>1530900</v>
       </c>
       <c r="J41" s="3">
-        <v>1624000</v>
+        <v>1618200</v>
       </c>
       <c r="K41" s="3">
         <v>1139100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52500</v>
+        <v>52300</v>
       </c>
       <c r="E42" s="3">
-        <v>44900</v>
+        <v>44700</v>
       </c>
       <c r="F42" s="3">
-        <v>87600</v>
+        <v>87300</v>
       </c>
       <c r="G42" s="3">
-        <v>287600</v>
+        <v>286600</v>
       </c>
       <c r="H42" s="3">
-        <v>455500</v>
+        <v>453900</v>
       </c>
       <c r="I42" s="3">
-        <v>172500</v>
+        <v>171900</v>
       </c>
       <c r="J42" s="3">
-        <v>163500</v>
+        <v>162900</v>
       </c>
       <c r="K42" s="3">
         <v>251100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>961700</v>
+        <v>958300</v>
       </c>
       <c r="E43" s="3">
-        <v>1009000</v>
+        <v>1005400</v>
       </c>
       <c r="F43" s="3">
-        <v>949300</v>
+        <v>945900</v>
       </c>
       <c r="G43" s="3">
-        <v>919500</v>
+        <v>916200</v>
       </c>
       <c r="H43" s="3">
-        <v>797300</v>
+        <v>794500</v>
       </c>
       <c r="I43" s="3">
-        <v>880500</v>
+        <v>877300</v>
       </c>
       <c r="J43" s="3">
-        <v>835900</v>
+        <v>832900</v>
       </c>
       <c r="K43" s="3">
         <v>867900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>344100</v>
+        <v>342900</v>
       </c>
       <c r="E44" s="3">
-        <v>304500</v>
+        <v>303400</v>
       </c>
       <c r="F44" s="3">
-        <v>319600</v>
+        <v>318400</v>
       </c>
       <c r="G44" s="3">
-        <v>332200</v>
+        <v>331000</v>
       </c>
       <c r="H44" s="3">
-        <v>271900</v>
+        <v>270900</v>
       </c>
       <c r="I44" s="3">
-        <v>295200</v>
+        <v>294100</v>
       </c>
       <c r="J44" s="3">
-        <v>294100</v>
+        <v>293100</v>
       </c>
       <c r="K44" s="3">
         <v>306800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>278100</v>
+        <v>277100</v>
       </c>
       <c r="E45" s="3">
-        <v>223600</v>
+        <v>222800</v>
       </c>
       <c r="F45" s="3">
-        <v>203700</v>
+        <v>203000</v>
       </c>
       <c r="G45" s="3">
-        <v>213700</v>
+        <v>213000</v>
       </c>
       <c r="H45" s="3">
-        <v>162200</v>
+        <v>161700</v>
       </c>
       <c r="I45" s="3">
-        <v>160000</v>
+        <v>159500</v>
       </c>
       <c r="J45" s="3">
-        <v>257100</v>
+        <v>256200</v>
       </c>
       <c r="K45" s="3">
         <v>227000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2596800</v>
+        <v>2587500</v>
       </c>
       <c r="E46" s="3">
-        <v>2593300</v>
+        <v>2584000</v>
       </c>
       <c r="F46" s="3">
-        <v>2655500</v>
+        <v>2646000</v>
       </c>
       <c r="G46" s="3">
-        <v>3139000</v>
+        <v>3127800</v>
       </c>
       <c r="H46" s="3">
-        <v>2727400</v>
+        <v>2717700</v>
       </c>
       <c r="I46" s="3">
-        <v>3044600</v>
+        <v>3033800</v>
       </c>
       <c r="J46" s="3">
-        <v>3174600</v>
+        <v>3163200</v>
       </c>
       <c r="K46" s="3">
         <v>2792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6201400</v>
+        <v>6179300</v>
       </c>
       <c r="E47" s="3">
-        <v>6005500</v>
+        <v>5984000</v>
       </c>
       <c r="F47" s="3">
-        <v>5404900</v>
+        <v>5385600</v>
       </c>
       <c r="G47" s="3">
-        <v>5004100</v>
+        <v>4986200</v>
       </c>
       <c r="H47" s="3">
-        <v>4532800</v>
+        <v>4516600</v>
       </c>
       <c r="I47" s="3">
-        <v>4329800</v>
+        <v>4314300</v>
       </c>
       <c r="J47" s="3">
-        <v>3797000</v>
+        <v>3783400</v>
       </c>
       <c r="K47" s="3">
         <v>3773400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9245200</v>
+        <v>9212200</v>
       </c>
       <c r="E48" s="3">
-        <v>8327300</v>
+        <v>8297600</v>
       </c>
       <c r="F48" s="3">
-        <v>7569600</v>
+        <v>7542600</v>
       </c>
       <c r="G48" s="3">
-        <v>7290700</v>
+        <v>7264600</v>
       </c>
       <c r="H48" s="3">
-        <v>6433600</v>
+        <v>6410600</v>
       </c>
       <c r="I48" s="3">
-        <v>6205600</v>
+        <v>6183400</v>
       </c>
       <c r="J48" s="3">
-        <v>6490200</v>
+        <v>6467000</v>
       </c>
       <c r="K48" s="3">
         <v>5934100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>703800</v>
+        <v>701300</v>
       </c>
       <c r="E49" s="3">
-        <v>681700</v>
+        <v>679200</v>
       </c>
       <c r="F49" s="3">
-        <v>732000</v>
+        <v>729400</v>
       </c>
       <c r="G49" s="3">
-        <v>758000</v>
+        <v>755300</v>
       </c>
       <c r="H49" s="3">
-        <v>717900</v>
+        <v>715300</v>
       </c>
       <c r="I49" s="3">
-        <v>749700</v>
+        <v>747000</v>
       </c>
       <c r="J49" s="3">
-        <v>754800</v>
+        <v>752100</v>
       </c>
       <c r="K49" s="3">
         <v>676300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>613400</v>
+        <v>611200</v>
       </c>
       <c r="E52" s="3">
-        <v>489100</v>
+        <v>487300</v>
       </c>
       <c r="F52" s="3">
-        <v>732800</v>
+        <v>730200</v>
       </c>
       <c r="G52" s="3">
-        <v>692900</v>
+        <v>690500</v>
       </c>
       <c r="H52" s="3">
-        <v>628300</v>
+        <v>626100</v>
       </c>
       <c r="I52" s="3">
-        <v>558300</v>
+        <v>556300</v>
       </c>
       <c r="J52" s="3">
-        <v>523100</v>
+        <v>521200</v>
       </c>
       <c r="K52" s="3">
         <v>520500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19360600</v>
+        <v>19291500</v>
       </c>
       <c r="E54" s="3">
-        <v>18096800</v>
+        <v>18032100</v>
       </c>
       <c r="F54" s="3">
-        <v>17094900</v>
+        <v>17033800</v>
       </c>
       <c r="G54" s="3">
-        <v>16884700</v>
+        <v>16824400</v>
       </c>
       <c r="H54" s="3">
-        <v>15040100</v>
+        <v>14986400</v>
       </c>
       <c r="I54" s="3">
-        <v>14888000</v>
+        <v>14834900</v>
       </c>
       <c r="J54" s="3">
-        <v>14739600</v>
+        <v>14686900</v>
       </c>
       <c r="K54" s="3">
         <v>13696300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>524700</v>
+        <v>522800</v>
       </c>
       <c r="E57" s="3">
-        <v>508800</v>
+        <v>507000</v>
       </c>
       <c r="F57" s="3">
-        <v>531800</v>
+        <v>529900</v>
       </c>
       <c r="G57" s="3">
-        <v>530100</v>
+        <v>528300</v>
       </c>
       <c r="H57" s="3">
-        <v>433600</v>
+        <v>432100</v>
       </c>
       <c r="I57" s="3">
-        <v>405200</v>
+        <v>403800</v>
       </c>
       <c r="J57" s="3">
-        <v>495400</v>
+        <v>493700</v>
       </c>
       <c r="K57" s="3">
         <v>414400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1425600</v>
+        <v>1420500</v>
       </c>
       <c r="E58" s="3">
-        <v>1217800</v>
+        <v>1213400</v>
       </c>
       <c r="F58" s="3">
-        <v>1360500</v>
+        <v>1355600</v>
       </c>
       <c r="G58" s="3">
-        <v>2052600</v>
+        <v>2045200</v>
       </c>
       <c r="H58" s="3">
-        <v>790800</v>
+        <v>787900</v>
       </c>
       <c r="I58" s="3">
-        <v>1274600</v>
+        <v>1270100</v>
       </c>
       <c r="J58" s="3">
-        <v>935800</v>
+        <v>932400</v>
       </c>
       <c r="K58" s="3">
         <v>836300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1889700</v>
+        <v>1883000</v>
       </c>
       <c r="E59" s="3">
-        <v>1644600</v>
+        <v>1638700</v>
       </c>
       <c r="F59" s="3">
-        <v>1476800</v>
+        <v>1471500</v>
       </c>
       <c r="G59" s="3">
-        <v>1533200</v>
+        <v>1527700</v>
       </c>
       <c r="H59" s="3">
-        <v>1293900</v>
+        <v>1289300</v>
       </c>
       <c r="I59" s="3">
-        <v>1306500</v>
+        <v>1301900</v>
       </c>
       <c r="J59" s="3">
-        <v>1234200</v>
+        <v>1229800</v>
       </c>
       <c r="K59" s="3">
         <v>1228900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3839900</v>
+        <v>3826200</v>
       </c>
       <c r="E60" s="3">
-        <v>3371200</v>
+        <v>3359100</v>
       </c>
       <c r="F60" s="3">
-        <v>3369000</v>
+        <v>3357000</v>
       </c>
       <c r="G60" s="3">
-        <v>4115900</v>
+        <v>4101200</v>
       </c>
       <c r="H60" s="3">
-        <v>2518300</v>
+        <v>2509300</v>
       </c>
       <c r="I60" s="3">
-        <v>2986400</v>
+        <v>2975700</v>
       </c>
       <c r="J60" s="3">
-        <v>2665400</v>
+        <v>2655900</v>
       </c>
       <c r="K60" s="3">
         <v>2479600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4055900</v>
+        <v>4041400</v>
       </c>
       <c r="E61" s="3">
-        <v>3730000</v>
+        <v>3716700</v>
       </c>
       <c r="F61" s="3">
-        <v>3556900</v>
+        <v>3544200</v>
       </c>
       <c r="G61" s="3">
-        <v>2726300</v>
+        <v>2716500</v>
       </c>
       <c r="H61" s="3">
-        <v>3516600</v>
+        <v>3504000</v>
       </c>
       <c r="I61" s="3">
-        <v>3012700</v>
+        <v>3002000</v>
       </c>
       <c r="J61" s="3">
-        <v>3157200</v>
+        <v>3145900</v>
       </c>
       <c r="K61" s="3">
         <v>3144000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1267500</v>
+        <v>1263000</v>
       </c>
       <c r="E62" s="3">
-        <v>1282300</v>
+        <v>1277700</v>
       </c>
       <c r="F62" s="3">
-        <v>1125900</v>
+        <v>1121900</v>
       </c>
       <c r="G62" s="3">
-        <v>992800</v>
+        <v>989200</v>
       </c>
       <c r="H62" s="3">
-        <v>902000</v>
+        <v>898800</v>
       </c>
       <c r="I62" s="3">
-        <v>886900</v>
+        <v>883800</v>
       </c>
       <c r="J62" s="3">
-        <v>900700</v>
+        <v>897400</v>
       </c>
       <c r="K62" s="3">
         <v>816100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10453000</v>
+        <v>10415600</v>
       </c>
       <c r="E66" s="3">
-        <v>9517500</v>
+        <v>9483500</v>
       </c>
       <c r="F66" s="3">
-        <v>9055800</v>
+        <v>9023400</v>
       </c>
       <c r="G66" s="3">
-        <v>8795100</v>
+        <v>8763700</v>
       </c>
       <c r="H66" s="3">
-        <v>7788700</v>
+        <v>7760900</v>
       </c>
       <c r="I66" s="3">
-        <v>7777200</v>
+        <v>7749500</v>
       </c>
       <c r="J66" s="3">
-        <v>7656200</v>
+        <v>7628900</v>
       </c>
       <c r="K66" s="3">
         <v>7276800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7600500</v>
+        <v>7573400</v>
       </c>
       <c r="E72" s="3">
-        <v>7590500</v>
+        <v>7563400</v>
       </c>
       <c r="F72" s="3">
-        <v>7398700</v>
+        <v>7372300</v>
       </c>
       <c r="G72" s="3">
-        <v>6849500</v>
+        <v>6825000</v>
       </c>
       <c r="H72" s="3">
-        <v>6370400</v>
+        <v>6347600</v>
       </c>
       <c r="I72" s="3">
-        <v>5973200</v>
+        <v>5951800</v>
       </c>
       <c r="J72" s="3">
-        <v>5580700</v>
+        <v>5560800</v>
       </c>
       <c r="K72" s="3">
         <v>5151600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8907600</v>
+        <v>8875800</v>
       </c>
       <c r="E76" s="3">
-        <v>8579300</v>
+        <v>8548600</v>
       </c>
       <c r="F76" s="3">
-        <v>8039100</v>
+        <v>8010400</v>
       </c>
       <c r="G76" s="3">
-        <v>8089600</v>
+        <v>8060700</v>
       </c>
       <c r="H76" s="3">
-        <v>7251300</v>
+        <v>7225400</v>
       </c>
       <c r="I76" s="3">
-        <v>7110800</v>
+        <v>7085400</v>
       </c>
       <c r="J76" s="3">
-        <v>7083300</v>
+        <v>7058000</v>
       </c>
       <c r="K76" s="3">
         <v>6419500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>773900</v>
+        <v>771200</v>
       </c>
       <c r="E81" s="3">
-        <v>897400</v>
+        <v>894200</v>
       </c>
       <c r="F81" s="3">
-        <v>1199800</v>
+        <v>1195500</v>
       </c>
       <c r="G81" s="3">
-        <v>1059700</v>
+        <v>1055900</v>
       </c>
       <c r="H81" s="3">
-        <v>945700</v>
+        <v>942300</v>
       </c>
       <c r="I81" s="3">
-        <v>940700</v>
+        <v>937400</v>
       </c>
       <c r="J81" s="3">
-        <v>915900</v>
+        <v>912600</v>
       </c>
       <c r="K81" s="3">
         <v>882300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378800</v>
+        <v>377500</v>
       </c>
       <c r="E83" s="3">
-        <v>354700</v>
+        <v>353500</v>
       </c>
       <c r="F83" s="3">
-        <v>326900</v>
+        <v>325700</v>
       </c>
       <c r="G83" s="3">
-        <v>305900</v>
+        <v>304900</v>
       </c>
       <c r="H83" s="3">
-        <v>286400</v>
+        <v>285400</v>
       </c>
       <c r="I83" s="3">
-        <v>267400</v>
+        <v>266400</v>
       </c>
       <c r="J83" s="3">
-        <v>251400</v>
+        <v>250500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1276700</v>
+        <v>1272200</v>
       </c>
       <c r="E89" s="3">
-        <v>1277000</v>
+        <v>1272500</v>
       </c>
       <c r="F89" s="3">
-        <v>1216000</v>
+        <v>1211700</v>
       </c>
       <c r="G89" s="3">
-        <v>1098200</v>
+        <v>1094300</v>
       </c>
       <c r="H89" s="3">
-        <v>1091100</v>
+        <v>1087200</v>
       </c>
       <c r="I89" s="3">
-        <v>1066300</v>
+        <v>1062500</v>
       </c>
       <c r="J89" s="3">
-        <v>1053800</v>
+        <v>1050000</v>
       </c>
       <c r="K89" s="3">
         <v>900100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-939800</v>
+        <v>-936400</v>
       </c>
       <c r="E91" s="3">
-        <v>-908600</v>
+        <v>-905400</v>
       </c>
       <c r="F91" s="3">
-        <v>-869100</v>
+        <v>-866000</v>
       </c>
       <c r="G91" s="3">
-        <v>-791100</v>
+        <v>-788300</v>
       </c>
       <c r="H91" s="3">
-        <v>-806000</v>
+        <v>-803200</v>
       </c>
       <c r="I91" s="3">
-        <v>-818800</v>
+        <v>-815900</v>
       </c>
       <c r="J91" s="3">
-        <v>-820000</v>
+        <v>-817100</v>
       </c>
       <c r="K91" s="3">
         <v>-654700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-771600</v>
+        <v>-768900</v>
       </c>
       <c r="E94" s="3">
-        <v>-682900</v>
+        <v>-680500</v>
       </c>
       <c r="F94" s="3">
-        <v>-486500</v>
+        <v>-484800</v>
       </c>
       <c r="G94" s="3">
-        <v>-215200</v>
+        <v>-214500</v>
       </c>
       <c r="H94" s="3">
-        <v>-833300</v>
+        <v>-830300</v>
       </c>
       <c r="I94" s="3">
-        <v>-610500</v>
+        <v>-608300</v>
       </c>
       <c r="J94" s="3">
-        <v>-365000</v>
+        <v>-363700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-776300</v>
+        <v>-773500</v>
       </c>
       <c r="E96" s="3">
-        <v>-717600</v>
+        <v>-715000</v>
       </c>
       <c r="F96" s="3">
-        <v>-652300</v>
+        <v>-650000</v>
       </c>
       <c r="G96" s="3">
-        <v>-593000</v>
+        <v>-590900</v>
       </c>
       <c r="H96" s="3">
-        <v>-539200</v>
+        <v>-537200</v>
       </c>
       <c r="I96" s="3">
-        <v>-490200</v>
+        <v>-488500</v>
       </c>
       <c r="J96" s="3">
-        <v>-445800</v>
+        <v>-444200</v>
       </c>
       <c r="K96" s="3">
         <v>-405000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-582400</v>
+        <v>-580300</v>
       </c>
       <c r="E100" s="3">
-        <v>-671700</v>
+        <v>-669300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1003400</v>
+        <v>-999800</v>
       </c>
       <c r="G100" s="3">
-        <v>-559100</v>
+        <v>-557100</v>
       </c>
       <c r="H100" s="3">
-        <v>-730900</v>
+        <v>-728200</v>
       </c>
       <c r="I100" s="3">
-        <v>-512300</v>
+        <v>-510500</v>
       </c>
       <c r="J100" s="3">
-        <v>-186100</v>
+        <v>-185400</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26500</v>
+        <v>26400</v>
       </c>
       <c r="E101" s="3">
         <v>-6400</v>
       </c>
       <c r="F101" s="3">
-        <v>-17000</v>
+        <v>-16900</v>
       </c>
       <c r="G101" s="3">
-        <v>21700</v>
+        <v>21600</v>
       </c>
       <c r="H101" s="3">
-        <v>-22900</v>
+        <v>-22800</v>
       </c>
       <c r="I101" s="3">
-        <v>-30900</v>
+        <v>-30800</v>
       </c>
       <c r="J101" s="3">
-        <v>-18800</v>
+        <v>-18700</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50700</v>
+        <v>-50600</v>
       </c>
       <c r="E102" s="3">
-        <v>-84000</v>
+        <v>-83700</v>
       </c>
       <c r="F102" s="3">
-        <v>-290900</v>
+        <v>-289800</v>
       </c>
       <c r="G102" s="3">
-        <v>345600</v>
+        <v>344400</v>
       </c>
       <c r="H102" s="3">
-        <v>-496000</v>
+        <v>-494200</v>
       </c>
       <c r="I102" s="3">
-        <v>-87600</v>
+        <v>-87200</v>
       </c>
       <c r="J102" s="3">
-        <v>483900</v>
+        <v>482200</v>
       </c>
       <c r="K102" s="3">
         <v>-429600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5253800</v>
+        <v>5247300</v>
       </c>
       <c r="E8" s="3">
-        <v>5215400</v>
+        <v>5208900</v>
       </c>
       <c r="F8" s="3">
-        <v>5015800</v>
+        <v>5009500</v>
       </c>
       <c r="G8" s="3">
-        <v>4169000</v>
+        <v>4163800</v>
       </c>
       <c r="H8" s="3">
-        <v>3665900</v>
+        <v>3661300</v>
       </c>
       <c r="I8" s="3">
-        <v>3798600</v>
+        <v>3793900</v>
       </c>
       <c r="J8" s="3">
-        <v>4058400</v>
+        <v>4053300</v>
       </c>
       <c r="K8" s="3">
         <v>3636100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2822400</v>
+        <v>2818900</v>
       </c>
       <c r="E9" s="3">
-        <v>2799000</v>
+        <v>2795500</v>
       </c>
       <c r="F9" s="3">
-        <v>2644200</v>
+        <v>2640900</v>
       </c>
       <c r="G9" s="3">
-        <v>2014400</v>
+        <v>2011900</v>
       </c>
       <c r="H9" s="3">
-        <v>1631500</v>
+        <v>1629500</v>
       </c>
       <c r="I9" s="3">
-        <v>1809700</v>
+        <v>1807500</v>
       </c>
       <c r="J9" s="3">
-        <v>2092200</v>
+        <v>2089600</v>
       </c>
       <c r="K9" s="3">
         <v>1895100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2431400</v>
+        <v>2428400</v>
       </c>
       <c r="E10" s="3">
-        <v>2416500</v>
+        <v>2413500</v>
       </c>
       <c r="F10" s="3">
-        <v>2371600</v>
+        <v>2368700</v>
       </c>
       <c r="G10" s="3">
-        <v>2154600</v>
+        <v>2152000</v>
       </c>
       <c r="H10" s="3">
-        <v>2034300</v>
+        <v>2031800</v>
       </c>
       <c r="I10" s="3">
-        <v>1988900</v>
+        <v>1986400</v>
       </c>
       <c r="J10" s="3">
-        <v>1966200</v>
+        <v>1963700</v>
       </c>
       <c r="K10" s="3">
         <v>1741000</v>
@@ -862,7 +862,7 @@
         <v>6600</v>
       </c>
       <c r="J12" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="K12" s="3">
         <v>5100</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-35600</v>
+        <v>-35500</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>377500</v>
+        <v>377000</v>
       </c>
       <c r="E15" s="3">
-        <v>353500</v>
+        <v>353000</v>
       </c>
       <c r="F15" s="3">
-        <v>325700</v>
+        <v>325300</v>
       </c>
       <c r="G15" s="3">
-        <v>304900</v>
+        <v>304500</v>
       </c>
       <c r="H15" s="3">
-        <v>285400</v>
+        <v>285000</v>
       </c>
       <c r="I15" s="3">
-        <v>266400</v>
+        <v>266100</v>
       </c>
       <c r="J15" s="3">
-        <v>250500</v>
+        <v>250200</v>
       </c>
       <c r="K15" s="3">
         <v>212300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4237400</v>
+        <v>4232100</v>
       </c>
       <c r="E17" s="3">
-        <v>4050800</v>
+        <v>4045800</v>
       </c>
       <c r="F17" s="3">
-        <v>3937100</v>
+        <v>3932200</v>
       </c>
       <c r="G17" s="3">
-        <v>3108500</v>
+        <v>3104600</v>
       </c>
       <c r="H17" s="3">
-        <v>2749300</v>
+        <v>2745800</v>
       </c>
       <c r="I17" s="3">
-        <v>2888400</v>
+        <v>2884800</v>
       </c>
       <c r="J17" s="3">
-        <v>3073400</v>
+        <v>3069600</v>
       </c>
       <c r="K17" s="3">
         <v>2649400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1016400</v>
+        <v>1015200</v>
       </c>
       <c r="E18" s="3">
-        <v>1164600</v>
+        <v>1163200</v>
       </c>
       <c r="F18" s="3">
-        <v>1078700</v>
+        <v>1077400</v>
       </c>
       <c r="G18" s="3">
-        <v>1060500</v>
+        <v>1059200</v>
       </c>
       <c r="H18" s="3">
-        <v>916600</v>
+        <v>915500</v>
       </c>
       <c r="I18" s="3">
-        <v>910200</v>
+        <v>909100</v>
       </c>
       <c r="J18" s="3">
-        <v>985000</v>
+        <v>983700</v>
       </c>
       <c r="K18" s="3">
         <v>986700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>292200</v>
+        <v>291800</v>
       </c>
       <c r="E20" s="3">
-        <v>328900</v>
+        <v>328500</v>
       </c>
       <c r="F20" s="3">
-        <v>656300</v>
+        <v>655500</v>
       </c>
       <c r="G20" s="3">
-        <v>525300</v>
+        <v>524700</v>
       </c>
       <c r="H20" s="3">
-        <v>502300</v>
+        <v>501600</v>
       </c>
       <c r="I20" s="3">
-        <v>506300</v>
+        <v>505600</v>
       </c>
       <c r="J20" s="3">
-        <v>412700</v>
+        <v>412100</v>
       </c>
       <c r="K20" s="3">
         <v>344000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1686200</v>
+        <v>1684100</v>
       </c>
       <c r="E21" s="3">
-        <v>1847000</v>
+        <v>1844700</v>
       </c>
       <c r="F21" s="3">
-        <v>2060800</v>
+        <v>2058200</v>
       </c>
       <c r="G21" s="3">
-        <v>1890800</v>
+        <v>1888400</v>
       </c>
       <c r="H21" s="3">
-        <v>1704300</v>
+        <v>1702200</v>
       </c>
       <c r="I21" s="3">
-        <v>1683000</v>
+        <v>1680900</v>
       </c>
       <c r="J21" s="3">
-        <v>1648200</v>
+        <v>1646100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162900</v>
+        <v>162600</v>
       </c>
       <c r="E22" s="3">
-        <v>157900</v>
+        <v>157700</v>
       </c>
       <c r="F22" s="3">
-        <v>151000</v>
+        <v>150900</v>
       </c>
       <c r="G22" s="3">
-        <v>161300</v>
+        <v>161100</v>
       </c>
       <c r="H22" s="3">
-        <v>155000</v>
+        <v>154800</v>
       </c>
       <c r="I22" s="3">
-        <v>144900</v>
+        <v>144700</v>
       </c>
       <c r="J22" s="3">
-        <v>130000</v>
+        <v>129900</v>
       </c>
       <c r="K22" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1145800</v>
+        <v>1144400</v>
       </c>
       <c r="E23" s="3">
-        <v>1335500</v>
+        <v>1333900</v>
       </c>
       <c r="F23" s="3">
-        <v>1584000</v>
+        <v>1582000</v>
       </c>
       <c r="G23" s="3">
-        <v>1424500</v>
+        <v>1422700</v>
       </c>
       <c r="H23" s="3">
-        <v>1263900</v>
+        <v>1262300</v>
       </c>
       <c r="I23" s="3">
-        <v>1271600</v>
+        <v>1270000</v>
       </c>
       <c r="J23" s="3">
-        <v>1267600</v>
+        <v>1266000</v>
       </c>
       <c r="K23" s="3">
         <v>1211500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219900</v>
+        <v>219600</v>
       </c>
       <c r="E24" s="3">
-        <v>293900</v>
+        <v>293500</v>
       </c>
       <c r="F24" s="3">
-        <v>244900</v>
+        <v>244600</v>
       </c>
       <c r="G24" s="3">
-        <v>224600</v>
+        <v>224300</v>
       </c>
       <c r="H24" s="3">
-        <v>202300</v>
+        <v>202000</v>
       </c>
       <c r="I24" s="3">
-        <v>221700</v>
+        <v>221400</v>
       </c>
       <c r="J24" s="3">
-        <v>227400</v>
+        <v>227100</v>
       </c>
       <c r="K24" s="3">
         <v>213100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>925900</v>
+        <v>924700</v>
       </c>
       <c r="E26" s="3">
-        <v>1041600</v>
+        <v>1040300</v>
       </c>
       <c r="F26" s="3">
-        <v>1339100</v>
+        <v>1337500</v>
       </c>
       <c r="G26" s="3">
-        <v>1199900</v>
+        <v>1198400</v>
       </c>
       <c r="H26" s="3">
-        <v>1061600</v>
+        <v>1060300</v>
       </c>
       <c r="I26" s="3">
-        <v>1050000</v>
+        <v>1048700</v>
       </c>
       <c r="J26" s="3">
-        <v>1040200</v>
+        <v>1038900</v>
       </c>
       <c r="K26" s="3">
         <v>998400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>771200</v>
+        <v>770200</v>
       </c>
       <c r="E27" s="3">
-        <v>894200</v>
+        <v>893100</v>
       </c>
       <c r="F27" s="3">
-        <v>1195500</v>
+        <v>1194000</v>
       </c>
       <c r="G27" s="3">
-        <v>1055900</v>
+        <v>1054600</v>
       </c>
       <c r="H27" s="3">
-        <v>942300</v>
+        <v>941200</v>
       </c>
       <c r="I27" s="3">
-        <v>937400</v>
+        <v>936200</v>
       </c>
       <c r="J27" s="3">
-        <v>912600</v>
+        <v>911500</v>
       </c>
       <c r="K27" s="3">
         <v>882300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-292200</v>
+        <v>-291800</v>
       </c>
       <c r="E32" s="3">
-        <v>-328900</v>
+        <v>-328500</v>
       </c>
       <c r="F32" s="3">
-        <v>-656300</v>
+        <v>-655500</v>
       </c>
       <c r="G32" s="3">
-        <v>-525300</v>
+        <v>-524700</v>
       </c>
       <c r="H32" s="3">
-        <v>-502300</v>
+        <v>-501600</v>
       </c>
       <c r="I32" s="3">
-        <v>-506300</v>
+        <v>-505600</v>
       </c>
       <c r="J32" s="3">
-        <v>-412700</v>
+        <v>-412100</v>
       </c>
       <c r="K32" s="3">
         <v>-344000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>771200</v>
+        <v>770200</v>
       </c>
       <c r="E33" s="3">
-        <v>894200</v>
+        <v>893100</v>
       </c>
       <c r="F33" s="3">
-        <v>1195500</v>
+        <v>1194000</v>
       </c>
       <c r="G33" s="3">
-        <v>1055900</v>
+        <v>1054600</v>
       </c>
       <c r="H33" s="3">
-        <v>942300</v>
+        <v>941200</v>
       </c>
       <c r="I33" s="3">
-        <v>937400</v>
+        <v>936200</v>
       </c>
       <c r="J33" s="3">
-        <v>912600</v>
+        <v>911500</v>
       </c>
       <c r="K33" s="3">
         <v>882300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>771200</v>
+        <v>770200</v>
       </c>
       <c r="E35" s="3">
-        <v>894200</v>
+        <v>893100</v>
       </c>
       <c r="F35" s="3">
-        <v>1195500</v>
+        <v>1194000</v>
       </c>
       <c r="G35" s="3">
-        <v>1055900</v>
+        <v>1054600</v>
       </c>
       <c r="H35" s="3">
-        <v>942300</v>
+        <v>941200</v>
       </c>
       <c r="I35" s="3">
-        <v>937400</v>
+        <v>936200</v>
       </c>
       <c r="J35" s="3">
-        <v>912600</v>
+        <v>911500</v>
       </c>
       <c r="K35" s="3">
         <v>882300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>957000</v>
+        <v>955800</v>
       </c>
       <c r="E41" s="3">
-        <v>1007600</v>
+        <v>1006300</v>
       </c>
       <c r="F41" s="3">
-        <v>1091200</v>
+        <v>1089900</v>
       </c>
       <c r="G41" s="3">
-        <v>1381100</v>
+        <v>1379400</v>
       </c>
       <c r="H41" s="3">
-        <v>1036700</v>
+        <v>1035400</v>
       </c>
       <c r="I41" s="3">
-        <v>1530900</v>
+        <v>1529000</v>
       </c>
       <c r="J41" s="3">
-        <v>1618200</v>
+        <v>1616200</v>
       </c>
       <c r="K41" s="3">
         <v>1139100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52300</v>
+        <v>52200</v>
       </c>
       <c r="E42" s="3">
         <v>44700</v>
       </c>
       <c r="F42" s="3">
-        <v>87300</v>
+        <v>87200</v>
       </c>
       <c r="G42" s="3">
-        <v>286600</v>
+        <v>286300</v>
       </c>
       <c r="H42" s="3">
-        <v>453900</v>
+        <v>453300</v>
       </c>
       <c r="I42" s="3">
-        <v>171900</v>
+        <v>171700</v>
       </c>
       <c r="J42" s="3">
-        <v>162900</v>
+        <v>162700</v>
       </c>
       <c r="K42" s="3">
         <v>251100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>958300</v>
+        <v>957100</v>
       </c>
       <c r="E43" s="3">
-        <v>1005400</v>
+        <v>1004200</v>
       </c>
       <c r="F43" s="3">
-        <v>945900</v>
+        <v>944800</v>
       </c>
       <c r="G43" s="3">
-        <v>916200</v>
+        <v>915100</v>
       </c>
       <c r="H43" s="3">
-        <v>794500</v>
+        <v>793500</v>
       </c>
       <c r="I43" s="3">
-        <v>877300</v>
+        <v>876200</v>
       </c>
       <c r="J43" s="3">
-        <v>832900</v>
+        <v>831900</v>
       </c>
       <c r="K43" s="3">
         <v>867900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>342900</v>
+        <v>342400</v>
       </c>
       <c r="E44" s="3">
-        <v>303400</v>
+        <v>303000</v>
       </c>
       <c r="F44" s="3">
-        <v>318400</v>
+        <v>318100</v>
       </c>
       <c r="G44" s="3">
-        <v>331000</v>
+        <v>330600</v>
       </c>
       <c r="H44" s="3">
-        <v>270900</v>
+        <v>270600</v>
       </c>
       <c r="I44" s="3">
-        <v>294100</v>
+        <v>293800</v>
       </c>
       <c r="J44" s="3">
-        <v>293100</v>
+        <v>292700</v>
       </c>
       <c r="K44" s="3">
         <v>306800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277100</v>
+        <v>276800</v>
       </c>
       <c r="E45" s="3">
-        <v>222800</v>
+        <v>222600</v>
       </c>
       <c r="F45" s="3">
-        <v>203000</v>
+        <v>202800</v>
       </c>
       <c r="G45" s="3">
-        <v>213000</v>
+        <v>212700</v>
       </c>
       <c r="H45" s="3">
-        <v>161700</v>
+        <v>161500</v>
       </c>
       <c r="I45" s="3">
-        <v>159500</v>
+        <v>159300</v>
       </c>
       <c r="J45" s="3">
-        <v>256200</v>
+        <v>255800</v>
       </c>
       <c r="K45" s="3">
         <v>227000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2587500</v>
+        <v>2584300</v>
       </c>
       <c r="E46" s="3">
-        <v>2584000</v>
+        <v>2580800</v>
       </c>
       <c r="F46" s="3">
-        <v>2646000</v>
+        <v>2642700</v>
       </c>
       <c r="G46" s="3">
-        <v>3127800</v>
+        <v>3123900</v>
       </c>
       <c r="H46" s="3">
-        <v>2717700</v>
+        <v>2714300</v>
       </c>
       <c r="I46" s="3">
-        <v>3033800</v>
+        <v>3030000</v>
       </c>
       <c r="J46" s="3">
-        <v>3163200</v>
+        <v>3159300</v>
       </c>
       <c r="K46" s="3">
         <v>2792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6179300</v>
+        <v>6171600</v>
       </c>
       <c r="E47" s="3">
-        <v>5984000</v>
+        <v>5976600</v>
       </c>
       <c r="F47" s="3">
-        <v>5385600</v>
+        <v>5378900</v>
       </c>
       <c r="G47" s="3">
-        <v>4986200</v>
+        <v>4980000</v>
       </c>
       <c r="H47" s="3">
-        <v>4516600</v>
+        <v>4511000</v>
       </c>
       <c r="I47" s="3">
-        <v>4314300</v>
+        <v>4309000</v>
       </c>
       <c r="J47" s="3">
-        <v>3783400</v>
+        <v>3778700</v>
       </c>
       <c r="K47" s="3">
         <v>3773400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9212200</v>
+        <v>9200700</v>
       </c>
       <c r="E48" s="3">
-        <v>8297600</v>
+        <v>8287200</v>
       </c>
       <c r="F48" s="3">
-        <v>7542600</v>
+        <v>7533200</v>
       </c>
       <c r="G48" s="3">
-        <v>7264600</v>
+        <v>7255600</v>
       </c>
       <c r="H48" s="3">
-        <v>6410600</v>
+        <v>6402600</v>
       </c>
       <c r="I48" s="3">
-        <v>6183400</v>
+        <v>6175700</v>
       </c>
       <c r="J48" s="3">
-        <v>6467000</v>
+        <v>6459000</v>
       </c>
       <c r="K48" s="3">
         <v>5934100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>701300</v>
+        <v>700400</v>
       </c>
       <c r="E49" s="3">
-        <v>679200</v>
+        <v>678400</v>
       </c>
       <c r="F49" s="3">
-        <v>729400</v>
+        <v>728500</v>
       </c>
       <c r="G49" s="3">
-        <v>755300</v>
+        <v>754300</v>
       </c>
       <c r="H49" s="3">
-        <v>715300</v>
+        <v>714400</v>
       </c>
       <c r="I49" s="3">
-        <v>747000</v>
+        <v>746100</v>
       </c>
       <c r="J49" s="3">
-        <v>752100</v>
+        <v>751100</v>
       </c>
       <c r="K49" s="3">
         <v>676300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>611200</v>
+        <v>610400</v>
       </c>
       <c r="E52" s="3">
-        <v>487300</v>
+        <v>486700</v>
       </c>
       <c r="F52" s="3">
-        <v>730200</v>
+        <v>729300</v>
       </c>
       <c r="G52" s="3">
-        <v>690500</v>
+        <v>689600</v>
       </c>
       <c r="H52" s="3">
-        <v>626100</v>
+        <v>625300</v>
       </c>
       <c r="I52" s="3">
-        <v>556300</v>
+        <v>555600</v>
       </c>
       <c r="J52" s="3">
-        <v>521200</v>
+        <v>520600</v>
       </c>
       <c r="K52" s="3">
         <v>520500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19291500</v>
+        <v>19267400</v>
       </c>
       <c r="E54" s="3">
-        <v>18032100</v>
+        <v>18009700</v>
       </c>
       <c r="F54" s="3">
-        <v>17033800</v>
+        <v>17012600</v>
       </c>
       <c r="G54" s="3">
-        <v>16824400</v>
+        <v>16803400</v>
       </c>
       <c r="H54" s="3">
-        <v>14986400</v>
+        <v>14967700</v>
       </c>
       <c r="I54" s="3">
-        <v>14834900</v>
+        <v>14816400</v>
       </c>
       <c r="J54" s="3">
-        <v>14686900</v>
+        <v>14668600</v>
       </c>
       <c r="K54" s="3">
         <v>13696300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>522800</v>
+        <v>459800</v>
       </c>
       <c r="E57" s="3">
-        <v>507000</v>
+        <v>385500</v>
       </c>
       <c r="F57" s="3">
-        <v>529900</v>
+        <v>394600</v>
       </c>
       <c r="G57" s="3">
-        <v>528300</v>
+        <v>381700</v>
       </c>
       <c r="H57" s="3">
-        <v>432100</v>
+        <v>339400</v>
       </c>
       <c r="I57" s="3">
-        <v>403800</v>
+        <v>329900</v>
       </c>
       <c r="J57" s="3">
-        <v>493700</v>
+        <v>406200</v>
       </c>
       <c r="K57" s="3">
         <v>414400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1420500</v>
+        <v>1418700</v>
       </c>
       <c r="E58" s="3">
-        <v>1213400</v>
+        <v>1211900</v>
       </c>
       <c r="F58" s="3">
-        <v>1355600</v>
+        <v>1353900</v>
       </c>
       <c r="G58" s="3">
-        <v>2045200</v>
+        <v>2042700</v>
       </c>
       <c r="H58" s="3">
-        <v>787900</v>
+        <v>787000</v>
       </c>
       <c r="I58" s="3">
-        <v>1270100</v>
+        <v>1268500</v>
       </c>
       <c r="J58" s="3">
-        <v>932400</v>
+        <v>931300</v>
       </c>
       <c r="K58" s="3">
         <v>836300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1883000</v>
+        <v>1943000</v>
       </c>
       <c r="E59" s="3">
-        <v>1638700</v>
+        <v>1757600</v>
       </c>
       <c r="F59" s="3">
-        <v>1471500</v>
+        <v>1604200</v>
       </c>
       <c r="G59" s="3">
-        <v>1527700</v>
+        <v>1671700</v>
       </c>
       <c r="H59" s="3">
-        <v>1289300</v>
+        <v>1379800</v>
       </c>
       <c r="I59" s="3">
-        <v>1301900</v>
+        <v>1373600</v>
       </c>
       <c r="J59" s="3">
-        <v>1229800</v>
+        <v>1315200</v>
       </c>
       <c r="K59" s="3">
         <v>1228900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3826200</v>
+        <v>3821500</v>
       </c>
       <c r="E60" s="3">
-        <v>3359100</v>
+        <v>3354900</v>
       </c>
       <c r="F60" s="3">
-        <v>3357000</v>
+        <v>3352800</v>
       </c>
       <c r="G60" s="3">
-        <v>4101200</v>
+        <v>4096100</v>
       </c>
       <c r="H60" s="3">
-        <v>2509300</v>
+        <v>2506200</v>
       </c>
       <c r="I60" s="3">
-        <v>2975700</v>
+        <v>2972000</v>
       </c>
       <c r="J60" s="3">
-        <v>2655900</v>
+        <v>2652600</v>
       </c>
       <c r="K60" s="3">
         <v>2479600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4041400</v>
+        <v>4036300</v>
       </c>
       <c r="E61" s="3">
-        <v>3716700</v>
+        <v>3712000</v>
       </c>
       <c r="F61" s="3">
-        <v>3544200</v>
+        <v>3539800</v>
       </c>
       <c r="G61" s="3">
-        <v>2716500</v>
+        <v>2713200</v>
       </c>
       <c r="H61" s="3">
-        <v>3504000</v>
+        <v>3499600</v>
       </c>
       <c r="I61" s="3">
-        <v>3002000</v>
+        <v>2998200</v>
       </c>
       <c r="J61" s="3">
-        <v>3145900</v>
+        <v>3142000</v>
       </c>
       <c r="K61" s="3">
         <v>3144000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1263000</v>
+        <v>1261400</v>
       </c>
       <c r="E62" s="3">
-        <v>1277700</v>
+        <v>1276100</v>
       </c>
       <c r="F62" s="3">
-        <v>1121900</v>
+        <v>1120500</v>
       </c>
       <c r="G62" s="3">
-        <v>989200</v>
+        <v>988000</v>
       </c>
       <c r="H62" s="3">
-        <v>898800</v>
+        <v>897700</v>
       </c>
       <c r="I62" s="3">
-        <v>883800</v>
+        <v>882700</v>
       </c>
       <c r="J62" s="3">
-        <v>897400</v>
+        <v>896300</v>
       </c>
       <c r="K62" s="3">
         <v>816100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10415600</v>
+        <v>10402700</v>
       </c>
       <c r="E66" s="3">
-        <v>9483500</v>
+        <v>9471700</v>
       </c>
       <c r="F66" s="3">
-        <v>9023400</v>
+        <v>9012200</v>
       </c>
       <c r="G66" s="3">
-        <v>8763700</v>
+        <v>8752800</v>
       </c>
       <c r="H66" s="3">
-        <v>7760900</v>
+        <v>7751200</v>
       </c>
       <c r="I66" s="3">
-        <v>7749500</v>
+        <v>7739800</v>
       </c>
       <c r="J66" s="3">
-        <v>7628900</v>
+        <v>7619400</v>
       </c>
       <c r="K66" s="3">
         <v>7276800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7573400</v>
+        <v>7563900</v>
       </c>
       <c r="E72" s="3">
-        <v>7563400</v>
+        <v>7554000</v>
       </c>
       <c r="F72" s="3">
-        <v>7372300</v>
+        <v>7363100</v>
       </c>
       <c r="G72" s="3">
-        <v>6825000</v>
+        <v>6816500</v>
       </c>
       <c r="H72" s="3">
-        <v>6347600</v>
+        <v>6339700</v>
       </c>
       <c r="I72" s="3">
-        <v>5951800</v>
+        <v>5944400</v>
       </c>
       <c r="J72" s="3">
-        <v>5560800</v>
+        <v>5553800</v>
       </c>
       <c r="K72" s="3">
         <v>5151600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8875800</v>
+        <v>8864800</v>
       </c>
       <c r="E76" s="3">
-        <v>8548600</v>
+        <v>8538000</v>
       </c>
       <c r="F76" s="3">
-        <v>8010400</v>
+        <v>8000400</v>
       </c>
       <c r="G76" s="3">
-        <v>8060700</v>
+        <v>8050700</v>
       </c>
       <c r="H76" s="3">
-        <v>7225400</v>
+        <v>7216400</v>
       </c>
       <c r="I76" s="3">
-        <v>7085400</v>
+        <v>7076600</v>
       </c>
       <c r="J76" s="3">
-        <v>7058000</v>
+        <v>7049200</v>
       </c>
       <c r="K76" s="3">
         <v>6419500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>771200</v>
+        <v>770200</v>
       </c>
       <c r="E81" s="3">
-        <v>894200</v>
+        <v>893100</v>
       </c>
       <c r="F81" s="3">
-        <v>1195500</v>
+        <v>1194000</v>
       </c>
       <c r="G81" s="3">
-        <v>1055900</v>
+        <v>1054600</v>
       </c>
       <c r="H81" s="3">
-        <v>942300</v>
+        <v>941200</v>
       </c>
       <c r="I81" s="3">
-        <v>937400</v>
+        <v>936200</v>
       </c>
       <c r="J81" s="3">
-        <v>912600</v>
+        <v>911500</v>
       </c>
       <c r="K81" s="3">
         <v>882300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>377500</v>
+        <v>377000</v>
       </c>
       <c r="E83" s="3">
-        <v>353500</v>
+        <v>353000</v>
       </c>
       <c r="F83" s="3">
-        <v>325700</v>
+        <v>325300</v>
       </c>
       <c r="G83" s="3">
-        <v>304900</v>
+        <v>304500</v>
       </c>
       <c r="H83" s="3">
-        <v>285400</v>
+        <v>285000</v>
       </c>
       <c r="I83" s="3">
-        <v>266400</v>
+        <v>266100</v>
       </c>
       <c r="J83" s="3">
-        <v>250500</v>
+        <v>250200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1272200</v>
+        <v>1270600</v>
       </c>
       <c r="E89" s="3">
-        <v>1272500</v>
+        <v>1270900</v>
       </c>
       <c r="F89" s="3">
-        <v>1211700</v>
+        <v>1210200</v>
       </c>
       <c r="G89" s="3">
-        <v>1094300</v>
+        <v>1092900</v>
       </c>
       <c r="H89" s="3">
-        <v>1087200</v>
+        <v>1085800</v>
       </c>
       <c r="I89" s="3">
-        <v>1062500</v>
+        <v>1061100</v>
       </c>
       <c r="J89" s="3">
-        <v>1050000</v>
+        <v>1048700</v>
       </c>
       <c r="K89" s="3">
         <v>900100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-936400</v>
+        <v>-935300</v>
       </c>
       <c r="E91" s="3">
-        <v>-905400</v>
+        <v>-904300</v>
       </c>
       <c r="F91" s="3">
-        <v>-866000</v>
+        <v>-864900</v>
       </c>
       <c r="G91" s="3">
-        <v>-788300</v>
+        <v>-787300</v>
       </c>
       <c r="H91" s="3">
-        <v>-803200</v>
+        <v>-802200</v>
       </c>
       <c r="I91" s="3">
-        <v>-815900</v>
+        <v>-814900</v>
       </c>
       <c r="J91" s="3">
-        <v>-817100</v>
+        <v>-816100</v>
       </c>
       <c r="K91" s="3">
         <v>-654700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-768900</v>
+        <v>-767900</v>
       </c>
       <c r="E94" s="3">
-        <v>-680500</v>
+        <v>-679600</v>
       </c>
       <c r="F94" s="3">
-        <v>-484800</v>
+        <v>-484200</v>
       </c>
       <c r="G94" s="3">
-        <v>-214500</v>
+        <v>-214200</v>
       </c>
       <c r="H94" s="3">
-        <v>-830300</v>
+        <v>-829300</v>
       </c>
       <c r="I94" s="3">
-        <v>-608300</v>
+        <v>-607600</v>
       </c>
       <c r="J94" s="3">
-        <v>-363700</v>
+        <v>-363300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-773500</v>
+        <v>-772500</v>
       </c>
       <c r="E96" s="3">
-        <v>-715000</v>
+        <v>-714100</v>
       </c>
       <c r="F96" s="3">
-        <v>-650000</v>
+        <v>-649200</v>
       </c>
       <c r="G96" s="3">
-        <v>-590900</v>
+        <v>-590200</v>
       </c>
       <c r="H96" s="3">
-        <v>-537200</v>
+        <v>-536600</v>
       </c>
       <c r="I96" s="3">
-        <v>-488500</v>
+        <v>-487900</v>
       </c>
       <c r="J96" s="3">
-        <v>-444200</v>
+        <v>-443700</v>
       </c>
       <c r="K96" s="3">
         <v>-405000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-580300</v>
+        <v>-579600</v>
       </c>
       <c r="E100" s="3">
-        <v>-669300</v>
+        <v>-668500</v>
       </c>
       <c r="F100" s="3">
-        <v>-999800</v>
+        <v>-998600</v>
       </c>
       <c r="G100" s="3">
-        <v>-557100</v>
+        <v>-556400</v>
       </c>
       <c r="H100" s="3">
-        <v>-728200</v>
+        <v>-727300</v>
       </c>
       <c r="I100" s="3">
-        <v>-510500</v>
+        <v>-509900</v>
       </c>
       <c r="J100" s="3">
-        <v>-185400</v>
+        <v>-185200</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50600</v>
+        <v>-50500</v>
       </c>
       <c r="E102" s="3">
-        <v>-83700</v>
+        <v>-83600</v>
       </c>
       <c r="F102" s="3">
-        <v>-289800</v>
+        <v>-289500</v>
       </c>
       <c r="G102" s="3">
-        <v>344400</v>
+        <v>343900</v>
       </c>
       <c r="H102" s="3">
-        <v>-494200</v>
+        <v>-493600</v>
       </c>
       <c r="I102" s="3">
-        <v>-87200</v>
+        <v>-87100</v>
       </c>
       <c r="J102" s="3">
-        <v>482200</v>
+        <v>481600</v>
       </c>
       <c r="K102" s="3">
         <v>-429600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5247300</v>
+        <v>5228000</v>
       </c>
       <c r="E8" s="3">
-        <v>5208900</v>
+        <v>5189800</v>
       </c>
       <c r="F8" s="3">
-        <v>5009500</v>
+        <v>4991200</v>
       </c>
       <c r="G8" s="3">
-        <v>4163800</v>
+        <v>4148500</v>
       </c>
       <c r="H8" s="3">
-        <v>3661300</v>
+        <v>3647900</v>
       </c>
       <c r="I8" s="3">
-        <v>3793900</v>
+        <v>3780000</v>
       </c>
       <c r="J8" s="3">
-        <v>4053300</v>
+        <v>4038500</v>
       </c>
       <c r="K8" s="3">
         <v>3636100</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2818900</v>
+        <v>2808600</v>
       </c>
       <c r="E9" s="3">
-        <v>2795500</v>
+        <v>2785200</v>
       </c>
       <c r="F9" s="3">
-        <v>2640900</v>
+        <v>2631200</v>
       </c>
       <c r="G9" s="3">
-        <v>2011900</v>
+        <v>2004500</v>
       </c>
       <c r="H9" s="3">
-        <v>1629500</v>
+        <v>1623500</v>
       </c>
       <c r="I9" s="3">
-        <v>1807500</v>
+        <v>1800900</v>
       </c>
       <c r="J9" s="3">
-        <v>2089600</v>
+        <v>2082000</v>
       </c>
       <c r="K9" s="3">
         <v>1895100</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2428400</v>
+        <v>2419500</v>
       </c>
       <c r="E10" s="3">
-        <v>2413500</v>
+        <v>2404600</v>
       </c>
       <c r="F10" s="3">
-        <v>2368700</v>
+        <v>2360000</v>
       </c>
       <c r="G10" s="3">
-        <v>2152000</v>
+        <v>2144100</v>
       </c>
       <c r="H10" s="3">
-        <v>2031800</v>
+        <v>2024400</v>
       </c>
       <c r="I10" s="3">
-        <v>1986400</v>
+        <v>1979100</v>
       </c>
       <c r="J10" s="3">
-        <v>1963700</v>
+        <v>1956500</v>
       </c>
       <c r="K10" s="3">
         <v>1741000</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-35500</v>
+        <v>-35400</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>377000</v>
+        <v>375600</v>
       </c>
       <c r="E15" s="3">
-        <v>353000</v>
+        <v>351700</v>
       </c>
       <c r="F15" s="3">
-        <v>325300</v>
+        <v>324100</v>
       </c>
       <c r="G15" s="3">
-        <v>304500</v>
+        <v>303400</v>
       </c>
       <c r="H15" s="3">
-        <v>285000</v>
+        <v>284000</v>
       </c>
       <c r="I15" s="3">
-        <v>266100</v>
+        <v>265100</v>
       </c>
       <c r="J15" s="3">
-        <v>250200</v>
+        <v>249300</v>
       </c>
       <c r="K15" s="3">
         <v>212300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4232100</v>
+        <v>4216600</v>
       </c>
       <c r="E17" s="3">
-        <v>4045800</v>
+        <v>4030900</v>
       </c>
       <c r="F17" s="3">
-        <v>3932200</v>
+        <v>3917800</v>
       </c>
       <c r="G17" s="3">
-        <v>3104600</v>
+        <v>3093200</v>
       </c>
       <c r="H17" s="3">
-        <v>2745800</v>
+        <v>2735800</v>
       </c>
       <c r="I17" s="3">
-        <v>2884800</v>
+        <v>2874200</v>
       </c>
       <c r="J17" s="3">
-        <v>3069600</v>
+        <v>3058300</v>
       </c>
       <c r="K17" s="3">
         <v>2649400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1015200</v>
+        <v>1011400</v>
       </c>
       <c r="E18" s="3">
-        <v>1163200</v>
+        <v>1158900</v>
       </c>
       <c r="F18" s="3">
-        <v>1077400</v>
+        <v>1073400</v>
       </c>
       <c r="G18" s="3">
-        <v>1059200</v>
+        <v>1055300</v>
       </c>
       <c r="H18" s="3">
-        <v>915500</v>
+        <v>912100</v>
       </c>
       <c r="I18" s="3">
-        <v>909100</v>
+        <v>905800</v>
       </c>
       <c r="J18" s="3">
-        <v>983700</v>
+        <v>980100</v>
       </c>
       <c r="K18" s="3">
         <v>986700</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>291800</v>
+        <v>290800</v>
       </c>
       <c r="E20" s="3">
-        <v>328500</v>
+        <v>327300</v>
       </c>
       <c r="F20" s="3">
-        <v>655500</v>
+        <v>653100</v>
       </c>
       <c r="G20" s="3">
-        <v>524700</v>
+        <v>522700</v>
       </c>
       <c r="H20" s="3">
-        <v>501600</v>
+        <v>499800</v>
       </c>
       <c r="I20" s="3">
-        <v>505600</v>
+        <v>503800</v>
       </c>
       <c r="J20" s="3">
-        <v>412100</v>
+        <v>410600</v>
       </c>
       <c r="K20" s="3">
         <v>344000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1684100</v>
+        <v>1678300</v>
       </c>
       <c r="E21" s="3">
-        <v>1844700</v>
+        <v>1838300</v>
       </c>
       <c r="F21" s="3">
-        <v>2058200</v>
+        <v>2051000</v>
       </c>
       <c r="G21" s="3">
-        <v>1888400</v>
+        <v>1881800</v>
       </c>
       <c r="H21" s="3">
-        <v>1702200</v>
+        <v>1696200</v>
       </c>
       <c r="I21" s="3">
-        <v>1680900</v>
+        <v>1675000</v>
       </c>
       <c r="J21" s="3">
-        <v>1646100</v>
+        <v>1640300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162600</v>
+        <v>162100</v>
       </c>
       <c r="E22" s="3">
-        <v>157700</v>
+        <v>157200</v>
       </c>
       <c r="F22" s="3">
-        <v>150900</v>
+        <v>150300</v>
       </c>
       <c r="G22" s="3">
-        <v>161100</v>
+        <v>160600</v>
       </c>
       <c r="H22" s="3">
-        <v>154800</v>
+        <v>154200</v>
       </c>
       <c r="I22" s="3">
-        <v>144700</v>
+        <v>144200</v>
       </c>
       <c r="J22" s="3">
-        <v>129900</v>
+        <v>129400</v>
       </c>
       <c r="K22" s="3">
         <v>119200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1144400</v>
+        <v>1140200</v>
       </c>
       <c r="E23" s="3">
-        <v>1333900</v>
+        <v>1329000</v>
       </c>
       <c r="F23" s="3">
-        <v>1582000</v>
+        <v>1576200</v>
       </c>
       <c r="G23" s="3">
-        <v>1422700</v>
+        <v>1417500</v>
       </c>
       <c r="H23" s="3">
-        <v>1262300</v>
+        <v>1257700</v>
       </c>
       <c r="I23" s="3">
-        <v>1270000</v>
+        <v>1265400</v>
       </c>
       <c r="J23" s="3">
-        <v>1266000</v>
+        <v>1261400</v>
       </c>
       <c r="K23" s="3">
         <v>1211500</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219600</v>
+        <v>218800</v>
       </c>
       <c r="E24" s="3">
-        <v>293500</v>
+        <v>292500</v>
       </c>
       <c r="F24" s="3">
-        <v>244600</v>
+        <v>243700</v>
       </c>
       <c r="G24" s="3">
-        <v>224300</v>
+        <v>223500</v>
       </c>
       <c r="H24" s="3">
-        <v>202000</v>
+        <v>201300</v>
       </c>
       <c r="I24" s="3">
-        <v>221400</v>
+        <v>220600</v>
       </c>
       <c r="J24" s="3">
-        <v>227100</v>
+        <v>226300</v>
       </c>
       <c r="K24" s="3">
         <v>213100</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>924700</v>
+        <v>921300</v>
       </c>
       <c r="E26" s="3">
-        <v>1040300</v>
+        <v>1036500</v>
       </c>
       <c r="F26" s="3">
-        <v>1337500</v>
+        <v>1332600</v>
       </c>
       <c r="G26" s="3">
-        <v>1198400</v>
+        <v>1194000</v>
       </c>
       <c r="H26" s="3">
-        <v>1060300</v>
+        <v>1056400</v>
       </c>
       <c r="I26" s="3">
-        <v>1048700</v>
+        <v>1044800</v>
       </c>
       <c r="J26" s="3">
-        <v>1038900</v>
+        <v>1035100</v>
       </c>
       <c r="K26" s="3">
         <v>998400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>770200</v>
+        <v>767400</v>
       </c>
       <c r="E27" s="3">
-        <v>893100</v>
+        <v>889800</v>
       </c>
       <c r="F27" s="3">
-        <v>1194000</v>
+        <v>1189600</v>
       </c>
       <c r="G27" s="3">
-        <v>1054600</v>
+        <v>1050700</v>
       </c>
       <c r="H27" s="3">
-        <v>941200</v>
+        <v>937700</v>
       </c>
       <c r="I27" s="3">
-        <v>936200</v>
+        <v>932800</v>
       </c>
       <c r="J27" s="3">
-        <v>911500</v>
+        <v>908100</v>
       </c>
       <c r="K27" s="3">
         <v>882300</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-291800</v>
+        <v>-290800</v>
       </c>
       <c r="E32" s="3">
-        <v>-328500</v>
+        <v>-327300</v>
       </c>
       <c r="F32" s="3">
-        <v>-655500</v>
+        <v>-653100</v>
       </c>
       <c r="G32" s="3">
-        <v>-524700</v>
+        <v>-522700</v>
       </c>
       <c r="H32" s="3">
-        <v>-501600</v>
+        <v>-499800</v>
       </c>
       <c r="I32" s="3">
-        <v>-505600</v>
+        <v>-503800</v>
       </c>
       <c r="J32" s="3">
-        <v>-412100</v>
+        <v>-410600</v>
       </c>
       <c r="K32" s="3">
         <v>-344000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>770200</v>
+        <v>767400</v>
       </c>
       <c r="E33" s="3">
-        <v>893100</v>
+        <v>889800</v>
       </c>
       <c r="F33" s="3">
-        <v>1194000</v>
+        <v>1189600</v>
       </c>
       <c r="G33" s="3">
-        <v>1054600</v>
+        <v>1050700</v>
       </c>
       <c r="H33" s="3">
-        <v>941200</v>
+        <v>937700</v>
       </c>
       <c r="I33" s="3">
-        <v>936200</v>
+        <v>932800</v>
       </c>
       <c r="J33" s="3">
-        <v>911500</v>
+        <v>908100</v>
       </c>
       <c r="K33" s="3">
         <v>882300</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>770200</v>
+        <v>767400</v>
       </c>
       <c r="E35" s="3">
-        <v>893100</v>
+        <v>889800</v>
       </c>
       <c r="F35" s="3">
-        <v>1194000</v>
+        <v>1189600</v>
       </c>
       <c r="G35" s="3">
-        <v>1054600</v>
+        <v>1050700</v>
       </c>
       <c r="H35" s="3">
-        <v>941200</v>
+        <v>937700</v>
       </c>
       <c r="I35" s="3">
-        <v>936200</v>
+        <v>932800</v>
       </c>
       <c r="J35" s="3">
-        <v>911500</v>
+        <v>908100</v>
       </c>
       <c r="K35" s="3">
         <v>882300</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>955800</v>
+        <v>952300</v>
       </c>
       <c r="E41" s="3">
-        <v>1006300</v>
+        <v>1002600</v>
       </c>
       <c r="F41" s="3">
-        <v>1089900</v>
+        <v>1085900</v>
       </c>
       <c r="G41" s="3">
-        <v>1379400</v>
+        <v>1374300</v>
       </c>
       <c r="H41" s="3">
-        <v>1035400</v>
+        <v>1031600</v>
       </c>
       <c r="I41" s="3">
-        <v>1529000</v>
+        <v>1523400</v>
       </c>
       <c r="J41" s="3">
-        <v>1616200</v>
+        <v>1610200</v>
       </c>
       <c r="K41" s="3">
         <v>1139100</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52200</v>
+        <v>52000</v>
       </c>
       <c r="E42" s="3">
-        <v>44700</v>
+        <v>44500</v>
       </c>
       <c r="F42" s="3">
-        <v>87200</v>
+        <v>86900</v>
       </c>
       <c r="G42" s="3">
-        <v>286300</v>
+        <v>285200</v>
       </c>
       <c r="H42" s="3">
-        <v>453300</v>
+        <v>451700</v>
       </c>
       <c r="I42" s="3">
-        <v>171700</v>
+        <v>171000</v>
       </c>
       <c r="J42" s="3">
-        <v>162700</v>
+        <v>162100</v>
       </c>
       <c r="K42" s="3">
         <v>251100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>957100</v>
+        <v>953600</v>
       </c>
       <c r="E43" s="3">
-        <v>1004200</v>
+        <v>1000500</v>
       </c>
       <c r="F43" s="3">
-        <v>944800</v>
+        <v>941300</v>
       </c>
       <c r="G43" s="3">
-        <v>915100</v>
+        <v>911700</v>
       </c>
       <c r="H43" s="3">
-        <v>793500</v>
+        <v>790600</v>
       </c>
       <c r="I43" s="3">
-        <v>876200</v>
+        <v>873000</v>
       </c>
       <c r="J43" s="3">
-        <v>831900</v>
+        <v>828800</v>
       </c>
       <c r="K43" s="3">
         <v>867900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>342400</v>
+        <v>341200</v>
       </c>
       <c r="E44" s="3">
-        <v>303000</v>
+        <v>301900</v>
       </c>
       <c r="F44" s="3">
-        <v>318100</v>
+        <v>316900</v>
       </c>
       <c r="G44" s="3">
-        <v>330600</v>
+        <v>329400</v>
       </c>
       <c r="H44" s="3">
-        <v>270600</v>
+        <v>269600</v>
       </c>
       <c r="I44" s="3">
-        <v>293800</v>
+        <v>292700</v>
       </c>
       <c r="J44" s="3">
-        <v>292700</v>
+        <v>291700</v>
       </c>
       <c r="K44" s="3">
         <v>306800</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>276800</v>
+        <v>275700</v>
       </c>
       <c r="E45" s="3">
-        <v>222600</v>
+        <v>221700</v>
       </c>
       <c r="F45" s="3">
-        <v>202800</v>
+        <v>202000</v>
       </c>
       <c r="G45" s="3">
-        <v>212700</v>
+        <v>211900</v>
       </c>
       <c r="H45" s="3">
-        <v>161500</v>
+        <v>160900</v>
       </c>
       <c r="I45" s="3">
-        <v>159300</v>
+        <v>158700</v>
       </c>
       <c r="J45" s="3">
-        <v>255800</v>
+        <v>254900</v>
       </c>
       <c r="K45" s="3">
         <v>227000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2584300</v>
+        <v>2574800</v>
       </c>
       <c r="E46" s="3">
-        <v>2580800</v>
+        <v>2571300</v>
       </c>
       <c r="F46" s="3">
-        <v>2642700</v>
+        <v>2633000</v>
       </c>
       <c r="G46" s="3">
-        <v>3123900</v>
+        <v>3112500</v>
       </c>
       <c r="H46" s="3">
-        <v>2714300</v>
+        <v>2704400</v>
       </c>
       <c r="I46" s="3">
-        <v>3030000</v>
+        <v>3018900</v>
       </c>
       <c r="J46" s="3">
-        <v>3159300</v>
+        <v>3147700</v>
       </c>
       <c r="K46" s="3">
         <v>2792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6171600</v>
+        <v>6149000</v>
       </c>
       <c r="E47" s="3">
-        <v>5976600</v>
+        <v>5954700</v>
       </c>
       <c r="F47" s="3">
-        <v>5378900</v>
+        <v>5359100</v>
       </c>
       <c r="G47" s="3">
-        <v>4980000</v>
+        <v>4961700</v>
       </c>
       <c r="H47" s="3">
-        <v>4511000</v>
+        <v>4494500</v>
       </c>
       <c r="I47" s="3">
-        <v>4309000</v>
+        <v>4293200</v>
       </c>
       <c r="J47" s="3">
-        <v>3778700</v>
+        <v>3764800</v>
       </c>
       <c r="K47" s="3">
         <v>3773400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9200700</v>
+        <v>9167000</v>
       </c>
       <c r="E48" s="3">
-        <v>8287200</v>
+        <v>8256800</v>
       </c>
       <c r="F48" s="3">
-        <v>7533200</v>
+        <v>7505600</v>
       </c>
       <c r="G48" s="3">
-        <v>7255600</v>
+        <v>7229000</v>
       </c>
       <c r="H48" s="3">
-        <v>6402600</v>
+        <v>6379200</v>
       </c>
       <c r="I48" s="3">
-        <v>6175700</v>
+        <v>6153100</v>
       </c>
       <c r="J48" s="3">
-        <v>6459000</v>
+        <v>6435300</v>
       </c>
       <c r="K48" s="3">
         <v>5934100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700400</v>
+        <v>697800</v>
       </c>
       <c r="E49" s="3">
-        <v>678400</v>
+        <v>675900</v>
       </c>
       <c r="F49" s="3">
-        <v>728500</v>
+        <v>725800</v>
       </c>
       <c r="G49" s="3">
-        <v>754300</v>
+        <v>751600</v>
       </c>
       <c r="H49" s="3">
-        <v>714400</v>
+        <v>711800</v>
       </c>
       <c r="I49" s="3">
-        <v>746100</v>
+        <v>743400</v>
       </c>
       <c r="J49" s="3">
-        <v>751100</v>
+        <v>748400</v>
       </c>
       <c r="K49" s="3">
         <v>676300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>610400</v>
+        <v>608200</v>
       </c>
       <c r="E52" s="3">
-        <v>486700</v>
+        <v>484900</v>
       </c>
       <c r="F52" s="3">
-        <v>729300</v>
+        <v>726600</v>
       </c>
       <c r="G52" s="3">
-        <v>689600</v>
+        <v>687100</v>
       </c>
       <c r="H52" s="3">
-        <v>625300</v>
+        <v>623000</v>
       </c>
       <c r="I52" s="3">
-        <v>555600</v>
+        <v>553600</v>
       </c>
       <c r="J52" s="3">
-        <v>520600</v>
+        <v>518700</v>
       </c>
       <c r="K52" s="3">
         <v>520500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19267400</v>
+        <v>19196800</v>
       </c>
       <c r="E54" s="3">
-        <v>18009700</v>
+        <v>17943700</v>
       </c>
       <c r="F54" s="3">
-        <v>17012600</v>
+        <v>16950200</v>
       </c>
       <c r="G54" s="3">
-        <v>16803400</v>
+        <v>16741800</v>
       </c>
       <c r="H54" s="3">
-        <v>14967700</v>
+        <v>14912800</v>
       </c>
       <c r="I54" s="3">
-        <v>14816400</v>
+        <v>14762100</v>
       </c>
       <c r="J54" s="3">
-        <v>14668600</v>
+        <v>14614800</v>
       </c>
       <c r="K54" s="3">
         <v>13696300</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>459800</v>
+        <v>458100</v>
       </c>
       <c r="E57" s="3">
-        <v>385500</v>
+        <v>384100</v>
       </c>
       <c r="F57" s="3">
-        <v>394600</v>
+        <v>393200</v>
       </c>
       <c r="G57" s="3">
-        <v>381700</v>
+        <v>380300</v>
       </c>
       <c r="H57" s="3">
-        <v>339400</v>
+        <v>338100</v>
       </c>
       <c r="I57" s="3">
-        <v>329900</v>
+        <v>328700</v>
       </c>
       <c r="J57" s="3">
-        <v>406200</v>
+        <v>404700</v>
       </c>
       <c r="K57" s="3">
         <v>414400</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1418700</v>
+        <v>1413500</v>
       </c>
       <c r="E58" s="3">
-        <v>1211900</v>
+        <v>1207500</v>
       </c>
       <c r="F58" s="3">
-        <v>1353900</v>
+        <v>1349000</v>
       </c>
       <c r="G58" s="3">
-        <v>2042700</v>
+        <v>2035200</v>
       </c>
       <c r="H58" s="3">
-        <v>787000</v>
+        <v>784100</v>
       </c>
       <c r="I58" s="3">
-        <v>1268500</v>
+        <v>1263800</v>
       </c>
       <c r="J58" s="3">
-        <v>931300</v>
+        <v>927900</v>
       </c>
       <c r="K58" s="3">
         <v>836300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1943000</v>
+        <v>1935800</v>
       </c>
       <c r="E59" s="3">
-        <v>1757600</v>
+        <v>1751100</v>
       </c>
       <c r="F59" s="3">
-        <v>1604200</v>
+        <v>1598300</v>
       </c>
       <c r="G59" s="3">
-        <v>1671700</v>
+        <v>1665600</v>
       </c>
       <c r="H59" s="3">
-        <v>1379800</v>
+        <v>1374800</v>
       </c>
       <c r="I59" s="3">
-        <v>1373600</v>
+        <v>1368600</v>
       </c>
       <c r="J59" s="3">
-        <v>1315200</v>
+        <v>1310400</v>
       </c>
       <c r="K59" s="3">
         <v>1228900</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3821500</v>
+        <v>3807500</v>
       </c>
       <c r="E60" s="3">
-        <v>3354900</v>
+        <v>3342600</v>
       </c>
       <c r="F60" s="3">
-        <v>3352800</v>
+        <v>3340500</v>
       </c>
       <c r="G60" s="3">
-        <v>4096100</v>
+        <v>4081100</v>
       </c>
       <c r="H60" s="3">
-        <v>2506200</v>
+        <v>2497000</v>
       </c>
       <c r="I60" s="3">
-        <v>2972000</v>
+        <v>2961100</v>
       </c>
       <c r="J60" s="3">
-        <v>2652600</v>
+        <v>2642900</v>
       </c>
       <c r="K60" s="3">
         <v>2479600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4036300</v>
+        <v>4021500</v>
       </c>
       <c r="E61" s="3">
-        <v>3712000</v>
+        <v>3698400</v>
       </c>
       <c r="F61" s="3">
-        <v>3539800</v>
+        <v>3526800</v>
       </c>
       <c r="G61" s="3">
-        <v>2713200</v>
+        <v>2703200</v>
       </c>
       <c r="H61" s="3">
-        <v>3499600</v>
+        <v>3486800</v>
       </c>
       <c r="I61" s="3">
-        <v>2998200</v>
+        <v>2987200</v>
       </c>
       <c r="J61" s="3">
-        <v>3142000</v>
+        <v>3130500</v>
       </c>
       <c r="K61" s="3">
         <v>3144000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1261400</v>
+        <v>1256800</v>
       </c>
       <c r="E62" s="3">
-        <v>1276100</v>
+        <v>1271400</v>
       </c>
       <c r="F62" s="3">
-        <v>1120500</v>
+        <v>1116400</v>
       </c>
       <c r="G62" s="3">
-        <v>988000</v>
+        <v>984400</v>
       </c>
       <c r="H62" s="3">
-        <v>897700</v>
+        <v>894400</v>
       </c>
       <c r="I62" s="3">
-        <v>882700</v>
+        <v>879400</v>
       </c>
       <c r="J62" s="3">
-        <v>896300</v>
+        <v>893000</v>
       </c>
       <c r="K62" s="3">
         <v>816100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10402700</v>
+        <v>10364500</v>
       </c>
       <c r="E66" s="3">
-        <v>9471700</v>
+        <v>9437000</v>
       </c>
       <c r="F66" s="3">
-        <v>9012200</v>
+        <v>8979200</v>
       </c>
       <c r="G66" s="3">
-        <v>8752800</v>
+        <v>8720700</v>
       </c>
       <c r="H66" s="3">
-        <v>7751200</v>
+        <v>7722800</v>
       </c>
       <c r="I66" s="3">
-        <v>7739800</v>
+        <v>7711400</v>
       </c>
       <c r="J66" s="3">
-        <v>7619400</v>
+        <v>7591400</v>
       </c>
       <c r="K66" s="3">
         <v>7276800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7563900</v>
+        <v>7536200</v>
       </c>
       <c r="E72" s="3">
-        <v>7554000</v>
+        <v>7526300</v>
       </c>
       <c r="F72" s="3">
-        <v>7363100</v>
+        <v>7336100</v>
       </c>
       <c r="G72" s="3">
-        <v>6816500</v>
+        <v>6791500</v>
       </c>
       <c r="H72" s="3">
-        <v>6339700</v>
+        <v>6316500</v>
       </c>
       <c r="I72" s="3">
-        <v>5944400</v>
+        <v>5922600</v>
       </c>
       <c r="J72" s="3">
-        <v>5553800</v>
+        <v>5533500</v>
       </c>
       <c r="K72" s="3">
         <v>5151600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8864800</v>
+        <v>8832300</v>
       </c>
       <c r="E76" s="3">
-        <v>8538000</v>
+        <v>8506700</v>
       </c>
       <c r="F76" s="3">
-        <v>8000400</v>
+        <v>7971100</v>
       </c>
       <c r="G76" s="3">
-        <v>8050700</v>
+        <v>8021200</v>
       </c>
       <c r="H76" s="3">
-        <v>7216400</v>
+        <v>7190000</v>
       </c>
       <c r="I76" s="3">
-        <v>7076600</v>
+        <v>7050600</v>
       </c>
       <c r="J76" s="3">
-        <v>7049200</v>
+        <v>7023400</v>
       </c>
       <c r="K76" s="3">
         <v>6419500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>770200</v>
+        <v>767400</v>
       </c>
       <c r="E81" s="3">
-        <v>893100</v>
+        <v>889800</v>
       </c>
       <c r="F81" s="3">
-        <v>1194000</v>
+        <v>1189600</v>
       </c>
       <c r="G81" s="3">
-        <v>1054600</v>
+        <v>1050700</v>
       </c>
       <c r="H81" s="3">
-        <v>941200</v>
+        <v>937700</v>
       </c>
       <c r="I81" s="3">
-        <v>936200</v>
+        <v>932800</v>
       </c>
       <c r="J81" s="3">
-        <v>911500</v>
+        <v>908100</v>
       </c>
       <c r="K81" s="3">
         <v>882300</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>377000</v>
+        <v>375600</v>
       </c>
       <c r="E83" s="3">
-        <v>353000</v>
+        <v>351700</v>
       </c>
       <c r="F83" s="3">
-        <v>325300</v>
+        <v>324100</v>
       </c>
       <c r="G83" s="3">
-        <v>304500</v>
+        <v>303400</v>
       </c>
       <c r="H83" s="3">
-        <v>285000</v>
+        <v>284000</v>
       </c>
       <c r="I83" s="3">
-        <v>266100</v>
+        <v>265100</v>
       </c>
       <c r="J83" s="3">
-        <v>250200</v>
+        <v>249300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1270600</v>
+        <v>1265900</v>
       </c>
       <c r="E89" s="3">
-        <v>1270900</v>
+        <v>1266200</v>
       </c>
       <c r="F89" s="3">
-        <v>1210200</v>
+        <v>1205700</v>
       </c>
       <c r="G89" s="3">
-        <v>1092900</v>
+        <v>1088900</v>
       </c>
       <c r="H89" s="3">
-        <v>1085800</v>
+        <v>1081900</v>
       </c>
       <c r="I89" s="3">
-        <v>1061100</v>
+        <v>1057200</v>
       </c>
       <c r="J89" s="3">
-        <v>1048700</v>
+        <v>1044900</v>
       </c>
       <c r="K89" s="3">
         <v>900100</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-935300</v>
+        <v>-931900</v>
       </c>
       <c r="E91" s="3">
-        <v>-904300</v>
+        <v>-900900</v>
       </c>
       <c r="F91" s="3">
-        <v>-864900</v>
+        <v>-861700</v>
       </c>
       <c r="G91" s="3">
-        <v>-787300</v>
+        <v>-784400</v>
       </c>
       <c r="H91" s="3">
-        <v>-802200</v>
+        <v>-799200</v>
       </c>
       <c r="I91" s="3">
-        <v>-814900</v>
+        <v>-811900</v>
       </c>
       <c r="J91" s="3">
-        <v>-816100</v>
+        <v>-813100</v>
       </c>
       <c r="K91" s="3">
         <v>-654700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-767900</v>
+        <v>-765100</v>
       </c>
       <c r="E94" s="3">
-        <v>-679600</v>
+        <v>-677100</v>
       </c>
       <c r="F94" s="3">
-        <v>-484200</v>
+        <v>-482400</v>
       </c>
       <c r="G94" s="3">
-        <v>-214200</v>
+        <v>-213400</v>
       </c>
       <c r="H94" s="3">
-        <v>-829300</v>
+        <v>-826300</v>
       </c>
       <c r="I94" s="3">
-        <v>-607600</v>
+        <v>-605400</v>
       </c>
       <c r="J94" s="3">
-        <v>-363300</v>
+        <v>-361900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-772500</v>
+        <v>-769700</v>
       </c>
       <c r="E96" s="3">
-        <v>-714100</v>
+        <v>-711500</v>
       </c>
       <c r="F96" s="3">
-        <v>-649200</v>
+        <v>-646800</v>
       </c>
       <c r="G96" s="3">
-        <v>-590200</v>
+        <v>-588000</v>
       </c>
       <c r="H96" s="3">
-        <v>-536600</v>
+        <v>-534600</v>
       </c>
       <c r="I96" s="3">
-        <v>-487900</v>
+        <v>-486100</v>
       </c>
       <c r="J96" s="3">
-        <v>-443700</v>
+        <v>-442100</v>
       </c>
       <c r="K96" s="3">
         <v>-405000</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-579600</v>
+        <v>-577400</v>
       </c>
       <c r="E100" s="3">
-        <v>-668500</v>
+        <v>-666000</v>
       </c>
       <c r="F100" s="3">
-        <v>-998600</v>
+        <v>-994900</v>
       </c>
       <c r="G100" s="3">
-        <v>-556400</v>
+        <v>-554300</v>
       </c>
       <c r="H100" s="3">
-        <v>-727300</v>
+        <v>-724700</v>
       </c>
       <c r="I100" s="3">
-        <v>-509900</v>
+        <v>-508000</v>
       </c>
       <c r="J100" s="3">
-        <v>-185200</v>
+        <v>-184500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26400</v>
+        <v>26300</v>
       </c>
       <c r="E101" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="F101" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="G101" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="H101" s="3">
-        <v>-22800</v>
+        <v>-22700</v>
       </c>
       <c r="I101" s="3">
-        <v>-30800</v>
+        <v>-30700</v>
       </c>
       <c r="J101" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50500</v>
+        <v>-50300</v>
       </c>
       <c r="E102" s="3">
-        <v>-83600</v>
+        <v>-83300</v>
       </c>
       <c r="F102" s="3">
-        <v>-289500</v>
+        <v>-288400</v>
       </c>
       <c r="G102" s="3">
-        <v>343900</v>
+        <v>342700</v>
       </c>
       <c r="H102" s="3">
-        <v>-493600</v>
+        <v>-491800</v>
       </c>
       <c r="I102" s="3">
-        <v>-87100</v>
+        <v>-86800</v>
       </c>
       <c r="J102" s="3">
-        <v>481600</v>
+        <v>479900</v>
       </c>
       <c r="K102" s="3">
         <v>-429600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5228000</v>
+        <v>6823500</v>
       </c>
       <c r="E8" s="3">
-        <v>5189800</v>
+        <v>5213700</v>
       </c>
       <c r="F8" s="3">
-        <v>4991200</v>
+        <v>5175600</v>
       </c>
       <c r="G8" s="3">
-        <v>4148500</v>
+        <v>4977500</v>
       </c>
       <c r="H8" s="3">
-        <v>3647900</v>
+        <v>4137200</v>
       </c>
       <c r="I8" s="3">
-        <v>3780000</v>
+        <v>3637900</v>
       </c>
       <c r="J8" s="3">
+        <v>3769600</v>
+      </c>
+      <c r="K8" s="3">
         <v>4038500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3636100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3209800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2857000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2808600</v>
+        <v>4151900</v>
       </c>
       <c r="E9" s="3">
-        <v>2785200</v>
+        <v>2800900</v>
       </c>
       <c r="F9" s="3">
-        <v>2631200</v>
+        <v>2777600</v>
       </c>
       <c r="G9" s="3">
-        <v>2004500</v>
+        <v>2624000</v>
       </c>
       <c r="H9" s="3">
-        <v>1623500</v>
+        <v>1999000</v>
       </c>
       <c r="I9" s="3">
-        <v>1800900</v>
+        <v>1619100</v>
       </c>
       <c r="J9" s="3">
+        <v>1795900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2082000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1895100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1717100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1420700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2419500</v>
+        <v>2671600</v>
       </c>
       <c r="E10" s="3">
-        <v>2404600</v>
+        <v>2412800</v>
       </c>
       <c r="F10" s="3">
-        <v>2360000</v>
+        <v>2398000</v>
       </c>
       <c r="G10" s="3">
-        <v>2144100</v>
+        <v>2353500</v>
       </c>
       <c r="H10" s="3">
-        <v>2024400</v>
+        <v>2138200</v>
       </c>
       <c r="I10" s="3">
-        <v>1979100</v>
+        <v>2018800</v>
       </c>
       <c r="J10" s="3">
+        <v>1973700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1956500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1741000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1492700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1436300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3">
         <v>1400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15500</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,69 +940,75 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-3900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-85600</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>375600</v>
+        <v>418900</v>
       </c>
       <c r="E15" s="3">
-        <v>351700</v>
+        <v>374600</v>
       </c>
       <c r="F15" s="3">
-        <v>324100</v>
+        <v>350800</v>
       </c>
       <c r="G15" s="3">
-        <v>303400</v>
+        <v>323200</v>
       </c>
       <c r="H15" s="3">
-        <v>284000</v>
+        <v>302500</v>
       </c>
       <c r="I15" s="3">
-        <v>265100</v>
+        <v>283200</v>
       </c>
       <c r="J15" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K15" s="3">
         <v>249300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>212300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>188700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>167000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4216600</v>
+        <v>5899100</v>
       </c>
       <c r="E17" s="3">
-        <v>4030900</v>
+        <v>4205000</v>
       </c>
       <c r="F17" s="3">
-        <v>3917800</v>
+        <v>4019900</v>
       </c>
       <c r="G17" s="3">
-        <v>3093200</v>
+        <v>3907000</v>
       </c>
       <c r="H17" s="3">
-        <v>2735800</v>
+        <v>3084800</v>
       </c>
       <c r="I17" s="3">
-        <v>2874200</v>
+        <v>2728300</v>
       </c>
       <c r="J17" s="3">
+        <v>2866300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3058300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2649400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2296100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2134100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1011400</v>
+        <v>924400</v>
       </c>
       <c r="E18" s="3">
-        <v>1158900</v>
+        <v>1008700</v>
       </c>
       <c r="F18" s="3">
-        <v>1073400</v>
+        <v>1155700</v>
       </c>
       <c r="G18" s="3">
-        <v>1055300</v>
+        <v>1070500</v>
       </c>
       <c r="H18" s="3">
-        <v>912100</v>
+        <v>1052400</v>
       </c>
       <c r="I18" s="3">
-        <v>905800</v>
+        <v>909600</v>
       </c>
       <c r="J18" s="3">
+        <v>903300</v>
+      </c>
+      <c r="K18" s="3">
         <v>980100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>986700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>913700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>722900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>290800</v>
+        <v>322600</v>
       </c>
       <c r="E20" s="3">
-        <v>327300</v>
+        <v>290000</v>
       </c>
       <c r="F20" s="3">
-        <v>653100</v>
+        <v>326400</v>
       </c>
       <c r="G20" s="3">
-        <v>522700</v>
+        <v>651300</v>
       </c>
       <c r="H20" s="3">
-        <v>499800</v>
+        <v>521300</v>
       </c>
       <c r="I20" s="3">
-        <v>503800</v>
+        <v>498400</v>
       </c>
       <c r="J20" s="3">
+        <v>502400</v>
+      </c>
+      <c r="K20" s="3">
         <v>410600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>344000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>470700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400800</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1678300</v>
+        <v>1665900</v>
       </c>
       <c r="E21" s="3">
-        <v>1838300</v>
+        <v>1673200</v>
       </c>
       <c r="F21" s="3">
-        <v>2051000</v>
+        <v>1832900</v>
       </c>
       <c r="G21" s="3">
-        <v>1881800</v>
+        <v>2045000</v>
       </c>
       <c r="H21" s="3">
-        <v>1696200</v>
+        <v>1876300</v>
       </c>
       <c r="I21" s="3">
-        <v>1675000</v>
+        <v>1691300</v>
       </c>
       <c r="J21" s="3">
+        <v>1670100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1640300</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1573200</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162100</v>
+        <v>179400</v>
       </c>
       <c r="E22" s="3">
-        <v>157200</v>
+        <v>161600</v>
       </c>
       <c r="F22" s="3">
-        <v>150300</v>
+        <v>156700</v>
       </c>
       <c r="G22" s="3">
-        <v>160600</v>
+        <v>149900</v>
       </c>
       <c r="H22" s="3">
-        <v>154200</v>
+        <v>160100</v>
       </c>
       <c r="I22" s="3">
-        <v>144200</v>
+        <v>153800</v>
       </c>
       <c r="J22" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K22" s="3">
         <v>129400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>119200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>111200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>95800</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1140200</v>
+        <v>1067600</v>
       </c>
       <c r="E23" s="3">
-        <v>1329000</v>
+        <v>1137000</v>
       </c>
       <c r="F23" s="3">
-        <v>1576200</v>
+        <v>1325400</v>
       </c>
       <c r="G23" s="3">
-        <v>1417500</v>
+        <v>1571900</v>
       </c>
       <c r="H23" s="3">
-        <v>1257700</v>
+        <v>1413600</v>
       </c>
       <c r="I23" s="3">
-        <v>1265400</v>
+        <v>1254200</v>
       </c>
       <c r="J23" s="3">
+        <v>1261900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1261400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1211500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1273200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1027900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>218800</v>
+        <v>274500</v>
       </c>
       <c r="E24" s="3">
-        <v>292500</v>
+        <v>218200</v>
       </c>
       <c r="F24" s="3">
-        <v>243700</v>
+        <v>291700</v>
       </c>
       <c r="G24" s="3">
-        <v>223500</v>
+        <v>243000</v>
       </c>
       <c r="H24" s="3">
-        <v>201300</v>
+        <v>222900</v>
       </c>
       <c r="I24" s="3">
-        <v>220600</v>
+        <v>200800</v>
       </c>
       <c r="J24" s="3">
+        <v>220000</v>
+      </c>
+      <c r="K24" s="3">
         <v>226300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>213100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>191200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>171200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>921300</v>
+        <v>793100</v>
       </c>
       <c r="E26" s="3">
-        <v>1036500</v>
+        <v>918800</v>
       </c>
       <c r="F26" s="3">
-        <v>1332600</v>
+        <v>1033700</v>
       </c>
       <c r="G26" s="3">
-        <v>1194000</v>
+        <v>1328900</v>
       </c>
       <c r="H26" s="3">
-        <v>1056400</v>
+        <v>1190700</v>
       </c>
       <c r="I26" s="3">
-        <v>1044800</v>
+        <v>1053500</v>
       </c>
       <c r="J26" s="3">
+        <v>1042000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1035100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>998400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1082000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>856700</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>767400</v>
+        <v>639100</v>
       </c>
       <c r="E27" s="3">
-        <v>889800</v>
+        <v>765300</v>
       </c>
       <c r="F27" s="3">
-        <v>1189600</v>
+        <v>887400</v>
       </c>
       <c r="G27" s="3">
-        <v>1050700</v>
+        <v>1186400</v>
       </c>
       <c r="H27" s="3">
-        <v>937700</v>
+        <v>1047800</v>
       </c>
       <c r="I27" s="3">
-        <v>932800</v>
+        <v>935100</v>
       </c>
       <c r="J27" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K27" s="3">
         <v>908100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>882300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>993200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>783400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-290800</v>
+        <v>-322600</v>
       </c>
       <c r="E32" s="3">
-        <v>-327300</v>
+        <v>-290000</v>
       </c>
       <c r="F32" s="3">
-        <v>-653100</v>
+        <v>-326400</v>
       </c>
       <c r="G32" s="3">
-        <v>-522700</v>
+        <v>-651300</v>
       </c>
       <c r="H32" s="3">
-        <v>-499800</v>
+        <v>-521300</v>
       </c>
       <c r="I32" s="3">
-        <v>-503800</v>
+        <v>-498400</v>
       </c>
       <c r="J32" s="3">
+        <v>-502400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-410600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-344000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-470700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400800</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>767400</v>
+        <v>639100</v>
       </c>
       <c r="E33" s="3">
-        <v>889800</v>
+        <v>765300</v>
       </c>
       <c r="F33" s="3">
-        <v>1189600</v>
+        <v>887400</v>
       </c>
       <c r="G33" s="3">
-        <v>1050700</v>
+        <v>1186400</v>
       </c>
       <c r="H33" s="3">
-        <v>937700</v>
+        <v>1047800</v>
       </c>
       <c r="I33" s="3">
-        <v>932800</v>
+        <v>935100</v>
       </c>
       <c r="J33" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K33" s="3">
         <v>908100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>882300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>993200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>783400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>767400</v>
+        <v>639100</v>
       </c>
       <c r="E35" s="3">
-        <v>889800</v>
+        <v>765300</v>
       </c>
       <c r="F35" s="3">
-        <v>1189600</v>
+        <v>887400</v>
       </c>
       <c r="G35" s="3">
-        <v>1050700</v>
+        <v>1186400</v>
       </c>
       <c r="H35" s="3">
-        <v>937700</v>
+        <v>1047800</v>
       </c>
       <c r="I35" s="3">
-        <v>932800</v>
+        <v>935100</v>
       </c>
       <c r="J35" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K35" s="3">
         <v>908100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>882300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>993200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>783400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>952300</v>
+        <v>1344900</v>
       </c>
       <c r="E41" s="3">
-        <v>1002600</v>
+        <v>949700</v>
       </c>
       <c r="F41" s="3">
-        <v>1085900</v>
+        <v>999900</v>
       </c>
       <c r="G41" s="3">
-        <v>1374300</v>
+        <v>1082900</v>
       </c>
       <c r="H41" s="3">
-        <v>1031600</v>
+        <v>1370500</v>
       </c>
       <c r="I41" s="3">
-        <v>1523400</v>
+        <v>1028800</v>
       </c>
       <c r="J41" s="3">
+        <v>1519200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1610200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1139100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2232600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1432100</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52000</v>
+        <v>10200</v>
       </c>
       <c r="E42" s="3">
-        <v>44500</v>
+        <v>51900</v>
       </c>
       <c r="F42" s="3">
-        <v>86900</v>
+        <v>44400</v>
       </c>
       <c r="G42" s="3">
-        <v>285200</v>
+        <v>86700</v>
       </c>
       <c r="H42" s="3">
-        <v>451700</v>
+        <v>284400</v>
       </c>
       <c r="I42" s="3">
-        <v>171000</v>
+        <v>450400</v>
       </c>
       <c r="J42" s="3">
+        <v>170600</v>
+      </c>
+      <c r="K42" s="3">
         <v>162100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>251100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>78400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>102800</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>953600</v>
+        <v>1099000</v>
       </c>
       <c r="E43" s="3">
-        <v>1000500</v>
+        <v>950900</v>
       </c>
       <c r="F43" s="3">
-        <v>941300</v>
+        <v>997800</v>
       </c>
       <c r="G43" s="3">
-        <v>911700</v>
+        <v>938700</v>
       </c>
       <c r="H43" s="3">
-        <v>790600</v>
+        <v>909200</v>
       </c>
       <c r="I43" s="3">
-        <v>873000</v>
+        <v>788400</v>
       </c>
       <c r="J43" s="3">
+        <v>870600</v>
+      </c>
+      <c r="K43" s="3">
         <v>828800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>867900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>684400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>611600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>341200</v>
+        <v>400100</v>
       </c>
       <c r="E44" s="3">
-        <v>301900</v>
+        <v>340300</v>
       </c>
       <c r="F44" s="3">
-        <v>316900</v>
+        <v>301100</v>
       </c>
       <c r="G44" s="3">
-        <v>329400</v>
+        <v>316000</v>
       </c>
       <c r="H44" s="3">
-        <v>269600</v>
+        <v>328400</v>
       </c>
       <c r="I44" s="3">
-        <v>292700</v>
+        <v>268800</v>
       </c>
       <c r="J44" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K44" s="3">
         <v>291700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>306800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>266100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>206700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>275700</v>
+        <v>227200</v>
       </c>
       <c r="E45" s="3">
-        <v>221700</v>
+        <v>275000</v>
       </c>
       <c r="F45" s="3">
-        <v>202000</v>
+        <v>221100</v>
       </c>
       <c r="G45" s="3">
-        <v>211900</v>
+        <v>201500</v>
       </c>
       <c r="H45" s="3">
-        <v>160900</v>
+        <v>211300</v>
       </c>
       <c r="I45" s="3">
-        <v>158700</v>
+        <v>160400</v>
       </c>
       <c r="J45" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K45" s="3">
         <v>254900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>227000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>188800</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2574800</v>
+        <v>3081300</v>
       </c>
       <c r="E46" s="3">
-        <v>2571300</v>
+        <v>2567700</v>
       </c>
       <c r="F46" s="3">
-        <v>2633000</v>
+        <v>2564300</v>
       </c>
       <c r="G46" s="3">
-        <v>3112500</v>
+        <v>2625800</v>
       </c>
       <c r="H46" s="3">
-        <v>2704400</v>
+        <v>3104000</v>
       </c>
       <c r="I46" s="3">
-        <v>3018900</v>
+        <v>2697000</v>
       </c>
       <c r="J46" s="3">
+        <v>3010600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3147700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2792000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2761000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2542100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6149000</v>
+        <v>7168900</v>
       </c>
       <c r="E47" s="3">
-        <v>5954700</v>
+        <v>6132100</v>
       </c>
       <c r="F47" s="3">
-        <v>5359100</v>
+        <v>5938400</v>
       </c>
       <c r="G47" s="3">
-        <v>4961700</v>
+        <v>5344500</v>
       </c>
       <c r="H47" s="3">
-        <v>4494500</v>
+        <v>4948100</v>
       </c>
       <c r="I47" s="3">
-        <v>4293200</v>
+        <v>4482200</v>
       </c>
       <c r="J47" s="3">
+        <v>4281400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3764800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3773400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3718200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3214600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9167000</v>
+        <v>9682800</v>
       </c>
       <c r="E48" s="3">
-        <v>8256800</v>
+        <v>9141900</v>
       </c>
       <c r="F48" s="3">
-        <v>7505600</v>
+        <v>8234200</v>
       </c>
       <c r="G48" s="3">
-        <v>7229000</v>
+        <v>7485000</v>
       </c>
       <c r="H48" s="3">
-        <v>6379200</v>
+        <v>7209200</v>
       </c>
       <c r="I48" s="3">
-        <v>6153100</v>
+        <v>6361700</v>
       </c>
       <c r="J48" s="3">
+        <v>6136200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6435300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5934100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3952900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4347100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>697800</v>
+        <v>714300</v>
       </c>
       <c r="E49" s="3">
-        <v>675900</v>
+        <v>695900</v>
       </c>
       <c r="F49" s="3">
-        <v>725800</v>
+        <v>674000</v>
       </c>
       <c r="G49" s="3">
-        <v>751600</v>
+        <v>723800</v>
       </c>
       <c r="H49" s="3">
-        <v>711800</v>
+        <v>749500</v>
       </c>
       <c r="I49" s="3">
-        <v>743400</v>
+        <v>709900</v>
       </c>
       <c r="J49" s="3">
+        <v>741300</v>
+      </c>
+      <c r="K49" s="3">
         <v>748400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>676300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>495200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>437600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>608200</v>
+        <v>762800</v>
       </c>
       <c r="E52" s="3">
-        <v>484900</v>
+        <v>606500</v>
       </c>
       <c r="F52" s="3">
-        <v>726600</v>
+        <v>483600</v>
       </c>
       <c r="G52" s="3">
-        <v>687100</v>
+        <v>724700</v>
       </c>
       <c r="H52" s="3">
-        <v>623000</v>
+        <v>685200</v>
       </c>
       <c r="I52" s="3">
-        <v>553600</v>
+        <v>621300</v>
       </c>
       <c r="J52" s="3">
+        <v>552100</v>
+      </c>
+      <c r="K52" s="3">
         <v>518700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>520500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>475700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>298100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19196800</v>
+        <v>21410100</v>
       </c>
       <c r="E54" s="3">
-        <v>17943700</v>
+        <v>19144200</v>
       </c>
       <c r="F54" s="3">
-        <v>16950200</v>
+        <v>17894500</v>
       </c>
       <c r="G54" s="3">
-        <v>16741800</v>
+        <v>16903800</v>
       </c>
       <c r="H54" s="3">
-        <v>14912800</v>
+        <v>16696000</v>
       </c>
       <c r="I54" s="3">
-        <v>14762100</v>
+        <v>14871900</v>
       </c>
       <c r="J54" s="3">
+        <v>14721600</v>
+      </c>
+      <c r="K54" s="3">
         <v>14614800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13696300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12742100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10839500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>458100</v>
+        <v>525000</v>
       </c>
       <c r="E57" s="3">
-        <v>384100</v>
+        <v>456900</v>
       </c>
       <c r="F57" s="3">
-        <v>393200</v>
+        <v>383000</v>
       </c>
       <c r="G57" s="3">
-        <v>380300</v>
+        <v>392100</v>
       </c>
       <c r="H57" s="3">
-        <v>338100</v>
+        <v>379300</v>
       </c>
       <c r="I57" s="3">
-        <v>328700</v>
+        <v>337200</v>
       </c>
       <c r="J57" s="3">
+        <v>327800</v>
+      </c>
+      <c r="K57" s="3">
         <v>404700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>414400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>352600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1021900</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1413500</v>
+        <v>2359000</v>
       </c>
       <c r="E58" s="3">
-        <v>1207500</v>
+        <v>1409600</v>
       </c>
       <c r="F58" s="3">
-        <v>1349000</v>
+        <v>1204200</v>
       </c>
       <c r="G58" s="3">
-        <v>2035200</v>
+        <v>1345300</v>
       </c>
       <c r="H58" s="3">
-        <v>784100</v>
+        <v>2029600</v>
       </c>
       <c r="I58" s="3">
-        <v>1263800</v>
+        <v>781900</v>
       </c>
       <c r="J58" s="3">
+        <v>1260400</v>
+      </c>
+      <c r="K58" s="3">
         <v>927900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>836300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>836000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>537700</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1935800</v>
+        <v>2024900</v>
       </c>
       <c r="E59" s="3">
-        <v>1751100</v>
+        <v>1930500</v>
       </c>
       <c r="F59" s="3">
-        <v>1598300</v>
+        <v>1746300</v>
       </c>
       <c r="G59" s="3">
-        <v>1665600</v>
+        <v>1594000</v>
       </c>
       <c r="H59" s="3">
-        <v>1374800</v>
+        <v>1661000</v>
       </c>
       <c r="I59" s="3">
-        <v>1368600</v>
+        <v>1371000</v>
       </c>
       <c r="J59" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1310400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1228900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1033500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3807500</v>
+        <v>4908800</v>
       </c>
       <c r="E60" s="3">
-        <v>3342600</v>
+        <v>3797000</v>
       </c>
       <c r="F60" s="3">
-        <v>3340500</v>
+        <v>3333500</v>
       </c>
       <c r="G60" s="3">
-        <v>4081100</v>
+        <v>3331400</v>
       </c>
       <c r="H60" s="3">
-        <v>2497000</v>
+        <v>4069900</v>
       </c>
       <c r="I60" s="3">
-        <v>2961100</v>
+        <v>2490200</v>
       </c>
       <c r="J60" s="3">
+        <v>2953000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2642900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2479600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2222000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1707500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4021500</v>
+        <v>4740800</v>
       </c>
       <c r="E61" s="3">
-        <v>3698400</v>
+        <v>4010500</v>
       </c>
       <c r="F61" s="3">
-        <v>3526800</v>
+        <v>3688300</v>
       </c>
       <c r="G61" s="3">
-        <v>2703200</v>
+        <v>3517100</v>
       </c>
       <c r="H61" s="3">
-        <v>3486800</v>
+        <v>2695800</v>
       </c>
       <c r="I61" s="3">
-        <v>2987200</v>
+        <v>3477300</v>
       </c>
       <c r="J61" s="3">
+        <v>2979100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3130500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3144000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3254500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2755200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1256800</v>
+        <v>1335000</v>
       </c>
       <c r="E62" s="3">
-        <v>1271400</v>
+        <v>1253300</v>
       </c>
       <c r="F62" s="3">
-        <v>1116400</v>
+        <v>1267900</v>
       </c>
       <c r="G62" s="3">
-        <v>984400</v>
+        <v>1113300</v>
       </c>
       <c r="H62" s="3">
-        <v>894400</v>
+        <v>981700</v>
       </c>
       <c r="I62" s="3">
-        <v>879400</v>
+        <v>892000</v>
       </c>
       <c r="J62" s="3">
+        <v>877000</v>
+      </c>
+      <c r="K62" s="3">
         <v>893000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>816100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>781100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>474500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10364500</v>
+        <v>12516900</v>
       </c>
       <c r="E66" s="3">
-        <v>9437000</v>
+        <v>10336100</v>
       </c>
       <c r="F66" s="3">
-        <v>8979200</v>
+        <v>9411100</v>
       </c>
       <c r="G66" s="3">
-        <v>8720700</v>
+        <v>8954500</v>
       </c>
       <c r="H66" s="3">
-        <v>7722800</v>
+        <v>8696800</v>
       </c>
       <c r="I66" s="3">
-        <v>7711400</v>
+        <v>7701700</v>
       </c>
       <c r="J66" s="3">
+        <v>7690300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7591400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7276800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6920600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5542100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7536200</v>
+        <v>7380300</v>
       </c>
       <c r="E72" s="3">
-        <v>7526300</v>
+        <v>7515500</v>
       </c>
       <c r="F72" s="3">
-        <v>7336100</v>
+        <v>7505700</v>
       </c>
       <c r="G72" s="3">
-        <v>6791500</v>
+        <v>7316000</v>
       </c>
       <c r="H72" s="3">
-        <v>6316500</v>
+        <v>6772900</v>
       </c>
       <c r="I72" s="3">
-        <v>5922600</v>
+        <v>6299200</v>
       </c>
       <c r="J72" s="3">
+        <v>5906400</v>
+      </c>
+      <c r="K72" s="3">
         <v>5533500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5151600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4650700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4154200</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8832300</v>
+        <v>8893200</v>
       </c>
       <c r="E76" s="3">
-        <v>8506700</v>
+        <v>8808100</v>
       </c>
       <c r="F76" s="3">
-        <v>7971100</v>
+        <v>8483400</v>
       </c>
       <c r="G76" s="3">
-        <v>8021200</v>
+        <v>7949200</v>
       </c>
       <c r="H76" s="3">
-        <v>7190000</v>
+        <v>7999200</v>
       </c>
       <c r="I76" s="3">
-        <v>7050600</v>
+        <v>7170300</v>
       </c>
       <c r="J76" s="3">
+        <v>7031300</v>
+      </c>
+      <c r="K76" s="3">
         <v>7023400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6419500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5821500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5297400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>767400</v>
+        <v>639100</v>
       </c>
       <c r="E81" s="3">
-        <v>889800</v>
+        <v>765300</v>
       </c>
       <c r="F81" s="3">
-        <v>1189600</v>
+        <v>887400</v>
       </c>
       <c r="G81" s="3">
-        <v>1050700</v>
+        <v>1186400</v>
       </c>
       <c r="H81" s="3">
-        <v>937700</v>
+        <v>1047800</v>
       </c>
       <c r="I81" s="3">
-        <v>932800</v>
+        <v>935100</v>
       </c>
       <c r="J81" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K81" s="3">
         <v>908100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>882300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>993200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>783400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>375600</v>
+        <v>418900</v>
       </c>
       <c r="E83" s="3">
-        <v>351700</v>
+        <v>374600</v>
       </c>
       <c r="F83" s="3">
-        <v>324100</v>
+        <v>350800</v>
       </c>
       <c r="G83" s="3">
-        <v>303400</v>
+        <v>323200</v>
       </c>
       <c r="H83" s="3">
-        <v>284000</v>
+        <v>302500</v>
       </c>
       <c r="I83" s="3">
-        <v>265100</v>
+        <v>283200</v>
       </c>
       <c r="J83" s="3">
+        <v>264400</v>
+      </c>
+      <c r="K83" s="3">
         <v>249300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>188700</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1265900</v>
+        <v>1333700</v>
       </c>
       <c r="E89" s="3">
-        <v>1266200</v>
+        <v>1262500</v>
       </c>
       <c r="F89" s="3">
-        <v>1205700</v>
+        <v>1262700</v>
       </c>
       <c r="G89" s="3">
-        <v>1088900</v>
+        <v>1202400</v>
       </c>
       <c r="H89" s="3">
-        <v>1081900</v>
+        <v>1085900</v>
       </c>
       <c r="I89" s="3">
-        <v>1057200</v>
+        <v>1078900</v>
       </c>
       <c r="J89" s="3">
+        <v>1054300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1044900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>900100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>858500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>631500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-931900</v>
+        <v>-1068400</v>
       </c>
       <c r="E91" s="3">
-        <v>-900900</v>
+        <v>-929300</v>
       </c>
       <c r="F91" s="3">
-        <v>-861700</v>
+        <v>-898500</v>
       </c>
       <c r="G91" s="3">
-        <v>-784400</v>
+        <v>-859400</v>
       </c>
       <c r="H91" s="3">
-        <v>-799200</v>
+        <v>-782300</v>
       </c>
       <c r="I91" s="3">
-        <v>-811900</v>
+        <v>-797000</v>
       </c>
       <c r="J91" s="3">
+        <v>-809700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-813100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-654700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-749100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-583300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-765100</v>
+        <v>-1646100</v>
       </c>
       <c r="E94" s="3">
-        <v>-677100</v>
+        <v>-763000</v>
       </c>
       <c r="F94" s="3">
-        <v>-482400</v>
+        <v>-675300</v>
       </c>
       <c r="G94" s="3">
-        <v>-213400</v>
+        <v>-481100</v>
       </c>
       <c r="H94" s="3">
-        <v>-826300</v>
+        <v>-212800</v>
       </c>
       <c r="I94" s="3">
-        <v>-605400</v>
+        <v>-824000</v>
       </c>
       <c r="J94" s="3">
+        <v>-603700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-361900</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-811700</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-769700</v>
+        <v>-805900</v>
       </c>
       <c r="E96" s="3">
-        <v>-711500</v>
+        <v>-767600</v>
       </c>
       <c r="F96" s="3">
-        <v>-646800</v>
+        <v>-709500</v>
       </c>
       <c r="G96" s="3">
-        <v>-588000</v>
+        <v>-645100</v>
       </c>
       <c r="H96" s="3">
-        <v>-534600</v>
+        <v>-586400</v>
       </c>
       <c r="I96" s="3">
-        <v>-486100</v>
+        <v>-533100</v>
       </c>
       <c r="J96" s="3">
+        <v>-484800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-442100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-405000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-546400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-331200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-577400</v>
+        <v>687300</v>
       </c>
       <c r="E100" s="3">
-        <v>-666000</v>
+        <v>-575900</v>
       </c>
       <c r="F100" s="3">
-        <v>-994900</v>
+        <v>-664200</v>
       </c>
       <c r="G100" s="3">
-        <v>-554300</v>
+        <v>-992200</v>
       </c>
       <c r="H100" s="3">
-        <v>-724700</v>
+        <v>-552800</v>
       </c>
       <c r="I100" s="3">
-        <v>-508000</v>
+        <v>-722700</v>
       </c>
       <c r="J100" s="3">
+        <v>-506600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-184500</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>74600</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26300</v>
+        <v>20300</v>
       </c>
       <c r="E101" s="3">
+        <v>26200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-16800</v>
       </c>
-      <c r="G101" s="3">
-        <v>21500</v>
-      </c>
       <c r="H101" s="3">
-        <v>-22700</v>
+        <v>21400</v>
       </c>
       <c r="I101" s="3">
-        <v>-30700</v>
+        <v>-22600</v>
       </c>
       <c r="J101" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-18600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-50300</v>
+        <v>395200</v>
       </c>
       <c r="E102" s="3">
-        <v>-83300</v>
+        <v>-50200</v>
       </c>
       <c r="F102" s="3">
-        <v>-288400</v>
+        <v>-83000</v>
       </c>
       <c r="G102" s="3">
-        <v>342700</v>
+        <v>-287600</v>
       </c>
       <c r="H102" s="3">
-        <v>-491800</v>
+        <v>341700</v>
       </c>
       <c r="I102" s="3">
-        <v>-86800</v>
+        <v>-490400</v>
       </c>
       <c r="J102" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="K102" s="3">
         <v>479900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-429600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>121600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>196900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6823500</v>
+        <v>6826700</v>
       </c>
       <c r="E8" s="3">
-        <v>5213700</v>
+        <v>5216100</v>
       </c>
       <c r="F8" s="3">
-        <v>5175600</v>
+        <v>5178100</v>
       </c>
       <c r="G8" s="3">
-        <v>4977500</v>
+        <v>4979900</v>
       </c>
       <c r="H8" s="3">
-        <v>4137200</v>
+        <v>4139100</v>
       </c>
       <c r="I8" s="3">
-        <v>3637900</v>
+        <v>3639600</v>
       </c>
       <c r="J8" s="3">
-        <v>3769600</v>
+        <v>3771400</v>
       </c>
       <c r="K8" s="3">
         <v>4038500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4151900</v>
+        <v>4153800</v>
       </c>
       <c r="E9" s="3">
-        <v>2800900</v>
+        <v>2802200</v>
       </c>
       <c r="F9" s="3">
-        <v>2777600</v>
+        <v>2778900</v>
       </c>
       <c r="G9" s="3">
-        <v>2624000</v>
+        <v>2625200</v>
       </c>
       <c r="H9" s="3">
-        <v>1999000</v>
+        <v>1999900</v>
       </c>
       <c r="I9" s="3">
-        <v>1619100</v>
+        <v>1619800</v>
       </c>
       <c r="J9" s="3">
-        <v>1795900</v>
+        <v>1796800</v>
       </c>
       <c r="K9" s="3">
         <v>2082000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2671600</v>
+        <v>2672900</v>
       </c>
       <c r="E10" s="3">
-        <v>2412800</v>
+        <v>2414000</v>
       </c>
       <c r="F10" s="3">
-        <v>2398000</v>
+        <v>2399200</v>
       </c>
       <c r="G10" s="3">
-        <v>2353500</v>
+        <v>2354700</v>
       </c>
       <c r="H10" s="3">
-        <v>2138200</v>
+        <v>2139200</v>
       </c>
       <c r="I10" s="3">
-        <v>2018800</v>
+        <v>2019800</v>
       </c>
       <c r="J10" s="3">
-        <v>1973700</v>
+        <v>1974600</v>
       </c>
       <c r="K10" s="3">
         <v>1956500</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>418900</v>
+        <v>419100</v>
       </c>
       <c r="E15" s="3">
-        <v>374600</v>
+        <v>374800</v>
       </c>
       <c r="F15" s="3">
-        <v>350800</v>
+        <v>350900</v>
       </c>
       <c r="G15" s="3">
-        <v>323200</v>
+        <v>323400</v>
       </c>
       <c r="H15" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="I15" s="3">
-        <v>283200</v>
+        <v>283300</v>
       </c>
       <c r="J15" s="3">
-        <v>264400</v>
+        <v>264500</v>
       </c>
       <c r="K15" s="3">
         <v>249300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5899100</v>
+        <v>5901900</v>
       </c>
       <c r="E17" s="3">
-        <v>4205000</v>
+        <v>4207000</v>
       </c>
       <c r="F17" s="3">
-        <v>4019900</v>
+        <v>4021800</v>
       </c>
       <c r="G17" s="3">
-        <v>3907000</v>
+        <v>3908900</v>
       </c>
       <c r="H17" s="3">
-        <v>3084800</v>
+        <v>3086200</v>
       </c>
       <c r="I17" s="3">
-        <v>2728300</v>
+        <v>2729600</v>
       </c>
       <c r="J17" s="3">
-        <v>2866300</v>
+        <v>2867700</v>
       </c>
       <c r="K17" s="3">
         <v>3058300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>924400</v>
+        <v>924800</v>
       </c>
       <c r="E18" s="3">
-        <v>1008700</v>
+        <v>1009100</v>
       </c>
       <c r="F18" s="3">
-        <v>1155700</v>
+        <v>1156300</v>
       </c>
       <c r="G18" s="3">
-        <v>1070500</v>
+        <v>1071000</v>
       </c>
       <c r="H18" s="3">
-        <v>1052400</v>
+        <v>1052900</v>
       </c>
       <c r="I18" s="3">
-        <v>909600</v>
+        <v>910000</v>
       </c>
       <c r="J18" s="3">
-        <v>903300</v>
+        <v>903700</v>
       </c>
       <c r="K18" s="3">
         <v>980100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>322600</v>
+        <v>322800</v>
       </c>
       <c r="E20" s="3">
-        <v>290000</v>
+        <v>290100</v>
       </c>
       <c r="F20" s="3">
-        <v>326400</v>
+        <v>326500</v>
       </c>
       <c r="G20" s="3">
-        <v>651300</v>
+        <v>651600</v>
       </c>
       <c r="H20" s="3">
-        <v>521300</v>
+        <v>521600</v>
       </c>
       <c r="I20" s="3">
-        <v>498400</v>
+        <v>498700</v>
       </c>
       <c r="J20" s="3">
-        <v>502400</v>
+        <v>502600</v>
       </c>
       <c r="K20" s="3">
         <v>410600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1665900</v>
+        <v>1666700</v>
       </c>
       <c r="E21" s="3">
-        <v>1673200</v>
+        <v>1674000</v>
       </c>
       <c r="F21" s="3">
-        <v>1832900</v>
+        <v>1833700</v>
       </c>
       <c r="G21" s="3">
-        <v>2045000</v>
+        <v>2046000</v>
       </c>
       <c r="H21" s="3">
-        <v>1876300</v>
+        <v>1877100</v>
       </c>
       <c r="I21" s="3">
-        <v>1691300</v>
+        <v>1692000</v>
       </c>
       <c r="J21" s="3">
-        <v>1670100</v>
+        <v>1670800</v>
       </c>
       <c r="K21" s="3">
         <v>1640300</v>
@@ -1200,22 +1200,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179400</v>
+        <v>179500</v>
       </c>
       <c r="E22" s="3">
-        <v>161600</v>
+        <v>161700</v>
       </c>
       <c r="F22" s="3">
-        <v>156700</v>
+        <v>156800</v>
       </c>
       <c r="G22" s="3">
-        <v>149900</v>
+        <v>150000</v>
       </c>
       <c r="H22" s="3">
-        <v>160100</v>
+        <v>160200</v>
       </c>
       <c r="I22" s="3">
-        <v>153800</v>
+        <v>153900</v>
       </c>
       <c r="J22" s="3">
         <v>143800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1067600</v>
+        <v>1068100</v>
       </c>
       <c r="E23" s="3">
-        <v>1137000</v>
+        <v>1137600</v>
       </c>
       <c r="F23" s="3">
-        <v>1325400</v>
+        <v>1326000</v>
       </c>
       <c r="G23" s="3">
-        <v>1571900</v>
+        <v>1572700</v>
       </c>
       <c r="H23" s="3">
-        <v>1413600</v>
+        <v>1414300</v>
       </c>
       <c r="I23" s="3">
-        <v>1254200</v>
+        <v>1254800</v>
       </c>
       <c r="J23" s="3">
-        <v>1261900</v>
+        <v>1262500</v>
       </c>
       <c r="K23" s="3">
         <v>1261400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274500</v>
+        <v>274700</v>
       </c>
       <c r="E24" s="3">
-        <v>218200</v>
+        <v>218300</v>
       </c>
       <c r="F24" s="3">
-        <v>291700</v>
+        <v>291800</v>
       </c>
       <c r="G24" s="3">
-        <v>243000</v>
+        <v>243100</v>
       </c>
       <c r="H24" s="3">
-        <v>222900</v>
+        <v>223000</v>
       </c>
       <c r="I24" s="3">
         <v>200800</v>
       </c>
       <c r="J24" s="3">
-        <v>220000</v>
+        <v>220100</v>
       </c>
       <c r="K24" s="3">
         <v>226300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793100</v>
+        <v>793500</v>
       </c>
       <c r="E26" s="3">
-        <v>918800</v>
+        <v>919200</v>
       </c>
       <c r="F26" s="3">
-        <v>1033700</v>
+        <v>1034200</v>
       </c>
       <c r="G26" s="3">
-        <v>1328900</v>
+        <v>1329500</v>
       </c>
       <c r="H26" s="3">
-        <v>1190700</v>
+        <v>1191300</v>
       </c>
       <c r="I26" s="3">
-        <v>1053500</v>
+        <v>1054000</v>
       </c>
       <c r="J26" s="3">
-        <v>1042000</v>
+        <v>1042500</v>
       </c>
       <c r="K26" s="3">
         <v>1035100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639100</v>
+        <v>639400</v>
       </c>
       <c r="E27" s="3">
-        <v>765300</v>
+        <v>765600</v>
       </c>
       <c r="F27" s="3">
-        <v>887400</v>
+        <v>887800</v>
       </c>
       <c r="G27" s="3">
-        <v>1186400</v>
+        <v>1186900</v>
       </c>
       <c r="H27" s="3">
-        <v>1047800</v>
+        <v>1048300</v>
       </c>
       <c r="I27" s="3">
-        <v>935100</v>
+        <v>935600</v>
       </c>
       <c r="J27" s="3">
-        <v>930200</v>
+        <v>930600</v>
       </c>
       <c r="K27" s="3">
         <v>908100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-322600</v>
+        <v>-322800</v>
       </c>
       <c r="E32" s="3">
-        <v>-290000</v>
+        <v>-290100</v>
       </c>
       <c r="F32" s="3">
-        <v>-326400</v>
+        <v>-326500</v>
       </c>
       <c r="G32" s="3">
-        <v>-651300</v>
+        <v>-651600</v>
       </c>
       <c r="H32" s="3">
-        <v>-521300</v>
+        <v>-521600</v>
       </c>
       <c r="I32" s="3">
-        <v>-498400</v>
+        <v>-498700</v>
       </c>
       <c r="J32" s="3">
-        <v>-502400</v>
+        <v>-502600</v>
       </c>
       <c r="K32" s="3">
         <v>-410600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639100</v>
+        <v>639400</v>
       </c>
       <c r="E33" s="3">
-        <v>765300</v>
+        <v>765600</v>
       </c>
       <c r="F33" s="3">
-        <v>887400</v>
+        <v>887800</v>
       </c>
       <c r="G33" s="3">
-        <v>1186400</v>
+        <v>1186900</v>
       </c>
       <c r="H33" s="3">
-        <v>1047800</v>
+        <v>1048300</v>
       </c>
       <c r="I33" s="3">
-        <v>935100</v>
+        <v>935600</v>
       </c>
       <c r="J33" s="3">
-        <v>930200</v>
+        <v>930600</v>
       </c>
       <c r="K33" s="3">
         <v>908100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639100</v>
+        <v>639400</v>
       </c>
       <c r="E35" s="3">
-        <v>765300</v>
+        <v>765600</v>
       </c>
       <c r="F35" s="3">
-        <v>887400</v>
+        <v>887800</v>
       </c>
       <c r="G35" s="3">
-        <v>1186400</v>
+        <v>1186900</v>
       </c>
       <c r="H35" s="3">
-        <v>1047800</v>
+        <v>1048300</v>
       </c>
       <c r="I35" s="3">
-        <v>935100</v>
+        <v>935600</v>
       </c>
       <c r="J35" s="3">
-        <v>930200</v>
+        <v>930600</v>
       </c>
       <c r="K35" s="3">
         <v>908100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1344900</v>
+        <v>1345500</v>
       </c>
       <c r="E41" s="3">
-        <v>949700</v>
+        <v>950100</v>
       </c>
       <c r="F41" s="3">
-        <v>999900</v>
+        <v>1000300</v>
       </c>
       <c r="G41" s="3">
-        <v>1082900</v>
+        <v>1083400</v>
       </c>
       <c r="H41" s="3">
-        <v>1370500</v>
+        <v>1371200</v>
       </c>
       <c r="I41" s="3">
-        <v>1028800</v>
+        <v>1029300</v>
       </c>
       <c r="J41" s="3">
-        <v>1519200</v>
+        <v>1520000</v>
       </c>
       <c r="K41" s="3">
         <v>1610200</v>
@@ -1875,13 +1875,13 @@
         <v>86700</v>
       </c>
       <c r="H42" s="3">
-        <v>284400</v>
+        <v>284600</v>
       </c>
       <c r="I42" s="3">
-        <v>450400</v>
+        <v>450700</v>
       </c>
       <c r="J42" s="3">
-        <v>170600</v>
+        <v>170700</v>
       </c>
       <c r="K42" s="3">
         <v>162100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1099000</v>
+        <v>1099500</v>
       </c>
       <c r="E43" s="3">
-        <v>950900</v>
+        <v>951400</v>
       </c>
       <c r="F43" s="3">
-        <v>997800</v>
+        <v>998200</v>
       </c>
       <c r="G43" s="3">
-        <v>938700</v>
+        <v>939200</v>
       </c>
       <c r="H43" s="3">
-        <v>909200</v>
+        <v>909600</v>
       </c>
       <c r="I43" s="3">
-        <v>788400</v>
+        <v>788800</v>
       </c>
       <c r="J43" s="3">
-        <v>870600</v>
+        <v>871000</v>
       </c>
       <c r="K43" s="3">
         <v>828800</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400100</v>
+        <v>400300</v>
       </c>
       <c r="E44" s="3">
-        <v>340300</v>
+        <v>340400</v>
       </c>
       <c r="F44" s="3">
-        <v>301100</v>
+        <v>301300</v>
       </c>
       <c r="G44" s="3">
-        <v>316000</v>
+        <v>316200</v>
       </c>
       <c r="H44" s="3">
-        <v>328400</v>
+        <v>328600</v>
       </c>
       <c r="I44" s="3">
-        <v>268800</v>
+        <v>269000</v>
       </c>
       <c r="J44" s="3">
-        <v>291900</v>
+        <v>292000</v>
       </c>
       <c r="K44" s="3">
         <v>291700</v>
@@ -1980,22 +1980,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227200</v>
+        <v>227300</v>
       </c>
       <c r="E45" s="3">
-        <v>275000</v>
+        <v>275100</v>
       </c>
       <c r="F45" s="3">
-        <v>221100</v>
+        <v>221200</v>
       </c>
       <c r="G45" s="3">
-        <v>201500</v>
+        <v>201600</v>
       </c>
       <c r="H45" s="3">
-        <v>211300</v>
+        <v>211400</v>
       </c>
       <c r="I45" s="3">
-        <v>160400</v>
+        <v>160500</v>
       </c>
       <c r="J45" s="3">
         <v>158300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3081300</v>
+        <v>3082700</v>
       </c>
       <c r="E46" s="3">
-        <v>2567700</v>
+        <v>2569000</v>
       </c>
       <c r="F46" s="3">
-        <v>2564300</v>
+        <v>2565500</v>
       </c>
       <c r="G46" s="3">
-        <v>2625800</v>
+        <v>2627000</v>
       </c>
       <c r="H46" s="3">
-        <v>3104000</v>
+        <v>3105400</v>
       </c>
       <c r="I46" s="3">
-        <v>2697000</v>
+        <v>2698200</v>
       </c>
       <c r="J46" s="3">
-        <v>3010600</v>
+        <v>3012000</v>
       </c>
       <c r="K46" s="3">
         <v>3147700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7168900</v>
+        <v>7172200</v>
       </c>
       <c r="E47" s="3">
-        <v>6132100</v>
+        <v>6135000</v>
       </c>
       <c r="F47" s="3">
-        <v>5938400</v>
+        <v>5941200</v>
       </c>
       <c r="G47" s="3">
-        <v>5344500</v>
+        <v>5347000</v>
       </c>
       <c r="H47" s="3">
-        <v>4948100</v>
+        <v>4950500</v>
       </c>
       <c r="I47" s="3">
-        <v>4482200</v>
+        <v>4484300</v>
       </c>
       <c r="J47" s="3">
-        <v>4281400</v>
+        <v>4283400</v>
       </c>
       <c r="K47" s="3">
         <v>3764800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9682800</v>
+        <v>9687400</v>
       </c>
       <c r="E48" s="3">
-        <v>9141900</v>
+        <v>9146200</v>
       </c>
       <c r="F48" s="3">
-        <v>8234200</v>
+        <v>8238100</v>
       </c>
       <c r="G48" s="3">
-        <v>7485000</v>
+        <v>7488600</v>
       </c>
       <c r="H48" s="3">
-        <v>7209200</v>
+        <v>7212600</v>
       </c>
       <c r="I48" s="3">
-        <v>6361700</v>
+        <v>6364700</v>
       </c>
       <c r="J48" s="3">
-        <v>6136200</v>
+        <v>6139100</v>
       </c>
       <c r="K48" s="3">
         <v>6435300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714300</v>
+        <v>714600</v>
       </c>
       <c r="E49" s="3">
-        <v>695900</v>
+        <v>696200</v>
       </c>
       <c r="F49" s="3">
-        <v>674000</v>
+        <v>674400</v>
       </c>
       <c r="G49" s="3">
-        <v>723800</v>
+        <v>724200</v>
       </c>
       <c r="H49" s="3">
-        <v>749500</v>
+        <v>749900</v>
       </c>
       <c r="I49" s="3">
-        <v>709900</v>
+        <v>710200</v>
       </c>
       <c r="J49" s="3">
-        <v>741300</v>
+        <v>741700</v>
       </c>
       <c r="K49" s="3">
         <v>748400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>762800</v>
+        <v>763200</v>
       </c>
       <c r="E52" s="3">
-        <v>606500</v>
+        <v>606800</v>
       </c>
       <c r="F52" s="3">
-        <v>483600</v>
+        <v>483800</v>
       </c>
       <c r="G52" s="3">
-        <v>724700</v>
+        <v>725000</v>
       </c>
       <c r="H52" s="3">
-        <v>685200</v>
+        <v>685500</v>
       </c>
       <c r="I52" s="3">
-        <v>621300</v>
+        <v>621600</v>
       </c>
       <c r="J52" s="3">
-        <v>552100</v>
+        <v>552300</v>
       </c>
       <c r="K52" s="3">
         <v>518700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21410100</v>
+        <v>21420200</v>
       </c>
       <c r="E54" s="3">
-        <v>19144200</v>
+        <v>19153200</v>
       </c>
       <c r="F54" s="3">
-        <v>17894500</v>
+        <v>17902900</v>
       </c>
       <c r="G54" s="3">
-        <v>16903800</v>
+        <v>16911700</v>
       </c>
       <c r="H54" s="3">
-        <v>16696000</v>
+        <v>16703800</v>
       </c>
       <c r="I54" s="3">
-        <v>14871900</v>
+        <v>14878900</v>
       </c>
       <c r="J54" s="3">
-        <v>14721600</v>
+        <v>14728500</v>
       </c>
       <c r="K54" s="3">
         <v>14614800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525000</v>
+        <v>525200</v>
       </c>
       <c r="E57" s="3">
-        <v>456900</v>
+        <v>457100</v>
       </c>
       <c r="F57" s="3">
-        <v>383000</v>
+        <v>383200</v>
       </c>
       <c r="G57" s="3">
-        <v>392100</v>
+        <v>392300</v>
       </c>
       <c r="H57" s="3">
-        <v>379300</v>
+        <v>379400</v>
       </c>
       <c r="I57" s="3">
-        <v>337200</v>
+        <v>337400</v>
       </c>
       <c r="J57" s="3">
-        <v>327800</v>
+        <v>327900</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2359000</v>
+        <v>2360100</v>
       </c>
       <c r="E58" s="3">
-        <v>1409600</v>
+        <v>1410300</v>
       </c>
       <c r="F58" s="3">
-        <v>1204200</v>
+        <v>1204700</v>
       </c>
       <c r="G58" s="3">
-        <v>1345300</v>
+        <v>1345900</v>
       </c>
       <c r="H58" s="3">
-        <v>2029600</v>
+        <v>2030600</v>
       </c>
       <c r="I58" s="3">
-        <v>781900</v>
+        <v>782300</v>
       </c>
       <c r="J58" s="3">
-        <v>1260400</v>
+        <v>1261000</v>
       </c>
       <c r="K58" s="3">
         <v>927900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2024900</v>
+        <v>2025800</v>
       </c>
       <c r="E59" s="3">
-        <v>1930500</v>
+        <v>1931400</v>
       </c>
       <c r="F59" s="3">
-        <v>1746300</v>
+        <v>1747100</v>
       </c>
       <c r="G59" s="3">
-        <v>1594000</v>
+        <v>1594700</v>
       </c>
       <c r="H59" s="3">
-        <v>1661000</v>
+        <v>1661800</v>
       </c>
       <c r="I59" s="3">
-        <v>1371000</v>
+        <v>1371700</v>
       </c>
       <c r="J59" s="3">
-        <v>1364800</v>
+        <v>1365500</v>
       </c>
       <c r="K59" s="3">
         <v>1310400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4908800</v>
+        <v>4911100</v>
       </c>
       <c r="E60" s="3">
-        <v>3797000</v>
+        <v>3798800</v>
       </c>
       <c r="F60" s="3">
-        <v>3333500</v>
+        <v>3335000</v>
       </c>
       <c r="G60" s="3">
-        <v>3331400</v>
+        <v>3332900</v>
       </c>
       <c r="H60" s="3">
-        <v>4069900</v>
+        <v>4071800</v>
       </c>
       <c r="I60" s="3">
-        <v>2490200</v>
+        <v>2491300</v>
       </c>
       <c r="J60" s="3">
-        <v>2953000</v>
+        <v>2954400</v>
       </c>
       <c r="K60" s="3">
         <v>2642900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4740800</v>
+        <v>4743100</v>
       </c>
       <c r="E61" s="3">
-        <v>4010500</v>
+        <v>4012400</v>
       </c>
       <c r="F61" s="3">
-        <v>3688300</v>
+        <v>3690000</v>
       </c>
       <c r="G61" s="3">
-        <v>3517100</v>
+        <v>3518800</v>
       </c>
       <c r="H61" s="3">
-        <v>2695800</v>
+        <v>2697100</v>
       </c>
       <c r="I61" s="3">
-        <v>3477300</v>
+        <v>3478900</v>
       </c>
       <c r="J61" s="3">
-        <v>2979100</v>
+        <v>2980500</v>
       </c>
       <c r="K61" s="3">
         <v>3130500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1335000</v>
+        <v>1335600</v>
       </c>
       <c r="E62" s="3">
-        <v>1253300</v>
+        <v>1253900</v>
       </c>
       <c r="F62" s="3">
-        <v>1267900</v>
+        <v>1268500</v>
       </c>
       <c r="G62" s="3">
-        <v>1113300</v>
+        <v>1113900</v>
       </c>
       <c r="H62" s="3">
-        <v>981700</v>
+        <v>982100</v>
       </c>
       <c r="I62" s="3">
-        <v>892000</v>
+        <v>892400</v>
       </c>
       <c r="J62" s="3">
-        <v>877000</v>
+        <v>877400</v>
       </c>
       <c r="K62" s="3">
         <v>893000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12516900</v>
+        <v>12522800</v>
       </c>
       <c r="E66" s="3">
-        <v>10336100</v>
+        <v>10341000</v>
       </c>
       <c r="F66" s="3">
-        <v>9411100</v>
+        <v>9415600</v>
       </c>
       <c r="G66" s="3">
-        <v>8954500</v>
+        <v>8958800</v>
       </c>
       <c r="H66" s="3">
-        <v>8696800</v>
+        <v>8700900</v>
       </c>
       <c r="I66" s="3">
-        <v>7701700</v>
+        <v>7705300</v>
       </c>
       <c r="J66" s="3">
-        <v>7690300</v>
+        <v>7693900</v>
       </c>
       <c r="K66" s="3">
         <v>7591400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7380300</v>
+        <v>7383700</v>
       </c>
       <c r="E72" s="3">
-        <v>7515500</v>
+        <v>7519100</v>
       </c>
       <c r="F72" s="3">
-        <v>7505700</v>
+        <v>7509200</v>
       </c>
       <c r="G72" s="3">
-        <v>7316000</v>
+        <v>7319500</v>
       </c>
       <c r="H72" s="3">
-        <v>6772900</v>
+        <v>6776100</v>
       </c>
       <c r="I72" s="3">
-        <v>6299200</v>
+        <v>6302100</v>
       </c>
       <c r="J72" s="3">
-        <v>5906400</v>
+        <v>5909200</v>
       </c>
       <c r="K72" s="3">
         <v>5533500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8893200</v>
+        <v>8897400</v>
       </c>
       <c r="E76" s="3">
-        <v>8808100</v>
+        <v>8812200</v>
       </c>
       <c r="F76" s="3">
-        <v>8483400</v>
+        <v>8487400</v>
       </c>
       <c r="G76" s="3">
-        <v>7949200</v>
+        <v>7953000</v>
       </c>
       <c r="H76" s="3">
-        <v>7999200</v>
+        <v>8003000</v>
       </c>
       <c r="I76" s="3">
-        <v>7170300</v>
+        <v>7173700</v>
       </c>
       <c r="J76" s="3">
-        <v>7031300</v>
+        <v>7034600</v>
       </c>
       <c r="K76" s="3">
         <v>7023400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639100</v>
+        <v>639400</v>
       </c>
       <c r="E81" s="3">
-        <v>765300</v>
+        <v>765600</v>
       </c>
       <c r="F81" s="3">
-        <v>887400</v>
+        <v>887800</v>
       </c>
       <c r="G81" s="3">
-        <v>1186400</v>
+        <v>1186900</v>
       </c>
       <c r="H81" s="3">
-        <v>1047800</v>
+        <v>1048300</v>
       </c>
       <c r="I81" s="3">
-        <v>935100</v>
+        <v>935600</v>
       </c>
       <c r="J81" s="3">
-        <v>930200</v>
+        <v>930600</v>
       </c>
       <c r="K81" s="3">
         <v>908100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>418900</v>
+        <v>419100</v>
       </c>
       <c r="E83" s="3">
-        <v>374600</v>
+        <v>374800</v>
       </c>
       <c r="F83" s="3">
-        <v>350800</v>
+        <v>350900</v>
       </c>
       <c r="G83" s="3">
-        <v>323200</v>
+        <v>323400</v>
       </c>
       <c r="H83" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="I83" s="3">
-        <v>283200</v>
+        <v>283300</v>
       </c>
       <c r="J83" s="3">
-        <v>264400</v>
+        <v>264500</v>
       </c>
       <c r="K83" s="3">
         <v>249300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1333700</v>
+        <v>1334300</v>
       </c>
       <c r="E89" s="3">
-        <v>1262500</v>
+        <v>1263100</v>
       </c>
       <c r="F89" s="3">
-        <v>1262700</v>
+        <v>1263300</v>
       </c>
       <c r="G89" s="3">
-        <v>1202400</v>
+        <v>1203000</v>
       </c>
       <c r="H89" s="3">
-        <v>1085900</v>
+        <v>1086400</v>
       </c>
       <c r="I89" s="3">
-        <v>1078900</v>
+        <v>1079400</v>
       </c>
       <c r="J89" s="3">
-        <v>1054300</v>
+        <v>1054800</v>
       </c>
       <c r="K89" s="3">
         <v>1044900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1068400</v>
+        <v>-1068900</v>
       </c>
       <c r="E91" s="3">
-        <v>-929300</v>
+        <v>-929700</v>
       </c>
       <c r="F91" s="3">
-        <v>-898500</v>
+        <v>-898900</v>
       </c>
       <c r="G91" s="3">
-        <v>-859400</v>
+        <v>-859800</v>
       </c>
       <c r="H91" s="3">
-        <v>-782300</v>
+        <v>-782700</v>
       </c>
       <c r="I91" s="3">
-        <v>-797000</v>
+        <v>-797400</v>
       </c>
       <c r="J91" s="3">
-        <v>-809700</v>
+        <v>-810100</v>
       </c>
       <c r="K91" s="3">
         <v>-813100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1646100</v>
+        <v>-1646900</v>
       </c>
       <c r="E94" s="3">
-        <v>-763000</v>
+        <v>-763400</v>
       </c>
       <c r="F94" s="3">
-        <v>-675300</v>
+        <v>-675600</v>
       </c>
       <c r="G94" s="3">
-        <v>-481100</v>
+        <v>-481300</v>
       </c>
       <c r="H94" s="3">
-        <v>-212800</v>
+        <v>-212900</v>
       </c>
       <c r="I94" s="3">
-        <v>-824000</v>
+        <v>-824400</v>
       </c>
       <c r="J94" s="3">
-        <v>-603700</v>
+        <v>-604000</v>
       </c>
       <c r="K94" s="3">
         <v>-361900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-805900</v>
+        <v>-806300</v>
       </c>
       <c r="E96" s="3">
-        <v>-767600</v>
+        <v>-767900</v>
       </c>
       <c r="F96" s="3">
-        <v>-709500</v>
+        <v>-709900</v>
       </c>
       <c r="G96" s="3">
-        <v>-645100</v>
+        <v>-645400</v>
       </c>
       <c r="H96" s="3">
-        <v>-586400</v>
+        <v>-586700</v>
       </c>
       <c r="I96" s="3">
-        <v>-533100</v>
+        <v>-533400</v>
       </c>
       <c r="J96" s="3">
-        <v>-484800</v>
+        <v>-485000</v>
       </c>
       <c r="K96" s="3">
         <v>-442100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>687300</v>
+        <v>687600</v>
       </c>
       <c r="E100" s="3">
-        <v>-575900</v>
+        <v>-576100</v>
       </c>
       <c r="F100" s="3">
-        <v>-664200</v>
+        <v>-664500</v>
       </c>
       <c r="G100" s="3">
-        <v>-992200</v>
+        <v>-992600</v>
       </c>
       <c r="H100" s="3">
-        <v>-552800</v>
+        <v>-553100</v>
       </c>
       <c r="I100" s="3">
-        <v>-722700</v>
+        <v>-723000</v>
       </c>
       <c r="J100" s="3">
-        <v>-506600</v>
+        <v>-506900</v>
       </c>
       <c r="K100" s="3">
         <v>-184500</v>
@@ -3962,7 +3962,7 @@
         <v>20300</v>
       </c>
       <c r="E101" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="F101" s="3">
         <v>-6300</v>
@@ -3998,22 +3998,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>395200</v>
+        <v>395300</v>
       </c>
       <c r="E102" s="3">
         <v>-50200</v>
       </c>
       <c r="F102" s="3">
-        <v>-83000</v>
+        <v>-83100</v>
       </c>
       <c r="G102" s="3">
-        <v>-287600</v>
+        <v>-287800</v>
       </c>
       <c r="H102" s="3">
-        <v>341700</v>
+        <v>341900</v>
       </c>
       <c r="I102" s="3">
-        <v>-490400</v>
+        <v>-490700</v>
       </c>
       <c r="J102" s="3">
         <v>-86600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6826700</v>
+        <v>6828300</v>
       </c>
       <c r="E8" s="3">
-        <v>5216100</v>
+        <v>5217400</v>
       </c>
       <c r="F8" s="3">
-        <v>5178100</v>
+        <v>5179300</v>
       </c>
       <c r="G8" s="3">
-        <v>4979900</v>
+        <v>4981000</v>
       </c>
       <c r="H8" s="3">
-        <v>4139100</v>
+        <v>4140100</v>
       </c>
       <c r="I8" s="3">
-        <v>3639600</v>
+        <v>3640500</v>
       </c>
       <c r="J8" s="3">
-        <v>3771400</v>
+        <v>3772300</v>
       </c>
       <c r="K8" s="3">
         <v>4038500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4153800</v>
+        <v>4154800</v>
       </c>
       <c r="E9" s="3">
-        <v>2802200</v>
+        <v>2802800</v>
       </c>
       <c r="F9" s="3">
-        <v>2778900</v>
+        <v>2779500</v>
       </c>
       <c r="G9" s="3">
-        <v>2625200</v>
+        <v>2625800</v>
       </c>
       <c r="H9" s="3">
-        <v>1999900</v>
+        <v>2000400</v>
       </c>
       <c r="I9" s="3">
-        <v>1619800</v>
+        <v>1620200</v>
       </c>
       <c r="J9" s="3">
-        <v>1796800</v>
+        <v>1797200</v>
       </c>
       <c r="K9" s="3">
         <v>2082000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2672900</v>
+        <v>2673500</v>
       </c>
       <c r="E10" s="3">
-        <v>2414000</v>
+        <v>2414500</v>
       </c>
       <c r="F10" s="3">
-        <v>2399200</v>
+        <v>2399700</v>
       </c>
       <c r="G10" s="3">
-        <v>2354700</v>
+        <v>2355200</v>
       </c>
       <c r="H10" s="3">
-        <v>2139200</v>
+        <v>2139700</v>
       </c>
       <c r="I10" s="3">
-        <v>2019800</v>
+        <v>2020200</v>
       </c>
       <c r="J10" s="3">
-        <v>1974600</v>
+        <v>1975100</v>
       </c>
       <c r="K10" s="3">
         <v>1956500</v>
@@ -974,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>419100</v>
+        <v>419200</v>
       </c>
       <c r="E15" s="3">
-        <v>374800</v>
+        <v>374900</v>
       </c>
       <c r="F15" s="3">
-        <v>350900</v>
+        <v>351000</v>
       </c>
       <c r="G15" s="3">
         <v>323400</v>
@@ -989,10 +989,10 @@
         <v>302700</v>
       </c>
       <c r="I15" s="3">
-        <v>283300</v>
+        <v>283400</v>
       </c>
       <c r="J15" s="3">
-        <v>264500</v>
+        <v>264600</v>
       </c>
       <c r="K15" s="3">
         <v>249300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5901900</v>
+        <v>5903300</v>
       </c>
       <c r="E17" s="3">
-        <v>4207000</v>
+        <v>4208000</v>
       </c>
       <c r="F17" s="3">
-        <v>4021800</v>
+        <v>4022700</v>
       </c>
       <c r="G17" s="3">
-        <v>3908900</v>
+        <v>3909800</v>
       </c>
       <c r="H17" s="3">
-        <v>3086200</v>
+        <v>3086900</v>
       </c>
       <c r="I17" s="3">
-        <v>2729600</v>
+        <v>2730200</v>
       </c>
       <c r="J17" s="3">
-        <v>2867700</v>
+        <v>2868400</v>
       </c>
       <c r="K17" s="3">
         <v>3058300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>924800</v>
+        <v>925000</v>
       </c>
       <c r="E18" s="3">
-        <v>1009100</v>
+        <v>1009400</v>
       </c>
       <c r="F18" s="3">
-        <v>1156300</v>
+        <v>1156500</v>
       </c>
       <c r="G18" s="3">
-        <v>1071000</v>
+        <v>1071200</v>
       </c>
       <c r="H18" s="3">
-        <v>1052900</v>
+        <v>1053200</v>
       </c>
       <c r="I18" s="3">
-        <v>910000</v>
+        <v>910300</v>
       </c>
       <c r="J18" s="3">
-        <v>903700</v>
+        <v>903900</v>
       </c>
       <c r="K18" s="3">
         <v>980100</v>
@@ -1125,22 +1125,22 @@
         <v>322800</v>
       </c>
       <c r="E20" s="3">
-        <v>290100</v>
+        <v>290200</v>
       </c>
       <c r="F20" s="3">
-        <v>326500</v>
+        <v>326600</v>
       </c>
       <c r="G20" s="3">
-        <v>651600</v>
+        <v>651800</v>
       </c>
       <c r="H20" s="3">
-        <v>521600</v>
+        <v>521700</v>
       </c>
       <c r="I20" s="3">
-        <v>498700</v>
+        <v>498800</v>
       </c>
       <c r="J20" s="3">
-        <v>502600</v>
+        <v>502800</v>
       </c>
       <c r="K20" s="3">
         <v>410600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1666700</v>
+        <v>1666900</v>
       </c>
       <c r="E21" s="3">
-        <v>1674000</v>
+        <v>1674200</v>
       </c>
       <c r="F21" s="3">
-        <v>1833700</v>
+        <v>1833900</v>
       </c>
       <c r="G21" s="3">
-        <v>2046000</v>
+        <v>2046300</v>
       </c>
       <c r="H21" s="3">
-        <v>1877100</v>
+        <v>1877400</v>
       </c>
       <c r="I21" s="3">
-        <v>1692000</v>
+        <v>1692300</v>
       </c>
       <c r="J21" s="3">
-        <v>1670800</v>
+        <v>1671100</v>
       </c>
       <c r="K21" s="3">
         <v>1640300</v>
@@ -1206,7 +1206,7 @@
         <v>161700</v>
       </c>
       <c r="F22" s="3">
-        <v>156800</v>
+        <v>156900</v>
       </c>
       <c r="G22" s="3">
         <v>150000</v>
@@ -1218,7 +1218,7 @@
         <v>153900</v>
       </c>
       <c r="J22" s="3">
-        <v>143800</v>
+        <v>143900</v>
       </c>
       <c r="K22" s="3">
         <v>129400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1068100</v>
+        <v>1068400</v>
       </c>
       <c r="E23" s="3">
-        <v>1137600</v>
+        <v>1137800</v>
       </c>
       <c r="F23" s="3">
-        <v>1326000</v>
+        <v>1326300</v>
       </c>
       <c r="G23" s="3">
-        <v>1572700</v>
+        <v>1573000</v>
       </c>
       <c r="H23" s="3">
-        <v>1414300</v>
+        <v>1414600</v>
       </c>
       <c r="I23" s="3">
-        <v>1254800</v>
+        <v>1255100</v>
       </c>
       <c r="J23" s="3">
-        <v>1262500</v>
+        <v>1262800</v>
       </c>
       <c r="K23" s="3">
         <v>1261400</v>
@@ -1281,19 +1281,19 @@
         <v>274700</v>
       </c>
       <c r="E24" s="3">
-        <v>218300</v>
+        <v>218400</v>
       </c>
       <c r="F24" s="3">
-        <v>291800</v>
+        <v>291900</v>
       </c>
       <c r="G24" s="3">
-        <v>243100</v>
+        <v>243200</v>
       </c>
       <c r="H24" s="3">
-        <v>223000</v>
+        <v>223100</v>
       </c>
       <c r="I24" s="3">
-        <v>200800</v>
+        <v>200900</v>
       </c>
       <c r="J24" s="3">
         <v>220100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793500</v>
+        <v>793700</v>
       </c>
       <c r="E26" s="3">
-        <v>919200</v>
+        <v>919400</v>
       </c>
       <c r="F26" s="3">
-        <v>1034200</v>
+        <v>1034400</v>
       </c>
       <c r="G26" s="3">
-        <v>1329500</v>
+        <v>1329900</v>
       </c>
       <c r="H26" s="3">
-        <v>1191300</v>
+        <v>1191500</v>
       </c>
       <c r="I26" s="3">
-        <v>1054000</v>
+        <v>1054200</v>
       </c>
       <c r="J26" s="3">
-        <v>1042500</v>
+        <v>1042700</v>
       </c>
       <c r="K26" s="3">
         <v>1035100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639400</v>
+        <v>639600</v>
       </c>
       <c r="E27" s="3">
-        <v>765600</v>
+        <v>765800</v>
       </c>
       <c r="F27" s="3">
-        <v>887800</v>
+        <v>888000</v>
       </c>
       <c r="G27" s="3">
-        <v>1186900</v>
+        <v>1187200</v>
       </c>
       <c r="H27" s="3">
-        <v>1048300</v>
+        <v>1048600</v>
       </c>
       <c r="I27" s="3">
-        <v>935600</v>
+        <v>935800</v>
       </c>
       <c r="J27" s="3">
-        <v>930600</v>
+        <v>930900</v>
       </c>
       <c r="K27" s="3">
         <v>908100</v>
@@ -1593,22 +1593,22 @@
         <v>-322800</v>
       </c>
       <c r="E32" s="3">
-        <v>-290100</v>
+        <v>-290200</v>
       </c>
       <c r="F32" s="3">
-        <v>-326500</v>
+        <v>-326600</v>
       </c>
       <c r="G32" s="3">
-        <v>-651600</v>
+        <v>-651800</v>
       </c>
       <c r="H32" s="3">
-        <v>-521600</v>
+        <v>-521700</v>
       </c>
       <c r="I32" s="3">
-        <v>-498700</v>
+        <v>-498800</v>
       </c>
       <c r="J32" s="3">
-        <v>-502600</v>
+        <v>-502800</v>
       </c>
       <c r="K32" s="3">
         <v>-410600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639400</v>
+        <v>639600</v>
       </c>
       <c r="E33" s="3">
-        <v>765600</v>
+        <v>765800</v>
       </c>
       <c r="F33" s="3">
-        <v>887800</v>
+        <v>888000</v>
       </c>
       <c r="G33" s="3">
-        <v>1186900</v>
+        <v>1187200</v>
       </c>
       <c r="H33" s="3">
-        <v>1048300</v>
+        <v>1048600</v>
       </c>
       <c r="I33" s="3">
-        <v>935600</v>
+        <v>935800</v>
       </c>
       <c r="J33" s="3">
-        <v>930600</v>
+        <v>930900</v>
       </c>
       <c r="K33" s="3">
         <v>908100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639400</v>
+        <v>639600</v>
       </c>
       <c r="E35" s="3">
-        <v>765600</v>
+        <v>765800</v>
       </c>
       <c r="F35" s="3">
-        <v>887800</v>
+        <v>888000</v>
       </c>
       <c r="G35" s="3">
-        <v>1186900</v>
+        <v>1187200</v>
       </c>
       <c r="H35" s="3">
-        <v>1048300</v>
+        <v>1048600</v>
       </c>
       <c r="I35" s="3">
-        <v>935600</v>
+        <v>935800</v>
       </c>
       <c r="J35" s="3">
-        <v>930600</v>
+        <v>930900</v>
       </c>
       <c r="K35" s="3">
         <v>908100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1345500</v>
+        <v>1345800</v>
       </c>
       <c r="E41" s="3">
-        <v>950100</v>
+        <v>950400</v>
       </c>
       <c r="F41" s="3">
-        <v>1000300</v>
+        <v>1000600</v>
       </c>
       <c r="G41" s="3">
-        <v>1083400</v>
+        <v>1083700</v>
       </c>
       <c r="H41" s="3">
-        <v>1371200</v>
+        <v>1371500</v>
       </c>
       <c r="I41" s="3">
-        <v>1029300</v>
+        <v>1029500</v>
       </c>
       <c r="J41" s="3">
-        <v>1520000</v>
+        <v>1520300</v>
       </c>
       <c r="K41" s="3">
         <v>1610200</v>
@@ -1878,7 +1878,7 @@
         <v>284600</v>
       </c>
       <c r="I42" s="3">
-        <v>450700</v>
+        <v>450800</v>
       </c>
       <c r="J42" s="3">
         <v>170700</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1099500</v>
+        <v>1099700</v>
       </c>
       <c r="E43" s="3">
-        <v>951400</v>
+        <v>951600</v>
       </c>
       <c r="F43" s="3">
-        <v>998200</v>
+        <v>998500</v>
       </c>
       <c r="G43" s="3">
-        <v>939200</v>
+        <v>939400</v>
       </c>
       <c r="H43" s="3">
-        <v>909600</v>
+        <v>909900</v>
       </c>
       <c r="I43" s="3">
-        <v>788800</v>
+        <v>789000</v>
       </c>
       <c r="J43" s="3">
-        <v>871000</v>
+        <v>871200</v>
       </c>
       <c r="K43" s="3">
         <v>828800</v>
@@ -1941,10 +1941,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400300</v>
+        <v>400400</v>
       </c>
       <c r="E44" s="3">
-        <v>340400</v>
+        <v>340500</v>
       </c>
       <c r="F44" s="3">
         <v>301300</v>
@@ -1953,13 +1953,13 @@
         <v>316200</v>
       </c>
       <c r="H44" s="3">
-        <v>328600</v>
+        <v>328700</v>
       </c>
       <c r="I44" s="3">
         <v>269000</v>
       </c>
       <c r="J44" s="3">
-        <v>292000</v>
+        <v>292100</v>
       </c>
       <c r="K44" s="3">
         <v>291700</v>
@@ -1983,22 +1983,22 @@
         <v>227300</v>
       </c>
       <c r="E45" s="3">
-        <v>275100</v>
+        <v>275200</v>
       </c>
       <c r="F45" s="3">
-        <v>221200</v>
+        <v>221300</v>
       </c>
       <c r="G45" s="3">
         <v>201600</v>
       </c>
       <c r="H45" s="3">
-        <v>211400</v>
+        <v>211500</v>
       </c>
       <c r="I45" s="3">
         <v>160500</v>
       </c>
       <c r="J45" s="3">
-        <v>158300</v>
+        <v>158400</v>
       </c>
       <c r="K45" s="3">
         <v>254900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3082700</v>
+        <v>3083500</v>
       </c>
       <c r="E46" s="3">
-        <v>2569000</v>
+        <v>2569600</v>
       </c>
       <c r="F46" s="3">
-        <v>2565500</v>
+        <v>2566100</v>
       </c>
       <c r="G46" s="3">
-        <v>2627000</v>
+        <v>2627600</v>
       </c>
       <c r="H46" s="3">
-        <v>3105400</v>
+        <v>3106200</v>
       </c>
       <c r="I46" s="3">
-        <v>2698200</v>
+        <v>2698900</v>
       </c>
       <c r="J46" s="3">
-        <v>3012000</v>
+        <v>3012700</v>
       </c>
       <c r="K46" s="3">
         <v>3147700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7172200</v>
+        <v>7173900</v>
       </c>
       <c r="E47" s="3">
-        <v>6135000</v>
+        <v>6136500</v>
       </c>
       <c r="F47" s="3">
-        <v>5941200</v>
+        <v>5942600</v>
       </c>
       <c r="G47" s="3">
-        <v>5347000</v>
+        <v>5348200</v>
       </c>
       <c r="H47" s="3">
-        <v>4950500</v>
+        <v>4951600</v>
       </c>
       <c r="I47" s="3">
-        <v>4484300</v>
+        <v>4485300</v>
       </c>
       <c r="J47" s="3">
-        <v>4283400</v>
+        <v>4284400</v>
       </c>
       <c r="K47" s="3">
         <v>3764800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9687400</v>
+        <v>9689700</v>
       </c>
       <c r="E48" s="3">
-        <v>9146200</v>
+        <v>9148400</v>
       </c>
       <c r="F48" s="3">
-        <v>8238100</v>
+        <v>8240000</v>
       </c>
       <c r="G48" s="3">
-        <v>7488600</v>
+        <v>7490300</v>
       </c>
       <c r="H48" s="3">
-        <v>7212600</v>
+        <v>7214300</v>
       </c>
       <c r="I48" s="3">
-        <v>6364700</v>
+        <v>6366200</v>
       </c>
       <c r="J48" s="3">
-        <v>6139100</v>
+        <v>6140500</v>
       </c>
       <c r="K48" s="3">
         <v>6435300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714600</v>
+        <v>714800</v>
       </c>
       <c r="E49" s="3">
-        <v>696200</v>
+        <v>696400</v>
       </c>
       <c r="F49" s="3">
-        <v>674400</v>
+        <v>674500</v>
       </c>
       <c r="G49" s="3">
-        <v>724200</v>
+        <v>724400</v>
       </c>
       <c r="H49" s="3">
-        <v>749900</v>
+        <v>750000</v>
       </c>
       <c r="I49" s="3">
-        <v>710200</v>
+        <v>710400</v>
       </c>
       <c r="J49" s="3">
-        <v>741700</v>
+        <v>741900</v>
       </c>
       <c r="K49" s="3">
         <v>748400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>763200</v>
+        <v>763400</v>
       </c>
       <c r="E52" s="3">
-        <v>606800</v>
+        <v>606900</v>
       </c>
       <c r="F52" s="3">
-        <v>483800</v>
+        <v>483900</v>
       </c>
       <c r="G52" s="3">
-        <v>725000</v>
+        <v>725200</v>
       </c>
       <c r="H52" s="3">
-        <v>685500</v>
+        <v>685700</v>
       </c>
       <c r="I52" s="3">
-        <v>621600</v>
+        <v>621700</v>
       </c>
       <c r="J52" s="3">
-        <v>552300</v>
+        <v>552500</v>
       </c>
       <c r="K52" s="3">
         <v>518700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21420200</v>
+        <v>21425200</v>
       </c>
       <c r="E54" s="3">
-        <v>19153200</v>
+        <v>19157700</v>
       </c>
       <c r="F54" s="3">
-        <v>17902900</v>
+        <v>17907100</v>
       </c>
       <c r="G54" s="3">
-        <v>16911700</v>
+        <v>16915700</v>
       </c>
       <c r="H54" s="3">
-        <v>16703800</v>
+        <v>16707800</v>
       </c>
       <c r="I54" s="3">
-        <v>14878900</v>
+        <v>14882400</v>
       </c>
       <c r="J54" s="3">
-        <v>14728500</v>
+        <v>14732000</v>
       </c>
       <c r="K54" s="3">
         <v>14614800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525200</v>
+        <v>525300</v>
       </c>
       <c r="E57" s="3">
-        <v>457100</v>
+        <v>457200</v>
       </c>
       <c r="F57" s="3">
-        <v>383200</v>
+        <v>383300</v>
       </c>
       <c r="G57" s="3">
-        <v>392300</v>
+        <v>392400</v>
       </c>
       <c r="H57" s="3">
-        <v>379400</v>
+        <v>379500</v>
       </c>
       <c r="I57" s="3">
         <v>337400</v>
       </c>
       <c r="J57" s="3">
-        <v>327900</v>
+        <v>328000</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2360100</v>
+        <v>2360600</v>
       </c>
       <c r="E58" s="3">
-        <v>1410300</v>
+        <v>1410600</v>
       </c>
       <c r="F58" s="3">
-        <v>1204700</v>
+        <v>1205000</v>
       </c>
       <c r="G58" s="3">
-        <v>1345900</v>
+        <v>1346200</v>
       </c>
       <c r="H58" s="3">
-        <v>2030600</v>
+        <v>2031000</v>
       </c>
       <c r="I58" s="3">
-        <v>782300</v>
+        <v>782500</v>
       </c>
       <c r="J58" s="3">
-        <v>1261000</v>
+        <v>1261200</v>
       </c>
       <c r="K58" s="3">
         <v>927900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2025800</v>
+        <v>2026300</v>
       </c>
       <c r="E59" s="3">
-        <v>1931400</v>
+        <v>1931900</v>
       </c>
       <c r="F59" s="3">
-        <v>1747100</v>
+        <v>1747600</v>
       </c>
       <c r="G59" s="3">
-        <v>1594700</v>
+        <v>1595100</v>
       </c>
       <c r="H59" s="3">
-        <v>1661800</v>
+        <v>1662200</v>
       </c>
       <c r="I59" s="3">
-        <v>1371700</v>
+        <v>1372000</v>
       </c>
       <c r="J59" s="3">
-        <v>1365500</v>
+        <v>1365800</v>
       </c>
       <c r="K59" s="3">
         <v>1310400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4911100</v>
+        <v>4912300</v>
       </c>
       <c r="E60" s="3">
-        <v>3798800</v>
+        <v>3799700</v>
       </c>
       <c r="F60" s="3">
-        <v>3335000</v>
+        <v>3335800</v>
       </c>
       <c r="G60" s="3">
-        <v>3332900</v>
+        <v>3333700</v>
       </c>
       <c r="H60" s="3">
-        <v>4071800</v>
+        <v>4072700</v>
       </c>
       <c r="I60" s="3">
-        <v>2491300</v>
+        <v>2491900</v>
       </c>
       <c r="J60" s="3">
-        <v>2954400</v>
+        <v>2955100</v>
       </c>
       <c r="K60" s="3">
         <v>2642900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4743100</v>
+        <v>4744200</v>
       </c>
       <c r="E61" s="3">
-        <v>4012400</v>
+        <v>4013400</v>
       </c>
       <c r="F61" s="3">
-        <v>3690000</v>
+        <v>3690900</v>
       </c>
       <c r="G61" s="3">
-        <v>3518800</v>
+        <v>3519600</v>
       </c>
       <c r="H61" s="3">
-        <v>2697100</v>
+        <v>2697700</v>
       </c>
       <c r="I61" s="3">
-        <v>3478900</v>
+        <v>3479700</v>
       </c>
       <c r="J61" s="3">
-        <v>2980500</v>
+        <v>2981200</v>
       </c>
       <c r="K61" s="3">
         <v>3130500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1335600</v>
+        <v>1336000</v>
       </c>
       <c r="E62" s="3">
-        <v>1253900</v>
+        <v>1254200</v>
       </c>
       <c r="F62" s="3">
-        <v>1268500</v>
+        <v>1268800</v>
       </c>
       <c r="G62" s="3">
-        <v>1113900</v>
+        <v>1114100</v>
       </c>
       <c r="H62" s="3">
-        <v>982100</v>
+        <v>982400</v>
       </c>
       <c r="I62" s="3">
-        <v>892400</v>
+        <v>892600</v>
       </c>
       <c r="J62" s="3">
-        <v>877400</v>
+        <v>877600</v>
       </c>
       <c r="K62" s="3">
         <v>893000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12522800</v>
+        <v>12525800</v>
       </c>
       <c r="E66" s="3">
-        <v>10341000</v>
+        <v>10343400</v>
       </c>
       <c r="F66" s="3">
-        <v>9415600</v>
+        <v>9417800</v>
       </c>
       <c r="G66" s="3">
-        <v>8958800</v>
+        <v>8960900</v>
       </c>
       <c r="H66" s="3">
-        <v>8700900</v>
+        <v>8702900</v>
       </c>
       <c r="I66" s="3">
-        <v>7705300</v>
+        <v>7707100</v>
       </c>
       <c r="J66" s="3">
-        <v>7693900</v>
+        <v>7695700</v>
       </c>
       <c r="K66" s="3">
         <v>7591400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7383700</v>
+        <v>7385500</v>
       </c>
       <c r="E72" s="3">
-        <v>7519100</v>
+        <v>7520800</v>
       </c>
       <c r="F72" s="3">
-        <v>7509200</v>
+        <v>7511000</v>
       </c>
       <c r="G72" s="3">
-        <v>7319500</v>
+        <v>7321200</v>
       </c>
       <c r="H72" s="3">
-        <v>6776100</v>
+        <v>6777700</v>
       </c>
       <c r="I72" s="3">
-        <v>6302100</v>
+        <v>6303600</v>
       </c>
       <c r="J72" s="3">
-        <v>5909200</v>
+        <v>5910600</v>
       </c>
       <c r="K72" s="3">
         <v>5533500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8897400</v>
+        <v>8899500</v>
       </c>
       <c r="E76" s="3">
-        <v>8812200</v>
+        <v>8814300</v>
       </c>
       <c r="F76" s="3">
-        <v>8487400</v>
+        <v>8489400</v>
       </c>
       <c r="G76" s="3">
-        <v>7953000</v>
+        <v>7954800</v>
       </c>
       <c r="H76" s="3">
-        <v>8003000</v>
+        <v>8004800</v>
       </c>
       <c r="I76" s="3">
-        <v>7173700</v>
+        <v>7175300</v>
       </c>
       <c r="J76" s="3">
-        <v>7034600</v>
+        <v>7036300</v>
       </c>
       <c r="K76" s="3">
         <v>7023400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639400</v>
+        <v>639600</v>
       </c>
       <c r="E81" s="3">
-        <v>765600</v>
+        <v>765800</v>
       </c>
       <c r="F81" s="3">
-        <v>887800</v>
+        <v>888000</v>
       </c>
       <c r="G81" s="3">
-        <v>1186900</v>
+        <v>1187200</v>
       </c>
       <c r="H81" s="3">
-        <v>1048300</v>
+        <v>1048600</v>
       </c>
       <c r="I81" s="3">
-        <v>935600</v>
+        <v>935800</v>
       </c>
       <c r="J81" s="3">
-        <v>930600</v>
+        <v>930900</v>
       </c>
       <c r="K81" s="3">
         <v>908100</v>
@@ -3301,13 +3301,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>419100</v>
+        <v>419200</v>
       </c>
       <c r="E83" s="3">
-        <v>374800</v>
+        <v>374900</v>
       </c>
       <c r="F83" s="3">
-        <v>350900</v>
+        <v>351000</v>
       </c>
       <c r="G83" s="3">
         <v>323400</v>
@@ -3316,10 +3316,10 @@
         <v>302700</v>
       </c>
       <c r="I83" s="3">
-        <v>283300</v>
+        <v>283400</v>
       </c>
       <c r="J83" s="3">
-        <v>264500</v>
+        <v>264600</v>
       </c>
       <c r="K83" s="3">
         <v>249300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1334300</v>
+        <v>1334700</v>
       </c>
       <c r="E89" s="3">
-        <v>1263100</v>
+        <v>1263400</v>
       </c>
       <c r="F89" s="3">
-        <v>1263300</v>
+        <v>1263600</v>
       </c>
       <c r="G89" s="3">
-        <v>1203000</v>
+        <v>1203300</v>
       </c>
       <c r="H89" s="3">
-        <v>1086400</v>
+        <v>1086700</v>
       </c>
       <c r="I89" s="3">
-        <v>1079400</v>
+        <v>1079700</v>
       </c>
       <c r="J89" s="3">
-        <v>1054800</v>
+        <v>1055100</v>
       </c>
       <c r="K89" s="3">
         <v>1044900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1068900</v>
+        <v>-1069100</v>
       </c>
       <c r="E91" s="3">
-        <v>-929700</v>
+        <v>-930000</v>
       </c>
       <c r="F91" s="3">
-        <v>-898900</v>
+        <v>-899100</v>
       </c>
       <c r="G91" s="3">
-        <v>-859800</v>
+        <v>-860000</v>
       </c>
       <c r="H91" s="3">
-        <v>-782700</v>
+        <v>-782800</v>
       </c>
       <c r="I91" s="3">
-        <v>-797400</v>
+        <v>-797600</v>
       </c>
       <c r="J91" s="3">
-        <v>-810100</v>
+        <v>-810300</v>
       </c>
       <c r="K91" s="3">
         <v>-813100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1646900</v>
+        <v>-1647300</v>
       </c>
       <c r="E94" s="3">
-        <v>-763400</v>
+        <v>-763600</v>
       </c>
       <c r="F94" s="3">
-        <v>-675600</v>
+        <v>-675700</v>
       </c>
       <c r="G94" s="3">
-        <v>-481300</v>
+        <v>-481400</v>
       </c>
       <c r="H94" s="3">
-        <v>-212900</v>
+        <v>-213000</v>
       </c>
       <c r="I94" s="3">
-        <v>-824400</v>
+        <v>-824600</v>
       </c>
       <c r="J94" s="3">
-        <v>-604000</v>
+        <v>-604100</v>
       </c>
       <c r="K94" s="3">
         <v>-361900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-806300</v>
+        <v>-806500</v>
       </c>
       <c r="E96" s="3">
-        <v>-767900</v>
+        <v>-768100</v>
       </c>
       <c r="F96" s="3">
-        <v>-709900</v>
+        <v>-710100</v>
       </c>
       <c r="G96" s="3">
-        <v>-645400</v>
+        <v>-645500</v>
       </c>
       <c r="H96" s="3">
-        <v>-586700</v>
+        <v>-586800</v>
       </c>
       <c r="I96" s="3">
-        <v>-533400</v>
+        <v>-533500</v>
       </c>
       <c r="J96" s="3">
-        <v>-485000</v>
+        <v>-485100</v>
       </c>
       <c r="K96" s="3">
         <v>-442100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>687600</v>
+        <v>687800</v>
       </c>
       <c r="E100" s="3">
-        <v>-576100</v>
+        <v>-576300</v>
       </c>
       <c r="F100" s="3">
-        <v>-664500</v>
+        <v>-664700</v>
       </c>
       <c r="G100" s="3">
-        <v>-992600</v>
+        <v>-992900</v>
       </c>
       <c r="H100" s="3">
-        <v>-553100</v>
+        <v>-553200</v>
       </c>
       <c r="I100" s="3">
-        <v>-723000</v>
+        <v>-723200</v>
       </c>
       <c r="J100" s="3">
-        <v>-506900</v>
+        <v>-507000</v>
       </c>
       <c r="K100" s="3">
         <v>-184500</v>
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>395300</v>
+        <v>395400</v>
       </c>
       <c r="E102" s="3">
         <v>-50200</v>
@@ -4010,10 +4010,10 @@
         <v>-287800</v>
       </c>
       <c r="H102" s="3">
-        <v>341900</v>
+        <v>342000</v>
       </c>
       <c r="I102" s="3">
-        <v>-490700</v>
+        <v>-490800</v>
       </c>
       <c r="J102" s="3">
         <v>-86600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6828300</v>
+        <v>6824000</v>
       </c>
       <c r="E8" s="3">
-        <v>5217400</v>
+        <v>5214100</v>
       </c>
       <c r="F8" s="3">
-        <v>5179300</v>
+        <v>5176000</v>
       </c>
       <c r="G8" s="3">
-        <v>4981000</v>
+        <v>4977900</v>
       </c>
       <c r="H8" s="3">
-        <v>4140100</v>
+        <v>4137500</v>
       </c>
       <c r="I8" s="3">
-        <v>3640500</v>
+        <v>3638200</v>
       </c>
       <c r="J8" s="3">
-        <v>3772300</v>
+        <v>3769900</v>
       </c>
       <c r="K8" s="3">
         <v>4038500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4154800</v>
+        <v>4152200</v>
       </c>
       <c r="E9" s="3">
-        <v>2802800</v>
+        <v>2801100</v>
       </c>
       <c r="F9" s="3">
-        <v>2779500</v>
+        <v>2777800</v>
       </c>
       <c r="G9" s="3">
-        <v>2625800</v>
+        <v>2624200</v>
       </c>
       <c r="H9" s="3">
-        <v>2000400</v>
+        <v>1999100</v>
       </c>
       <c r="I9" s="3">
-        <v>1620200</v>
+        <v>1619200</v>
       </c>
       <c r="J9" s="3">
-        <v>1797200</v>
+        <v>1796100</v>
       </c>
       <c r="K9" s="3">
         <v>2082000</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2673500</v>
+        <v>2671800</v>
       </c>
       <c r="E10" s="3">
-        <v>2414500</v>
+        <v>2413000</v>
       </c>
       <c r="F10" s="3">
-        <v>2399700</v>
+        <v>2398200</v>
       </c>
       <c r="G10" s="3">
-        <v>2355200</v>
+        <v>2353700</v>
       </c>
       <c r="H10" s="3">
-        <v>2139700</v>
+        <v>2138400</v>
       </c>
       <c r="I10" s="3">
-        <v>2020200</v>
+        <v>2019000</v>
       </c>
       <c r="J10" s="3">
-        <v>1975100</v>
+        <v>1973900</v>
       </c>
       <c r="K10" s="3">
         <v>1956500</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>419200</v>
+        <v>419000</v>
       </c>
       <c r="E15" s="3">
-        <v>374900</v>
+        <v>374600</v>
       </c>
       <c r="F15" s="3">
-        <v>351000</v>
+        <v>350800</v>
       </c>
       <c r="G15" s="3">
-        <v>323400</v>
+        <v>323200</v>
       </c>
       <c r="H15" s="3">
-        <v>302700</v>
+        <v>302500</v>
       </c>
       <c r="I15" s="3">
-        <v>283400</v>
+        <v>283200</v>
       </c>
       <c r="J15" s="3">
-        <v>264600</v>
+        <v>264400</v>
       </c>
       <c r="K15" s="3">
         <v>249300</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5903300</v>
+        <v>5899600</v>
       </c>
       <c r="E17" s="3">
-        <v>4208000</v>
+        <v>4205300</v>
       </c>
       <c r="F17" s="3">
-        <v>4022700</v>
+        <v>4020200</v>
       </c>
       <c r="G17" s="3">
-        <v>3909800</v>
+        <v>3907300</v>
       </c>
       <c r="H17" s="3">
-        <v>3086900</v>
+        <v>3085000</v>
       </c>
       <c r="I17" s="3">
-        <v>2730200</v>
+        <v>2728500</v>
       </c>
       <c r="J17" s="3">
-        <v>2868400</v>
+        <v>2866600</v>
       </c>
       <c r="K17" s="3">
         <v>3058300</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>925000</v>
+        <v>924500</v>
       </c>
       <c r="E18" s="3">
-        <v>1009400</v>
+        <v>1008800</v>
       </c>
       <c r="F18" s="3">
-        <v>1156500</v>
+        <v>1155800</v>
       </c>
       <c r="G18" s="3">
-        <v>1071200</v>
+        <v>1070600</v>
       </c>
       <c r="H18" s="3">
-        <v>1053200</v>
+        <v>1052500</v>
       </c>
       <c r="I18" s="3">
-        <v>910300</v>
+        <v>909700</v>
       </c>
       <c r="J18" s="3">
-        <v>903900</v>
+        <v>903400</v>
       </c>
       <c r="K18" s="3">
         <v>980100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>322800</v>
+        <v>322600</v>
       </c>
       <c r="E20" s="3">
-        <v>290200</v>
+        <v>290000</v>
       </c>
       <c r="F20" s="3">
-        <v>326600</v>
+        <v>326400</v>
       </c>
       <c r="G20" s="3">
-        <v>651800</v>
+        <v>651400</v>
       </c>
       <c r="H20" s="3">
-        <v>521700</v>
+        <v>521300</v>
       </c>
       <c r="I20" s="3">
-        <v>498800</v>
+        <v>498500</v>
       </c>
       <c r="J20" s="3">
-        <v>502800</v>
+        <v>502400</v>
       </c>
       <c r="K20" s="3">
         <v>410600</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1666900</v>
+        <v>1666000</v>
       </c>
       <c r="E21" s="3">
-        <v>1674200</v>
+        <v>1673300</v>
       </c>
       <c r="F21" s="3">
-        <v>1833900</v>
+        <v>1833000</v>
       </c>
       <c r="G21" s="3">
-        <v>2046300</v>
+        <v>2045200</v>
       </c>
       <c r="H21" s="3">
-        <v>1877400</v>
+        <v>1876400</v>
       </c>
       <c r="I21" s="3">
-        <v>1692300</v>
+        <v>1691400</v>
       </c>
       <c r="J21" s="3">
-        <v>1671100</v>
+        <v>1670200</v>
       </c>
       <c r="K21" s="3">
         <v>1640300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179500</v>
+        <v>179400</v>
       </c>
       <c r="E22" s="3">
-        <v>161700</v>
+        <v>161600</v>
       </c>
       <c r="F22" s="3">
-        <v>156900</v>
+        <v>156800</v>
       </c>
       <c r="G22" s="3">
-        <v>150000</v>
+        <v>149900</v>
       </c>
       <c r="H22" s="3">
-        <v>160200</v>
+        <v>160100</v>
       </c>
       <c r="I22" s="3">
-        <v>153900</v>
+        <v>153800</v>
       </c>
       <c r="J22" s="3">
-        <v>143900</v>
+        <v>143800</v>
       </c>
       <c r="K22" s="3">
         <v>129400</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1068400</v>
+        <v>1067700</v>
       </c>
       <c r="E23" s="3">
-        <v>1137800</v>
+        <v>1137100</v>
       </c>
       <c r="F23" s="3">
-        <v>1326300</v>
+        <v>1325500</v>
       </c>
       <c r="G23" s="3">
-        <v>1573000</v>
+        <v>1572100</v>
       </c>
       <c r="H23" s="3">
-        <v>1414600</v>
+        <v>1413700</v>
       </c>
       <c r="I23" s="3">
-        <v>1255100</v>
+        <v>1254300</v>
       </c>
       <c r="J23" s="3">
-        <v>1262800</v>
+        <v>1262000</v>
       </c>
       <c r="K23" s="3">
         <v>1261400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274700</v>
+        <v>274500</v>
       </c>
       <c r="E24" s="3">
-        <v>218400</v>
+        <v>218300</v>
       </c>
       <c r="F24" s="3">
-        <v>291900</v>
+        <v>291700</v>
       </c>
       <c r="G24" s="3">
-        <v>243200</v>
+        <v>243000</v>
       </c>
       <c r="H24" s="3">
-        <v>223100</v>
+        <v>222900</v>
       </c>
       <c r="I24" s="3">
-        <v>200900</v>
+        <v>200800</v>
       </c>
       <c r="J24" s="3">
-        <v>220100</v>
+        <v>220000</v>
       </c>
       <c r="K24" s="3">
         <v>226300</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793700</v>
+        <v>793200</v>
       </c>
       <c r="E26" s="3">
-        <v>919400</v>
+        <v>918900</v>
       </c>
       <c r="F26" s="3">
-        <v>1034400</v>
+        <v>1033800</v>
       </c>
       <c r="G26" s="3">
-        <v>1329900</v>
+        <v>1329000</v>
       </c>
       <c r="H26" s="3">
-        <v>1191500</v>
+        <v>1190800</v>
       </c>
       <c r="I26" s="3">
-        <v>1054200</v>
+        <v>1053600</v>
       </c>
       <c r="J26" s="3">
-        <v>1042700</v>
+        <v>1042000</v>
       </c>
       <c r="K26" s="3">
         <v>1035100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639600</v>
+        <v>639200</v>
       </c>
       <c r="E27" s="3">
-        <v>765800</v>
+        <v>765300</v>
       </c>
       <c r="F27" s="3">
-        <v>888000</v>
+        <v>887400</v>
       </c>
       <c r="G27" s="3">
-        <v>1187200</v>
+        <v>1186500</v>
       </c>
       <c r="H27" s="3">
-        <v>1048600</v>
+        <v>1047900</v>
       </c>
       <c r="I27" s="3">
-        <v>935800</v>
+        <v>935200</v>
       </c>
       <c r="J27" s="3">
-        <v>930900</v>
+        <v>930300</v>
       </c>
       <c r="K27" s="3">
         <v>908100</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-322800</v>
+        <v>-322600</v>
       </c>
       <c r="E32" s="3">
-        <v>-290200</v>
+        <v>-290000</v>
       </c>
       <c r="F32" s="3">
-        <v>-326600</v>
+        <v>-326400</v>
       </c>
       <c r="G32" s="3">
-        <v>-651800</v>
+        <v>-651400</v>
       </c>
       <c r="H32" s="3">
-        <v>-521700</v>
+        <v>-521300</v>
       </c>
       <c r="I32" s="3">
-        <v>-498800</v>
+        <v>-498500</v>
       </c>
       <c r="J32" s="3">
-        <v>-502800</v>
+        <v>-502400</v>
       </c>
       <c r="K32" s="3">
         <v>-410600</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639600</v>
+        <v>639200</v>
       </c>
       <c r="E33" s="3">
-        <v>765800</v>
+        <v>765300</v>
       </c>
       <c r="F33" s="3">
-        <v>888000</v>
+        <v>887400</v>
       </c>
       <c r="G33" s="3">
-        <v>1187200</v>
+        <v>1186500</v>
       </c>
       <c r="H33" s="3">
-        <v>1048600</v>
+        <v>1047900</v>
       </c>
       <c r="I33" s="3">
-        <v>935800</v>
+        <v>935200</v>
       </c>
       <c r="J33" s="3">
-        <v>930900</v>
+        <v>930300</v>
       </c>
       <c r="K33" s="3">
         <v>908100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639600</v>
+        <v>639200</v>
       </c>
       <c r="E35" s="3">
-        <v>765800</v>
+        <v>765300</v>
       </c>
       <c r="F35" s="3">
-        <v>888000</v>
+        <v>887400</v>
       </c>
       <c r="G35" s="3">
-        <v>1187200</v>
+        <v>1186500</v>
       </c>
       <c r="H35" s="3">
-        <v>1048600</v>
+        <v>1047900</v>
       </c>
       <c r="I35" s="3">
-        <v>935800</v>
+        <v>935200</v>
       </c>
       <c r="J35" s="3">
-        <v>930900</v>
+        <v>930300</v>
       </c>
       <c r="K35" s="3">
         <v>908100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1345800</v>
+        <v>1345000</v>
       </c>
       <c r="E41" s="3">
-        <v>950400</v>
+        <v>949800</v>
       </c>
       <c r="F41" s="3">
-        <v>1000600</v>
+        <v>999900</v>
       </c>
       <c r="G41" s="3">
-        <v>1083700</v>
+        <v>1083000</v>
       </c>
       <c r="H41" s="3">
-        <v>1371500</v>
+        <v>1370600</v>
       </c>
       <c r="I41" s="3">
-        <v>1029500</v>
+        <v>1028900</v>
       </c>
       <c r="J41" s="3">
-        <v>1520300</v>
+        <v>1519400</v>
       </c>
       <c r="K41" s="3">
         <v>1610200</v>
@@ -1875,13 +1875,13 @@
         <v>86700</v>
       </c>
       <c r="H42" s="3">
-        <v>284600</v>
+        <v>284400</v>
       </c>
       <c r="I42" s="3">
-        <v>450800</v>
+        <v>450500</v>
       </c>
       <c r="J42" s="3">
-        <v>170700</v>
+        <v>170600</v>
       </c>
       <c r="K42" s="3">
         <v>162100</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1099700</v>
+        <v>1099100</v>
       </c>
       <c r="E43" s="3">
-        <v>951600</v>
+        <v>951000</v>
       </c>
       <c r="F43" s="3">
-        <v>998500</v>
+        <v>997800</v>
       </c>
       <c r="G43" s="3">
-        <v>939400</v>
+        <v>938800</v>
       </c>
       <c r="H43" s="3">
-        <v>909900</v>
+        <v>909300</v>
       </c>
       <c r="I43" s="3">
-        <v>789000</v>
+        <v>788500</v>
       </c>
       <c r="J43" s="3">
-        <v>871200</v>
+        <v>870700</v>
       </c>
       <c r="K43" s="3">
         <v>828800</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400400</v>
+        <v>400100</v>
       </c>
       <c r="E44" s="3">
-        <v>340500</v>
+        <v>340300</v>
       </c>
       <c r="F44" s="3">
-        <v>301300</v>
+        <v>301100</v>
       </c>
       <c r="G44" s="3">
-        <v>316200</v>
+        <v>316000</v>
       </c>
       <c r="H44" s="3">
-        <v>328700</v>
+        <v>328500</v>
       </c>
       <c r="I44" s="3">
-        <v>269000</v>
+        <v>268900</v>
       </c>
       <c r="J44" s="3">
-        <v>292100</v>
+        <v>291900</v>
       </c>
       <c r="K44" s="3">
         <v>291700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227300</v>
+        <v>227200</v>
       </c>
       <c r="E45" s="3">
-        <v>275200</v>
+        <v>275000</v>
       </c>
       <c r="F45" s="3">
-        <v>221300</v>
+        <v>221200</v>
       </c>
       <c r="G45" s="3">
-        <v>201600</v>
+        <v>201500</v>
       </c>
       <c r="H45" s="3">
-        <v>211500</v>
+        <v>211400</v>
       </c>
       <c r="I45" s="3">
-        <v>160500</v>
+        <v>160400</v>
       </c>
       <c r="J45" s="3">
-        <v>158400</v>
+        <v>158300</v>
       </c>
       <c r="K45" s="3">
         <v>254900</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3083500</v>
+        <v>3081500</v>
       </c>
       <c r="E46" s="3">
-        <v>2569600</v>
+        <v>2568000</v>
       </c>
       <c r="F46" s="3">
-        <v>2566100</v>
+        <v>2564500</v>
       </c>
       <c r="G46" s="3">
-        <v>2627600</v>
+        <v>2626000</v>
       </c>
       <c r="H46" s="3">
-        <v>3106200</v>
+        <v>3104200</v>
       </c>
       <c r="I46" s="3">
-        <v>2698900</v>
+        <v>2697200</v>
       </c>
       <c r="J46" s="3">
-        <v>3012700</v>
+        <v>3010800</v>
       </c>
       <c r="K46" s="3">
         <v>3147700</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7173900</v>
+        <v>7169400</v>
       </c>
       <c r="E47" s="3">
-        <v>6136500</v>
+        <v>6132600</v>
       </c>
       <c r="F47" s="3">
-        <v>5942600</v>
+        <v>5938800</v>
       </c>
       <c r="G47" s="3">
-        <v>5348200</v>
+        <v>5344900</v>
       </c>
       <c r="H47" s="3">
-        <v>4951600</v>
+        <v>4948500</v>
       </c>
       <c r="I47" s="3">
-        <v>4485300</v>
+        <v>4482500</v>
       </c>
       <c r="J47" s="3">
-        <v>4284400</v>
+        <v>4281700</v>
       </c>
       <c r="K47" s="3">
         <v>3764800</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9689700</v>
+        <v>9683600</v>
       </c>
       <c r="E48" s="3">
-        <v>9148400</v>
+        <v>9142600</v>
       </c>
       <c r="F48" s="3">
-        <v>8240000</v>
+        <v>8234900</v>
       </c>
       <c r="G48" s="3">
-        <v>7490300</v>
+        <v>7485600</v>
       </c>
       <c r="H48" s="3">
-        <v>7214300</v>
+        <v>7209700</v>
       </c>
       <c r="I48" s="3">
-        <v>6366200</v>
+        <v>6362200</v>
       </c>
       <c r="J48" s="3">
-        <v>6140500</v>
+        <v>6136700</v>
       </c>
       <c r="K48" s="3">
         <v>6435300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714800</v>
+        <v>714400</v>
       </c>
       <c r="E49" s="3">
-        <v>696400</v>
+        <v>696000</v>
       </c>
       <c r="F49" s="3">
-        <v>674500</v>
+        <v>674100</v>
       </c>
       <c r="G49" s="3">
-        <v>724400</v>
+        <v>723900</v>
       </c>
       <c r="H49" s="3">
-        <v>750000</v>
+        <v>749600</v>
       </c>
       <c r="I49" s="3">
-        <v>710400</v>
+        <v>709900</v>
       </c>
       <c r="J49" s="3">
-        <v>741900</v>
+        <v>741400</v>
       </c>
       <c r="K49" s="3">
         <v>748400</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>763400</v>
+        <v>762900</v>
       </c>
       <c r="E52" s="3">
-        <v>606900</v>
+        <v>606600</v>
       </c>
       <c r="F52" s="3">
-        <v>483900</v>
+        <v>483600</v>
       </c>
       <c r="G52" s="3">
-        <v>725200</v>
+        <v>724700</v>
       </c>
       <c r="H52" s="3">
-        <v>685700</v>
+        <v>685200</v>
       </c>
       <c r="I52" s="3">
-        <v>621700</v>
+        <v>621300</v>
       </c>
       <c r="J52" s="3">
-        <v>552500</v>
+        <v>552100</v>
       </c>
       <c r="K52" s="3">
         <v>518700</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21425200</v>
+        <v>21411800</v>
       </c>
       <c r="E54" s="3">
-        <v>19157700</v>
+        <v>19145700</v>
       </c>
       <c r="F54" s="3">
-        <v>17907100</v>
+        <v>17895900</v>
       </c>
       <c r="G54" s="3">
-        <v>16915700</v>
+        <v>16905100</v>
       </c>
       <c r="H54" s="3">
-        <v>16707800</v>
+        <v>16697300</v>
       </c>
       <c r="I54" s="3">
-        <v>14882400</v>
+        <v>14873100</v>
       </c>
       <c r="J54" s="3">
-        <v>14732000</v>
+        <v>14722800</v>
       </c>
       <c r="K54" s="3">
         <v>14614800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525300</v>
+        <v>525000</v>
       </c>
       <c r="E57" s="3">
-        <v>457200</v>
+        <v>456900</v>
       </c>
       <c r="F57" s="3">
-        <v>383300</v>
+        <v>383000</v>
       </c>
       <c r="G57" s="3">
-        <v>392400</v>
+        <v>392100</v>
       </c>
       <c r="H57" s="3">
-        <v>379500</v>
+        <v>379300</v>
       </c>
       <c r="I57" s="3">
-        <v>337400</v>
+        <v>337200</v>
       </c>
       <c r="J57" s="3">
-        <v>328000</v>
+        <v>327800</v>
       </c>
       <c r="K57" s="3">
         <v>404700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2360600</v>
+        <v>2359100</v>
       </c>
       <c r="E58" s="3">
-        <v>1410600</v>
+        <v>1409700</v>
       </c>
       <c r="F58" s="3">
-        <v>1205000</v>
+        <v>1204200</v>
       </c>
       <c r="G58" s="3">
-        <v>1346200</v>
+        <v>1345400</v>
       </c>
       <c r="H58" s="3">
-        <v>2031000</v>
+        <v>2029800</v>
       </c>
       <c r="I58" s="3">
-        <v>782500</v>
+        <v>782000</v>
       </c>
       <c r="J58" s="3">
-        <v>1261200</v>
+        <v>1260500</v>
       </c>
       <c r="K58" s="3">
         <v>927900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2026300</v>
+        <v>2025000</v>
       </c>
       <c r="E59" s="3">
-        <v>1931900</v>
+        <v>1930700</v>
       </c>
       <c r="F59" s="3">
-        <v>1747600</v>
+        <v>1746500</v>
       </c>
       <c r="G59" s="3">
-        <v>1595100</v>
+        <v>1594100</v>
       </c>
       <c r="H59" s="3">
-        <v>1662200</v>
+        <v>1661100</v>
       </c>
       <c r="I59" s="3">
-        <v>1372000</v>
+        <v>1371100</v>
       </c>
       <c r="J59" s="3">
-        <v>1365800</v>
+        <v>1364900</v>
       </c>
       <c r="K59" s="3">
         <v>1310400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4912300</v>
+        <v>4909200</v>
       </c>
       <c r="E60" s="3">
-        <v>3799700</v>
+        <v>3797300</v>
       </c>
       <c r="F60" s="3">
-        <v>3335800</v>
+        <v>3333700</v>
       </c>
       <c r="G60" s="3">
-        <v>3333700</v>
+        <v>3331600</v>
       </c>
       <c r="H60" s="3">
-        <v>4072700</v>
+        <v>4070200</v>
       </c>
       <c r="I60" s="3">
-        <v>2491900</v>
+        <v>2490400</v>
       </c>
       <c r="J60" s="3">
-        <v>2955100</v>
+        <v>2953200</v>
       </c>
       <c r="K60" s="3">
         <v>2642900</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4744200</v>
+        <v>4741200</v>
       </c>
       <c r="E61" s="3">
-        <v>4013400</v>
+        <v>4010800</v>
       </c>
       <c r="F61" s="3">
-        <v>3690900</v>
+        <v>3688600</v>
       </c>
       <c r="G61" s="3">
-        <v>3519600</v>
+        <v>3517400</v>
       </c>
       <c r="H61" s="3">
-        <v>2697700</v>
+        <v>2696000</v>
       </c>
       <c r="I61" s="3">
-        <v>3479700</v>
+        <v>3477500</v>
       </c>
       <c r="J61" s="3">
-        <v>2981200</v>
+        <v>2979300</v>
       </c>
       <c r="K61" s="3">
         <v>3130500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1336000</v>
+        <v>1335100</v>
       </c>
       <c r="E62" s="3">
-        <v>1254200</v>
+        <v>1253400</v>
       </c>
       <c r="F62" s="3">
-        <v>1268800</v>
+        <v>1268000</v>
       </c>
       <c r="G62" s="3">
-        <v>1114100</v>
+        <v>1113400</v>
       </c>
       <c r="H62" s="3">
-        <v>982400</v>
+        <v>981800</v>
       </c>
       <c r="I62" s="3">
-        <v>892600</v>
+        <v>892000</v>
       </c>
       <c r="J62" s="3">
-        <v>877600</v>
+        <v>877100</v>
       </c>
       <c r="K62" s="3">
         <v>893000</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12525800</v>
+        <v>12517900</v>
       </c>
       <c r="E66" s="3">
-        <v>10343400</v>
+        <v>10336900</v>
       </c>
       <c r="F66" s="3">
-        <v>9417800</v>
+        <v>9411900</v>
       </c>
       <c r="G66" s="3">
-        <v>8960900</v>
+        <v>8955300</v>
       </c>
       <c r="H66" s="3">
-        <v>8702900</v>
+        <v>8697500</v>
       </c>
       <c r="I66" s="3">
-        <v>7707100</v>
+        <v>7702300</v>
       </c>
       <c r="J66" s="3">
-        <v>7695700</v>
+        <v>7690900</v>
       </c>
       <c r="K66" s="3">
         <v>7591400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7385500</v>
+        <v>7380800</v>
       </c>
       <c r="E72" s="3">
-        <v>7520800</v>
+        <v>7516100</v>
       </c>
       <c r="F72" s="3">
-        <v>7511000</v>
+        <v>7506200</v>
       </c>
       <c r="G72" s="3">
-        <v>7321200</v>
+        <v>7316600</v>
       </c>
       <c r="H72" s="3">
-        <v>6777700</v>
+        <v>6773500</v>
       </c>
       <c r="I72" s="3">
-        <v>6303600</v>
+        <v>6299700</v>
       </c>
       <c r="J72" s="3">
-        <v>5910600</v>
+        <v>5906900</v>
       </c>
       <c r="K72" s="3">
         <v>5533500</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8899500</v>
+        <v>8893900</v>
       </c>
       <c r="E76" s="3">
-        <v>8814300</v>
+        <v>8808800</v>
       </c>
       <c r="F76" s="3">
-        <v>8489400</v>
+        <v>8484000</v>
       </c>
       <c r="G76" s="3">
-        <v>7954800</v>
+        <v>7949800</v>
       </c>
       <c r="H76" s="3">
-        <v>8004800</v>
+        <v>7999800</v>
       </c>
       <c r="I76" s="3">
-        <v>7175300</v>
+        <v>7170800</v>
       </c>
       <c r="J76" s="3">
-        <v>7036300</v>
+        <v>7031900</v>
       </c>
       <c r="K76" s="3">
         <v>7023400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639600</v>
+        <v>639200</v>
       </c>
       <c r="E81" s="3">
-        <v>765800</v>
+        <v>765300</v>
       </c>
       <c r="F81" s="3">
-        <v>888000</v>
+        <v>887400</v>
       </c>
       <c r="G81" s="3">
-        <v>1187200</v>
+        <v>1186500</v>
       </c>
       <c r="H81" s="3">
-        <v>1048600</v>
+        <v>1047900</v>
       </c>
       <c r="I81" s="3">
-        <v>935800</v>
+        <v>935200</v>
       </c>
       <c r="J81" s="3">
-        <v>930900</v>
+        <v>930300</v>
       </c>
       <c r="K81" s="3">
         <v>908100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>419200</v>
+        <v>419000</v>
       </c>
       <c r="E83" s="3">
-        <v>374900</v>
+        <v>374600</v>
       </c>
       <c r="F83" s="3">
-        <v>351000</v>
+        <v>350800</v>
       </c>
       <c r="G83" s="3">
-        <v>323400</v>
+        <v>323200</v>
       </c>
       <c r="H83" s="3">
-        <v>302700</v>
+        <v>302500</v>
       </c>
       <c r="I83" s="3">
-        <v>283400</v>
+        <v>283200</v>
       </c>
       <c r="J83" s="3">
-        <v>264600</v>
+        <v>264400</v>
       </c>
       <c r="K83" s="3">
         <v>249300</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1334700</v>
+        <v>1333800</v>
       </c>
       <c r="E89" s="3">
-        <v>1263400</v>
+        <v>1262600</v>
       </c>
       <c r="F89" s="3">
-        <v>1263600</v>
+        <v>1262800</v>
       </c>
       <c r="G89" s="3">
-        <v>1203300</v>
+        <v>1202500</v>
       </c>
       <c r="H89" s="3">
-        <v>1086700</v>
+        <v>1086000</v>
       </c>
       <c r="I89" s="3">
-        <v>1079700</v>
+        <v>1079000</v>
       </c>
       <c r="J89" s="3">
-        <v>1055100</v>
+        <v>1054400</v>
       </c>
       <c r="K89" s="3">
         <v>1044900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1069100</v>
+        <v>-1068500</v>
       </c>
       <c r="E91" s="3">
-        <v>-930000</v>
+        <v>-929400</v>
       </c>
       <c r="F91" s="3">
-        <v>-899100</v>
+        <v>-898500</v>
       </c>
       <c r="G91" s="3">
-        <v>-860000</v>
+        <v>-859400</v>
       </c>
       <c r="H91" s="3">
-        <v>-782800</v>
+        <v>-782400</v>
       </c>
       <c r="I91" s="3">
-        <v>-797600</v>
+        <v>-797100</v>
       </c>
       <c r="J91" s="3">
-        <v>-810300</v>
+        <v>-809700</v>
       </c>
       <c r="K91" s="3">
         <v>-813100</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1647300</v>
+        <v>-1646300</v>
       </c>
       <c r="E94" s="3">
-        <v>-763600</v>
+        <v>-763100</v>
       </c>
       <c r="F94" s="3">
-        <v>-675700</v>
+        <v>-675300</v>
       </c>
       <c r="G94" s="3">
-        <v>-481400</v>
+        <v>-481100</v>
       </c>
       <c r="H94" s="3">
-        <v>-213000</v>
+        <v>-212800</v>
       </c>
       <c r="I94" s="3">
-        <v>-824600</v>
+        <v>-824100</v>
       </c>
       <c r="J94" s="3">
-        <v>-604100</v>
+        <v>-603700</v>
       </c>
       <c r="K94" s="3">
         <v>-361900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-806500</v>
+        <v>-806000</v>
       </c>
       <c r="E96" s="3">
-        <v>-768100</v>
+        <v>-767600</v>
       </c>
       <c r="F96" s="3">
-        <v>-710100</v>
+        <v>-709600</v>
       </c>
       <c r="G96" s="3">
-        <v>-645500</v>
+        <v>-645100</v>
       </c>
       <c r="H96" s="3">
-        <v>-586800</v>
+        <v>-586400</v>
       </c>
       <c r="I96" s="3">
-        <v>-533500</v>
+        <v>-533200</v>
       </c>
       <c r="J96" s="3">
-        <v>-485100</v>
+        <v>-484800</v>
       </c>
       <c r="K96" s="3">
         <v>-442100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>687800</v>
+        <v>687300</v>
       </c>
       <c r="E100" s="3">
-        <v>-576300</v>
+        <v>-575900</v>
       </c>
       <c r="F100" s="3">
-        <v>-664700</v>
+        <v>-664300</v>
       </c>
       <c r="G100" s="3">
-        <v>-992900</v>
+        <v>-992300</v>
       </c>
       <c r="H100" s="3">
-        <v>-553200</v>
+        <v>-552900</v>
       </c>
       <c r="I100" s="3">
-        <v>-723200</v>
+        <v>-722700</v>
       </c>
       <c r="J100" s="3">
-        <v>-507000</v>
+        <v>-506700</v>
       </c>
       <c r="K100" s="3">
         <v>-184500</v>
@@ -3962,7 +3962,7 @@
         <v>20300</v>
       </c>
       <c r="E101" s="3">
-        <v>26300</v>
+        <v>26200</v>
       </c>
       <c r="F101" s="3">
         <v>-6300</v>
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>395400</v>
+        <v>395200</v>
       </c>
       <c r="E102" s="3">
         <v>-50200</v>
@@ -4007,13 +4007,13 @@
         <v>-83100</v>
       </c>
       <c r="G102" s="3">
-        <v>-287800</v>
+        <v>-287600</v>
       </c>
       <c r="H102" s="3">
-        <v>342000</v>
+        <v>341800</v>
       </c>
       <c r="I102" s="3">
-        <v>-490800</v>
+        <v>-490500</v>
       </c>
       <c r="J102" s="3">
         <v>-86600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>HOKCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6824000</v>
+        <v>7788000</v>
       </c>
       <c r="E8" s="3">
-        <v>5214100</v>
+        <v>6843800</v>
       </c>
       <c r="F8" s="3">
-        <v>5176000</v>
+        <v>5229200</v>
       </c>
       <c r="G8" s="3">
-        <v>4977900</v>
+        <v>5191100</v>
       </c>
       <c r="H8" s="3">
-        <v>4137500</v>
+        <v>4992400</v>
       </c>
       <c r="I8" s="3">
-        <v>3638200</v>
+        <v>4149500</v>
       </c>
       <c r="J8" s="3">
+        <v>3648700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3769900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4038500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3636100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3209800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2857000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4152200</v>
+        <v>5022500</v>
       </c>
       <c r="E9" s="3">
-        <v>2801100</v>
+        <v>4164300</v>
       </c>
       <c r="F9" s="3">
-        <v>2777800</v>
+        <v>2809200</v>
       </c>
       <c r="G9" s="3">
-        <v>2624200</v>
+        <v>2785900</v>
       </c>
       <c r="H9" s="3">
-        <v>1999100</v>
+        <v>2631800</v>
       </c>
       <c r="I9" s="3">
-        <v>1619200</v>
+        <v>2005000</v>
       </c>
       <c r="J9" s="3">
+        <v>1623900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1796100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2082000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1895100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1717100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1420700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2671800</v>
+        <v>2765500</v>
       </c>
       <c r="E10" s="3">
-        <v>2413000</v>
+        <v>2679600</v>
       </c>
       <c r="F10" s="3">
-        <v>2398200</v>
+        <v>2420000</v>
       </c>
       <c r="G10" s="3">
-        <v>2353700</v>
+        <v>2405200</v>
       </c>
       <c r="H10" s="3">
-        <v>2138400</v>
+        <v>2360600</v>
       </c>
       <c r="I10" s="3">
-        <v>2019000</v>
+        <v>2144600</v>
       </c>
       <c r="J10" s="3">
+        <v>2024800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1973900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1956500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1741000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1492700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1436300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,36 +875,39 @@
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3">
         <v>1400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>6300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>6600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15500</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,14 +944,17 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>27300</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -943,72 +962,78 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-85600</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>419000</v>
+        <v>450400</v>
       </c>
       <c r="E15" s="3">
-        <v>374600</v>
+        <v>420200</v>
       </c>
       <c r="F15" s="3">
-        <v>350800</v>
+        <v>375700</v>
       </c>
       <c r="G15" s="3">
-        <v>323200</v>
+        <v>351800</v>
       </c>
       <c r="H15" s="3">
-        <v>302500</v>
+        <v>324200</v>
       </c>
       <c r="I15" s="3">
-        <v>283200</v>
+        <v>303400</v>
       </c>
       <c r="J15" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K15" s="3">
         <v>264400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>249300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>212300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>188700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>167000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5899600</v>
+        <v>6651800</v>
       </c>
       <c r="E17" s="3">
-        <v>4205300</v>
+        <v>5916700</v>
       </c>
       <c r="F17" s="3">
-        <v>4020200</v>
+        <v>4217600</v>
       </c>
       <c r="G17" s="3">
-        <v>3907300</v>
+        <v>4031900</v>
       </c>
       <c r="H17" s="3">
-        <v>3085000</v>
+        <v>3918700</v>
       </c>
       <c r="I17" s="3">
-        <v>2728500</v>
+        <v>3094000</v>
       </c>
       <c r="J17" s="3">
+        <v>2736400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2866600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3058300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2649400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2296100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2134100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>924500</v>
+        <v>1136200</v>
       </c>
       <c r="E18" s="3">
-        <v>1008800</v>
+        <v>927200</v>
       </c>
       <c r="F18" s="3">
-        <v>1155800</v>
+        <v>1011700</v>
       </c>
       <c r="G18" s="3">
-        <v>1070600</v>
+        <v>1159200</v>
       </c>
       <c r="H18" s="3">
-        <v>1052500</v>
+        <v>1073700</v>
       </c>
       <c r="I18" s="3">
-        <v>909700</v>
+        <v>1055600</v>
       </c>
       <c r="J18" s="3">
+        <v>912300</v>
+      </c>
+      <c r="K18" s="3">
         <v>903400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>980100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>986700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>913700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>722900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>322600</v>
+        <v>136300</v>
       </c>
       <c r="E20" s="3">
-        <v>290000</v>
+        <v>323600</v>
       </c>
       <c r="F20" s="3">
-        <v>326400</v>
+        <v>290800</v>
       </c>
       <c r="G20" s="3">
-        <v>651400</v>
+        <v>327300</v>
       </c>
       <c r="H20" s="3">
-        <v>521300</v>
+        <v>653300</v>
       </c>
       <c r="I20" s="3">
-        <v>498500</v>
+        <v>522900</v>
       </c>
       <c r="J20" s="3">
+        <v>499900</v>
+      </c>
+      <c r="K20" s="3">
         <v>502400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>410600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>344000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>470700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400800</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1666000</v>
+        <v>1722700</v>
       </c>
       <c r="E21" s="3">
-        <v>1673300</v>
+        <v>1670700</v>
       </c>
       <c r="F21" s="3">
-        <v>1833000</v>
+        <v>1678100</v>
       </c>
       <c r="G21" s="3">
-        <v>2045200</v>
+        <v>1838200</v>
       </c>
       <c r="H21" s="3">
-        <v>1876400</v>
+        <v>2051000</v>
       </c>
       <c r="I21" s="3">
-        <v>1691400</v>
+        <v>1881700</v>
       </c>
       <c r="J21" s="3">
+        <v>1696200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1670200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1640300</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1573200</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>179400</v>
+        <v>226900</v>
       </c>
       <c r="E22" s="3">
-        <v>161600</v>
+        <v>179900</v>
       </c>
       <c r="F22" s="3">
-        <v>156800</v>
+        <v>162100</v>
       </c>
       <c r="G22" s="3">
-        <v>149900</v>
+        <v>157200</v>
       </c>
       <c r="H22" s="3">
-        <v>160100</v>
+        <v>150300</v>
       </c>
       <c r="I22" s="3">
-        <v>153800</v>
+        <v>160600</v>
       </c>
       <c r="J22" s="3">
+        <v>154300</v>
+      </c>
+      <c r="K22" s="3">
         <v>143800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>129400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>119200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>111200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>95800</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1067700</v>
+        <v>1045600</v>
       </c>
       <c r="E23" s="3">
-        <v>1137100</v>
+        <v>1070800</v>
       </c>
       <c r="F23" s="3">
-        <v>1325500</v>
+        <v>1140400</v>
       </c>
       <c r="G23" s="3">
-        <v>1572100</v>
+        <v>1329300</v>
       </c>
       <c r="H23" s="3">
-        <v>1413700</v>
+        <v>1576600</v>
       </c>
       <c r="I23" s="3">
-        <v>1254300</v>
+        <v>1417800</v>
       </c>
       <c r="J23" s="3">
+        <v>1258000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1262000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1261400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1211500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1273200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1027900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>274500</v>
+        <v>237500</v>
       </c>
       <c r="E24" s="3">
-        <v>218300</v>
+        <v>275300</v>
       </c>
       <c r="F24" s="3">
-        <v>291700</v>
+        <v>218900</v>
       </c>
       <c r="G24" s="3">
-        <v>243000</v>
+        <v>292500</v>
       </c>
       <c r="H24" s="3">
-        <v>222900</v>
+        <v>243700</v>
       </c>
       <c r="I24" s="3">
-        <v>200800</v>
+        <v>223600</v>
       </c>
       <c r="J24" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K24" s="3">
         <v>220000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>226300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>213100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>191200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>171200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793200</v>
+        <v>808100</v>
       </c>
       <c r="E26" s="3">
-        <v>918900</v>
+        <v>795500</v>
       </c>
       <c r="F26" s="3">
-        <v>1033800</v>
+        <v>921500</v>
       </c>
       <c r="G26" s="3">
-        <v>1329000</v>
+        <v>1036800</v>
       </c>
       <c r="H26" s="3">
-        <v>1190800</v>
+        <v>1332900</v>
       </c>
       <c r="I26" s="3">
-        <v>1053600</v>
+        <v>1194300</v>
       </c>
       <c r="J26" s="3">
+        <v>1056600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1042000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1035100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>998400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1082000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>856700</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639200</v>
+        <v>670500</v>
       </c>
       <c r="E27" s="3">
-        <v>765300</v>
+        <v>641000</v>
       </c>
       <c r="F27" s="3">
-        <v>887400</v>
+        <v>767600</v>
       </c>
       <c r="G27" s="3">
-        <v>1186500</v>
+        <v>890000</v>
       </c>
       <c r="H27" s="3">
-        <v>1047900</v>
+        <v>1189900</v>
       </c>
       <c r="I27" s="3">
-        <v>935200</v>
+        <v>1050900</v>
       </c>
       <c r="J27" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K27" s="3">
         <v>930300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>908100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>882300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>993200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>783400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-322600</v>
+        <v>-136300</v>
       </c>
       <c r="E32" s="3">
-        <v>-290000</v>
+        <v>-323600</v>
       </c>
       <c r="F32" s="3">
-        <v>-326400</v>
+        <v>-290800</v>
       </c>
       <c r="G32" s="3">
-        <v>-651400</v>
+        <v>-327300</v>
       </c>
       <c r="H32" s="3">
-        <v>-521300</v>
+        <v>-653300</v>
       </c>
       <c r="I32" s="3">
-        <v>-498500</v>
+        <v>-522900</v>
       </c>
       <c r="J32" s="3">
+        <v>-499900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-502400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-410600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-344000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-470700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400800</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639200</v>
+        <v>670500</v>
       </c>
       <c r="E33" s="3">
-        <v>765300</v>
+        <v>641000</v>
       </c>
       <c r="F33" s="3">
-        <v>887400</v>
+        <v>767600</v>
       </c>
       <c r="G33" s="3">
-        <v>1186500</v>
+        <v>890000</v>
       </c>
       <c r="H33" s="3">
-        <v>1047900</v>
+        <v>1189900</v>
       </c>
       <c r="I33" s="3">
-        <v>935200</v>
+        <v>1050900</v>
       </c>
       <c r="J33" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K33" s="3">
         <v>930300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>908100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>882300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>993200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>783400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639200</v>
+        <v>670500</v>
       </c>
       <c r="E35" s="3">
-        <v>765300</v>
+        <v>641000</v>
       </c>
       <c r="F35" s="3">
-        <v>887400</v>
+        <v>767600</v>
       </c>
       <c r="G35" s="3">
-        <v>1186500</v>
+        <v>890000</v>
       </c>
       <c r="H35" s="3">
-        <v>1047900</v>
+        <v>1189900</v>
       </c>
       <c r="I35" s="3">
-        <v>935200</v>
+        <v>1050900</v>
       </c>
       <c r="J35" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K35" s="3">
         <v>930300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>908100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>882300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>993200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>783400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1345000</v>
+        <v>1691800</v>
       </c>
       <c r="E41" s="3">
-        <v>949800</v>
+        <v>1348900</v>
       </c>
       <c r="F41" s="3">
-        <v>999900</v>
+        <v>952500</v>
       </c>
       <c r="G41" s="3">
-        <v>1083000</v>
+        <v>1002900</v>
       </c>
       <c r="H41" s="3">
-        <v>1370600</v>
+        <v>1086100</v>
       </c>
       <c r="I41" s="3">
-        <v>1028900</v>
+        <v>1374600</v>
       </c>
       <c r="J41" s="3">
+        <v>1031900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1519400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1610200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1139100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2232600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1432100</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E42" s="3">
         <v>10200</v>
       </c>
-      <c r="E42" s="3">
-        <v>51900</v>
-      </c>
       <c r="F42" s="3">
-        <v>44400</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="3">
-        <v>86700</v>
+        <v>44500</v>
       </c>
       <c r="H42" s="3">
-        <v>284400</v>
+        <v>86900</v>
       </c>
       <c r="I42" s="3">
-        <v>450500</v>
+        <v>285300</v>
       </c>
       <c r="J42" s="3">
+        <v>451800</v>
+      </c>
+      <c r="K42" s="3">
         <v>170600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>162100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>251100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>78400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102800</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1099100</v>
+        <v>1244700</v>
       </c>
       <c r="E43" s="3">
-        <v>951000</v>
+        <v>1102200</v>
       </c>
       <c r="F43" s="3">
-        <v>997800</v>
+        <v>953800</v>
       </c>
       <c r="G43" s="3">
-        <v>938800</v>
+        <v>1000700</v>
       </c>
       <c r="H43" s="3">
-        <v>909300</v>
+        <v>941500</v>
       </c>
       <c r="I43" s="3">
-        <v>788500</v>
+        <v>911900</v>
       </c>
       <c r="J43" s="3">
+        <v>790800</v>
+      </c>
+      <c r="K43" s="3">
         <v>870700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>828800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>867900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>684400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>611600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>400100</v>
+        <v>437800</v>
       </c>
       <c r="E44" s="3">
-        <v>340300</v>
+        <v>401300</v>
       </c>
       <c r="F44" s="3">
-        <v>301100</v>
+        <v>341300</v>
       </c>
       <c r="G44" s="3">
-        <v>316000</v>
+        <v>302000</v>
       </c>
       <c r="H44" s="3">
-        <v>328500</v>
+        <v>317000</v>
       </c>
       <c r="I44" s="3">
-        <v>268900</v>
+        <v>329400</v>
       </c>
       <c r="J44" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K44" s="3">
         <v>291900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>291700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>306800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>266100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>206700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>227200</v>
+        <v>277700</v>
       </c>
       <c r="E45" s="3">
-        <v>275000</v>
+        <v>227900</v>
       </c>
       <c r="F45" s="3">
-        <v>221200</v>
+        <v>275800</v>
       </c>
       <c r="G45" s="3">
-        <v>201500</v>
+        <v>221800</v>
       </c>
       <c r="H45" s="3">
-        <v>211400</v>
+        <v>202100</v>
       </c>
       <c r="I45" s="3">
-        <v>160400</v>
+        <v>212000</v>
       </c>
       <c r="J45" s="3">
+        <v>160900</v>
+      </c>
+      <c r="K45" s="3">
         <v>158300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>254900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>227000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>188800</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3081500</v>
+        <v>3668400</v>
       </c>
       <c r="E46" s="3">
-        <v>2568000</v>
+        <v>3090500</v>
       </c>
       <c r="F46" s="3">
-        <v>2564500</v>
+        <v>2575400</v>
       </c>
       <c r="G46" s="3">
-        <v>2626000</v>
+        <v>2571900</v>
       </c>
       <c r="H46" s="3">
-        <v>3104200</v>
+        <v>2633600</v>
       </c>
       <c r="I46" s="3">
-        <v>2697200</v>
+        <v>3113200</v>
       </c>
       <c r="J46" s="3">
+        <v>2705000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3010800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3147700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2792000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2761000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2542100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7169400</v>
+        <v>6659100</v>
       </c>
       <c r="E47" s="3">
-        <v>6132600</v>
+        <v>7190300</v>
       </c>
       <c r="F47" s="3">
-        <v>5938800</v>
+        <v>6150400</v>
       </c>
       <c r="G47" s="3">
-        <v>5344900</v>
+        <v>5956100</v>
       </c>
       <c r="H47" s="3">
-        <v>4948500</v>
+        <v>5360400</v>
       </c>
       <c r="I47" s="3">
-        <v>4482500</v>
+        <v>4962900</v>
       </c>
       <c r="J47" s="3">
+        <v>4495500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4281700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3764800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3773400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3718200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3214600</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9683600</v>
+        <v>9663100</v>
       </c>
       <c r="E48" s="3">
-        <v>9142600</v>
+        <v>9711700</v>
       </c>
       <c r="F48" s="3">
-        <v>8234900</v>
+        <v>9169200</v>
       </c>
       <c r="G48" s="3">
-        <v>7485600</v>
+        <v>8258800</v>
       </c>
       <c r="H48" s="3">
-        <v>7209700</v>
+        <v>7507400</v>
       </c>
       <c r="I48" s="3">
-        <v>6362200</v>
+        <v>7230700</v>
       </c>
       <c r="J48" s="3">
+        <v>6380700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6136700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6435300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5934100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3952900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4347100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>714400</v>
+        <v>682300</v>
       </c>
       <c r="E49" s="3">
-        <v>696000</v>
+        <v>716400</v>
       </c>
       <c r="F49" s="3">
-        <v>674100</v>
+        <v>698000</v>
       </c>
       <c r="G49" s="3">
-        <v>723900</v>
+        <v>676000</v>
       </c>
       <c r="H49" s="3">
-        <v>749600</v>
+        <v>726000</v>
       </c>
       <c r="I49" s="3">
-        <v>709900</v>
+        <v>751700</v>
       </c>
       <c r="J49" s="3">
+        <v>712000</v>
+      </c>
+      <c r="K49" s="3">
         <v>741400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>748400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>676300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>495200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>437600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>762900</v>
+        <v>852400</v>
       </c>
       <c r="E52" s="3">
-        <v>606600</v>
+        <v>765100</v>
       </c>
       <c r="F52" s="3">
-        <v>483600</v>
+        <v>608300</v>
       </c>
       <c r="G52" s="3">
-        <v>724700</v>
+        <v>485000</v>
       </c>
       <c r="H52" s="3">
-        <v>685200</v>
+        <v>726800</v>
       </c>
       <c r="I52" s="3">
-        <v>621300</v>
+        <v>687200</v>
       </c>
       <c r="J52" s="3">
+        <v>623100</v>
+      </c>
+      <c r="K52" s="3">
         <v>552100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>518700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>520500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>475700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>298100</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21411800</v>
+        <v>21525300</v>
       </c>
       <c r="E54" s="3">
-        <v>19145700</v>
+        <v>21474000</v>
       </c>
       <c r="F54" s="3">
-        <v>17895900</v>
+        <v>19201300</v>
       </c>
       <c r="G54" s="3">
-        <v>16905100</v>
+        <v>17947900</v>
       </c>
       <c r="H54" s="3">
-        <v>16697300</v>
+        <v>16954200</v>
       </c>
       <c r="I54" s="3">
-        <v>14873100</v>
+        <v>16745800</v>
       </c>
       <c r="J54" s="3">
+        <v>14916300</v>
+      </c>
+      <c r="K54" s="3">
         <v>14722800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14614800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13696300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12742100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10839500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>525000</v>
+        <v>545900</v>
       </c>
       <c r="E57" s="3">
-        <v>456900</v>
+        <v>526500</v>
       </c>
       <c r="F57" s="3">
-        <v>383000</v>
+        <v>458200</v>
       </c>
       <c r="G57" s="3">
-        <v>392100</v>
+        <v>384100</v>
       </c>
       <c r="H57" s="3">
-        <v>379300</v>
+        <v>393300</v>
       </c>
       <c r="I57" s="3">
-        <v>337200</v>
+        <v>380400</v>
       </c>
       <c r="J57" s="3">
+        <v>338200</v>
+      </c>
+      <c r="K57" s="3">
         <v>327800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>404700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>414400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>352600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1021900</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2359100</v>
+        <v>2588900</v>
       </c>
       <c r="E58" s="3">
-        <v>1409700</v>
+        <v>2366000</v>
       </c>
       <c r="F58" s="3">
-        <v>1204200</v>
+        <v>1413800</v>
       </c>
       <c r="G58" s="3">
-        <v>1345400</v>
+        <v>1207700</v>
       </c>
       <c r="H58" s="3">
-        <v>2029800</v>
+        <v>1349300</v>
       </c>
       <c r="I58" s="3">
-        <v>782000</v>
+        <v>2035700</v>
       </c>
       <c r="J58" s="3">
+        <v>784300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1260500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>927900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>836300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>836000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>537700</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2025000</v>
+        <v>2426100</v>
       </c>
       <c r="E59" s="3">
-        <v>1930700</v>
+        <v>2030900</v>
       </c>
       <c r="F59" s="3">
-        <v>1746500</v>
+        <v>1936300</v>
       </c>
       <c r="G59" s="3">
-        <v>1594100</v>
+        <v>1751500</v>
       </c>
       <c r="H59" s="3">
-        <v>1661100</v>
+        <v>1598700</v>
       </c>
       <c r="I59" s="3">
-        <v>1371100</v>
+        <v>1665900</v>
       </c>
       <c r="J59" s="3">
+        <v>1375100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1364900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1310400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1228900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1033500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4909200</v>
+        <v>5560900</v>
       </c>
       <c r="E60" s="3">
-        <v>3797300</v>
+        <v>4923500</v>
       </c>
       <c r="F60" s="3">
-        <v>3333700</v>
+        <v>3808400</v>
       </c>
       <c r="G60" s="3">
-        <v>3331600</v>
+        <v>3343400</v>
       </c>
       <c r="H60" s="3">
-        <v>4070200</v>
+        <v>3341300</v>
       </c>
       <c r="I60" s="3">
-        <v>2490400</v>
+        <v>4082000</v>
       </c>
       <c r="J60" s="3">
+        <v>2497600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2953200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2642900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2479600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2222000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1707500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4741200</v>
+        <v>5133700</v>
       </c>
       <c r="E61" s="3">
-        <v>4010800</v>
+        <v>4755000</v>
       </c>
       <c r="F61" s="3">
-        <v>3688600</v>
+        <v>4022500</v>
       </c>
       <c r="G61" s="3">
-        <v>3517400</v>
+        <v>3699300</v>
       </c>
       <c r="H61" s="3">
-        <v>2696000</v>
+        <v>3527600</v>
       </c>
       <c r="I61" s="3">
-        <v>3477500</v>
+        <v>2703800</v>
       </c>
       <c r="J61" s="3">
+        <v>3487600</v>
+      </c>
+      <c r="K61" s="3">
         <v>2979300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3130500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3144000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3254500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2755200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1335100</v>
+        <v>1230200</v>
       </c>
       <c r="E62" s="3">
-        <v>1253400</v>
+        <v>1339000</v>
       </c>
       <c r="F62" s="3">
-        <v>1268000</v>
+        <v>1257100</v>
       </c>
       <c r="G62" s="3">
-        <v>1113400</v>
+        <v>1271700</v>
       </c>
       <c r="H62" s="3">
-        <v>981800</v>
+        <v>1116700</v>
       </c>
       <c r="I62" s="3">
-        <v>892000</v>
+        <v>984600</v>
       </c>
       <c r="J62" s="3">
+        <v>894600</v>
+      </c>
+      <c r="K62" s="3">
         <v>877100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>893000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>816100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>781100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>474500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12517900</v>
+        <v>13397700</v>
       </c>
       <c r="E66" s="3">
-        <v>10336900</v>
+        <v>12554300</v>
       </c>
       <c r="F66" s="3">
-        <v>9411900</v>
+        <v>10367000</v>
       </c>
       <c r="G66" s="3">
-        <v>8955300</v>
+        <v>9439200</v>
       </c>
       <c r="H66" s="3">
-        <v>8697500</v>
+        <v>8981300</v>
       </c>
       <c r="I66" s="3">
-        <v>7702300</v>
+        <v>8722700</v>
       </c>
       <c r="J66" s="3">
+        <v>7724600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7690900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7591400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7276800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6920600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5542100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7380800</v>
+        <v>7233400</v>
       </c>
       <c r="E72" s="3">
-        <v>7516100</v>
+        <v>7402300</v>
       </c>
       <c r="F72" s="3">
-        <v>7506200</v>
+        <v>7538000</v>
       </c>
       <c r="G72" s="3">
-        <v>7316600</v>
+        <v>7528000</v>
       </c>
       <c r="H72" s="3">
-        <v>6773500</v>
+        <v>7337900</v>
       </c>
       <c r="I72" s="3">
-        <v>6299700</v>
+        <v>6793100</v>
       </c>
       <c r="J72" s="3">
+        <v>6318000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5906900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5533500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5151600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4650700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4154200</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8893900</v>
+        <v>8127700</v>
       </c>
       <c r="E76" s="3">
-        <v>8808800</v>
+        <v>8919700</v>
       </c>
       <c r="F76" s="3">
-        <v>8484000</v>
+        <v>8834300</v>
       </c>
       <c r="G76" s="3">
-        <v>7949800</v>
+        <v>8508700</v>
       </c>
       <c r="H76" s="3">
-        <v>7999800</v>
+        <v>7972900</v>
       </c>
       <c r="I76" s="3">
-        <v>7170800</v>
+        <v>8023000</v>
       </c>
       <c r="J76" s="3">
+        <v>7191700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7031900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7023400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6419500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5821500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5297400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639200</v>
+        <v>670500</v>
       </c>
       <c r="E81" s="3">
-        <v>765300</v>
+        <v>641000</v>
       </c>
       <c r="F81" s="3">
-        <v>887400</v>
+        <v>767600</v>
       </c>
       <c r="G81" s="3">
-        <v>1186500</v>
+        <v>890000</v>
       </c>
       <c r="H81" s="3">
-        <v>1047900</v>
+        <v>1189900</v>
       </c>
       <c r="I81" s="3">
-        <v>935200</v>
+        <v>1050900</v>
       </c>
       <c r="J81" s="3">
+        <v>937900</v>
+      </c>
+      <c r="K81" s="3">
         <v>930300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>908100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>882300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>993200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>783400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>419000</v>
+        <v>450400</v>
       </c>
       <c r="E83" s="3">
-        <v>374600</v>
+        <v>420200</v>
       </c>
       <c r="F83" s="3">
-        <v>350800</v>
+        <v>375700</v>
       </c>
       <c r="G83" s="3">
-        <v>323200</v>
+        <v>351800</v>
       </c>
       <c r="H83" s="3">
-        <v>302500</v>
+        <v>324200</v>
       </c>
       <c r="I83" s="3">
-        <v>283200</v>
+        <v>303400</v>
       </c>
       <c r="J83" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K83" s="3">
         <v>264400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>249300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>188700</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1333800</v>
+        <v>1232300</v>
       </c>
       <c r="E89" s="3">
-        <v>1262600</v>
+        <v>1337700</v>
       </c>
       <c r="F89" s="3">
-        <v>1262800</v>
+        <v>1266200</v>
       </c>
       <c r="G89" s="3">
-        <v>1202500</v>
+        <v>1266500</v>
       </c>
       <c r="H89" s="3">
-        <v>1086000</v>
+        <v>1206000</v>
       </c>
       <c r="I89" s="3">
-        <v>1079000</v>
+        <v>1089200</v>
       </c>
       <c r="J89" s="3">
+        <v>1082100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1054400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1044900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>900100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>858500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>631500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1068500</v>
+        <v>-1063200</v>
       </c>
       <c r="E91" s="3">
-        <v>-929400</v>
+        <v>-1071600</v>
       </c>
       <c r="F91" s="3">
-        <v>-898500</v>
+        <v>-932100</v>
       </c>
       <c r="G91" s="3">
-        <v>-859400</v>
+        <v>-901100</v>
       </c>
       <c r="H91" s="3">
-        <v>-782400</v>
+        <v>-861900</v>
       </c>
       <c r="I91" s="3">
-        <v>-797100</v>
+        <v>-784600</v>
       </c>
       <c r="J91" s="3">
+        <v>-799400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-809700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-813100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-654700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-749100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-583300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1646300</v>
+        <v>-863800</v>
       </c>
       <c r="E94" s="3">
-        <v>-763100</v>
+        <v>-1651000</v>
       </c>
       <c r="F94" s="3">
-        <v>-675300</v>
+        <v>-765300</v>
       </c>
       <c r="G94" s="3">
-        <v>-481100</v>
+        <v>-677300</v>
       </c>
       <c r="H94" s="3">
-        <v>-212800</v>
+        <v>-482500</v>
       </c>
       <c r="I94" s="3">
-        <v>-824100</v>
+        <v>-213500</v>
       </c>
       <c r="J94" s="3">
+        <v>-826500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-603700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-361900</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-811700</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-806000</v>
+        <v>-834500</v>
       </c>
       <c r="E96" s="3">
-        <v>-767600</v>
+        <v>-808300</v>
       </c>
       <c r="F96" s="3">
-        <v>-709600</v>
+        <v>-769900</v>
       </c>
       <c r="G96" s="3">
-        <v>-645100</v>
+        <v>-711700</v>
       </c>
       <c r="H96" s="3">
-        <v>-586400</v>
+        <v>-647000</v>
       </c>
       <c r="I96" s="3">
-        <v>-533200</v>
+        <v>-588200</v>
       </c>
       <c r="J96" s="3">
+        <v>-534700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-484800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-442100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-405000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-546400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-331200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>687300</v>
+        <v>45300</v>
       </c>
       <c r="E100" s="3">
-        <v>-575900</v>
+        <v>689300</v>
       </c>
       <c r="F100" s="3">
-        <v>-664300</v>
+        <v>-577600</v>
       </c>
       <c r="G100" s="3">
-        <v>-992300</v>
+        <v>-666200</v>
       </c>
       <c r="H100" s="3">
-        <v>-552900</v>
+        <v>-995100</v>
       </c>
       <c r="I100" s="3">
-        <v>-722700</v>
+        <v>-554500</v>
       </c>
       <c r="J100" s="3">
+        <v>-724800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-506700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-184500</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>74600</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20300</v>
+        <v>-70800</v>
       </c>
       <c r="E101" s="3">
-        <v>26200</v>
+        <v>20400</v>
       </c>
       <c r="F101" s="3">
+        <v>26300</v>
+      </c>
+      <c r="G101" s="3">
         <v>-6300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16800</v>
       </c>
-      <c r="H101" s="3">
-        <v>21400</v>
-      </c>
       <c r="I101" s="3">
-        <v>-22600</v>
+        <v>21500</v>
       </c>
       <c r="J101" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-30600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-18600</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>395200</v>
+        <v>343000</v>
       </c>
       <c r="E102" s="3">
-        <v>-50200</v>
+        <v>396300</v>
       </c>
       <c r="F102" s="3">
-        <v>-83100</v>
+        <v>-50300</v>
       </c>
       <c r="G102" s="3">
-        <v>-287600</v>
+        <v>-83300</v>
       </c>
       <c r="H102" s="3">
-        <v>341800</v>
+        <v>-288500</v>
       </c>
       <c r="I102" s="3">
-        <v>-490500</v>
+        <v>342700</v>
       </c>
       <c r="J102" s="3">
+        <v>-491900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-86600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>479900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-429600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>121600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>196900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7788000</v>
+        <v>7772800</v>
       </c>
       <c r="E8" s="3">
-        <v>6843800</v>
+        <v>6830400</v>
       </c>
       <c r="F8" s="3">
-        <v>5229200</v>
+        <v>5219000</v>
       </c>
       <c r="G8" s="3">
-        <v>5191100</v>
+        <v>5180900</v>
       </c>
       <c r="H8" s="3">
-        <v>4992400</v>
+        <v>4982600</v>
       </c>
       <c r="I8" s="3">
-        <v>4149500</v>
+        <v>4141400</v>
       </c>
       <c r="J8" s="3">
-        <v>3648700</v>
+        <v>3641600</v>
       </c>
       <c r="K8" s="3">
         <v>3769900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5022500</v>
+        <v>5012700</v>
       </c>
       <c r="E9" s="3">
-        <v>4164300</v>
+        <v>4156100</v>
       </c>
       <c r="F9" s="3">
-        <v>2809200</v>
+        <v>2803700</v>
       </c>
       <c r="G9" s="3">
-        <v>2785900</v>
+        <v>2780400</v>
       </c>
       <c r="H9" s="3">
-        <v>2631800</v>
+        <v>2626600</v>
       </c>
       <c r="I9" s="3">
-        <v>2005000</v>
+        <v>2001000</v>
       </c>
       <c r="J9" s="3">
-        <v>1623900</v>
+        <v>1620700</v>
       </c>
       <c r="K9" s="3">
         <v>1796100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2765500</v>
+        <v>2760100</v>
       </c>
       <c r="E10" s="3">
-        <v>2679600</v>
+        <v>2674300</v>
       </c>
       <c r="F10" s="3">
-        <v>2420000</v>
+        <v>2415300</v>
       </c>
       <c r="G10" s="3">
-        <v>2405200</v>
+        <v>2400500</v>
       </c>
       <c r="H10" s="3">
-        <v>2360600</v>
+        <v>2355900</v>
       </c>
       <c r="I10" s="3">
-        <v>2144600</v>
+        <v>2140400</v>
       </c>
       <c r="J10" s="3">
-        <v>2024800</v>
+        <v>2020900</v>
       </c>
       <c r="K10" s="3">
         <v>1973900</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-35400</v>
+        <v>-35300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>450400</v>
+        <v>449600</v>
       </c>
       <c r="E15" s="3">
-        <v>420200</v>
+        <v>419400</v>
       </c>
       <c r="F15" s="3">
-        <v>375700</v>
+        <v>375000</v>
       </c>
       <c r="G15" s="3">
-        <v>351800</v>
+        <v>351100</v>
       </c>
       <c r="H15" s="3">
-        <v>324200</v>
+        <v>323500</v>
       </c>
       <c r="I15" s="3">
-        <v>303400</v>
+        <v>302800</v>
       </c>
       <c r="J15" s="3">
-        <v>284000</v>
+        <v>283500</v>
       </c>
       <c r="K15" s="3">
         <v>264400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6651800</v>
+        <v>6638800</v>
       </c>
       <c r="E17" s="3">
-        <v>5916700</v>
+        <v>5905100</v>
       </c>
       <c r="F17" s="3">
-        <v>4217600</v>
+        <v>4209300</v>
       </c>
       <c r="G17" s="3">
-        <v>4031900</v>
+        <v>4024000</v>
       </c>
       <c r="H17" s="3">
-        <v>3918700</v>
+        <v>3911000</v>
       </c>
       <c r="I17" s="3">
-        <v>3094000</v>
+        <v>3087900</v>
       </c>
       <c r="J17" s="3">
-        <v>2736400</v>
+        <v>2731100</v>
       </c>
       <c r="K17" s="3">
         <v>2866600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1136200</v>
+        <v>1134000</v>
       </c>
       <c r="E18" s="3">
-        <v>927200</v>
+        <v>925300</v>
       </c>
       <c r="F18" s="3">
-        <v>1011700</v>
+        <v>1009700</v>
       </c>
       <c r="G18" s="3">
-        <v>1159200</v>
+        <v>1156900</v>
       </c>
       <c r="H18" s="3">
-        <v>1073700</v>
+        <v>1071600</v>
       </c>
       <c r="I18" s="3">
-        <v>1055600</v>
+        <v>1053500</v>
       </c>
       <c r="J18" s="3">
-        <v>912300</v>
+        <v>910500</v>
       </c>
       <c r="K18" s="3">
         <v>903400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>136300</v>
+        <v>136000</v>
       </c>
       <c r="E20" s="3">
-        <v>323600</v>
+        <v>322900</v>
       </c>
       <c r="F20" s="3">
-        <v>290800</v>
+        <v>290300</v>
       </c>
       <c r="G20" s="3">
-        <v>327300</v>
+        <v>326700</v>
       </c>
       <c r="H20" s="3">
-        <v>653300</v>
+        <v>652000</v>
       </c>
       <c r="I20" s="3">
-        <v>522900</v>
+        <v>521800</v>
       </c>
       <c r="J20" s="3">
-        <v>499900</v>
+        <v>498900</v>
       </c>
       <c r="K20" s="3">
         <v>502400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1722700</v>
+        <v>1719600</v>
       </c>
       <c r="E21" s="3">
-        <v>1670700</v>
+        <v>1667600</v>
       </c>
       <c r="F21" s="3">
-        <v>1678100</v>
+        <v>1674900</v>
       </c>
       <c r="G21" s="3">
-        <v>1838200</v>
+        <v>1834700</v>
       </c>
       <c r="H21" s="3">
-        <v>2051000</v>
+        <v>2047100</v>
       </c>
       <c r="I21" s="3">
-        <v>1881700</v>
+        <v>1878200</v>
       </c>
       <c r="J21" s="3">
-        <v>1696200</v>
+        <v>1693000</v>
       </c>
       <c r="K21" s="3">
         <v>1670200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>226900</v>
+        <v>226500</v>
       </c>
       <c r="E22" s="3">
-        <v>179900</v>
+        <v>179600</v>
       </c>
       <c r="F22" s="3">
-        <v>162100</v>
+        <v>161800</v>
       </c>
       <c r="G22" s="3">
-        <v>157200</v>
+        <v>156900</v>
       </c>
       <c r="H22" s="3">
-        <v>150300</v>
+        <v>150000</v>
       </c>
       <c r="I22" s="3">
-        <v>160600</v>
+        <v>160300</v>
       </c>
       <c r="J22" s="3">
-        <v>154300</v>
+        <v>154000</v>
       </c>
       <c r="K22" s="3">
         <v>143800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1045600</v>
+        <v>1043600</v>
       </c>
       <c r="E23" s="3">
-        <v>1070800</v>
+        <v>1068700</v>
       </c>
       <c r="F23" s="3">
-        <v>1140400</v>
+        <v>1138200</v>
       </c>
       <c r="G23" s="3">
-        <v>1329300</v>
+        <v>1326700</v>
       </c>
       <c r="H23" s="3">
-        <v>1576600</v>
+        <v>1573500</v>
       </c>
       <c r="I23" s="3">
-        <v>1417800</v>
+        <v>1415100</v>
       </c>
       <c r="J23" s="3">
-        <v>1258000</v>
+        <v>1255500</v>
       </c>
       <c r="K23" s="3">
         <v>1262000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237500</v>
+        <v>237100</v>
       </c>
       <c r="E24" s="3">
-        <v>275300</v>
+        <v>274800</v>
       </c>
       <c r="F24" s="3">
-        <v>218900</v>
+        <v>218500</v>
       </c>
       <c r="G24" s="3">
-        <v>292500</v>
+        <v>292000</v>
       </c>
       <c r="H24" s="3">
-        <v>243700</v>
+        <v>243300</v>
       </c>
       <c r="I24" s="3">
-        <v>223600</v>
+        <v>223100</v>
       </c>
       <c r="J24" s="3">
-        <v>201400</v>
+        <v>201000</v>
       </c>
       <c r="K24" s="3">
         <v>220000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>808100</v>
+        <v>806500</v>
       </c>
       <c r="E26" s="3">
-        <v>795500</v>
+        <v>793900</v>
       </c>
       <c r="F26" s="3">
-        <v>921500</v>
+        <v>919700</v>
       </c>
       <c r="G26" s="3">
-        <v>1036800</v>
+        <v>1034700</v>
       </c>
       <c r="H26" s="3">
-        <v>1332900</v>
+        <v>1330300</v>
       </c>
       <c r="I26" s="3">
-        <v>1194300</v>
+        <v>1191900</v>
       </c>
       <c r="J26" s="3">
-        <v>1056600</v>
+        <v>1054600</v>
       </c>
       <c r="K26" s="3">
         <v>1042000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>670500</v>
+        <v>669200</v>
       </c>
       <c r="E27" s="3">
-        <v>641000</v>
+        <v>639800</v>
       </c>
       <c r="F27" s="3">
-        <v>767600</v>
+        <v>766100</v>
       </c>
       <c r="G27" s="3">
-        <v>890000</v>
+        <v>888300</v>
       </c>
       <c r="H27" s="3">
-        <v>1189900</v>
+        <v>1187600</v>
       </c>
       <c r="I27" s="3">
-        <v>1050900</v>
+        <v>1048900</v>
       </c>
       <c r="J27" s="3">
-        <v>937900</v>
+        <v>936100</v>
       </c>
       <c r="K27" s="3">
         <v>930300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136300</v>
+        <v>-136000</v>
       </c>
       <c r="E32" s="3">
-        <v>-323600</v>
+        <v>-322900</v>
       </c>
       <c r="F32" s="3">
-        <v>-290800</v>
+        <v>-290300</v>
       </c>
       <c r="G32" s="3">
-        <v>-327300</v>
+        <v>-326700</v>
       </c>
       <c r="H32" s="3">
-        <v>-653300</v>
+        <v>-652000</v>
       </c>
       <c r="I32" s="3">
-        <v>-522900</v>
+        <v>-521800</v>
       </c>
       <c r="J32" s="3">
-        <v>-499900</v>
+        <v>-498900</v>
       </c>
       <c r="K32" s="3">
         <v>-502400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>670500</v>
+        <v>669200</v>
       </c>
       <c r="E33" s="3">
-        <v>641000</v>
+        <v>639800</v>
       </c>
       <c r="F33" s="3">
-        <v>767600</v>
+        <v>766100</v>
       </c>
       <c r="G33" s="3">
-        <v>890000</v>
+        <v>888300</v>
       </c>
       <c r="H33" s="3">
-        <v>1189900</v>
+        <v>1187600</v>
       </c>
       <c r="I33" s="3">
-        <v>1050900</v>
+        <v>1048900</v>
       </c>
       <c r="J33" s="3">
-        <v>937900</v>
+        <v>936100</v>
       </c>
       <c r="K33" s="3">
         <v>930300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>670500</v>
+        <v>669200</v>
       </c>
       <c r="E35" s="3">
-        <v>641000</v>
+        <v>639800</v>
       </c>
       <c r="F35" s="3">
-        <v>767600</v>
+        <v>766100</v>
       </c>
       <c r="G35" s="3">
-        <v>890000</v>
+        <v>888300</v>
       </c>
       <c r="H35" s="3">
-        <v>1189900</v>
+        <v>1187600</v>
       </c>
       <c r="I35" s="3">
-        <v>1050900</v>
+        <v>1048900</v>
       </c>
       <c r="J35" s="3">
-        <v>937900</v>
+        <v>936100</v>
       </c>
       <c r="K35" s="3">
         <v>930300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1691800</v>
+        <v>1688500</v>
       </c>
       <c r="E41" s="3">
-        <v>1348900</v>
+        <v>1346200</v>
       </c>
       <c r="F41" s="3">
-        <v>952500</v>
+        <v>950700</v>
       </c>
       <c r="G41" s="3">
-        <v>1002900</v>
+        <v>1000900</v>
       </c>
       <c r="H41" s="3">
-        <v>1086100</v>
+        <v>1084000</v>
       </c>
       <c r="I41" s="3">
-        <v>1374600</v>
+        <v>1371900</v>
       </c>
       <c r="J41" s="3">
-        <v>1031900</v>
+        <v>1029900</v>
       </c>
       <c r="K41" s="3">
         <v>1519400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="E42" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="F42" s="3">
-        <v>52000</v>
+        <v>48300</v>
       </c>
       <c r="G42" s="3">
-        <v>44500</v>
+        <v>44300</v>
       </c>
       <c r="H42" s="3">
-        <v>86900</v>
+        <v>81900</v>
       </c>
       <c r="I42" s="3">
-        <v>285300</v>
+        <v>269500</v>
       </c>
       <c r="J42" s="3">
-        <v>451800</v>
+        <v>439700</v>
       </c>
       <c r="K42" s="3">
         <v>170600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1244700</v>
+        <v>1242200</v>
       </c>
       <c r="E43" s="3">
-        <v>1102200</v>
+        <v>1100100</v>
       </c>
       <c r="F43" s="3">
-        <v>953800</v>
+        <v>951900</v>
       </c>
       <c r="G43" s="3">
-        <v>1000700</v>
+        <v>998800</v>
       </c>
       <c r="H43" s="3">
-        <v>941500</v>
+        <v>939700</v>
       </c>
       <c r="I43" s="3">
-        <v>911900</v>
+        <v>910100</v>
       </c>
       <c r="J43" s="3">
-        <v>790800</v>
+        <v>789200</v>
       </c>
       <c r="K43" s="3">
         <v>870700</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>437800</v>
+        <v>436900</v>
       </c>
       <c r="E44" s="3">
-        <v>401300</v>
+        <v>400500</v>
       </c>
       <c r="F44" s="3">
-        <v>341300</v>
+        <v>340600</v>
       </c>
       <c r="G44" s="3">
-        <v>302000</v>
+        <v>301400</v>
       </c>
       <c r="H44" s="3">
-        <v>317000</v>
+        <v>316300</v>
       </c>
       <c r="I44" s="3">
-        <v>329400</v>
+        <v>328800</v>
       </c>
       <c r="J44" s="3">
-        <v>269600</v>
+        <v>269100</v>
       </c>
       <c r="K44" s="3">
         <v>291900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277700</v>
+        <v>277900</v>
       </c>
       <c r="E45" s="3">
-        <v>227900</v>
+        <v>227700</v>
       </c>
       <c r="F45" s="3">
-        <v>275800</v>
+        <v>278900</v>
       </c>
       <c r="G45" s="3">
-        <v>221800</v>
+        <v>221500</v>
       </c>
       <c r="H45" s="3">
-        <v>202100</v>
+        <v>206500</v>
       </c>
       <c r="I45" s="3">
-        <v>212000</v>
+        <v>226800</v>
       </c>
       <c r="J45" s="3">
-        <v>160900</v>
+        <v>171800</v>
       </c>
       <c r="K45" s="3">
         <v>158300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3668400</v>
+        <v>3661200</v>
       </c>
       <c r="E46" s="3">
-        <v>3090500</v>
+        <v>3084400</v>
       </c>
       <c r="F46" s="3">
-        <v>2575400</v>
+        <v>2570400</v>
       </c>
       <c r="G46" s="3">
-        <v>2571900</v>
+        <v>2566900</v>
       </c>
       <c r="H46" s="3">
-        <v>2633600</v>
+        <v>2628500</v>
       </c>
       <c r="I46" s="3">
-        <v>3113200</v>
+        <v>3107100</v>
       </c>
       <c r="J46" s="3">
-        <v>2705000</v>
+        <v>2699700</v>
       </c>
       <c r="K46" s="3">
         <v>3010800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6659100</v>
+        <v>6608000</v>
       </c>
       <c r="E47" s="3">
-        <v>7190300</v>
+        <v>7133900</v>
       </c>
       <c r="F47" s="3">
-        <v>6150400</v>
+        <v>6099500</v>
       </c>
       <c r="G47" s="3">
-        <v>5956100</v>
+        <v>5899300</v>
       </c>
       <c r="H47" s="3">
-        <v>5360400</v>
+        <v>5342800</v>
       </c>
       <c r="I47" s="3">
-        <v>4962900</v>
+        <v>4918800</v>
       </c>
       <c r="J47" s="3">
-        <v>4495500</v>
+        <v>4422200</v>
       </c>
       <c r="K47" s="3">
         <v>4281700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9663100</v>
+        <v>9644200</v>
       </c>
       <c r="E48" s="3">
-        <v>9711700</v>
+        <v>9692700</v>
       </c>
       <c r="F48" s="3">
-        <v>9169200</v>
+        <v>9151200</v>
       </c>
       <c r="G48" s="3">
-        <v>8258800</v>
+        <v>8242600</v>
       </c>
       <c r="H48" s="3">
-        <v>7507400</v>
+        <v>7492700</v>
       </c>
       <c r="I48" s="3">
-        <v>7230700</v>
+        <v>7216500</v>
       </c>
       <c r="J48" s="3">
-        <v>6380700</v>
+        <v>6368200</v>
       </c>
       <c r="K48" s="3">
         <v>6136700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>682300</v>
+        <v>681000</v>
       </c>
       <c r="E49" s="3">
-        <v>716400</v>
+        <v>715000</v>
       </c>
       <c r="F49" s="3">
-        <v>698000</v>
+        <v>696600</v>
       </c>
       <c r="G49" s="3">
-        <v>676000</v>
+        <v>674700</v>
       </c>
       <c r="H49" s="3">
-        <v>726000</v>
+        <v>724600</v>
       </c>
       <c r="I49" s="3">
-        <v>751700</v>
+        <v>750300</v>
       </c>
       <c r="J49" s="3">
-        <v>712000</v>
+        <v>710600</v>
       </c>
       <c r="K49" s="3">
         <v>741400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>852400</v>
+        <v>888800</v>
       </c>
       <c r="E52" s="3">
-        <v>765100</v>
+        <v>805900</v>
       </c>
       <c r="F52" s="3">
-        <v>608300</v>
+        <v>646000</v>
       </c>
       <c r="G52" s="3">
-        <v>485000</v>
+        <v>529200</v>
       </c>
       <c r="H52" s="3">
-        <v>726800</v>
+        <v>732500</v>
       </c>
       <c r="I52" s="3">
-        <v>687200</v>
+        <v>720300</v>
       </c>
       <c r="J52" s="3">
-        <v>623100</v>
+        <v>686400</v>
       </c>
       <c r="K52" s="3">
         <v>552100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21525300</v>
+        <v>21483200</v>
       </c>
       <c r="E54" s="3">
-        <v>21474000</v>
+        <v>21432000</v>
       </c>
       <c r="F54" s="3">
-        <v>19201300</v>
+        <v>19163700</v>
       </c>
       <c r="G54" s="3">
-        <v>17947900</v>
+        <v>17912700</v>
       </c>
       <c r="H54" s="3">
-        <v>16954200</v>
+        <v>16921000</v>
       </c>
       <c r="I54" s="3">
-        <v>16745800</v>
+        <v>16713000</v>
       </c>
       <c r="J54" s="3">
-        <v>14916300</v>
+        <v>14887100</v>
       </c>
       <c r="K54" s="3">
         <v>14722800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>545900</v>
+        <v>544900</v>
       </c>
       <c r="E57" s="3">
-        <v>526500</v>
+        <v>525500</v>
       </c>
       <c r="F57" s="3">
-        <v>458200</v>
+        <v>457300</v>
       </c>
       <c r="G57" s="3">
-        <v>384100</v>
+        <v>383400</v>
       </c>
       <c r="H57" s="3">
-        <v>393300</v>
+        <v>392500</v>
       </c>
       <c r="I57" s="3">
-        <v>380400</v>
+        <v>379700</v>
       </c>
       <c r="J57" s="3">
-        <v>338200</v>
+        <v>337500</v>
       </c>
       <c r="K57" s="3">
         <v>327800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2588900</v>
+        <v>2583800</v>
       </c>
       <c r="E58" s="3">
-        <v>2366000</v>
+        <v>2385500</v>
       </c>
       <c r="F58" s="3">
-        <v>1413800</v>
+        <v>1473100</v>
       </c>
       <c r="G58" s="3">
-        <v>1207700</v>
+        <v>1325700</v>
       </c>
       <c r="H58" s="3">
-        <v>1349300</v>
+        <v>1480500</v>
       </c>
       <c r="I58" s="3">
-        <v>2035700</v>
+        <v>2176800</v>
       </c>
       <c r="J58" s="3">
-        <v>784300</v>
+        <v>874400</v>
       </c>
       <c r="K58" s="3">
         <v>1260500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2426100</v>
+        <v>2421400</v>
       </c>
       <c r="E59" s="3">
-        <v>2030900</v>
+        <v>2002800</v>
       </c>
       <c r="F59" s="3">
-        <v>1936300</v>
+        <v>1870500</v>
       </c>
       <c r="G59" s="3">
-        <v>1751500</v>
+        <v>1627800</v>
       </c>
       <c r="H59" s="3">
-        <v>1598700</v>
+        <v>1461800</v>
       </c>
       <c r="I59" s="3">
-        <v>1665900</v>
+        <v>1517600</v>
       </c>
       <c r="J59" s="3">
-        <v>1375100</v>
+        <v>1280700</v>
       </c>
       <c r="K59" s="3">
         <v>1364900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5560900</v>
+        <v>5550000</v>
       </c>
       <c r="E60" s="3">
-        <v>4923500</v>
+        <v>4913800</v>
       </c>
       <c r="F60" s="3">
-        <v>3808400</v>
+        <v>3800900</v>
       </c>
       <c r="G60" s="3">
-        <v>3343400</v>
+        <v>3336900</v>
       </c>
       <c r="H60" s="3">
-        <v>3341300</v>
+        <v>3334800</v>
       </c>
       <c r="I60" s="3">
-        <v>4082000</v>
+        <v>4074000</v>
       </c>
       <c r="J60" s="3">
-        <v>2497600</v>
+        <v>2492700</v>
       </c>
       <c r="K60" s="3">
         <v>2953200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5133700</v>
+        <v>5123700</v>
       </c>
       <c r="E61" s="3">
-        <v>4755000</v>
+        <v>4745700</v>
       </c>
       <c r="F61" s="3">
-        <v>4022500</v>
+        <v>4014600</v>
       </c>
       <c r="G61" s="3">
-        <v>3699300</v>
+        <v>3692000</v>
       </c>
       <c r="H61" s="3">
-        <v>3527600</v>
+        <v>3520700</v>
       </c>
       <c r="I61" s="3">
-        <v>2703800</v>
+        <v>2698600</v>
       </c>
       <c r="J61" s="3">
-        <v>3487600</v>
+        <v>3480800</v>
       </c>
       <c r="K61" s="3">
         <v>2979300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1230200</v>
+        <v>1227800</v>
       </c>
       <c r="E62" s="3">
-        <v>1339000</v>
+        <v>1336400</v>
       </c>
       <c r="F62" s="3">
-        <v>1257100</v>
+        <v>1254600</v>
       </c>
       <c r="G62" s="3">
-        <v>1271700</v>
+        <v>1269200</v>
       </c>
       <c r="H62" s="3">
-        <v>1116700</v>
+        <v>1114500</v>
       </c>
       <c r="I62" s="3">
-        <v>984600</v>
+        <v>982700</v>
       </c>
       <c r="J62" s="3">
-        <v>894600</v>
+        <v>892900</v>
       </c>
       <c r="K62" s="3">
         <v>877100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13397700</v>
+        <v>13371400</v>
       </c>
       <c r="E66" s="3">
-        <v>12554300</v>
+        <v>12529700</v>
       </c>
       <c r="F66" s="3">
-        <v>10367000</v>
+        <v>10346700</v>
       </c>
       <c r="G66" s="3">
-        <v>9439200</v>
+        <v>9420700</v>
       </c>
       <c r="H66" s="3">
-        <v>8981300</v>
+        <v>8963700</v>
       </c>
       <c r="I66" s="3">
-        <v>8722700</v>
+        <v>8705700</v>
       </c>
       <c r="J66" s="3">
-        <v>7724600</v>
+        <v>7709500</v>
       </c>
       <c r="K66" s="3">
         <v>7690900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7233400</v>
+        <v>7219200</v>
       </c>
       <c r="E72" s="3">
-        <v>7402300</v>
+        <v>7387800</v>
       </c>
       <c r="F72" s="3">
-        <v>7538000</v>
+        <v>7523200</v>
       </c>
       <c r="G72" s="3">
-        <v>7528000</v>
+        <v>7513300</v>
       </c>
       <c r="H72" s="3">
-        <v>7337900</v>
+        <v>7323500</v>
       </c>
       <c r="I72" s="3">
-        <v>6793100</v>
+        <v>6779800</v>
       </c>
       <c r="J72" s="3">
-        <v>6318000</v>
+        <v>6305600</v>
       </c>
       <c r="K72" s="3">
         <v>5906900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8127700</v>
+        <v>8111800</v>
       </c>
       <c r="E76" s="3">
-        <v>8919700</v>
+        <v>8902200</v>
       </c>
       <c r="F76" s="3">
-        <v>8834300</v>
+        <v>8817100</v>
       </c>
       <c r="G76" s="3">
-        <v>8508700</v>
+        <v>8492000</v>
       </c>
       <c r="H76" s="3">
-        <v>7972900</v>
+        <v>7957300</v>
       </c>
       <c r="I76" s="3">
-        <v>8023000</v>
+        <v>8007400</v>
       </c>
       <c r="J76" s="3">
-        <v>7191700</v>
+        <v>7177600</v>
       </c>
       <c r="K76" s="3">
         <v>7031900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>670500</v>
+        <v>669200</v>
       </c>
       <c r="E81" s="3">
-        <v>641000</v>
+        <v>639800</v>
       </c>
       <c r="F81" s="3">
-        <v>767600</v>
+        <v>766100</v>
       </c>
       <c r="G81" s="3">
-        <v>890000</v>
+        <v>888300</v>
       </c>
       <c r="H81" s="3">
-        <v>1189900</v>
+        <v>1187600</v>
       </c>
       <c r="I81" s="3">
-        <v>1050900</v>
+        <v>1048900</v>
       </c>
       <c r="J81" s="3">
-        <v>937900</v>
+        <v>936100</v>
       </c>
       <c r="K81" s="3">
         <v>930300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>450400</v>
+        <v>449600</v>
       </c>
       <c r="E83" s="3">
-        <v>420200</v>
+        <v>419400</v>
       </c>
       <c r="F83" s="3">
-        <v>375700</v>
+        <v>375000</v>
       </c>
       <c r="G83" s="3">
-        <v>351800</v>
+        <v>351100</v>
       </c>
       <c r="H83" s="3">
-        <v>324200</v>
+        <v>323500</v>
       </c>
       <c r="I83" s="3">
-        <v>303400</v>
+        <v>302800</v>
       </c>
       <c r="J83" s="3">
-        <v>284000</v>
+        <v>283500</v>
       </c>
       <c r="K83" s="3">
         <v>264400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1232300</v>
+        <v>1229900</v>
       </c>
       <c r="E89" s="3">
-        <v>1337700</v>
+        <v>1335100</v>
       </c>
       <c r="F89" s="3">
-        <v>1266200</v>
+        <v>1263700</v>
       </c>
       <c r="G89" s="3">
-        <v>1266500</v>
+        <v>1264000</v>
       </c>
       <c r="H89" s="3">
-        <v>1206000</v>
+        <v>1203600</v>
       </c>
       <c r="I89" s="3">
-        <v>1089200</v>
+        <v>1087000</v>
       </c>
       <c r="J89" s="3">
-        <v>1082100</v>
+        <v>1080000</v>
       </c>
       <c r="K89" s="3">
         <v>1054400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1063200</v>
+        <v>-1061100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1071600</v>
+        <v>-1069500</v>
       </c>
       <c r="F91" s="3">
-        <v>-932100</v>
+        <v>-930200</v>
       </c>
       <c r="G91" s="3">
-        <v>-901100</v>
+        <v>-899400</v>
       </c>
       <c r="H91" s="3">
-        <v>-861900</v>
+        <v>-860200</v>
       </c>
       <c r="I91" s="3">
-        <v>-784600</v>
+        <v>-783100</v>
       </c>
       <c r="J91" s="3">
-        <v>-799400</v>
+        <v>-797800</v>
       </c>
       <c r="K91" s="3">
         <v>-809700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-863800</v>
+        <v>-862100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1651000</v>
+        <v>-1647800</v>
       </c>
       <c r="F94" s="3">
-        <v>-765300</v>
+        <v>-763800</v>
       </c>
       <c r="G94" s="3">
-        <v>-677300</v>
+        <v>-676000</v>
       </c>
       <c r="H94" s="3">
-        <v>-482500</v>
+        <v>-481600</v>
       </c>
       <c r="I94" s="3">
-        <v>-213500</v>
+        <v>-213000</v>
       </c>
       <c r="J94" s="3">
-        <v>-826500</v>
+        <v>-824900</v>
       </c>
       <c r="K94" s="3">
         <v>-603700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-834500</v>
+        <v>-832800</v>
       </c>
       <c r="E96" s="3">
-        <v>-808300</v>
+        <v>-806800</v>
       </c>
       <c r="F96" s="3">
-        <v>-769900</v>
+        <v>-768400</v>
       </c>
       <c r="G96" s="3">
-        <v>-711700</v>
+        <v>-710300</v>
       </c>
       <c r="H96" s="3">
-        <v>-647000</v>
+        <v>-645700</v>
       </c>
       <c r="I96" s="3">
-        <v>-588200</v>
+        <v>-587000</v>
       </c>
       <c r="J96" s="3">
-        <v>-534700</v>
+        <v>-533700</v>
       </c>
       <c r="K96" s="3">
         <v>-484800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45300</v>
+        <v>45200</v>
       </c>
       <c r="E100" s="3">
-        <v>689300</v>
+        <v>688000</v>
       </c>
       <c r="F100" s="3">
-        <v>-577600</v>
+        <v>-576500</v>
       </c>
       <c r="G100" s="3">
-        <v>-666200</v>
+        <v>-664900</v>
       </c>
       <c r="H100" s="3">
-        <v>-995100</v>
+        <v>-993200</v>
       </c>
       <c r="I100" s="3">
-        <v>-554500</v>
+        <v>-553400</v>
       </c>
       <c r="J100" s="3">
-        <v>-724800</v>
+        <v>-723400</v>
       </c>
       <c r="K100" s="3">
         <v>-506700</v>
@@ -4207,10 +4207,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70800</v>
+        <v>-70700</v>
       </c>
       <c r="E101" s="3">
-        <v>20400</v>
+        <v>20300</v>
       </c>
       <c r="F101" s="3">
         <v>26300</v>
@@ -4222,10 +4222,10 @@
         <v>-16800</v>
       </c>
       <c r="I101" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="J101" s="3">
-        <v>-22700</v>
+        <v>-22600</v>
       </c>
       <c r="K101" s="3">
         <v>-30600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>343000</v>
+        <v>342300</v>
       </c>
       <c r="E102" s="3">
-        <v>396300</v>
+        <v>395600</v>
       </c>
       <c r="F102" s="3">
-        <v>-50300</v>
+        <v>-50200</v>
       </c>
       <c r="G102" s="3">
-        <v>-83300</v>
+        <v>-83100</v>
       </c>
       <c r="H102" s="3">
-        <v>-288500</v>
+        <v>-287900</v>
       </c>
       <c r="I102" s="3">
-        <v>342700</v>
+        <v>342100</v>
       </c>
       <c r="J102" s="3">
-        <v>-491900</v>
+        <v>-490900</v>
       </c>
       <c r="K102" s="3">
         <v>-86600</v>

--- a/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HOKCY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7772800</v>
+        <v>7813600</v>
       </c>
       <c r="E8" s="3">
-        <v>6830400</v>
+        <v>6866300</v>
       </c>
       <c r="F8" s="3">
-        <v>5219000</v>
+        <v>5246400</v>
       </c>
       <c r="G8" s="3">
-        <v>5180900</v>
+        <v>5208100</v>
       </c>
       <c r="H8" s="3">
-        <v>4982600</v>
+        <v>5008800</v>
       </c>
       <c r="I8" s="3">
-        <v>4141400</v>
+        <v>4163200</v>
       </c>
       <c r="J8" s="3">
-        <v>3641600</v>
+        <v>3660700</v>
       </c>
       <c r="K8" s="3">
         <v>3769900</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5012700</v>
+        <v>5039000</v>
       </c>
       <c r="E9" s="3">
-        <v>4156100</v>
+        <v>4177900</v>
       </c>
       <c r="F9" s="3">
-        <v>2803700</v>
+        <v>2818400</v>
       </c>
       <c r="G9" s="3">
-        <v>2780400</v>
+        <v>2795000</v>
       </c>
       <c r="H9" s="3">
-        <v>2626600</v>
+        <v>2640400</v>
       </c>
       <c r="I9" s="3">
-        <v>2001000</v>
+        <v>2011500</v>
       </c>
       <c r="J9" s="3">
-        <v>1620700</v>
+        <v>1629200</v>
       </c>
       <c r="K9" s="3">
         <v>1796100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2760100</v>
+        <v>2774600</v>
       </c>
       <c r="E10" s="3">
-        <v>2674300</v>
+        <v>2688400</v>
       </c>
       <c r="F10" s="3">
-        <v>2415300</v>
+        <v>2428000</v>
       </c>
       <c r="G10" s="3">
-        <v>2400500</v>
+        <v>2413100</v>
       </c>
       <c r="H10" s="3">
-        <v>2355900</v>
+        <v>2368300</v>
       </c>
       <c r="I10" s="3">
-        <v>2140400</v>
+        <v>2151600</v>
       </c>
       <c r="J10" s="3">
-        <v>2020900</v>
+        <v>2031500</v>
       </c>
       <c r="K10" s="3">
         <v>1973900</v>
@@ -954,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27300</v>
+        <v>27400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>449600</v>
+        <v>451900</v>
       </c>
       <c r="E15" s="3">
-        <v>419400</v>
+        <v>421600</v>
       </c>
       <c r="F15" s="3">
-        <v>375000</v>
+        <v>377000</v>
       </c>
       <c r="G15" s="3">
-        <v>351100</v>
+        <v>353000</v>
       </c>
       <c r="H15" s="3">
-        <v>323500</v>
+        <v>325200</v>
       </c>
       <c r="I15" s="3">
-        <v>302800</v>
+        <v>304400</v>
       </c>
       <c r="J15" s="3">
-        <v>283500</v>
+        <v>285000</v>
       </c>
       <c r="K15" s="3">
         <v>264400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6638800</v>
+        <v>6673700</v>
       </c>
       <c r="E17" s="3">
-        <v>5905100</v>
+        <v>5936100</v>
       </c>
       <c r="F17" s="3">
-        <v>4209300</v>
+        <v>4231400</v>
       </c>
       <c r="G17" s="3">
-        <v>4024000</v>
+        <v>4045100</v>
       </c>
       <c r="H17" s="3">
-        <v>3911000</v>
+        <v>3931600</v>
       </c>
       <c r="I17" s="3">
-        <v>3087900</v>
+        <v>3104100</v>
       </c>
       <c r="J17" s="3">
-        <v>2731100</v>
+        <v>2745400</v>
       </c>
       <c r="K17" s="3">
         <v>2866600</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1134000</v>
+        <v>1140000</v>
       </c>
       <c r="E18" s="3">
-        <v>925300</v>
+        <v>930200</v>
       </c>
       <c r="F18" s="3">
-        <v>1009700</v>
+        <v>1015000</v>
       </c>
       <c r="G18" s="3">
-        <v>1156900</v>
+        <v>1163000</v>
       </c>
       <c r="H18" s="3">
-        <v>1071600</v>
+        <v>1077200</v>
       </c>
       <c r="I18" s="3">
-        <v>1053500</v>
+        <v>1059000</v>
       </c>
       <c r="J18" s="3">
-        <v>910500</v>
+        <v>915300</v>
       </c>
       <c r="K18" s="3">
         <v>903400</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>136000</v>
+        <v>136700</v>
       </c>
       <c r="E20" s="3">
-        <v>322900</v>
+        <v>324600</v>
       </c>
       <c r="F20" s="3">
-        <v>290300</v>
+        <v>291800</v>
       </c>
       <c r="G20" s="3">
-        <v>326700</v>
+        <v>328400</v>
       </c>
       <c r="H20" s="3">
-        <v>652000</v>
+        <v>655400</v>
       </c>
       <c r="I20" s="3">
-        <v>521800</v>
+        <v>524600</v>
       </c>
       <c r="J20" s="3">
-        <v>498900</v>
+        <v>501600</v>
       </c>
       <c r="K20" s="3">
         <v>502400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1719600</v>
+        <v>1728300</v>
       </c>
       <c r="E21" s="3">
-        <v>1667600</v>
+        <v>1676100</v>
       </c>
       <c r="F21" s="3">
-        <v>1674900</v>
+        <v>1683500</v>
       </c>
       <c r="G21" s="3">
-        <v>1834700</v>
+        <v>1844100</v>
       </c>
       <c r="H21" s="3">
-        <v>2047100</v>
+        <v>2057600</v>
       </c>
       <c r="I21" s="3">
-        <v>1878200</v>
+        <v>1887800</v>
       </c>
       <c r="J21" s="3">
-        <v>1693000</v>
+        <v>1701700</v>
       </c>
       <c r="K21" s="3">
         <v>1670200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>226500</v>
+        <v>227600</v>
       </c>
       <c r="E22" s="3">
-        <v>179600</v>
+        <v>180500</v>
       </c>
       <c r="F22" s="3">
-        <v>161800</v>
+        <v>162600</v>
       </c>
       <c r="G22" s="3">
-        <v>156900</v>
+        <v>157700</v>
       </c>
       <c r="H22" s="3">
-        <v>150000</v>
+        <v>150800</v>
       </c>
       <c r="I22" s="3">
-        <v>160300</v>
+        <v>161100</v>
       </c>
       <c r="J22" s="3">
-        <v>154000</v>
+        <v>154800</v>
       </c>
       <c r="K22" s="3">
         <v>143800</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1043600</v>
+        <v>1049100</v>
       </c>
       <c r="E23" s="3">
-        <v>1068700</v>
+        <v>1074300</v>
       </c>
       <c r="F23" s="3">
-        <v>1138200</v>
+        <v>1144200</v>
       </c>
       <c r="G23" s="3">
-        <v>1326700</v>
+        <v>1333700</v>
       </c>
       <c r="H23" s="3">
-        <v>1573500</v>
+        <v>1581800</v>
       </c>
       <c r="I23" s="3">
-        <v>1415100</v>
+        <v>1422500</v>
       </c>
       <c r="J23" s="3">
-        <v>1255500</v>
+        <v>1262100</v>
       </c>
       <c r="K23" s="3">
         <v>1262000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>237100</v>
+        <v>238300</v>
       </c>
       <c r="E24" s="3">
-        <v>274800</v>
+        <v>276200</v>
       </c>
       <c r="F24" s="3">
-        <v>218500</v>
+        <v>219600</v>
       </c>
       <c r="G24" s="3">
-        <v>292000</v>
+        <v>293500</v>
       </c>
       <c r="H24" s="3">
-        <v>243300</v>
+        <v>244500</v>
       </c>
       <c r="I24" s="3">
-        <v>223100</v>
+        <v>224300</v>
       </c>
       <c r="J24" s="3">
-        <v>201000</v>
+        <v>202000</v>
       </c>
       <c r="K24" s="3">
         <v>220000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>806500</v>
+        <v>810700</v>
       </c>
       <c r="E26" s="3">
-        <v>793900</v>
+        <v>798100</v>
       </c>
       <c r="F26" s="3">
-        <v>919700</v>
+        <v>924600</v>
       </c>
       <c r="G26" s="3">
-        <v>1034700</v>
+        <v>1040200</v>
       </c>
       <c r="H26" s="3">
-        <v>1330300</v>
+        <v>1337300</v>
       </c>
       <c r="I26" s="3">
-        <v>1191900</v>
+        <v>1198200</v>
       </c>
       <c r="J26" s="3">
-        <v>1054600</v>
+        <v>1060100</v>
       </c>
       <c r="K26" s="3">
         <v>1042000</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>669200</v>
+        <v>672700</v>
       </c>
       <c r="E27" s="3">
-        <v>639800</v>
+        <v>643100</v>
       </c>
       <c r="F27" s="3">
-        <v>766100</v>
+        <v>770100</v>
       </c>
       <c r="G27" s="3">
-        <v>888300</v>
+        <v>892900</v>
       </c>
       <c r="H27" s="3">
-        <v>1187600</v>
+        <v>1193800</v>
       </c>
       <c r="I27" s="3">
-        <v>1048900</v>
+        <v>1054400</v>
       </c>
       <c r="J27" s="3">
-        <v>936100</v>
+        <v>941000</v>
       </c>
       <c r="K27" s="3">
         <v>930300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-136000</v>
+        <v>-136700</v>
       </c>
       <c r="E32" s="3">
-        <v>-322900</v>
+        <v>-324600</v>
       </c>
       <c r="F32" s="3">
-        <v>-290300</v>
+        <v>-291800</v>
       </c>
       <c r="G32" s="3">
-        <v>-326700</v>
+        <v>-328400</v>
       </c>
       <c r="H32" s="3">
-        <v>-652000</v>
+        <v>-655400</v>
       </c>
       <c r="I32" s="3">
-        <v>-521800</v>
+        <v>-524600</v>
       </c>
       <c r="J32" s="3">
-        <v>-498900</v>
+        <v>-501600</v>
       </c>
       <c r="K32" s="3">
         <v>-502400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>669200</v>
+        <v>672700</v>
       </c>
       <c r="E33" s="3">
-        <v>639800</v>
+        <v>643100</v>
       </c>
       <c r="F33" s="3">
-        <v>766100</v>
+        <v>770100</v>
       </c>
       <c r="G33" s="3">
-        <v>888300</v>
+        <v>892900</v>
       </c>
       <c r="H33" s="3">
-        <v>1187600</v>
+        <v>1193800</v>
       </c>
       <c r="I33" s="3">
-        <v>1048900</v>
+        <v>1054400</v>
       </c>
       <c r="J33" s="3">
-        <v>936100</v>
+        <v>941000</v>
       </c>
       <c r="K33" s="3">
         <v>930300</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>669200</v>
+        <v>672700</v>
       </c>
       <c r="E35" s="3">
-        <v>639800</v>
+        <v>643100</v>
       </c>
       <c r="F35" s="3">
-        <v>766100</v>
+        <v>770100</v>
       </c>
       <c r="G35" s="3">
-        <v>888300</v>
+        <v>892900</v>
       </c>
       <c r="H35" s="3">
-        <v>1187600</v>
+        <v>1193800</v>
       </c>
       <c r="I35" s="3">
-        <v>1048900</v>
+        <v>1054400</v>
       </c>
       <c r="J35" s="3">
-        <v>936100</v>
+        <v>941000</v>
       </c>
       <c r="K35" s="3">
         <v>930300</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1688500</v>
+        <v>1697400</v>
       </c>
       <c r="E41" s="3">
-        <v>1346200</v>
+        <v>1353300</v>
       </c>
       <c r="F41" s="3">
-        <v>950700</v>
+        <v>955700</v>
       </c>
       <c r="G41" s="3">
-        <v>1000900</v>
+        <v>1006200</v>
       </c>
       <c r="H41" s="3">
-        <v>1084000</v>
+        <v>1089700</v>
       </c>
       <c r="I41" s="3">
-        <v>1371900</v>
+        <v>1379100</v>
       </c>
       <c r="J41" s="3">
-        <v>1029900</v>
+        <v>1035300</v>
       </c>
       <c r="K41" s="3">
         <v>1519400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="E42" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="F42" s="3">
-        <v>48300</v>
+        <v>48500</v>
       </c>
       <c r="G42" s="3">
-        <v>44300</v>
+        <v>44500</v>
       </c>
       <c r="H42" s="3">
-        <v>81900</v>
+        <v>82300</v>
       </c>
       <c r="I42" s="3">
-        <v>269500</v>
+        <v>270900</v>
       </c>
       <c r="J42" s="3">
-        <v>439700</v>
+        <v>442100</v>
       </c>
       <c r="K42" s="3">
         <v>170600</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1242200</v>
+        <v>1248800</v>
       </c>
       <c r="E43" s="3">
-        <v>1100100</v>
+        <v>1105900</v>
       </c>
       <c r="F43" s="3">
-        <v>951900</v>
+        <v>956900</v>
       </c>
       <c r="G43" s="3">
-        <v>998800</v>
+        <v>1004000</v>
       </c>
       <c r="H43" s="3">
-        <v>939700</v>
+        <v>944600</v>
       </c>
       <c r="I43" s="3">
-        <v>910100</v>
+        <v>914900</v>
       </c>
       <c r="J43" s="3">
-        <v>789200</v>
+        <v>793400</v>
       </c>
       <c r="K43" s="3">
         <v>870700</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>436900</v>
+        <v>439200</v>
       </c>
       <c r="E44" s="3">
-        <v>400500</v>
+        <v>402600</v>
       </c>
       <c r="F44" s="3">
-        <v>340600</v>
+        <v>342400</v>
       </c>
       <c r="G44" s="3">
-        <v>301400</v>
+        <v>303000</v>
       </c>
       <c r="H44" s="3">
-        <v>316300</v>
+        <v>318000</v>
       </c>
       <c r="I44" s="3">
-        <v>328800</v>
+        <v>330500</v>
       </c>
       <c r="J44" s="3">
-        <v>269100</v>
+        <v>270500</v>
       </c>
       <c r="K44" s="3">
         <v>291900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277900</v>
+        <v>279400</v>
       </c>
       <c r="E45" s="3">
-        <v>227700</v>
+        <v>228900</v>
       </c>
       <c r="F45" s="3">
-        <v>278900</v>
+        <v>280400</v>
       </c>
       <c r="G45" s="3">
-        <v>221500</v>
+        <v>222700</v>
       </c>
       <c r="H45" s="3">
-        <v>206500</v>
+        <v>207600</v>
       </c>
       <c r="I45" s="3">
-        <v>226800</v>
+        <v>228000</v>
       </c>
       <c r="J45" s="3">
-        <v>171800</v>
+        <v>172700</v>
       </c>
       <c r="K45" s="3">
         <v>158300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3661200</v>
+        <v>3680500</v>
       </c>
       <c r="E46" s="3">
-        <v>3084400</v>
+        <v>3100600</v>
       </c>
       <c r="F46" s="3">
-        <v>2570400</v>
+        <v>2583900</v>
       </c>
       <c r="G46" s="3">
-        <v>2566900</v>
+        <v>2580400</v>
       </c>
       <c r="H46" s="3">
-        <v>2628500</v>
+        <v>2642300</v>
       </c>
       <c r="I46" s="3">
-        <v>3107100</v>
+        <v>3123500</v>
       </c>
       <c r="J46" s="3">
-        <v>2699700</v>
+        <v>2713900</v>
       </c>
       <c r="K46" s="3">
         <v>3010800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6608000</v>
+        <v>6642800</v>
       </c>
       <c r="E47" s="3">
-        <v>7133900</v>
+        <v>7171400</v>
       </c>
       <c r="F47" s="3">
-        <v>6099500</v>
+        <v>6131500</v>
       </c>
       <c r="G47" s="3">
-        <v>5899300</v>
+        <v>5930300</v>
       </c>
       <c r="H47" s="3">
-        <v>5342800</v>
+        <v>5370900</v>
       </c>
       <c r="I47" s="3">
-        <v>4918800</v>
+        <v>4944600</v>
       </c>
       <c r="J47" s="3">
-        <v>4422200</v>
+        <v>4445400</v>
       </c>
       <c r="K47" s="3">
         <v>4281700</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9644200</v>
+        <v>9694800</v>
       </c>
       <c r="E48" s="3">
-        <v>9692700</v>
+        <v>9743600</v>
       </c>
       <c r="F48" s="3">
-        <v>9151200</v>
+        <v>9199300</v>
       </c>
       <c r="G48" s="3">
-        <v>8242600</v>
+        <v>8285900</v>
       </c>
       <c r="H48" s="3">
-        <v>7492700</v>
+        <v>7532000</v>
       </c>
       <c r="I48" s="3">
-        <v>7216500</v>
+        <v>7254500</v>
       </c>
       <c r="J48" s="3">
-        <v>6368200</v>
+        <v>6401600</v>
       </c>
       <c r="K48" s="3">
         <v>6136700</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>681000</v>
+        <v>684600</v>
       </c>
       <c r="E49" s="3">
-        <v>715000</v>
+        <v>718800</v>
       </c>
       <c r="F49" s="3">
-        <v>696600</v>
+        <v>700300</v>
       </c>
       <c r="G49" s="3">
-        <v>674700</v>
+        <v>678300</v>
       </c>
       <c r="H49" s="3">
-        <v>724600</v>
+        <v>728400</v>
       </c>
       <c r="I49" s="3">
-        <v>750300</v>
+        <v>754200</v>
       </c>
       <c r="J49" s="3">
-        <v>710600</v>
+        <v>714300</v>
       </c>
       <c r="K49" s="3">
         <v>741400</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>888800</v>
+        <v>893500</v>
       </c>
       <c r="E52" s="3">
-        <v>805900</v>
+        <v>810100</v>
       </c>
       <c r="F52" s="3">
-        <v>646000</v>
+        <v>649400</v>
       </c>
       <c r="G52" s="3">
-        <v>529200</v>
+        <v>532000</v>
       </c>
       <c r="H52" s="3">
-        <v>732500</v>
+        <v>736300</v>
       </c>
       <c r="I52" s="3">
-        <v>720300</v>
+        <v>724100</v>
       </c>
       <c r="J52" s="3">
-        <v>686400</v>
+        <v>690000</v>
       </c>
       <c r="K52" s="3">
         <v>552100</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21483200</v>
+        <v>21596100</v>
       </c>
       <c r="E54" s="3">
-        <v>21432000</v>
+        <v>21544600</v>
       </c>
       <c r="F54" s="3">
-        <v>19163700</v>
+        <v>19264400</v>
       </c>
       <c r="G54" s="3">
-        <v>17912700</v>
+        <v>18006900</v>
       </c>
       <c r="H54" s="3">
-        <v>16921000</v>
+        <v>17009900</v>
       </c>
       <c r="I54" s="3">
-        <v>16713000</v>
+        <v>16800800</v>
       </c>
       <c r="J54" s="3">
-        <v>14887100</v>
+        <v>14965300</v>
       </c>
       <c r="K54" s="3">
         <v>14722800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>544900</v>
+        <v>547700</v>
       </c>
       <c r="E57" s="3">
-        <v>525500</v>
+        <v>528300</v>
       </c>
       <c r="F57" s="3">
-        <v>457300</v>
+        <v>459700</v>
       </c>
       <c r="G57" s="3">
-        <v>383400</v>
+        <v>385400</v>
       </c>
       <c r="H57" s="3">
-        <v>392500</v>
+        <v>394600</v>
       </c>
       <c r="I57" s="3">
-        <v>379700</v>
+        <v>381600</v>
       </c>
       <c r="J57" s="3">
-        <v>337500</v>
+        <v>339300</v>
       </c>
       <c r="K57" s="3">
         <v>327800</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2583800</v>
+        <v>2597400</v>
       </c>
       <c r="E58" s="3">
-        <v>2385500</v>
+        <v>2398100</v>
       </c>
       <c r="F58" s="3">
-        <v>1473100</v>
+        <v>1480800</v>
       </c>
       <c r="G58" s="3">
-        <v>1325700</v>
+        <v>1332600</v>
       </c>
       <c r="H58" s="3">
-        <v>1480500</v>
+        <v>1488300</v>
       </c>
       <c r="I58" s="3">
-        <v>2176800</v>
+        <v>2188200</v>
       </c>
       <c r="J58" s="3">
-        <v>874400</v>
+        <v>879000</v>
       </c>
       <c r="K58" s="3">
         <v>1260500</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2421400</v>
+        <v>2434100</v>
       </c>
       <c r="E59" s="3">
-        <v>2002800</v>
+        <v>2013300</v>
       </c>
       <c r="F59" s="3">
-        <v>1870500</v>
+        <v>1880300</v>
       </c>
       <c r="G59" s="3">
-        <v>1627800</v>
+        <v>1636400</v>
       </c>
       <c r="H59" s="3">
-        <v>1461800</v>
+        <v>1469400</v>
       </c>
       <c r="I59" s="3">
-        <v>1517600</v>
+        <v>1525600</v>
       </c>
       <c r="J59" s="3">
-        <v>1280700</v>
+        <v>1287500</v>
       </c>
       <c r="K59" s="3">
         <v>1364900</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5550000</v>
+        <v>5579200</v>
       </c>
       <c r="E60" s="3">
-        <v>4913800</v>
+        <v>4939600</v>
       </c>
       <c r="F60" s="3">
-        <v>3800900</v>
+        <v>3820900</v>
       </c>
       <c r="G60" s="3">
-        <v>3336900</v>
+        <v>3354400</v>
       </c>
       <c r="H60" s="3">
-        <v>3334800</v>
+        <v>3352300</v>
       </c>
       <c r="I60" s="3">
-        <v>4074000</v>
+        <v>4095400</v>
       </c>
       <c r="J60" s="3">
-        <v>2492700</v>
+        <v>2505800</v>
       </c>
       <c r="K60" s="3">
         <v>2953200</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5123700</v>
+        <v>5150600</v>
       </c>
       <c r="E61" s="3">
-        <v>4745700</v>
+        <v>4770600</v>
       </c>
       <c r="F61" s="3">
-        <v>4014600</v>
+        <v>4035700</v>
       </c>
       <c r="G61" s="3">
-        <v>3692000</v>
+        <v>3711400</v>
       </c>
       <c r="H61" s="3">
-        <v>3520700</v>
+        <v>3539200</v>
       </c>
       <c r="I61" s="3">
-        <v>2698600</v>
+        <v>2712700</v>
       </c>
       <c r="J61" s="3">
-        <v>3480800</v>
+        <v>3499100</v>
       </c>
       <c r="K61" s="3">
         <v>2979300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1227800</v>
+        <v>1234200</v>
       </c>
       <c r="E62" s="3">
-        <v>1336400</v>
+        <v>1343400</v>
       </c>
       <c r="F62" s="3">
-        <v>1254600</v>
+        <v>1261200</v>
       </c>
       <c r="G62" s="3">
-        <v>1269200</v>
+        <v>1275900</v>
       </c>
       <c r="H62" s="3">
-        <v>1114500</v>
+        <v>1120300</v>
       </c>
       <c r="I62" s="3">
-        <v>982700</v>
+        <v>987800</v>
       </c>
       <c r="J62" s="3">
-        <v>892900</v>
+        <v>897600</v>
       </c>
       <c r="K62" s="3">
         <v>877100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13371400</v>
+        <v>13441700</v>
       </c>
       <c r="E66" s="3">
-        <v>12529700</v>
+        <v>12595500</v>
       </c>
       <c r="F66" s="3">
-        <v>10346700</v>
+        <v>10401000</v>
       </c>
       <c r="G66" s="3">
-        <v>9420700</v>
+        <v>9470200</v>
       </c>
       <c r="H66" s="3">
-        <v>8963700</v>
+        <v>9010800</v>
       </c>
       <c r="I66" s="3">
-        <v>8705700</v>
+        <v>8751400</v>
       </c>
       <c r="J66" s="3">
-        <v>7709500</v>
+        <v>7750000</v>
       </c>
       <c r="K66" s="3">
         <v>7690900</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7219200</v>
+        <v>7257100</v>
       </c>
       <c r="E72" s="3">
-        <v>7387800</v>
+        <v>7426600</v>
       </c>
       <c r="F72" s="3">
-        <v>7523200</v>
+        <v>7562700</v>
       </c>
       <c r="G72" s="3">
-        <v>7513300</v>
+        <v>7552800</v>
       </c>
       <c r="H72" s="3">
-        <v>7323500</v>
+        <v>7362000</v>
       </c>
       <c r="I72" s="3">
-        <v>6779800</v>
+        <v>6815500</v>
       </c>
       <c r="J72" s="3">
-        <v>6305600</v>
+        <v>6338700</v>
       </c>
       <c r="K72" s="3">
         <v>5906900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8111800</v>
+        <v>8154400</v>
       </c>
       <c r="E76" s="3">
-        <v>8902200</v>
+        <v>8949000</v>
       </c>
       <c r="F76" s="3">
-        <v>8817100</v>
+        <v>8863400</v>
       </c>
       <c r="G76" s="3">
-        <v>8492000</v>
+        <v>8536600</v>
       </c>
       <c r="H76" s="3">
-        <v>7957300</v>
+        <v>7999100</v>
       </c>
       <c r="I76" s="3">
-        <v>8007400</v>
+        <v>8049400</v>
       </c>
       <c r="J76" s="3">
-        <v>7177600</v>
+        <v>7215300</v>
       </c>
       <c r="K76" s="3">
         <v>7031900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>669200</v>
+        <v>672700</v>
       </c>
       <c r="E81" s="3">
-        <v>639800</v>
+        <v>643100</v>
       </c>
       <c r="F81" s="3">
-        <v>766100</v>
+        <v>770100</v>
       </c>
       <c r="G81" s="3">
-        <v>888300</v>
+        <v>892900</v>
       </c>
       <c r="H81" s="3">
-        <v>1187600</v>
+        <v>1193800</v>
       </c>
       <c r="I81" s="3">
-        <v>1048900</v>
+        <v>1054400</v>
       </c>
       <c r="J81" s="3">
-        <v>936100</v>
+        <v>941000</v>
       </c>
       <c r="K81" s="3">
         <v>930300</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>449600</v>
+        <v>451900</v>
       </c>
       <c r="E83" s="3">
-        <v>419400</v>
+        <v>421600</v>
       </c>
       <c r="F83" s="3">
-        <v>375000</v>
+        <v>377000</v>
       </c>
       <c r="G83" s="3">
-        <v>351100</v>
+        <v>353000</v>
       </c>
       <c r="H83" s="3">
-        <v>323500</v>
+        <v>325200</v>
       </c>
       <c r="I83" s="3">
-        <v>302800</v>
+        <v>304400</v>
       </c>
       <c r="J83" s="3">
-        <v>283500</v>
+        <v>285000</v>
       </c>
       <c r="K83" s="3">
         <v>264400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1229900</v>
+        <v>1236400</v>
       </c>
       <c r="E89" s="3">
-        <v>1335100</v>
+        <v>1342100</v>
       </c>
       <c r="F89" s="3">
-        <v>1263700</v>
+        <v>1270400</v>
       </c>
       <c r="G89" s="3">
-        <v>1264000</v>
+        <v>1270700</v>
       </c>
       <c r="H89" s="3">
-        <v>1203600</v>
+        <v>1210000</v>
       </c>
       <c r="I89" s="3">
-        <v>1087000</v>
+        <v>1092700</v>
       </c>
       <c r="J89" s="3">
-        <v>1080000</v>
+        <v>1085700</v>
       </c>
       <c r="K89" s="3">
         <v>1054400</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1061100</v>
+        <v>-1066700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1069500</v>
+        <v>-1075100</v>
       </c>
       <c r="F91" s="3">
-        <v>-930200</v>
+        <v>-935100</v>
       </c>
       <c r="G91" s="3">
-        <v>-899400</v>
+        <v>-904100</v>
       </c>
       <c r="H91" s="3">
-        <v>-860200</v>
+        <v>-864800</v>
       </c>
       <c r="I91" s="3">
-        <v>-783100</v>
+        <v>-787200</v>
       </c>
       <c r="J91" s="3">
-        <v>-797800</v>
+        <v>-802000</v>
       </c>
       <c r="K91" s="3">
         <v>-809700</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-862100</v>
+        <v>-866600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1647800</v>
+        <v>-1656500</v>
       </c>
       <c r="F94" s="3">
-        <v>-763800</v>
+        <v>-767800</v>
       </c>
       <c r="G94" s="3">
-        <v>-676000</v>
+        <v>-679500</v>
       </c>
       <c r="H94" s="3">
-        <v>-481600</v>
+        <v>-484100</v>
       </c>
       <c r="I94" s="3">
-        <v>-213000</v>
+        <v>-214200</v>
       </c>
       <c r="J94" s="3">
-        <v>-824900</v>
+        <v>-829200</v>
       </c>
       <c r="K94" s="3">
         <v>-603700</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-832800</v>
+        <v>-837200</v>
       </c>
       <c r="E96" s="3">
-        <v>-806800</v>
+        <v>-811000</v>
       </c>
       <c r="F96" s="3">
-        <v>-768400</v>
+        <v>-772400</v>
       </c>
       <c r="G96" s="3">
-        <v>-710300</v>
+        <v>-714000</v>
       </c>
       <c r="H96" s="3">
-        <v>-645700</v>
+        <v>-649100</v>
       </c>
       <c r="I96" s="3">
-        <v>-587000</v>
+        <v>-590100</v>
       </c>
       <c r="J96" s="3">
-        <v>-533700</v>
+        <v>-536500</v>
       </c>
       <c r="K96" s="3">
         <v>-484800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="E100" s="3">
-        <v>688000</v>
+        <v>691600</v>
       </c>
       <c r="F100" s="3">
-        <v>-576500</v>
+        <v>-579500</v>
       </c>
       <c r="G100" s="3">
-        <v>-664900</v>
+        <v>-668400</v>
       </c>
       <c r="H100" s="3">
-        <v>-993200</v>
+        <v>-998400</v>
       </c>
       <c r="I100" s="3">
-        <v>-553400</v>
+        <v>-556300</v>
       </c>
       <c r="J100" s="3">
-        <v>-723400</v>
+        <v>-727200</v>
       </c>
       <c r="K100" s="3">
         <v>-506700</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-70700</v>
+        <v>-71100</v>
       </c>
       <c r="E101" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="F101" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="G101" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="H101" s="3">
-        <v>-16800</v>
+        <v>-16900</v>
       </c>
       <c r="I101" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="J101" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="K101" s="3">
         <v>-30600</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>342300</v>
+        <v>344100</v>
       </c>
       <c r="E102" s="3">
-        <v>395600</v>
+        <v>397600</v>
       </c>
       <c r="F102" s="3">
-        <v>-50200</v>
+        <v>-50500</v>
       </c>
       <c r="G102" s="3">
-        <v>-83100</v>
+        <v>-83600</v>
       </c>
       <c r="H102" s="3">
-        <v>-287900</v>
+        <v>-289400</v>
       </c>
       <c r="I102" s="3">
-        <v>342100</v>
+        <v>343900</v>
       </c>
       <c r="J102" s="3">
-        <v>-490900</v>
+        <v>-493500</v>
       </c>
       <c r="K102" s="3">
         <v>-86600</v>
